--- a/documents/latent_vector/real_enc.xlsx
+++ b/documents/latent_vector/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.668390512466431</v>
+        <v>-1.052110314369202</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6935698390007019</v>
+        <v>-0.4689845442771912</v>
       </c>
       <c r="D2" t="n">
-        <v>2.358707189559937</v>
+        <v>-0.5354834794998169</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.52573561668396</v>
+        <v>-1.071320056915283</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5780028104782104</v>
+        <v>-0.4503501653671265</v>
       </c>
       <c r="D3" t="n">
-        <v>2.162946701049805</v>
+        <v>-0.5168033242225647</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.549436330795288</v>
+        <v>-0.8414868712425232</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6597515940666199</v>
+        <v>-0.4519584178924561</v>
       </c>
       <c r="D4" t="n">
-        <v>2.209808111190796</v>
+        <v>-0.5217331647872925</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.427665233612061</v>
+        <v>-0.7806512713432312</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6273984313011169</v>
+        <v>-0.4338369071483612</v>
       </c>
       <c r="D5" t="n">
-        <v>2.070071935653687</v>
+        <v>-0.501677930355072</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.32566499710083</v>
+        <v>-0.7542283535003662</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.543985903263092</v>
+        <v>-0.4263332188129425</v>
       </c>
       <c r="D6" t="n">
-        <v>1.941286563873291</v>
+        <v>-0.4861350059509277</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8819075226783752</v>
+        <v>-0.5016381144523621</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3999803364276886</v>
+        <v>-0.325753390789032</v>
       </c>
       <c r="D7" t="n">
-        <v>1.451670527458191</v>
+        <v>-0.3561976253986359</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8441072106361389</v>
+        <v>-0.4672566652297974</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4430406391620636</v>
+        <v>-0.3172001242637634</v>
       </c>
       <c r="D8" t="n">
-        <v>1.424661040306091</v>
+        <v>-0.3415598571300507</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7412496209144592</v>
+        <v>-0.3429380655288696</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4502451419830322</v>
+        <v>-0.2354854196310043</v>
       </c>
       <c r="D9" t="n">
-        <v>1.284032821655273</v>
+        <v>-0.3192752599716187</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5698031783103943</v>
+        <v>-0.2308523803949356</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3902242183685303</v>
+        <v>-0.1525514423847198</v>
       </c>
       <c r="D10" t="n">
-        <v>1.056907773017883</v>
+        <v>-0.2672848701477051</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4883461594581604</v>
+        <v>-0.2209271937608719</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2193775475025177</v>
+        <v>-0.09927108138799667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9193902611732483</v>
+        <v>-0.1512856334447861</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.949732780456543</v>
+        <v>-0.3664864897727966</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3773858249187469</v>
+        <v>-0.2129535228013992</v>
       </c>
       <c r="D12" t="n">
-        <v>1.467119574546814</v>
+        <v>-0.2017217129468918</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.327594876289368</v>
+        <v>-0.6036813259124756</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2686091065406799</v>
+        <v>-0.2956835329532623</v>
       </c>
       <c r="D13" t="n">
-        <v>1.837884068489075</v>
+        <v>-0.2967425286769867</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6316530108451843</v>
+        <v>-0.8057616949081421</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01100821793079376</v>
+        <v>-0.2949576377868652</v>
       </c>
       <c r="D14" t="n">
-        <v>1.027289628982544</v>
+        <v>-0.328641265630722</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.6814224123954773</v>
+        <v>-0.8322155475616455</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2256379127502441</v>
+        <v>-0.2874917685985565</v>
       </c>
       <c r="D15" t="n">
-        <v>1.028645277023315</v>
+        <v>-0.3278368711471558</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9395734071731567</v>
+        <v>-0.3986901640892029</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.150978684425354</v>
+        <v>-0.1770540624856949</v>
       </c>
       <c r="D16" t="n">
-        <v>1.393435955047607</v>
+        <v>-0.1837443262338638</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.997930109500885</v>
+        <v>-0.4447356462478638</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2274688184261322</v>
+        <v>-0.2301336377859116</v>
       </c>
       <c r="D17" t="n">
-        <v>1.483915209770203</v>
+        <v>-0.2328809648752213</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.051701068878174</v>
+        <v>-0.6271038055419922</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3510444164276123</v>
+        <v>-0.4169737994670868</v>
       </c>
       <c r="D18" t="n">
-        <v>1.650254845619202</v>
+        <v>-0.3783230483531952</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.9875140786170959</v>
+        <v>-0.6358693838119507</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4864626824855804</v>
+        <v>-0.4413881003856659</v>
       </c>
       <c r="D19" t="n">
-        <v>1.555704236030579</v>
+        <v>-0.4062983691692352</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6856750249862671</v>
+        <v>-0.546873927116394</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4522538781166077</v>
+        <v>-0.3758910596370697</v>
       </c>
       <c r="D20" t="n">
-        <v>1.168511033058167</v>
+        <v>-0.3456515967845917</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9891311526298523</v>
+        <v>-0.6666164398193359</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7379843592643738</v>
+        <v>-0.4932125210762024</v>
       </c>
       <c r="D21" t="n">
-        <v>1.62991201877594</v>
+        <v>-0.5293670892715454</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9658810496330261</v>
+        <v>-0.6810114979743958</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7470066547393799</v>
+        <v>-0.5061491131782532</v>
       </c>
       <c r="D22" t="n">
-        <v>1.612847447395325</v>
+        <v>-0.5594851970672607</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.179669380187988</v>
+        <v>-0.7704967260360718</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.8573161363601685</v>
+        <v>-0.5676984190940857</v>
       </c>
       <c r="D23" t="n">
-        <v>1.915547013282776</v>
+        <v>-0.7350099682807922</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.614222288131714</v>
+        <v>-0.9846729040145874</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8984054923057556</v>
+        <v>-0.7371364831924438</v>
       </c>
       <c r="D24" t="n">
-        <v>2.389054298400879</v>
+        <v>-0.8414227366447449</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.040081739425659</v>
+        <v>-1.196877121925354</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9711821675300598</v>
+        <v>-0.9313971996307373</v>
       </c>
       <c r="D25" t="n">
-        <v>2.932518243789673</v>
+        <v>-1.184050559997559</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.02692437171936</v>
+        <v>-1.661458253860474</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.116596817970276</v>
+        <v>-1.358914494514465</v>
       </c>
       <c r="D26" t="n">
-        <v>2.984994173049927</v>
+        <v>-1.479265689849854</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.881365537643433</v>
+        <v>-2.178656578063965</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.284008741378784</v>
+        <v>-1.728607177734375</v>
       </c>
       <c r="D27" t="n">
-        <v>3.028279542922974</v>
+        <v>-1.870829820632935</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.4839186668396</v>
+        <v>-2.73308539390564</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.591722249984741</v>
+        <v>-2.030299186706543</v>
       </c>
       <c r="D28" t="n">
-        <v>3.822854042053223</v>
+        <v>-2.235754489898682</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.921277046203613</v>
+        <v>-2.223439693450928</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.3672935962677</v>
+        <v>-1.475410580635071</v>
       </c>
       <c r="D29" t="n">
-        <v>3.187208414077759</v>
+        <v>-1.700997352600098</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.612949371337891</v>
+        <v>-2.267743825912476</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.247868657112122</v>
+        <v>-1.466060161590576</v>
       </c>
       <c r="D30" t="n">
-        <v>2.942222833633423</v>
+        <v>-1.715641736984253</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.652239084243774</v>
+        <v>-2.250502586364746</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.25071132183075</v>
+        <v>-1.436558723449707</v>
       </c>
       <c r="D31" t="n">
-        <v>2.926489114761353</v>
+        <v>-1.691025137901306</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.553180932998657</v>
+        <v>-2.064884901046753</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.307868599891663</v>
+        <v>-1.266800999641418</v>
       </c>
       <c r="D32" t="n">
-        <v>2.768057584762573</v>
+        <v>-1.51455283164978</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.196540951728821</v>
+        <v>-1.943375587463379</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.161141991615295</v>
+        <v>-1.143606305122375</v>
       </c>
       <c r="D33" t="n">
-        <v>2.355546712875366</v>
+        <v>-1.370260119438171</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.8783722519874573</v>
+        <v>-1.809842944145203</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.04659628868103</v>
+        <v>-1.068191409111023</v>
       </c>
       <c r="D34" t="n">
-        <v>1.915683388710022</v>
+        <v>-1.241937756538391</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.9414713382720947</v>
+        <v>-1.806786179542542</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.039087176322937</v>
+        <v>-1.053012132644653</v>
       </c>
       <c r="D35" t="n">
-        <v>2.012324810028076</v>
+        <v>-1.223646759986877</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.485426425933838</v>
+        <v>-2.153735399246216</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.248801589012146</v>
+        <v>-1.369949579238892</v>
       </c>
       <c r="D36" t="n">
-        <v>2.781097650527954</v>
+        <v>-1.581279158592224</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.997498035430908</v>
+        <v>-2.694478988647461</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.485036015510559</v>
+        <v>-1.870243310928345</v>
       </c>
       <c r="D37" t="n">
-        <v>3.580094575881958</v>
+        <v>-2.024070024490356</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.307755351066589</v>
+        <v>-2.217777252197266</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.69686233997345</v>
+        <v>-1.167804360389709</v>
       </c>
       <c r="D38" t="n">
-        <v>3.107414960861206</v>
+        <v>-1.270215749740601</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.070794343948364</v>
+        <v>-2.032193660736084</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.353691577911377</v>
+        <v>-1.054648995399475</v>
       </c>
       <c r="D39" t="n">
-        <v>2.579501628875732</v>
+        <v>-1.131288647651672</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.558406949043274</v>
+        <v>-1.58299708366394</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.545489311218262</v>
+        <v>-0.826522171497345</v>
       </c>
       <c r="D40" t="n">
-        <v>3.066668033599854</v>
+        <v>-0.7673119902610779</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.494827151298523</v>
+        <v>-1.608467221260071</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.599548578262329</v>
+        <v>-0.8556967377662659</v>
       </c>
       <c r="D41" t="n">
-        <v>2.959316492080688</v>
+        <v>-0.8395984768867493</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.716177225112915</v>
+        <v>-1.618626117706299</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.700335741043091</v>
+        <v>-0.8676700592041016</v>
       </c>
       <c r="D42" t="n">
-        <v>3.338013648986816</v>
+        <v>-0.7918166518211365</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.520699977874756</v>
+        <v>-1.582774758338928</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.5801100730896</v>
+        <v>-0.8412588238716125</v>
       </c>
       <c r="D43" t="n">
-        <v>3.029137849807739</v>
+        <v>-0.8107416033744812</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.8532648086547852</v>
+        <v>-1.648389339447021</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.19569730758667</v>
+        <v>-0.8972006440162659</v>
       </c>
       <c r="D44" t="n">
-        <v>2.08200478553772</v>
+        <v>-0.9377453923225403</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.7370306253433228</v>
+        <v>-1.690385341644287</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.161215662956238</v>
+        <v>-0.9351182579994202</v>
       </c>
       <c r="D45" t="n">
-        <v>1.916779041290283</v>
+        <v>-0.9693451523780823</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.6509475111961365</v>
+        <v>-1.781856060028076</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.223329901695251</v>
+        <v>-1.014727473258972</v>
       </c>
       <c r="D46" t="n">
-        <v>1.6708744764328</v>
+        <v>-1.060805559158325</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.06246292591095</v>
+        <v>-1.842833161354065</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.435086131095886</v>
+        <v>-1.044964790344238</v>
       </c>
       <c r="D47" t="n">
-        <v>2.397394180297852</v>
+        <v>-1.103900194168091</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.317036986351013</v>
+        <v>-1.861335396766663</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.563835978507996</v>
+        <v>-0.9782816171646118</v>
       </c>
       <c r="D48" t="n">
-        <v>2.899452924728394</v>
+        <v>-1.034026861190796</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.282192230224609</v>
+        <v>-1.806956648826599</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.393965005874634</v>
+        <v>-0.8873305320739746</v>
       </c>
       <c r="D49" t="n">
-        <v>2.930009603500366</v>
+        <v>-0.9103796482086182</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.9246971011161804</v>
+        <v>-2.645286083221436</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.510343909263611</v>
+        <v>-1.352754831314087</v>
       </c>
       <c r="D50" t="n">
-        <v>2.677459478378296</v>
+        <v>-1.607060313224792</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.9729771018028259</v>
+        <v>-2.704615592956543</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.469850778579712</v>
+        <v>-1.357889652252197</v>
       </c>
       <c r="D51" t="n">
-        <v>2.863770961761475</v>
+        <v>-1.592543721199036</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.22731876373291</v>
+        <v>-2.930953979492188</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.828648567199707</v>
+        <v>-1.517696976661682</v>
       </c>
       <c r="D52" t="n">
-        <v>3.324464559555054</v>
+        <v>-1.948245406150818</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.4291090965271</v>
+        <v>-2.870003461837769</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.03077220916748</v>
+        <v>-1.522629022598267</v>
       </c>
       <c r="D53" t="n">
-        <v>3.575853109359741</v>
+        <v>-1.928764581680298</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.609785199165344</v>
+        <v>-3.033835172653198</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.045053720474243</v>
+        <v>-1.647665619850159</v>
       </c>
       <c r="D54" t="n">
-        <v>3.87841010093689</v>
+        <v>-2.039335489273071</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.678119897842407</v>
+        <v>-3.060419797897339</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.20702862739563</v>
+        <v>-1.713095784187317</v>
       </c>
       <c r="D55" t="n">
-        <v>3.885883569717407</v>
+        <v>-2.168010473251343</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.869527816772461</v>
+        <v>-3.110403060913086</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.471555233001709</v>
+        <v>-1.860777854919434</v>
       </c>
       <c r="D56" t="n">
-        <v>4.0177321434021</v>
+        <v>-2.259523630142212</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.689000606536865</v>
+        <v>-3.034015893936157</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.420567035675049</v>
+        <v>-1.738161563873291</v>
       </c>
       <c r="D57" t="n">
-        <v>3.762384653091431</v>
+        <v>-2.152952194213867</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.414148449897766</v>
+        <v>-2.963074207305908</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.376413106918335</v>
+        <v>-1.58335554599762</v>
       </c>
       <c r="D58" t="n">
-        <v>3.371446371078491</v>
+        <v>-1.958098292350769</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.735582232475281</v>
+        <v>-3.250766754150391</v>
       </c>
       <c r="C59" t="n">
-        <v>-2.393972158432007</v>
+        <v>-1.880200266838074</v>
       </c>
       <c r="D59" t="n">
-        <v>3.76351261138916</v>
+        <v>-2.342547416687012</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.090512275695801</v>
+        <v>-3.408606767654419</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.301731109619141</v>
+        <v>-2.115740776062012</v>
       </c>
       <c r="D60" t="n">
-        <v>4.287118434906006</v>
+        <v>-2.53721022605896</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-2.323463201522827</v>
+        <v>-3.644289970397949</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.353965520858765</v>
+        <v>-2.35443639755249</v>
       </c>
       <c r="D61" t="n">
-        <v>4.584486484527588</v>
+        <v>-2.747881174087524</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.122416019439697</v>
+        <v>-4.607674598693848</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.663292407989502</v>
+        <v>-2.698876619338989</v>
       </c>
       <c r="D62" t="n">
-        <v>4.758645534515381</v>
+        <v>-3.157279253005981</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.077659606933594</v>
+        <v>-4.581547737121582</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.858562231063843</v>
+        <v>-2.764103174209595</v>
       </c>
       <c r="D63" t="n">
-        <v>4.742466449737549</v>
+        <v>-3.348508358001709</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.343449592590332</v>
+        <v>-4.57779598236084</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.787543296813965</v>
+        <v>-2.938298463821411</v>
       </c>
       <c r="D64" t="n">
-        <v>4.970311641693115</v>
+        <v>-3.474529027938843</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.111099243164062</v>
+        <v>-4.249995231628418</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.638986587524414</v>
+        <v>-2.642136812210083</v>
       </c>
       <c r="D65" t="n">
-        <v>4.700729370117188</v>
+        <v>-3.171859979629517</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.88751757144928</v>
+        <v>-3.855637788772583</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.386290311813354</v>
+        <v>-2.196135759353638</v>
       </c>
       <c r="D66" t="n">
-        <v>4.450776100158691</v>
+        <v>-2.677427530288696</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.702118992805481</v>
+        <v>-3.720702409744263</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.395118951797485</v>
+        <v>-2.140968799591064</v>
       </c>
       <c r="D67" t="n">
-        <v>4.179515838623047</v>
+        <v>-2.644517421722412</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.037554383277893</v>
+        <v>-3.903498888015747</v>
       </c>
       <c r="C68" t="n">
-        <v>-2.340633153915405</v>
+        <v>-1.882799744606018</v>
       </c>
       <c r="D68" t="n">
-        <v>3.571209192276001</v>
+        <v>-2.439326763153076</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9438022971153259</v>
+        <v>-4.132581233978271</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.506096601486206</v>
+        <v>-1.963962316513062</v>
       </c>
       <c r="D69" t="n">
-        <v>3.467312812805176</v>
+        <v>-2.550733804702759</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.8438577651977539</v>
+        <v>-4.280716896057129</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.974907875061035</v>
+        <v>-1.981003999710083</v>
       </c>
       <c r="D70" t="n">
-        <v>2.809209823608398</v>
+        <v>-2.611173391342163</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9023814797401428</v>
+        <v>-4.090794086456299</v>
       </c>
       <c r="C71" t="n">
-        <v>-2.43743371963501</v>
+        <v>-1.943357825279236</v>
       </c>
       <c r="D71" t="n">
-        <v>3.380165338516235</v>
+        <v>-2.559569597244263</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.317937135696411</v>
+        <v>-4.0149827003479</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.373315334320068</v>
+        <v>-1.994183897972107</v>
       </c>
       <c r="D72" t="n">
-        <v>4.045794010162354</v>
+        <v>-2.620688676834106</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.50085461139679</v>
+        <v>-3.98302698135376</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.290806770324707</v>
+        <v>-2.04587197303772</v>
       </c>
       <c r="D73" t="n">
-        <v>4.288644790649414</v>
+        <v>-2.650057554244995</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7628456950187683</v>
+        <v>-3.583971738815308</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.845711946487427</v>
+        <v>-1.713779330253601</v>
       </c>
       <c r="D74" t="n">
-        <v>3.199719429016113</v>
+        <v>-2.165321350097656</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.6584852337837219</v>
+        <v>-3.514410734176636</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.778257846832275</v>
+        <v>-1.640865564346313</v>
       </c>
       <c r="D75" t="n">
-        <v>2.784737348556519</v>
+        <v>-2.065146684646606</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.6232805848121643</v>
+        <v>-3.204086303710938</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.738262414932251</v>
+        <v>-1.483907341957092</v>
       </c>
       <c r="D76" t="n">
-        <v>2.763858318328857</v>
+        <v>-1.838916540145874</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.6298646330833435</v>
+        <v>-3.256160020828247</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.792564034461975</v>
+        <v>-1.508513808250427</v>
       </c>
       <c r="D77" t="n">
-        <v>2.759501457214355</v>
+        <v>-1.871830582618713</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.6848493218421936</v>
+        <v>-3.211663722991943</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.761949896812439</v>
+        <v>-1.498276114463806</v>
       </c>
       <c r="D78" t="n">
-        <v>3.079961538314819</v>
+        <v>-1.862396478652954</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.6100123524665833</v>
+        <v>-3.2031409740448</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.848077178001404</v>
+        <v>-1.470954656600952</v>
       </c>
       <c r="D79" t="n">
-        <v>2.745890855789185</v>
+        <v>-1.821508646011353</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.5486338138580322</v>
+        <v>-3.490993022918701</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.163867473602295</v>
+        <v>-1.565460324287415</v>
       </c>
       <c r="D80" t="n">
-        <v>2.076241254806519</v>
+        <v>-1.92759895324707</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.4712946116924286</v>
+        <v>-3.414914608001709</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.318356037139893</v>
+        <v>-1.508345007896423</v>
       </c>
       <c r="D81" t="n">
-        <v>1.443434119224548</v>
+        <v>-1.877137541770935</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.4324789643287659</v>
+        <v>-3.456627368927002</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.303027391433716</v>
+        <v>-1.501630425453186</v>
       </c>
       <c r="D82" t="n">
-        <v>1.102644681930542</v>
+        <v>-1.882189035415649</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.454818457365036</v>
+        <v>-3.171566247940063</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.961980223655701</v>
+        <v>-1.389099478721619</v>
       </c>
       <c r="D83" t="n">
-        <v>1.507761001586914</v>
+        <v>-1.72597348690033</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.4429767727851868</v>
+        <v>-2.541390419006348</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.424176216125488</v>
+        <v>-1.109160780906677</v>
       </c>
       <c r="D84" t="n">
-        <v>1.906450629234314</v>
+        <v>-1.351433992385864</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.4802759885787964</v>
+        <v>-2.306831359863281</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.139552474021912</v>
+        <v>-1.022634744644165</v>
       </c>
       <c r="D85" t="n">
-        <v>2.439987897872925</v>
+        <v>-1.191856026649475</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4080795645713806</v>
+        <v>-2.799444437026978</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.506237030029297</v>
+        <v>-1.202698588371277</v>
       </c>
       <c r="D86" t="n">
-        <v>1.760759711265564</v>
+        <v>-1.479803919792175</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.3933655619621277</v>
+        <v>-2.761786699295044</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.707843542098999</v>
+        <v>-1.179039835929871</v>
       </c>
       <c r="D87" t="n">
-        <v>1.669576406478882</v>
+        <v>-1.477476239204407</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.3832194805145264</v>
+        <v>-2.667719841003418</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.604297995567322</v>
+        <v>-1.138500094413757</v>
       </c>
       <c r="D88" t="n">
-        <v>1.7763991355896</v>
+        <v>-1.3785719871521</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3797595500946045</v>
+        <v>-2.605382680892944</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.521906852722168</v>
+        <v>-1.099652886390686</v>
       </c>
       <c r="D89" t="n">
-        <v>1.87050449848175</v>
+        <v>-1.318496823310852</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.3538496196269989</v>
+        <v>-2.568031787872314</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.563267946243286</v>
+        <v>-1.062379956245422</v>
       </c>
       <c r="D90" t="n">
-        <v>1.646212935447693</v>
+        <v>-1.27160120010376</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3494526445865631</v>
+        <v>-2.705629587173462</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.713960766792297</v>
+        <v>-1.110154151916504</v>
       </c>
       <c r="D91" t="n">
-        <v>1.584298968315125</v>
+        <v>-1.320509314537048</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.3093607723712921</v>
+        <v>-2.854950904846191</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.945896029472351</v>
+        <v>-1.177619099617004</v>
       </c>
       <c r="D92" t="n">
-        <v>1.054494261741638</v>
+        <v>-1.434261202812195</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.3129904866218567</v>
+        <v>-3.015030145645142</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.106656312942505</v>
+        <v>-1.245084643363953</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8897289037704468</v>
+        <v>-1.530797362327576</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.3199132084846497</v>
+        <v>-3.268881559371948</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.294223308563232</v>
+        <v>-1.360759496688843</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6983022689819336</v>
+        <v>-1.68070912361145</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.3676923513412476</v>
+        <v>-3.357418537139893</v>
       </c>
       <c r="C95" t="n">
-        <v>-2.160661220550537</v>
+        <v>-1.385084509849548</v>
       </c>
       <c r="D95" t="n">
-        <v>1.220181822776794</v>
+        <v>-1.68338668346405</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3642802536487579</v>
+        <v>-3.093134164810181</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.691102504730225</v>
+        <v>-1.220572590827942</v>
       </c>
       <c r="D96" t="n">
-        <v>2.056010246276855</v>
+        <v>-1.453453183174133</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.3603858351707458</v>
+        <v>-2.995012283325195</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.455584526062012</v>
+        <v>-1.208569169044495</v>
       </c>
       <c r="D97" t="n">
-        <v>2.478784799575806</v>
+        <v>-1.362757563591003</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.3415752053260803</v>
+        <v>-3.415539503097534</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.96479594707489</v>
+        <v>-1.373206853866577</v>
       </c>
       <c r="D98" t="n">
-        <v>1.955601692199707</v>
+        <v>-1.620178818702698</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.3446482419967651</v>
+        <v>-3.697362422943115</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.380580902099609</v>
+        <v>-1.512946128845215</v>
       </c>
       <c r="D99" t="n">
-        <v>1.641005516052246</v>
+        <v>-1.782010078430176</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.355080246925354</v>
+        <v>-3.501626968383789</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.020679235458374</v>
+        <v>-1.425580382347107</v>
       </c>
       <c r="D100" t="n">
-        <v>2.083075523376465</v>
+        <v>-1.626668572425842</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.3246109485626221</v>
+        <v>-3.584769487380981</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.181926250457764</v>
+        <v>-1.395247936248779</v>
       </c>
       <c r="D101" t="n">
-        <v>1.707887291908264</v>
+        <v>-1.6452716588974</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.3176567554473877</v>
+        <v>-3.488192319869995</v>
       </c>
       <c r="C102" t="n">
-        <v>-2.020537137985229</v>
+        <v>-1.351584315299988</v>
       </c>
       <c r="D102" t="n">
-        <v>1.839171528816223</v>
+        <v>-1.588873028755188</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.3208791017532349</v>
+        <v>-3.522052526473999</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.110831260681152</v>
+        <v>-1.321548342704773</v>
       </c>
       <c r="D103" t="n">
-        <v>1.85510528087616</v>
+        <v>-1.534289479255676</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.3949844837188721</v>
+        <v>-3.883640050888062</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.628799915313721</v>
+        <v>-1.484076023101807</v>
       </c>
       <c r="D104" t="n">
-        <v>1.796196579933167</v>
+        <v>-1.717503547668457</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.4285146594047546</v>
+        <v>-4.02248477935791</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.873477220535278</v>
+        <v>-1.507225632667542</v>
       </c>
       <c r="D105" t="n">
-        <v>1.908909916877747</v>
+        <v>-1.76682460308075</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.4441390037536621</v>
+        <v>-4.148247718811035</v>
       </c>
       <c r="C106" t="n">
-        <v>-3.003088235855103</v>
+        <v>-1.516958713531494</v>
       </c>
       <c r="D106" t="n">
-        <v>1.512242674827576</v>
+        <v>-1.827903151512146</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3850150108337402</v>
+        <v>-3.86200213432312</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.491429567337036</v>
+        <v>-1.415650367736816</v>
       </c>
       <c r="D107" t="n">
-        <v>1.50980544090271</v>
+        <v>-1.648784756660461</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.305398166179657</v>
+        <v>-3.353582143783569</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.946670889854431</v>
+        <v>-1.236976861953735</v>
       </c>
       <c r="D108" t="n">
-        <v>2.15007472038269</v>
+        <v>-1.387130618095398</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2494807839393616</v>
+        <v>-3.032516717910767</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.59066915512085</v>
+        <v>-1.143423080444336</v>
       </c>
       <c r="D109" t="n">
-        <v>2.197956800460815</v>
+        <v>-1.252078056335449</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2646687626838684</v>
+        <v>-3.636198282241821</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.390347480773926</v>
+        <v>-1.247266411781311</v>
       </c>
       <c r="D110" t="n">
-        <v>1.385818243026733</v>
+        <v>-1.446270108222961</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1844940781593323</v>
+        <v>-3.290496587753296</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.209366321563721</v>
+        <v>-1.113442182540894</v>
       </c>
       <c r="D111" t="n">
-        <v>1.151784300804138</v>
+        <v>-1.286136984825134</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1401916146278381</v>
+        <v>-3.165994167327881</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.013334035873413</v>
+        <v>-1.09023129940033</v>
       </c>
       <c r="D112" t="n">
-        <v>1.228510618209839</v>
+        <v>-1.226012825965881</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1942092180252075</v>
+        <v>-3.353634834289551</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.25475549697876</v>
+        <v>-1.160913109779358</v>
       </c>
       <c r="D113" t="n">
-        <v>1.408239483833313</v>
+        <v>-1.314879298210144</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1614011526107788</v>
+        <v>-3.073184490203857</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.852762937545776</v>
+        <v>-1.099779486656189</v>
       </c>
       <c r="D114" t="n">
-        <v>1.746608257293701</v>
+        <v>-1.229757308959961</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1099914908409119</v>
+        <v>-3.008140802383423</v>
       </c>
       <c r="C115" t="n">
-        <v>-2.058501958847046</v>
+        <v>-1.015813946723938</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9576970934867859</v>
+        <v>-1.152725100517273</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.1138470768928528</v>
+        <v>-3.067791700363159</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.178181886672974</v>
+        <v>-1.00485372543335</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5164436101913452</v>
+        <v>-1.144592881202698</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1076033711433411</v>
+        <v>-3.080142498016357</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.220586538314819</v>
+        <v>-1.000432372093201</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3147947192192078</v>
+        <v>-1.132014155387878</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1715254187583923</v>
+        <v>-3.219223260879517</v>
       </c>
       <c r="C118" t="n">
-        <v>-2.525394678115845</v>
+        <v>-1.073249101638794</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5099226236343384</v>
+        <v>-1.192329287528992</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1403168439865112</v>
+        <v>-2.961127758026123</v>
       </c>
       <c r="C119" t="n">
-        <v>-2.203674077987671</v>
+        <v>-0.9680520296096802</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6091145277023315</v>
+        <v>-1.092176914215088</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.09970983862876892</v>
+        <v>-2.77239727973938</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.727665543556213</v>
+        <v>-0.9532755613327026</v>
       </c>
       <c r="D120" t="n">
-        <v>1.023558378219604</v>
+        <v>-1.066813588142395</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1113920509815216</v>
+        <v>-2.636873960494995</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.425164699554443</v>
+        <v>-0.9578962326049805</v>
       </c>
       <c r="D121" t="n">
-        <v>1.677837491035461</v>
+        <v>-1.054793477058411</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.06765711307525635</v>
+        <v>-2.546219348907471</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.54859471321106</v>
+        <v>-0.9040216207504272</v>
       </c>
       <c r="D122" t="n">
-        <v>1.507556796073914</v>
+        <v>-0.9698034524917603</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.08336597681045532</v>
+        <v>-2.76944637298584</v>
       </c>
       <c r="C123" t="n">
-        <v>-2.110936641693115</v>
+        <v>-0.9178710579872131</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9236536026000977</v>
+        <v>-1.019428372383118</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.04669004678726196</v>
+        <v>-2.73035740852356</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.909064412117004</v>
+        <v>-0.9307900667190552</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8917433023452759</v>
+        <v>-1.012648344039917</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01302236504852772</v>
+        <v>-2.674313068389893</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.904020547866821</v>
+        <v>-0.8984705209732056</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8729943037033081</v>
+        <v>-0.9455949664115906</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0255588311702013</v>
+        <v>-2.58295726776123</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.813801288604736</v>
+        <v>-0.8872866630554199</v>
       </c>
       <c r="D126" t="n">
-        <v>1.34158456325531</v>
+        <v>-0.9029775261878967</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01977771706879139</v>
+        <v>-2.568371772766113</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.083696365356445</v>
+        <v>-0.8444082140922546</v>
       </c>
       <c r="D127" t="n">
-        <v>1.342702865600586</v>
+        <v>-0.8541379570960999</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.02866357751190662</v>
+        <v>-2.679181098937988</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.359133005142212</v>
+        <v>-0.848925769329071</v>
       </c>
       <c r="D128" t="n">
-        <v>1.064498543739319</v>
+        <v>-0.87283855676651</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.005176069214940071</v>
+        <v>-2.797475814819336</v>
       </c>
       <c r="C129" t="n">
-        <v>-2.585785150527954</v>
+        <v>-0.8743116855621338</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6850696206092834</v>
+        <v>-0.9069953560829163</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.05151635408401489</v>
+        <v>-2.978269338607788</v>
       </c>
       <c r="C130" t="n">
-        <v>-2.61196756362915</v>
+        <v>-0.9299225807189941</v>
       </c>
       <c r="D130" t="n">
-        <v>0.265513151884079</v>
+        <v>-1.001353621482849</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.03555893898010254</v>
+        <v>-2.687666177749634</v>
       </c>
       <c r="C131" t="n">
-        <v>-2.203193187713623</v>
+        <v>-0.8658190965652466</v>
       </c>
       <c r="D131" t="n">
-        <v>0.932054877281189</v>
+        <v>-0.9000910520553589</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.05205780267715454</v>
+        <v>-2.271539688110352</v>
       </c>
       <c r="C132" t="n">
-        <v>-1.649348735809326</v>
+        <v>-0.7968934178352356</v>
       </c>
       <c r="D132" t="n">
-        <v>1.788915991783142</v>
+        <v>-0.755419909954071</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.108983039855957</v>
+        <v>-2.057384014129639</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.319249391555786</v>
+        <v>-0.7396247982978821</v>
       </c>
       <c r="D133" t="n">
-        <v>1.918241024017334</v>
+        <v>-0.6863111257553101</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1662823557853699</v>
+        <v>-2.523248672485352</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.035662412643433</v>
+        <v>-0.8010331988334656</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8521097898483276</v>
+        <v>-0.8000897765159607</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1371029019355774</v>
+        <v>-2.650639772415161</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.415925025939941</v>
+        <v>-0.7931124567985535</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6673516035079956</v>
+        <v>-0.8093931078910828</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1825752258300781</v>
+        <v>-2.518332958221436</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.154764890670776</v>
+        <v>-0.7483838796615601</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7452338337898254</v>
+        <v>-0.7414594292640686</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2120869755744934</v>
+        <v>-2.496903657913208</v>
       </c>
       <c r="C137" t="n">
-        <v>-2.099891662597656</v>
+        <v>-0.7318969368934631</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8284198045730591</v>
+        <v>-0.7219721078872681</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2075173258781433</v>
+        <v>-2.315935134887695</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.759364604949951</v>
+        <v>-0.7164109945297241</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9795705676078796</v>
+        <v>-0.6859920620918274</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2049214839935303</v>
+        <v>-2.426203012466431</v>
       </c>
       <c r="C139" t="n">
-        <v>-2.072619438171387</v>
+        <v>-0.7109864354133606</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7517441511154175</v>
+        <v>-0.6932104229927063</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2037936449050903</v>
+        <v>-2.638005018234253</v>
       </c>
       <c r="C140" t="n">
-        <v>-2.405280828475952</v>
+        <v>-0.7480512261390686</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3010504543781281</v>
+        <v>-0.7572312951087952</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.214398980140686</v>
+        <v>-2.747303247451782</v>
       </c>
       <c r="C141" t="n">
-        <v>-2.648873090744019</v>
+        <v>-0.7804475426673889</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1952258199453354</v>
+        <v>-0.7795763611793518</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1861618757247925</v>
+        <v>-2.948452711105347</v>
       </c>
       <c r="C142" t="n">
-        <v>-2.865222215652466</v>
+        <v>-0.8674417734146118</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2778930962085724</v>
+        <v>-0.8914307951927185</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1830993890762329</v>
+        <v>-2.607023477554321</v>
       </c>
       <c r="C143" t="n">
-        <v>-2.25660514831543</v>
+        <v>-0.7721264958381653</v>
       </c>
       <c r="D143" t="n">
-        <v>0.947708785533905</v>
+        <v>-0.7849154472351074</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1630772352218628</v>
+        <v>-2.413211822509766</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.847540497779846</v>
+        <v>-0.7463406920433044</v>
       </c>
       <c r="D144" t="n">
-        <v>1.738232493400574</v>
+        <v>-0.7410411238670349</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1756739020347595</v>
+        <v>-3.765928983688354</v>
       </c>
       <c r="C145" t="n">
-        <v>-1.534903168678284</v>
+        <v>-1.256623983383179</v>
       </c>
       <c r="D145" t="n">
-        <v>3.296479940414429</v>
+        <v>-1.210867524147034</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2207724452018738</v>
+        <v>-5.027548313140869</v>
       </c>
       <c r="C146" t="n">
-        <v>-2.535587072372437</v>
+        <v>-1.478048205375671</v>
       </c>
       <c r="D146" t="n">
-        <v>3.237704992294312</v>
+        <v>-1.555402040481567</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1689394116401672</v>
+        <v>-5.403087139129639</v>
       </c>
       <c r="C147" t="n">
-        <v>-2.951756954193115</v>
+        <v>-1.589489698410034</v>
       </c>
       <c r="D147" t="n">
-        <v>3.089088201522827</v>
+        <v>-1.718878149986267</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0763968825340271</v>
+        <v>-5.017421722412109</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.844719886779785</v>
+        <v>-1.540831446647644</v>
       </c>
       <c r="D148" t="n">
-        <v>3.250877857208252</v>
+        <v>-1.659500479698181</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.07757729291915894</v>
+        <v>-4.720655918121338</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.714367866516113</v>
+        <v>-1.477277755737305</v>
       </c>
       <c r="D149" t="n">
-        <v>3.102283716201782</v>
+        <v>-1.577729344367981</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1094765067100525</v>
+        <v>-4.428019046783447</v>
       </c>
       <c r="C150" t="n">
-        <v>-2.497600555419922</v>
+        <v>-1.398765325546265</v>
       </c>
       <c r="D150" t="n">
-        <v>3.133578062057495</v>
+        <v>-1.46491551399231</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1399036049842834</v>
+        <v>-4.24823522567749</v>
       </c>
       <c r="C151" t="n">
-        <v>-2.728312253952026</v>
+        <v>-1.267703294754028</v>
       </c>
       <c r="D151" t="n">
-        <v>2.620994567871094</v>
+        <v>-1.33131730556488</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1843081116676331</v>
+        <v>-4.131018161773682</v>
       </c>
       <c r="C152" t="n">
-        <v>-3.209513664245605</v>
+        <v>-1.181133151054382</v>
       </c>
       <c r="D152" t="n">
-        <v>1.906127572059631</v>
+        <v>-1.252580046653748</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.2588639855384827</v>
+        <v>-3.93709921836853</v>
       </c>
       <c r="C153" t="n">
-        <v>-3.364872694015503</v>
+        <v>-1.09322988986969</v>
       </c>
       <c r="D153" t="n">
-        <v>1.585681438446045</v>
+        <v>-1.146844148635864</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3250712752342224</v>
+        <v>-3.779696941375732</v>
       </c>
       <c r="C154" t="n">
-        <v>-3.223667621612549</v>
+        <v>-1.062553644180298</v>
       </c>
       <c r="D154" t="n">
-        <v>1.664173722267151</v>
+        <v>-1.076656937599182</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3042449355125427</v>
+        <v>-3.664743185043335</v>
       </c>
       <c r="C155" t="n">
-        <v>-2.861273050308228</v>
+        <v>-1.077608346939087</v>
       </c>
       <c r="D155" t="n">
-        <v>2.144995927810669</v>
+        <v>-1.064104795455933</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2459436058998108</v>
+        <v>-3.647087812423706</v>
       </c>
       <c r="C156" t="n">
-        <v>-2.328368186950684</v>
+        <v>-1.107519626617432</v>
       </c>
       <c r="D156" t="n">
-        <v>2.467998743057251</v>
+        <v>-1.127770066261292</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.2570009827613831</v>
+        <v>-2.554914474487305</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.393492937088013</v>
+        <v>-0.7898120284080505</v>
       </c>
       <c r="D157" t="n">
-        <v>2.34028959274292</v>
+        <v>-0.7208131551742554</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.679948091506958</v>
+        <v>-1.493512988090515</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.168329477310181</v>
+        <v>-0.3618752658367157</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2293365746736526</v>
+        <v>-0.1891777813434601</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7136018872261047</v>
+        <v>-1.414381861686707</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.450273036956787</v>
+        <v>-0.2251577973365784</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.3519920110702515</v>
+        <v>-0.1579578667879105</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7204331755638123</v>
+        <v>-0.9168473482131958</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.8342570662498474</v>
+        <v>-0.1194125637412071</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2405806332826614</v>
+        <v>-0.04993709176778793</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7311348915100098</v>
+        <v>-1.04837954044342</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.9944617748260498</v>
+        <v>-0.1371286809444427</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.07689248025417328</v>
+        <v>-0.072711281478405</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7411556243896484</v>
+        <v>-0.8315384984016418</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.3944917321205139</v>
+        <v>-0.1199183166027069</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2812869548797607</v>
+        <v>-0.03568971902132034</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7332371473312378</v>
+        <v>-0.7617508172988892</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.5422813892364502</v>
+        <v>-0.07017359882593155</v>
       </c>
       <c r="D163" t="n">
-        <v>0.08257009088993073</v>
+        <v>-0.01647218503057957</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.68452388048172</v>
+        <v>-1.1994788646698</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.478435873985291</v>
+        <v>-0.1432851254940033</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.6135339140892029</v>
+        <v>-0.06282909959554672</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7105540633201599</v>
+        <v>-1.506939768791199</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.873562097549438</v>
+        <v>-0.2192736566066742</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.7330920696258545</v>
+        <v>-0.100068025290966</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6813195943832397</v>
+        <v>-1.678093552589417</v>
       </c>
       <c r="C166" t="n">
-        <v>-2.033109426498413</v>
+        <v>-0.2584202587604523</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.8436320424079895</v>
+        <v>-0.1392901837825775</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7672541737556458</v>
+        <v>-1.388851404190063</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.502771615982056</v>
+        <v>-0.2388004064559937</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.4270405173301697</v>
+        <v>-0.1055528596043587</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6983820796012878</v>
+        <v>-1.153669118881226</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.9104626774787903</v>
+        <v>-0.2348901331424713</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1776092201471329</v>
+        <v>-0.1086362302303314</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6923365592956543</v>
+        <v>-1.096011519432068</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1198390945792198</v>
+        <v>-0.251828134059906</v>
       </c>
       <c r="D169" t="n">
-        <v>0.7708098292350769</v>
+        <v>-0.1108941808342934</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6636425852775574</v>
+        <v>-1.853970289230347</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.540760040283203</v>
+        <v>-0.4711643159389496</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.03530238941311836</v>
+        <v>-0.253575325012207</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5488706827163696</v>
+        <v>-1.981231212615967</v>
       </c>
       <c r="C171" t="n">
-        <v>-2.024061679840088</v>
+        <v>-0.4681976139545441</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1107473224401474</v>
+        <v>-0.3284397721290588</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.548549473285675</v>
+        <v>-1.8961101770401</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.748896241188049</v>
+        <v>-0.464839369058609</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1925910264253616</v>
+        <v>-0.3215988874435425</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4784389138221741</v>
+        <v>-2.130503177642822</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.853403925895691</v>
+        <v>-0.512340247631073</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1359142810106277</v>
+        <v>-0.4233490228652954</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5117549896240234</v>
+        <v>-2.082041263580322</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.20610511302948</v>
+        <v>-0.5026450157165527</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4115882813930511</v>
+        <v>-0.466155469417572</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6439724564552307</v>
+        <v>-2.262335538864136</v>
       </c>
       <c r="C175" t="n">
-        <v>-1.941154599189758</v>
+        <v>-0.5301988124847412</v>
       </c>
       <c r="D175" t="n">
-        <v>0.09246976673603058</v>
+        <v>-0.4401124119758606</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7302036881446838</v>
+        <v>-2.484780073165894</v>
       </c>
       <c r="C176" t="n">
-        <v>-2.439050436019897</v>
+        <v>-0.5948169827461243</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1337404698133469</v>
+        <v>-0.4658080339431763</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.6170952320098877</v>
+        <v>-2.571420669555664</v>
       </c>
       <c r="C177" t="n">
-        <v>-2.543872356414795</v>
+        <v>-0.621921718120575</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.04426221922039986</v>
+        <v>-0.5370581746101379</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6919938921928406</v>
+        <v>-2.865116357803345</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.838355302810669</v>
+        <v>-0.7433695793151855</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1787284165620804</v>
+        <v>-0.6820428967475891</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5311157703399658</v>
+        <v>-2.678618192672729</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.159530162811279</v>
+        <v>-0.6817460656166077</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5546637177467346</v>
+        <v>-0.6565485000610352</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4924675822257996</v>
+        <v>-2.401038885116577</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.683552265167236</v>
+        <v>-0.6060869097709656</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8297097682952881</v>
+        <v>-0.5982242822647095</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.459528386592865</v>
+        <v>-2.393462181091309</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.473777294158936</v>
+        <v>-0.6237627267837524</v>
       </c>
       <c r="D181" t="n">
-        <v>1.326738715171814</v>
+        <v>-0.6211076974868774</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5683895349502563</v>
+        <v>-2.85516357421875</v>
       </c>
       <c r="C182" t="n">
-        <v>-2.043278694152832</v>
+        <v>-0.7044433951377869</v>
       </c>
       <c r="D182" t="n">
-        <v>1.129628300666809</v>
+        <v>-0.6576232314109802</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6526879072189331</v>
+        <v>-2.762648105621338</v>
       </c>
       <c r="C183" t="n">
-        <v>-2.331350088119507</v>
+        <v>-0.6745617985725403</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9292808175086975</v>
+        <v>-0.6009960770606995</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6930403113365173</v>
+        <v>-3.265735864639282</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.046856880187988</v>
+        <v>-0.8307384848594666</v>
       </c>
       <c r="D184" t="n">
-        <v>1.409577369689941</v>
+        <v>-0.7610288858413696</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7623215913772583</v>
+        <v>-3.876971960067749</v>
       </c>
       <c r="C185" t="n">
-        <v>-2.016419887542725</v>
+        <v>-1.005794048309326</v>
       </c>
       <c r="D185" t="n">
-        <v>1.745663046836853</v>
+        <v>-0.9363979697227478</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.7035859823226929</v>
+        <v>-4.301858901977539</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.965592980384827</v>
+        <v>-1.13610827922821</v>
       </c>
       <c r="D186" t="n">
-        <v>2.256574869155884</v>
+        <v>-1.122369050979614</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8076930642127991</v>
+        <v>-3.740600109100342</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.440075874328613</v>
+        <v>-0.9795261025428772</v>
       </c>
       <c r="D187" t="n">
-        <v>1.749934196472168</v>
+        <v>-0.9253706336021423</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9127056002616882</v>
+        <v>-3.464626789093018</v>
       </c>
       <c r="C188" t="n">
-        <v>-2.591401100158691</v>
+        <v>-0.9015584588050842</v>
       </c>
       <c r="D188" t="n">
-        <v>1.290425658226013</v>
+        <v>-0.7844173312187195</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.011072516441345</v>
+        <v>-3.455544710159302</v>
       </c>
       <c r="C189" t="n">
-        <v>-2.495650768280029</v>
+        <v>-0.8912353515625</v>
       </c>
       <c r="D189" t="n">
-        <v>1.213066577911377</v>
+        <v>-0.7626892924308777</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.048978805541992</v>
+        <v>-2.955138206481934</v>
       </c>
       <c r="C190" t="n">
-        <v>-2.317922592163086</v>
+        <v>-0.6973746418952942</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7441349029541016</v>
+        <v>-0.5816399455070496</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.036130547523499</v>
+        <v>-3.27638840675354</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.957132816314697</v>
+        <v>-0.7886725068092346</v>
       </c>
       <c r="D191" t="n">
-        <v>1.04843533039093</v>
+        <v>-0.6641290783882141</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.06437349319458</v>
+        <v>-3.736743211746216</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.143657684326172</v>
+        <v>-0.8990048766136169</v>
       </c>
       <c r="D192" t="n">
-        <v>1.758515000343323</v>
+        <v>-0.7962822318077087</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.110794544219971</v>
+        <v>-4.252213954925537</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.460350513458252</v>
+        <v>-1.029980301856995</v>
       </c>
       <c r="D193" t="n">
-        <v>2.165456056594849</v>
+        <v>-0.9373271465301514</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.456541299819946</v>
+        <v>-3.466127395629883</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.5133865475654602</v>
+        <v>-0.7905758023262024</v>
       </c>
       <c r="D194" t="n">
-        <v>2.392759561538696</v>
+        <v>-0.6514509320259094</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.844926834106445</v>
+        <v>-3.347458124160767</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.4754763245582581</v>
+        <v>-0.7414600253105164</v>
       </c>
       <c r="D195" t="n">
-        <v>2.134680986404419</v>
+        <v>-0.5902155637741089</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.692787766456604</v>
+        <v>-3.358959436416626</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.2370491623878479</v>
+        <v>-0.7288998365402222</v>
       </c>
       <c r="D196" t="n">
-        <v>2.470540285110474</v>
+        <v>-0.5794315338134766</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.708715438842773</v>
+        <v>-3.297370910644531</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.2891284227371216</v>
+        <v>-0.7119136452674866</v>
       </c>
       <c r="D197" t="n">
-        <v>2.36328125</v>
+        <v>-0.5497214794158936</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.596531867980957</v>
+        <v>-3.405911207199097</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.2114090919494629</v>
+        <v>-0.7490871548652649</v>
       </c>
       <c r="D198" t="n">
-        <v>2.383809804916382</v>
+        <v>-0.5447733402252197</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.751019239425659</v>
+        <v>-3.19090747833252</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.4415680170059204</v>
+        <v>-0.6621628999710083</v>
       </c>
       <c r="D199" t="n">
-        <v>1.98249089717865</v>
+        <v>-0.5260454416275024</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.763304948806763</v>
+        <v>-2.937710762023926</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.6954654455184937</v>
+        <v>-0.5780739188194275</v>
       </c>
       <c r="D200" t="n">
-        <v>2.004339456558228</v>
+        <v>-0.4524047374725342</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.829242467880249</v>
+        <v>-2.970107793807983</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.7755661010742188</v>
+        <v>-0.5732110738754272</v>
       </c>
       <c r="D201" t="n">
-        <v>2.092301607131958</v>
+        <v>-0.4322415292263031</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.881402492523193</v>
+        <v>-3.136054515838623</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.016515493392944</v>
+        <v>-0.6398699879646301</v>
       </c>
       <c r="D202" t="n">
-        <v>1.706393480300903</v>
+        <v>-0.44428551197052</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.752708673477173</v>
+        <v>-3.159724235534668</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.6160383820533752</v>
+        <v>-0.6492815017700195</v>
       </c>
       <c r="D203" t="n">
-        <v>2.208755254745483</v>
+        <v>-0.4423694312572479</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.574120283126831</v>
+        <v>-3.64904260635376</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.4320513010025024</v>
+        <v>-0.8003101944923401</v>
       </c>
       <c r="D204" t="n">
-        <v>1.877315282821655</v>
+        <v>-0.5500257611274719</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.439136624336243</v>
+        <v>-4.021161079406738</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.3662301301956177</v>
+        <v>-0.9291481971740723</v>
       </c>
       <c r="D205" t="n">
-        <v>1.567429065704346</v>
+        <v>-0.6415451765060425</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.54067587852478</v>
+        <v>-3.490122556686401</v>
       </c>
       <c r="C206" t="n">
-        <v>-1.184770226478577</v>
+        <v>-0.704300582408905</v>
       </c>
       <c r="D206" t="n">
-        <v>1.306155204772949</v>
+        <v>-0.4463543891906738</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.49925971031189</v>
+        <v>-3.275903224945068</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.558725476264954</v>
+        <v>-0.5901647806167603</v>
       </c>
       <c r="D207" t="n">
-        <v>1.350686550140381</v>
+        <v>-0.3552254140377045</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.414695262908936</v>
+        <v>-3.508936882019043</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.634148001670837</v>
+        <v>-0.66154944896698</v>
       </c>
       <c r="D208" t="n">
-        <v>1.438588976860046</v>
+        <v>-0.3824584782123566</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.325930833816528</v>
+        <v>-3.376662015914917</v>
       </c>
       <c r="C209" t="n">
-        <v>-1.62062680721283</v>
+        <v>-0.6056278347969055</v>
       </c>
       <c r="D209" t="n">
-        <v>1.413660764694214</v>
+        <v>-0.3786834478378296</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.307003736495972</v>
+        <v>-3.396836519241333</v>
       </c>
       <c r="C210" t="n">
-        <v>-1.309560894966125</v>
+        <v>-0.6104180216789246</v>
       </c>
       <c r="D210" t="n">
-        <v>1.399663329124451</v>
+        <v>-0.394635945558548</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.307138323783875</v>
+        <v>-3.129769563674927</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.756863832473755</v>
+        <v>-0.5180836319923401</v>
       </c>
       <c r="D211" t="n">
-        <v>1.182973742485046</v>
+        <v>-0.3075848817825317</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.33033013343811</v>
+        <v>-3.2745521068573</v>
       </c>
       <c r="C212" t="n">
-        <v>-1.87411367893219</v>
+        <v>-0.5322577357292175</v>
       </c>
       <c r="D212" t="n">
-        <v>1.127207279205322</v>
+        <v>-0.3210805654525757</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.348851680755615</v>
+        <v>-3.225099563598633</v>
       </c>
       <c r="C213" t="n">
-        <v>-1.967493891716003</v>
+        <v>-0.5173751711845398</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8947773575782776</v>
+        <v>-0.2992246150970459</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.351104497909546</v>
+        <v>-3.429053068161011</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.082332849502563</v>
+        <v>-0.5605449676513672</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5914329290390015</v>
+        <v>-0.3406756818294525</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.362459301948547</v>
+        <v>-3.909605026245117</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.511840462684631</v>
+        <v>-0.738292396068573</v>
       </c>
       <c r="D215" t="n">
-        <v>0.7838688492774963</v>
+        <v>-0.5101620554924011</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.310135364532471</v>
+        <v>-4.098422527313232</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.289384126663208</v>
+        <v>-0.8008999228477478</v>
       </c>
       <c r="D216" t="n">
-        <v>0.6932498812675476</v>
+        <v>-0.624297022819519</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.34103000164032</v>
+        <v>-4.381233692169189</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.6653873324394226</v>
+        <v>-0.8818613290786743</v>
       </c>
       <c r="D217" t="n">
-        <v>1.257317185401917</v>
+        <v>-0.6899012327194214</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.368548393249512</v>
+        <v>-3.878644704818726</v>
       </c>
       <c r="C218" t="n">
-        <v>-1.456575036048889</v>
+        <v>-0.7271496057510376</v>
       </c>
       <c r="D218" t="n">
-        <v>0.5561579465866089</v>
+        <v>-0.5326839089393616</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.339513659477234</v>
+        <v>-3.796405076980591</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.817151546478271</v>
+        <v>-0.66001957654953</v>
       </c>
       <c r="D219" t="n">
-        <v>0.3967143893241882</v>
+        <v>-0.4679479897022247</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.352078199386597</v>
+        <v>-3.844467639923096</v>
       </c>
       <c r="C220" t="n">
-        <v>-1.351588606834412</v>
+        <v>-0.7234347462654114</v>
       </c>
       <c r="D220" t="n">
-        <v>0.5079629421234131</v>
+        <v>-0.5287253856658936</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.427020311355591</v>
+        <v>-3.873747110366821</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.606048464775085</v>
+        <v>-0.7131637334823608</v>
       </c>
       <c r="D221" t="n">
-        <v>0.270312488079071</v>
+        <v>-0.5337874293327332</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.378770470619202</v>
+        <v>-4.043904304504395</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.420139908790588</v>
+        <v>-0.7638275623321533</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2830601930618286</v>
+        <v>-0.5984048843383789</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.405148983001709</v>
+        <v>-4.02151346206665</v>
       </c>
       <c r="C223" t="n">
-        <v>-1.513534784317017</v>
+        <v>-0.7481585741043091</v>
       </c>
       <c r="D223" t="n">
-        <v>0.3341212272644043</v>
+        <v>-0.6022236347198486</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.38354480266571</v>
+        <v>-3.948822259902954</v>
       </c>
       <c r="C224" t="n">
-        <v>-2.061039686203003</v>
+        <v>-0.7303414940834045</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.04776196554303169</v>
+        <v>-0.4908826351165771</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.419788599014282</v>
+        <v>-3.972701549530029</v>
       </c>
       <c r="C225" t="n">
-        <v>-2.067880868911743</v>
+        <v>-0.7266413569450378</v>
       </c>
       <c r="D225" t="n">
-        <v>0.01117927953600883</v>
+        <v>-0.4444445967674255</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.309566020965576</v>
+        <v>-3.762296676635742</v>
       </c>
       <c r="C226" t="n">
-        <v>-2.482036352157593</v>
+        <v>-0.5868346691131592</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.5294309258460999</v>
+        <v>-0.3233611285686493</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.292175769805908</v>
+        <v>-3.97861123085022</v>
       </c>
       <c r="C227" t="n">
-        <v>-2.10203218460083</v>
+        <v>-0.6390588283538818</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.3741984367370605</v>
+        <v>-0.3927898705005646</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.253726482391357</v>
+        <v>-4.281651496887207</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.779292821884155</v>
+        <v>-0.6674830913543701</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.3816934823989868</v>
+        <v>-0.4562680721282959</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.266196250915527</v>
+        <v>-4.86981725692749</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.003691554069519</v>
+        <v>-0.7904950976371765</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.07077817618846893</v>
+        <v>-0.6151478886604309</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.247812867164612</v>
+        <v>-4.061636924743652</v>
       </c>
       <c r="C230" t="n">
-        <v>-2.095439195632935</v>
+        <v>-0.6376454830169678</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.5883674621582031</v>
+        <v>-0.3664564490318298</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.241789579391479</v>
+        <v>-3.841655254364014</v>
       </c>
       <c r="C231" t="n">
-        <v>-2.421916723251343</v>
+        <v>-0.5780920386314392</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.776181161403656</v>
+        <v>-0.2937931716442108</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.223762512207031</v>
+        <v>-4.169697284698486</v>
       </c>
       <c r="C232" t="n">
-        <v>-1.935727119445801</v>
+        <v>-0.6746991276741028</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.6155474781990051</v>
+        <v>-0.3852586150169373</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.216517925262451</v>
+        <v>-4.105995178222656</v>
       </c>
       <c r="C233" t="n">
-        <v>-1.996845841407776</v>
+        <v>-0.6420429348945618</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.6372795701026917</v>
+        <v>-0.3326574265956879</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.222160220146179</v>
+        <v>-4.334565162658691</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.777399063110352</v>
+        <v>-0.6908435821533203</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.5196073651313782</v>
+        <v>-0.4077660143375397</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.224369764328003</v>
+        <v>-4.089497089385986</v>
       </c>
       <c r="C235" t="n">
-        <v>-2.035064458847046</v>
+        <v>-0.6382951140403748</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.6480165719985962</v>
+        <v>-0.3396720886230469</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.226405143737793</v>
+        <v>-3.875822067260742</v>
       </c>
       <c r="C236" t="n">
-        <v>-2.346031427383423</v>
+        <v>-0.5622591972351074</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.9009564518928528</v>
+        <v>-0.2218404561281204</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.220196723937988</v>
+        <v>-3.924284696578979</v>
       </c>
       <c r="C237" t="n">
-        <v>-2.281405210494995</v>
+        <v>-0.5772866606712341</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.9093311429023743</v>
+        <v>-0.2080484181642532</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.148807287216187</v>
+        <v>-3.595490694046021</v>
       </c>
       <c r="C238" t="n">
-        <v>-2.589305877685547</v>
+        <v>-0.4992736876010895</v>
       </c>
       <c r="D238" t="n">
-        <v>-1.310030341148376</v>
+        <v>-0.1141593530774117</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.184062004089355</v>
+        <v>-4.045376777648926</v>
       </c>
       <c r="C239" t="n">
-        <v>-2.086905956268311</v>
+        <v>-0.6158536672592163</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.8042336106300354</v>
+        <v>-0.2597187161445618</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.201060056686401</v>
+        <v>-4.350762844085693</v>
       </c>
       <c r="C240" t="n">
-        <v>-1.605525493621826</v>
+        <v>-0.6510012745857239</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.6000015139579773</v>
+        <v>-0.3698906898498535</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.231794118881226</v>
+        <v>-4.783907413482666</v>
       </c>
       <c r="C241" t="n">
-        <v>-1.168621182441711</v>
+        <v>-0.7265514731407166</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.4207651615142822</v>
+        <v>-0.4638649821281433</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.184314966201782</v>
+        <v>-4.105493068695068</v>
       </c>
       <c r="C242" t="n">
-        <v>-2.13912034034729</v>
+        <v>-0.6043272614479065</v>
       </c>
       <c r="D242" t="n">
-        <v>-1.068180680274963</v>
+        <v>-0.2509334683418274</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.157409191131592</v>
+        <v>-3.542518615722656</v>
       </c>
       <c r="C243" t="n">
-        <v>-2.471775531768799</v>
+        <v>-0.4710390865802765</v>
       </c>
       <c r="D243" t="n">
-        <v>-1.304183602333069</v>
+        <v>-0.08292240649461746</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.193735718727112</v>
+        <v>-4.047678470611572</v>
       </c>
       <c r="C244" t="n">
-        <v>-2.100295543670654</v>
+        <v>-0.5262030959129333</v>
       </c>
       <c r="D244" t="n">
-        <v>-1.146612763404846</v>
+        <v>-0.1739794164896011</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.2068190574646</v>
+        <v>-3.689617872238159</v>
       </c>
       <c r="C245" t="n">
-        <v>-2.430000305175781</v>
+        <v>-0.4567771553993225</v>
       </c>
       <c r="D245" t="n">
-        <v>-1.433071255683899</v>
+        <v>0.01428561471402645</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.25574517250061</v>
+        <v>-4.136335372924805</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.971982002258301</v>
+        <v>-0.5160860419273376</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.080478429794312</v>
+        <v>-0.1322873383760452</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.280497431755066</v>
+        <v>-4.014230251312256</v>
       </c>
       <c r="C247" t="n">
-        <v>-2.24785041809082</v>
+        <v>-0.4989098608493805</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.173488736152649</v>
+        <v>-0.08699793368577957</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.267623543739319</v>
+        <v>-3.81629204750061</v>
       </c>
       <c r="C248" t="n">
-        <v>-2.672773599624634</v>
+        <v>-0.4504987001419067</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.465879201889038</v>
+        <v>-0.04462439566850662</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.286892533302307</v>
+        <v>-3.935896158218384</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.484151363372803</v>
+        <v>-0.4634177386760712</v>
       </c>
       <c r="D249" t="n">
-        <v>-1.32366931438446</v>
+        <v>-0.04954779893159866</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.271191358566284</v>
+        <v>-3.760570764541626</v>
       </c>
       <c r="C250" t="n">
-        <v>-2.904196262359619</v>
+        <v>-0.3924895524978638</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.531834602355957</v>
+        <v>-0.07560224086046219</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.287155508995056</v>
+        <v>-3.969087839126587</v>
       </c>
       <c r="C251" t="n">
-        <v>-2.642014503479004</v>
+        <v>-0.3733547925949097</v>
       </c>
       <c r="D251" t="n">
-        <v>-1.378345012664795</v>
+        <v>-0.06564605981111526</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.33342719078064</v>
+        <v>-4.385254383087158</v>
       </c>
       <c r="C252" t="n">
-        <v>-1.885515213012695</v>
+        <v>-0.4721750319004059</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.9036737084388733</v>
+        <v>-0.1552779227495193</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.342346429824829</v>
+        <v>-5.247035503387451</v>
       </c>
       <c r="C253" t="n">
-        <v>-1.008733034133911</v>
+        <v>-0.6349511742591858</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.383614718914032</v>
+        <v>-0.3660131692886353</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.292046546936035</v>
+        <v>-4.491698741912842</v>
       </c>
       <c r="C254" t="n">
-        <v>-1.816682696342468</v>
+        <v>-0.4700317680835724</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.9797291159629822</v>
+        <v>-0.1873285919427872</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.243033289909363</v>
+        <v>-3.410565614700317</v>
       </c>
       <c r="C255" t="n">
-        <v>-2.244488000869751</v>
+        <v>-0.3911902606487274</v>
       </c>
       <c r="D255" t="n">
-        <v>-1.40461003780365</v>
+        <v>-0.009940573945641518</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.241426229476929</v>
+        <v>-3.071999073028564</v>
       </c>
       <c r="C256" t="n">
-        <v>-2.079446077346802</v>
+        <v>-0.3326227962970734</v>
       </c>
       <c r="D256" t="n">
-        <v>-1.527176141738892</v>
+        <v>0.07998114079236984</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.28230357170105</v>
+        <v>-3.035711050033569</v>
       </c>
       <c r="C257" t="n">
-        <v>-2.165059328079224</v>
+        <v>-0.3524582087993622</v>
       </c>
       <c r="D257" t="n">
-        <v>-1.577875256538391</v>
+        <v>0.1111565157771111</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.286179423332214</v>
+        <v>-3.162748575210571</v>
       </c>
       <c r="C258" t="n">
-        <v>-1.774755716323853</v>
+        <v>-0.3356834948062897</v>
       </c>
       <c r="D258" t="n">
-        <v>-1.325086951255798</v>
+        <v>0.08230637758970261</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1.319609761238098</v>
+        <v>-2.944154977798462</v>
       </c>
       <c r="C259" t="n">
-        <v>-2.176021337509155</v>
+        <v>-0.3231227695941925</v>
       </c>
       <c r="D259" t="n">
-        <v>-1.644454598426819</v>
+        <v>0.1597459763288498</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.320799589157104</v>
+        <v>-2.728393793106079</v>
       </c>
       <c r="C260" t="n">
-        <v>-2.508065462112427</v>
+        <v>-0.3055582344532013</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.836406111717224</v>
+        <v>0.2004367858171463</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.28465473651886</v>
+        <v>-2.852619886398315</v>
       </c>
       <c r="C261" t="n">
-        <v>-2.366256237030029</v>
+        <v>-0.2727862596511841</v>
       </c>
       <c r="D261" t="n">
-        <v>-1.825562715530396</v>
+        <v>0.1482217758893967</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.343262434005737</v>
+        <v>-2.369474411010742</v>
       </c>
       <c r="C262" t="n">
-        <v>-3.03788161277771</v>
+        <v>-0.228795051574707</v>
       </c>
       <c r="D262" t="n">
-        <v>-2.221572160720825</v>
+        <v>0.3373743295669556</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.426604866981506</v>
+        <v>-2.897785425186157</v>
       </c>
       <c r="C263" t="n">
-        <v>-2.352817296981812</v>
+        <v>-0.2744967043399811</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.768508315086365</v>
+        <v>0.2904509902000427</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.447169184684753</v>
+        <v>-3.195084095001221</v>
       </c>
       <c r="C264" t="n">
-        <v>-1.888082027435303</v>
+        <v>-0.3333279192447662</v>
       </c>
       <c r="D264" t="n">
-        <v>-1.360677361488342</v>
+        <v>0.200873538851738</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.509907007217407</v>
+        <v>-3.237588167190552</v>
       </c>
       <c r="C265" t="n">
-        <v>-1.564014196395874</v>
+        <v>-0.365586906671524</v>
       </c>
       <c r="D265" t="n">
-        <v>-1.05768358707428</v>
+        <v>0.2622287273406982</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1.521107792854309</v>
+        <v>-3.027323484420776</v>
       </c>
       <c r="C266" t="n">
-        <v>-2.165373563766479</v>
+        <v>-0.2985692024230957</v>
       </c>
       <c r="D266" t="n">
-        <v>-1.516251921653748</v>
+        <v>0.3250455856323242</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.554263353347778</v>
+        <v>-2.645182132720947</v>
       </c>
       <c r="C267" t="n">
-        <v>-2.669550657272339</v>
+        <v>-0.2284567654132843</v>
       </c>
       <c r="D267" t="n">
-        <v>-1.8203045129776</v>
+        <v>0.4542202353477478</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.530378103256226</v>
+        <v>-3.415153741836548</v>
       </c>
       <c r="C268" t="n">
-        <v>-2.264703273773193</v>
+        <v>-0.3615485727787018</v>
       </c>
       <c r="D268" t="n">
-        <v>-1.475244760513306</v>
+        <v>0.2760047912597656</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.651193261146545</v>
+        <v>-2.816158056259155</v>
       </c>
       <c r="C269" t="n">
-        <v>-2.66906476020813</v>
+        <v>-0.2411721497774124</v>
       </c>
       <c r="D269" t="n">
-        <v>-1.709430456161499</v>
+        <v>0.4531930387020111</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1.749043107032776</v>
+        <v>-2.964048147201538</v>
       </c>
       <c r="C270" t="n">
-        <v>-2.527751684188843</v>
+        <v>-0.2589369416236877</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.568985104560852</v>
+        <v>0.5050992369651794</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.841397404670715</v>
+        <v>-2.799482345581055</v>
       </c>
       <c r="C271" t="n">
-        <v>-2.908291101455688</v>
+        <v>-0.1959085315465927</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.790170788764954</v>
+        <v>0.560074508190155</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1.822244763374329</v>
+        <v>-2.446605682373047</v>
       </c>
       <c r="C272" t="n">
-        <v>-2.972616910934448</v>
+        <v>-0.1504242867231369</v>
       </c>
       <c r="D272" t="n">
-        <v>-1.862920165061951</v>
+        <v>0.6148967146873474</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1.771152496337891</v>
+        <v>-2.04525089263916</v>
       </c>
       <c r="C273" t="n">
-        <v>-3.141182661056519</v>
+        <v>-0.1082912459969521</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.057017803192139</v>
+        <v>0.712037205696106</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1.908798336982727</v>
+        <v>-2.365213632583618</v>
       </c>
       <c r="C274" t="n">
-        <v>-2.967912435531616</v>
+        <v>-0.1105557307600975</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.813597798347473</v>
+        <v>0.6360577940940857</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>2.031177759170532</v>
+        <v>-3.962089776992798</v>
       </c>
       <c r="C275" t="n">
-        <v>-1.221000790596008</v>
+        <v>-0.3240523934364319</v>
       </c>
       <c r="D275" t="n">
-        <v>0.004152726382017136</v>
+        <v>0.1147479936480522</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2.077675342559814</v>
+        <v>-4.387558937072754</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.57703697681427</v>
+        <v>-0.3845491409301758</v>
       </c>
       <c r="D276" t="n">
-        <v>0.6084116697311401</v>
+        <v>0.01254927180707455</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.968613147735596</v>
+        <v>-5.267510414123535</v>
       </c>
       <c r="C277" t="n">
-        <v>0.07398689538240433</v>
+        <v>-0.5656174421310425</v>
       </c>
       <c r="D277" t="n">
-        <v>0.8499135971069336</v>
+        <v>-0.1408329755067825</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2.166606664657593</v>
+        <v>-4.629568099975586</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.02966808527708054</v>
+        <v>-0.4693683087825775</v>
       </c>
       <c r="D278" t="n">
-        <v>0.9005119800567627</v>
+        <v>0.003613045439124107</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.32989239692688</v>
+        <v>-4.220712184906006</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.3171237111091614</v>
+        <v>-0.3963618576526642</v>
       </c>
       <c r="D279" t="n">
-        <v>1.102772116661072</v>
+        <v>0.1281406134366989</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2.285914897918701</v>
+        <v>-4.463315486907959</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.1646609902381897</v>
+        <v>-0.4438965916633606</v>
       </c>
       <c r="D280" t="n">
-        <v>1.129865169525146</v>
+        <v>0.08621906489133835</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2.267118453979492</v>
+        <v>-4.439317226409912</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.3324195146560669</v>
+        <v>-0.4090112447738647</v>
       </c>
       <c r="D281" t="n">
-        <v>0.8684658408164978</v>
+        <v>0.09013872593641281</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2.103912115097046</v>
+        <v>-4.791729927062988</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.640065610408783</v>
+        <v>-0.4192881882190704</v>
       </c>
       <c r="D282" t="n">
-        <v>0.3391416668891907</v>
+        <v>0.08716636151075363</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2.126590490341187</v>
+        <v>-4.574587345123291</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.9531105160713196</v>
+        <v>-0.3485665321350098</v>
       </c>
       <c r="D283" t="n">
-        <v>0.1620567589998245</v>
+        <v>0.1687882393598557</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2.26439094543457</v>
+        <v>-4.392142772674561</v>
       </c>
       <c r="C284" t="n">
-        <v>-1.096588492393494</v>
+        <v>-0.2930175960063934</v>
       </c>
       <c r="D284" t="n">
-        <v>0.06237275525927544</v>
+        <v>0.1707944124937057</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2.252316236495972</v>
+        <v>-4.261184692382812</v>
       </c>
       <c r="C285" t="n">
-        <v>-1.11658775806427</v>
+        <v>-0.2744024097919464</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.005482841283082962</v>
+        <v>0.2167697995901108</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>2.282113790512085</v>
+        <v>-4.204864025115967</v>
       </c>
       <c r="C286" t="n">
-        <v>-1.251247525215149</v>
+        <v>-0.2553974688053131</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.08047597110271454</v>
+        <v>0.2107023447751999</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2.178614616394043</v>
+        <v>-4.421302795410156</v>
       </c>
       <c r="C287" t="n">
-        <v>-1.251243233680725</v>
+        <v>-0.2741741240024567</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.3194324374198914</v>
+        <v>0.2134640663862228</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2.032248020172119</v>
+        <v>-4.712180614471436</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.205286145210266</v>
+        <v>-0.3812080025672913</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.2729641795158386</v>
+        <v>0.1801041811704636</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1.877155303955078</v>
+        <v>-5.384792804718018</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.8417307138442993</v>
+        <v>-0.5154412984848022</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.08998613059520721</v>
+        <v>-0.03593022376298904</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2.10239577293396</v>
+        <v>-4.125514507293701</v>
       </c>
       <c r="C290" t="n">
-        <v>-1.292969107627869</v>
+        <v>-0.2265095710754395</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.37777179479599</v>
+        <v>0.3739204406738281</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2.229137659072876</v>
+        <v>-4.059171199798584</v>
       </c>
       <c r="C291" t="n">
-        <v>-1.500661373138428</v>
+        <v>-0.2079952657222748</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.5438256859779358</v>
+        <v>0.3523232340812683</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2.110040187835693</v>
+        <v>-4.432877540588379</v>
       </c>
       <c r="C292" t="n">
-        <v>-1.274955630302429</v>
+        <v>-0.2580158412456512</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.444663941860199</v>
+        <v>0.3129645586013794</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2.091238498687744</v>
+        <v>-4.300602436065674</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.493091344833374</v>
+        <v>-0.223543256521225</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.7051152586936951</v>
+        <v>0.3821558356285095</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2.089637041091919</v>
+        <v>-4.830745697021484</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.073979020118713</v>
+        <v>-0.3926790952682495</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.2412562817335129</v>
+        <v>0.1718969792127609</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2.146586656570435</v>
+        <v>-4.772411346435547</v>
       </c>
       <c r="C295" t="n">
-        <v>-1.010656476020813</v>
+        <v>-0.3806203901767731</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.09482781589031219</v>
+        <v>0.1808894127607346</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2.238727807998657</v>
+        <v>-4.380541324615479</v>
       </c>
       <c r="C296" t="n">
-        <v>-1.283409595489502</v>
+        <v>-0.2726670801639557</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.3265684247016907</v>
+        <v>0.2848535180091858</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2.223710298538208</v>
+        <v>-4.194843292236328</v>
       </c>
       <c r="C297" t="n">
-        <v>-1.18287980556488</v>
+        <v>-0.2372051775455475</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.2272749394178391</v>
+        <v>0.3168055415153503</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2.396714687347412</v>
+        <v>-3.759084463119507</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.661584973335266</v>
+        <v>-0.1757540106773376</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.5505849719047546</v>
+        <v>0.3890137076377869</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2.160426378250122</v>
+        <v>-4.370886325836182</v>
       </c>
       <c r="C299" t="n">
-        <v>-1.503892302513123</v>
+        <v>-0.2217597961425781</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.6664684414863586</v>
+        <v>0.3470665216445923</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>1.981058239936829</v>
+        <v>-4.948142051696777</v>
       </c>
       <c r="C300" t="n">
-        <v>-1.343630790710449</v>
+        <v>-0.3368255198001862</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.6856446862220764</v>
+        <v>0.164825364947319</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>1.769258141517639</v>
+        <v>-5.615443229675293</v>
       </c>
       <c r="C301" t="n">
-        <v>-1.251748442649841</v>
+        <v>-0.4743342101573944</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.8076019883155823</v>
+        <v>0.005063822492957115</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2.058106899261475</v>
+        <v>-4.169334888458252</v>
       </c>
       <c r="C302" t="n">
-        <v>-1.809418439865112</v>
+        <v>-0.1714616417884827</v>
       </c>
       <c r="D302" t="n">
-        <v>-1.04400646686554</v>
+        <v>0.509807288646698</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2.174499034881592</v>
+        <v>-3.753954410552979</v>
       </c>
       <c r="C303" t="n">
-        <v>-2.143522500991821</v>
+        <v>-0.1243268921971321</v>
       </c>
       <c r="D303" t="n">
-        <v>-1.206837177276611</v>
+        <v>0.6361897587776184</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2.064800500869751</v>
+        <v>-4.179489612579346</v>
       </c>
       <c r="C304" t="n">
-        <v>-1.985381364822388</v>
+        <v>-0.1825211346149445</v>
       </c>
       <c r="D304" t="n">
-        <v>-1.196890711784363</v>
+        <v>0.5860485434532166</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2.057499647140503</v>
+        <v>-3.635093450546265</v>
       </c>
       <c r="C305" t="n">
-        <v>-2.346741437911987</v>
+        <v>-0.05146519094705582</v>
       </c>
       <c r="D305" t="n">
-        <v>-1.563747644424438</v>
+        <v>0.7947506904602051</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1.944975137710571</v>
+        <v>-4.470328330993652</v>
       </c>
       <c r="C306" t="n">
-        <v>-1.915019869804382</v>
+        <v>-0.2691463530063629</v>
       </c>
       <c r="D306" t="n">
-        <v>-1.227584004402161</v>
+        <v>0.4931750893592834</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2.040372610092163</v>
+        <v>-4.090325832366943</v>
       </c>
       <c r="C307" t="n">
-        <v>-2.016634464263916</v>
+        <v>-0.2324549555778503</v>
       </c>
       <c r="D307" t="n">
-        <v>-1.188095450401306</v>
+        <v>0.5217449069023132</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2.139453649520874</v>
+        <v>-3.671509742736816</v>
       </c>
       <c r="C308" t="n">
-        <v>-2.328784227371216</v>
+        <v>-0.1521436870098114</v>
       </c>
       <c r="D308" t="n">
-        <v>-1.33940052986145</v>
+        <v>0.6106905937194824</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2.124116659164429</v>
+        <v>-3.857970476150513</v>
       </c>
       <c r="C309" t="n">
-        <v>-2.0178542137146</v>
+        <v>-0.1853533387184143</v>
       </c>
       <c r="D309" t="n">
-        <v>-1.071837544441223</v>
+        <v>0.5222129225730896</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2.332359790802002</v>
+        <v>-4.081047534942627</v>
       </c>
       <c r="C310" t="n">
-        <v>-1.746532082557678</v>
+        <v>-0.2228661477565765</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.7537313103675842</v>
+        <v>0.3953098654747009</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2.141736268997192</v>
+        <v>-4.761879444122314</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.763283014297485</v>
+        <v>-0.2835235595703125</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.9561447501182556</v>
+        <v>0.306597888469696</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2.003839015960693</v>
+        <v>-4.64531946182251</v>
       </c>
       <c r="C312" t="n">
-        <v>-1.812853693962097</v>
+        <v>-0.319060206413269</v>
       </c>
       <c r="D312" t="n">
-        <v>-1.054782032966614</v>
+        <v>0.430627167224884</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>1.849305748939514</v>
+        <v>-5.746255874633789</v>
       </c>
       <c r="C313" t="n">
-        <v>-1.48607861995697</v>
+        <v>-0.5442424416542053</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.903149425983429</v>
+        <v>0.03557901829481125</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2.064769983291626</v>
+        <v>-4.286709785461426</v>
       </c>
       <c r="C314" t="n">
-        <v>-1.811623692512512</v>
+        <v>-0.1440915167331696</v>
       </c>
       <c r="D314" t="n">
-        <v>-1.148203134536743</v>
+        <v>0.608672022819519</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2.071511030197144</v>
+        <v>-4.402509212493896</v>
       </c>
       <c r="C315" t="n">
-        <v>-2.000055074691772</v>
+        <v>-0.1705915629863739</v>
       </c>
       <c r="D315" t="n">
-        <v>-1.355556845664978</v>
+        <v>0.6080546975135803</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2.089391469955444</v>
+        <v>-4.287356376647949</v>
       </c>
       <c r="C316" t="n">
-        <v>-1.870913863182068</v>
+        <v>-0.1164189353585243</v>
       </c>
       <c r="D316" t="n">
-        <v>-1.27908456325531</v>
+        <v>0.6284524202346802</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2.118027448654175</v>
+        <v>-4.543549060821533</v>
       </c>
       <c r="C317" t="n">
-        <v>-1.95855712890625</v>
+        <v>-0.1571199595928192</v>
       </c>
       <c r="D317" t="n">
-        <v>-1.374808788299561</v>
+        <v>0.5574879050254822</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2.180572032928467</v>
+        <v>-4.779355049133301</v>
       </c>
       <c r="C318" t="n">
-        <v>-1.557925343513489</v>
+        <v>-0.2930742502212524</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.8427374958992004</v>
+        <v>0.2802137732505798</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2.250767230987549</v>
+        <v>-4.751457691192627</v>
       </c>
       <c r="C319" t="n">
-        <v>-1.62997841835022</v>
+        <v>-0.2617501020431519</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.9376471638679504</v>
+        <v>0.2893664240837097</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2.301810026168823</v>
+        <v>-4.875434398651123</v>
       </c>
       <c r="C320" t="n">
-        <v>-1.644241213798523</v>
+        <v>-0.1969520747661591</v>
       </c>
       <c r="D320" t="n">
-        <v>-1.062422513961792</v>
+        <v>0.3537777066230774</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2.23945951461792</v>
+        <v>-4.670520782470703</v>
       </c>
       <c r="C321" t="n">
-        <v>-1.92371392250061</v>
+        <v>-0.1103381291031837</v>
       </c>
       <c r="D321" t="n">
-        <v>-1.413883566856384</v>
+        <v>0.5462141633033752</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2.42588472366333</v>
+        <v>-3.86693549156189</v>
       </c>
       <c r="C322" t="n">
-        <v>-2.228575468063354</v>
+        <v>-0.09617561846971512</v>
       </c>
       <c r="D322" t="n">
-        <v>-1.484461903572083</v>
+        <v>0.5682387351989746</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>2.162849426269531</v>
+        <v>-5.116936206817627</v>
       </c>
       <c r="C323" t="n">
-        <v>-1.517463088035583</v>
+        <v>-0.3071262240409851</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.9966667294502258</v>
+        <v>0.2663010954856873</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>2.067632675170898</v>
+        <v>-5.302594184875488</v>
       </c>
       <c r="C324" t="n">
-        <v>-1.492402315139771</v>
+        <v>-0.3578205108642578</v>
       </c>
       <c r="D324" t="n">
-        <v>-1.084098219871521</v>
+        <v>0.2054259032011032</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>1.896882653236389</v>
+        <v>-5.941236019134521</v>
       </c>
       <c r="C325" t="n">
-        <v>-1.279838442802429</v>
+        <v>-0.4862706065177917</v>
       </c>
       <c r="D325" t="n">
-        <v>-1.045005917549133</v>
+        <v>0.05350666493177414</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2.085155725479126</v>
+        <v>-5.148680210113525</v>
       </c>
       <c r="C326" t="n">
-        <v>-1.859765887260437</v>
+        <v>-0.2127785682678223</v>
       </c>
       <c r="D326" t="n">
-        <v>-1.508298516273499</v>
+        <v>0.4866084456443787</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>2.259873390197754</v>
+        <v>-5.395697116851807</v>
       </c>
       <c r="C327" t="n">
-        <v>-1.943081498146057</v>
+        <v>-0.181742399930954</v>
       </c>
       <c r="D327" t="n">
-        <v>-1.510517597198486</v>
+        <v>0.5159159302711487</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>2.21872091293335</v>
+        <v>-5.450427532196045</v>
       </c>
       <c r="C328" t="n">
-        <v>-1.949170231819153</v>
+        <v>-0.2654488682746887</v>
       </c>
       <c r="D328" t="n">
-        <v>-1.716300845146179</v>
+        <v>0.4152656197547913</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>2.315198659896851</v>
+        <v>-5.355643749237061</v>
       </c>
       <c r="C329" t="n">
-        <v>-1.798828482627869</v>
+        <v>-0.2005595862865448</v>
       </c>
       <c r="D329" t="n">
-        <v>-1.375923275947571</v>
+        <v>0.4783422350883484</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2.141955852508545</v>
+        <v>-5.611881732940674</v>
       </c>
       <c r="C330" t="n">
-        <v>-1.544119954109192</v>
+        <v>-0.3850772678852081</v>
       </c>
       <c r="D330" t="n">
-        <v>-1.188722133636475</v>
+        <v>0.2372928112745285</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2.291148900985718</v>
+        <v>-5.329459667205811</v>
       </c>
       <c r="C331" t="n">
-        <v>-1.845724582672119</v>
+        <v>-0.2308579683303833</v>
       </c>
       <c r="D331" t="n">
-        <v>-1.412512183189392</v>
+        <v>0.4454795718193054</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2.29943060874939</v>
+        <v>-4.990429401397705</v>
       </c>
       <c r="C332" t="n">
-        <v>-1.893731951713562</v>
+        <v>-0.1924445033073425</v>
       </c>
       <c r="D332" t="n">
-        <v>-1.364589214324951</v>
+        <v>0.5340448021888733</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>2.335493803024292</v>
+        <v>-4.696176052093506</v>
       </c>
       <c r="C333" t="n">
-        <v>-2.102694034576416</v>
+        <v>-0.1007301285862923</v>
       </c>
       <c r="D333" t="n">
-        <v>-1.637126088142395</v>
+        <v>0.7052732706069946</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>2.398105144500732</v>
+        <v>-5.015288829803467</v>
       </c>
       <c r="C334" t="n">
-        <v>-2.285116672515869</v>
+        <v>-0.0883185938000679</v>
       </c>
       <c r="D334" t="n">
-        <v>-1.845397114753723</v>
+        <v>0.6969358325004578</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>2.143080711364746</v>
+        <v>-5.57505464553833</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.817180275917053</v>
+        <v>-0.3592516481876373</v>
       </c>
       <c r="D335" t="n">
-        <v>-1.628568053245544</v>
+        <v>0.2676073908805847</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>2.131299495697021</v>
+        <v>-5.668834209442139</v>
       </c>
       <c r="C336" t="n">
-        <v>-1.753260374069214</v>
+        <v>-0.3977194428443909</v>
       </c>
       <c r="D336" t="n">
-        <v>-1.583925843238831</v>
+        <v>0.2593029141426086</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1.980726718902588</v>
+        <v>-6.282468318939209</v>
       </c>
       <c r="C337" t="n">
-        <v>-1.397583603858948</v>
+        <v>-0.5144293308258057</v>
       </c>
       <c r="D337" t="n">
-        <v>-1.202260494232178</v>
+        <v>0.09092026203870773</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>2.212255239486694</v>
+        <v>-5.473613739013672</v>
       </c>
       <c r="C338" t="n">
-        <v>-1.894440650939941</v>
+        <v>-0.2348071336746216</v>
       </c>
       <c r="D338" t="n">
-        <v>-1.639851570129395</v>
+        <v>0.4688017964363098</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2.274850845336914</v>
+        <v>-5.424197673797607</v>
       </c>
       <c r="C339" t="n">
-        <v>-2.000422477722168</v>
+        <v>-0.2465059161186218</v>
       </c>
       <c r="D339" t="n">
-        <v>-1.757954955101013</v>
+        <v>0.4931345582008362</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>2.246990919113159</v>
+        <v>-5.591080665588379</v>
       </c>
       <c r="C340" t="n">
-        <v>-1.963430047035217</v>
+        <v>-0.2903222739696503</v>
       </c>
       <c r="D340" t="n">
-        <v>-1.779604434967041</v>
+        <v>0.4201049208641052</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2.321415662765503</v>
+        <v>-5.258507251739502</v>
       </c>
       <c r="C341" t="n">
-        <v>-2.061607837677002</v>
+        <v>-0.1908101141452789</v>
       </c>
       <c r="D341" t="n">
-        <v>-1.732062220573425</v>
+        <v>0.5675521492958069</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2.17519211769104</v>
+        <v>-5.367915630340576</v>
       </c>
       <c r="C342" t="n">
-        <v>-1.978024363517761</v>
+        <v>-0.320527583360672</v>
       </c>
       <c r="D342" t="n">
-        <v>-1.67877733707428</v>
+        <v>0.4386048913002014</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>2.273585319519043</v>
+        <v>-4.95945405960083</v>
       </c>
       <c r="C343" t="n">
-        <v>-2.220569610595703</v>
+        <v>-0.1898479759693146</v>
       </c>
       <c r="D343" t="n">
-        <v>-1.86477792263031</v>
+        <v>0.6141794323921204</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>2.289405345916748</v>
+        <v>-5.147573947906494</v>
       </c>
       <c r="C344" t="n">
-        <v>-2.067378044128418</v>
+        <v>-0.2028823494911194</v>
       </c>
       <c r="D344" t="n">
-        <v>-1.694602966308594</v>
+        <v>0.5478768944740295</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>2.401924610137939</v>
+        <v>-5.21710729598999</v>
       </c>
       <c r="C345" t="n">
-        <v>-2.09121036529541</v>
+        <v>-0.08507130295038223</v>
       </c>
       <c r="D345" t="n">
-        <v>-1.730060935020447</v>
+        <v>0.739942729473114</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>2.471421241760254</v>
+        <v>-5.163175106048584</v>
       </c>
       <c r="C346" t="n">
-        <v>-2.094060659408569</v>
+        <v>-0.03045261465013027</v>
       </c>
       <c r="D346" t="n">
-        <v>-1.75236451625824</v>
+        <v>0.7849782109260559</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>2.283342123031616</v>
+        <v>-6.037989139556885</v>
       </c>
       <c r="C347" t="n">
-        <v>-1.533795595169067</v>
+        <v>-0.3354211449623108</v>
       </c>
       <c r="D347" t="n">
-        <v>-1.457833170890808</v>
+        <v>0.2943136096000671</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>2.494602918624878</v>
+        <v>-6.243090152740479</v>
       </c>
       <c r="C348" t="n">
-        <v>-1.411915421485901</v>
+        <v>-0.2036430537700653</v>
       </c>
       <c r="D348" t="n">
-        <v>-1.370897173881531</v>
+        <v>0.4730618596076965</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>2.300117254257202</v>
+        <v>-7.186016082763672</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.4777147769927979</v>
+        <v>-0.4668042361736298</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.655972421169281</v>
+        <v>0.0631512925028801</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>2.437410116195679</v>
+        <v>-6.561906337738037</v>
       </c>
       <c r="C350" t="n">
-        <v>-0.8577789664268494</v>
+        <v>-0.2642865478992462</v>
       </c>
       <c r="D350" t="n">
-        <v>-1.204679012298584</v>
+        <v>0.3852960467338562</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>2.686812877655029</v>
+        <v>-6.37479305267334</v>
       </c>
       <c r="C351" t="n">
-        <v>-1.258991599082947</v>
+        <v>-0.1139780059456825</v>
       </c>
       <c r="D351" t="n">
-        <v>-1.552437901496887</v>
+        <v>0.5952898859977722</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2.426307678222656</v>
+        <v>-7.017239093780518</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.7517587542533875</v>
+        <v>-0.3524244725704193</v>
       </c>
       <c r="D352" t="n">
-        <v>-1.428178429603577</v>
+        <v>0.240870401263237</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>2.549853563308716</v>
+        <v>-6.36228609085083</v>
       </c>
       <c r="C353" t="n">
-        <v>-1.176105976104736</v>
+        <v>-0.2048830091953278</v>
       </c>
       <c r="D353" t="n">
-        <v>-1.409624934196472</v>
+        <v>0.4562484622001648</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>2.477360963821411</v>
+        <v>-6.337664127349854</v>
       </c>
       <c r="C354" t="n">
-        <v>-1.123146057128906</v>
+        <v>-0.2054016888141632</v>
       </c>
       <c r="D354" t="n">
-        <v>-1.275804281234741</v>
+        <v>0.4902971386909485</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>2.554861068725586</v>
+        <v>-6.358047962188721</v>
       </c>
       <c r="C355" t="n">
-        <v>-1.064111232757568</v>
+        <v>-0.2037809789180756</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.9977688193321228</v>
+        <v>0.4524233937263489</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>2.645678520202637</v>
+        <v>-6.633228778839111</v>
       </c>
       <c r="C356" t="n">
-        <v>-1.085835218429565</v>
+        <v>-0.194198340177536</v>
       </c>
       <c r="D356" t="n">
-        <v>-1.117990732192993</v>
+        <v>0.4807048439979553</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>2.792306900024414</v>
+        <v>-6.403979778289795</v>
       </c>
       <c r="C357" t="n">
-        <v>-1.067302346229553</v>
+        <v>-0.1052086725831032</v>
       </c>
       <c r="D357" t="n">
-        <v>-1.131452679634094</v>
+        <v>0.6173990368843079</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>2.873164653778076</v>
+        <v>-6.326221942901611</v>
       </c>
       <c r="C358" t="n">
-        <v>-1.104528665542603</v>
+        <v>-0.09365556389093399</v>
       </c>
       <c r="D358" t="n">
-        <v>-1.217368245124817</v>
+        <v>0.6177075505256653</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>2.661780118942261</v>
+        <v>-6.768536567687988</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.9963048100471497</v>
+        <v>-0.2365537583827972</v>
       </c>
       <c r="D359" t="n">
-        <v>-1.285133242607117</v>
+        <v>0.403545081615448</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>2.615735292434692</v>
+        <v>-7.115024089813232</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.7536225318908691</v>
+        <v>-0.340322345495224</v>
       </c>
       <c r="D360" t="n">
-        <v>-1.113417148590088</v>
+        <v>0.2708351016044617</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2.554095983505249</v>
+        <v>-7.570528984069824</v>
       </c>
       <c r="C361" t="n">
-        <v>-0.1009825989603996</v>
+        <v>-0.4881133735179901</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.5149781107902527</v>
+        <v>0.1066015288233757</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>2.796049833297729</v>
+        <v>-7.180468082427979</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.6089857220649719</v>
+        <v>-0.2583673894405365</v>
       </c>
       <c r="D362" t="n">
-        <v>-1.396185517311096</v>
+        <v>0.48118656873703</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>2.928798675537109</v>
+        <v>-7.001103401184082</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.5973752737045288</v>
+        <v>-0.1723327934741974</v>
       </c>
       <c r="D363" t="n">
-        <v>-1.352078437805176</v>
+        <v>0.6458259224891663</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>2.698809862136841</v>
+        <v>-7.522780418395996</v>
       </c>
       <c r="C364" t="n">
-        <v>-0.6706753373146057</v>
+        <v>-0.3452307879924774</v>
       </c>
       <c r="D364" t="n">
-        <v>-1.533257126808167</v>
+        <v>0.33286052942276</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>2.764507055282593</v>
+        <v>-7.148414611816406</v>
       </c>
       <c r="C365" t="n">
-        <v>-1.198798060417175</v>
+        <v>-0.1828245222568512</v>
       </c>
       <c r="D365" t="n">
-        <v>-1.711350083351135</v>
+        <v>0.6067971587181091</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>2.679117202758789</v>
+        <v>-7.456640243530273</v>
       </c>
       <c r="C366" t="n">
-        <v>-1.059149026870728</v>
+        <v>-0.2867114841938019</v>
       </c>
       <c r="D366" t="n">
-        <v>-1.541412949562073</v>
+        <v>0.4365866780281067</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>2.743971109390259</v>
+        <v>-7.392331600189209</v>
       </c>
       <c r="C367" t="n">
-        <v>-1.132251381874084</v>
+        <v>-0.2385948002338409</v>
       </c>
       <c r="D367" t="n">
-        <v>-1.433933973312378</v>
+        <v>0.5055781006813049</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>2.863139390945435</v>
+        <v>-7.197358131408691</v>
       </c>
       <c r="C368" t="n">
-        <v>-1.235663056373596</v>
+        <v>-0.1630448400974274</v>
       </c>
       <c r="D368" t="n">
-        <v>-1.67077362537384</v>
+        <v>0.6365429759025574</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2.80083703994751</v>
+        <v>-7.191483497619629</v>
       </c>
       <c r="C369" t="n">
-        <v>-1.235141396522522</v>
+        <v>-0.1656379401683807</v>
       </c>
       <c r="D369" t="n">
-        <v>-1.708135604858398</v>
+        <v>0.6366761326789856</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>3.019722461700439</v>
+        <v>-6.592387676239014</v>
       </c>
       <c r="C370" t="n">
-        <v>-1.652968525886536</v>
+        <v>0.07393770664930344</v>
       </c>
       <c r="D370" t="n">
-        <v>-1.93647563457489</v>
+        <v>1.035032510757446</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>2.749305486679077</v>
+        <v>-7.792855739593506</v>
       </c>
       <c r="C371" t="n">
-        <v>-1.397123456001282</v>
+        <v>-0.274052768945694</v>
       </c>
       <c r="D371" t="n">
-        <v>-2.076684474945068</v>
+        <v>0.5094572901725769</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>2.716004848480225</v>
+        <v>-7.88314962387085</v>
       </c>
       <c r="C372" t="n">
-        <v>-1.162458777427673</v>
+        <v>-0.3349473178386688</v>
       </c>
       <c r="D372" t="n">
-        <v>-1.736128449440002</v>
+        <v>0.4039815068244934</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>2.686568737030029</v>
+        <v>-8.179293632507324</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.9323040246963501</v>
+        <v>-0.4133028090000153</v>
       </c>
       <c r="D373" t="n">
-        <v>-1.680716753005981</v>
+        <v>0.3466798663139343</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>2.855635643005371</v>
+        <v>-8.085827827453613</v>
       </c>
       <c r="C374" t="n">
-        <v>-1.417412877082825</v>
+        <v>-0.2058251798152924</v>
       </c>
       <c r="D374" t="n">
-        <v>-2.343551397323608</v>
+        <v>0.7579990029335022</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>2.895968675613403</v>
+        <v>-8.019772529602051</v>
       </c>
       <c r="C375" t="n">
-        <v>-1.739886045455933</v>
+        <v>-0.1548626124858856</v>
       </c>
       <c r="D375" t="n">
-        <v>-2.402733564376831</v>
+        <v>0.8060796856880188</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>2.823026418685913</v>
+        <v>-8.227662086486816</v>
       </c>
       <c r="C376" t="n">
-        <v>-1.540794014930725</v>
+        <v>-0.2556488811969757</v>
       </c>
       <c r="D376" t="n">
-        <v>-2.411641120910645</v>
+        <v>0.6339442133903503</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>2.910364627838135</v>
+        <v>-8.315998077392578</v>
       </c>
       <c r="C377" t="n">
-        <v>-1.766554832458496</v>
+        <v>-0.1995104849338531</v>
       </c>
       <c r="D377" t="n">
-        <v>-2.569197416305542</v>
+        <v>0.7623792290687561</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>2.739009380340576</v>
+        <v>-8.548243522644043</v>
       </c>
       <c r="C378" t="n">
-        <v>-1.379641890525818</v>
+        <v>-0.3472428619861603</v>
       </c>
       <c r="D378" t="n">
-        <v>-2.268108606338501</v>
+        <v>0.5096356272697449</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>2.876978397369385</v>
+        <v>-8.276640892028809</v>
       </c>
       <c r="C379" t="n">
-        <v>-1.628710627555847</v>
+        <v>-0.2360450327396393</v>
       </c>
       <c r="D379" t="n">
-        <v>-2.356149435043335</v>
+        <v>0.6716462969779968</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>2.992689847946167</v>
+        <v>-8.02916145324707</v>
       </c>
       <c r="C380" t="n">
-        <v>-1.867048382759094</v>
+        <v>-0.1085225120186806</v>
       </c>
       <c r="D380" t="n">
-        <v>-2.516660451889038</v>
+        <v>0.9153252243995667</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>3.027017593383789</v>
+        <v>-7.748679637908936</v>
       </c>
       <c r="C381" t="n">
-        <v>-1.768391847610474</v>
+        <v>-0.05210373550653458</v>
       </c>
       <c r="D381" t="n">
-        <v>-2.403146743774414</v>
+        <v>1.013033390045166</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>2.997113466262817</v>
+        <v>-7.872971057891846</v>
       </c>
       <c r="C382" t="n">
-        <v>-1.919634819030762</v>
+        <v>-0.06470874696969986</v>
       </c>
       <c r="D382" t="n">
-        <v>-2.563671827316284</v>
+        <v>0.9614344239234924</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>2.843565702438354</v>
+        <v>-8.826967239379883</v>
       </c>
       <c r="C383" t="n">
-        <v>-2.013087749481201</v>
+        <v>-0.2426140606403351</v>
       </c>
       <c r="D383" t="n">
-        <v>-2.917800188064575</v>
+        <v>0.6745299696922302</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>2.683813095092773</v>
+        <v>-8.942039489746094</v>
       </c>
       <c r="C384" t="n">
-        <v>-1.743270754814148</v>
+        <v>-0.3677028119564056</v>
       </c>
       <c r="D384" t="n">
-        <v>-2.695707321166992</v>
+        <v>0.4530157446861267</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>2.668819427490234</v>
+        <v>-9.158819198608398</v>
       </c>
       <c r="C385" t="n">
-        <v>-1.707266449928284</v>
+        <v>-0.5135690569877625</v>
       </c>
       <c r="D385" t="n">
-        <v>-2.82047176361084</v>
+        <v>0.2789481282234192</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>2.628170728683472</v>
+        <v>-9.268389701843262</v>
       </c>
       <c r="C386" t="n">
-        <v>-2.087214946746826</v>
+        <v>-0.5056313276290894</v>
       </c>
       <c r="D386" t="n">
-        <v>-3.277706146240234</v>
+        <v>0.3244019150733948</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>2.963183879852295</v>
+        <v>-8.581097602844238</v>
       </c>
       <c r="C387" t="n">
-        <v>-2.311416149139404</v>
+        <v>-0.06529507786035538</v>
       </c>
       <c r="D387" t="n">
-        <v>-3.193194627761841</v>
+        <v>1.041346311569214</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>2.724026679992676</v>
+        <v>-9.037692070007324</v>
       </c>
       <c r="C388" t="n">
-        <v>-2.129338979721069</v>
+        <v>-0.2859856188297272</v>
       </c>
       <c r="D388" t="n">
-        <v>-3.158953666687012</v>
+        <v>0.6165445446968079</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>2.837510585784912</v>
+        <v>-8.856219291687012</v>
       </c>
       <c r="C389" t="n">
-        <v>-2.33863377571106</v>
+        <v>-0.1599456965923309</v>
       </c>
       <c r="D389" t="n">
-        <v>-3.184553146362305</v>
+        <v>0.8453356623649597</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>2.6951003074646</v>
+        <v>-9.076993942260742</v>
       </c>
       <c r="C390" t="n">
-        <v>-2.120271444320679</v>
+        <v>-0.3048083484172821</v>
       </c>
       <c r="D390" t="n">
-        <v>-3.022998332977295</v>
+        <v>0.5953362584114075</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>2.824819564819336</v>
+        <v>-8.813957214355469</v>
       </c>
       <c r="C391" t="n">
-        <v>-2.42140007019043</v>
+        <v>-0.1502705514431</v>
       </c>
       <c r="D391" t="n">
-        <v>-3.157160997390747</v>
+        <v>0.8496968150138855</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>2.917378425598145</v>
+        <v>-8.843147277832031</v>
       </c>
       <c r="C392" t="n">
-        <v>-2.247461080551147</v>
+        <v>-0.1478935182094574</v>
       </c>
       <c r="D392" t="n">
-        <v>-3.035567760467529</v>
+        <v>0.8630436062812805</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>3.042847156524658</v>
+        <v>-8.352862358093262</v>
       </c>
       <c r="C393" t="n">
-        <v>-2.359880924224854</v>
+        <v>0.006659293547272682</v>
       </c>
       <c r="D393" t="n">
-        <v>-3.035238981246948</v>
+        <v>1.138904452323914</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>3.168766260147095</v>
+        <v>-8.398517608642578</v>
       </c>
       <c r="C394" t="n">
-        <v>-2.757078886032104</v>
+        <v>0.1045506820082664</v>
       </c>
       <c r="D394" t="n">
-        <v>-3.380887746810913</v>
+        <v>1.311954498291016</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>2.777185678482056</v>
+        <v>-9.146312713623047</v>
       </c>
       <c r="C395" t="n">
-        <v>-2.148912668228149</v>
+        <v>-0.3186558783054352</v>
       </c>
       <c r="D395" t="n">
-        <v>-3.109497547149658</v>
+        <v>0.5740194916725159</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>2.784521818161011</v>
+        <v>-9.410816192626953</v>
       </c>
       <c r="C396" t="n">
-        <v>-1.948746085166931</v>
+        <v>-0.3772796094417572</v>
       </c>
       <c r="D396" t="n">
-        <v>-3.033593416213989</v>
+        <v>0.5285448431968689</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/real_enc.xlsx
+++ b/documents/latent_vector/real_enc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.052110314369202</v>
+        <v>-0.3026849925518036</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4689845442771912</v>
+        <v>1.192358493804932</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5354834794998169</v>
+        <v>0.3362948000431061</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.071320056915283</v>
+        <v>-0.3220923542976379</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4503501653671265</v>
+        <v>1.117458820343018</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5168033242225647</v>
+        <v>0.3078528046607971</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8414868712425232</v>
+        <v>-0.252936452627182</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4519584178924561</v>
+        <v>1.338175415992737</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5217331647872925</v>
+        <v>0.2773962318897247</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7806512713432312</v>
+        <v>-0.2740103602409363</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4338369071483612</v>
+        <v>1.24543309211731</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.501677930355072</v>
+        <v>0.2166459560394287</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.7542283535003662</v>
+        <v>-0.2928985059261322</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4263332188129425</v>
+        <v>1.247150421142578</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4861350059509277</v>
+        <v>0.1575101017951965</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5016381144523621</v>
+        <v>-0.3551492094993591</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.325753390789032</v>
+        <v>1.141482591629028</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3561976253986359</v>
+        <v>-0.006148261949419975</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4672566652297974</v>
+        <v>-0.3736217021942139</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3172001242637634</v>
+        <v>1.041006445884705</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3415598571300507</v>
+        <v>-0.03697394579648972</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3429380655288696</v>
+        <v>-0.4219439625740051</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2354854196310043</v>
+        <v>0.9893530607223511</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3192752599716187</v>
+        <v>-0.141760379076004</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2308523803949356</v>
+        <v>-0.4591891765594482</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1525514423847198</v>
+        <v>0.9628956317901611</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2672848701477051</v>
+        <v>-0.2421309053897858</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2209271937608719</v>
+        <v>-0.5064578652381897</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.09927108138799667</v>
+        <v>1.455357551574707</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1512856334447861</v>
+        <v>-0.2955595850944519</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3664864897727966</v>
+        <v>-0.375127375125885</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2129535228013992</v>
+        <v>1.455477237701416</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2017217129468918</v>
+        <v>0.05280481278896332</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6036813259124756</v>
+        <v>-0.3384816646575928</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2956835329532623</v>
+        <v>1.853654861450195</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2967425286769867</v>
+        <v>0.2403936386108398</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.8057616949081421</v>
+        <v>-0.5238835215568542</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2949576377868652</v>
+        <v>1.620389819145203</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.328641265630722</v>
+        <v>-0.350523978471756</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8322155475616455</v>
+        <v>-0.5916623473167419</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2874917685985565</v>
+        <v>1.837364077568054</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3278368711471558</v>
+        <v>-0.4363938271999359</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3986901640892029</v>
+        <v>-0.3259205520153046</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1770540624856949</v>
+        <v>1.768394589424133</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1837443262338638</v>
+        <v>0.02005243115127087</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4447356462478638</v>
+        <v>-0.2891227304935455</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2301336377859116</v>
+        <v>1.601184964179993</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2328809648752213</v>
+        <v>0.07802191376686096</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6271038055419922</v>
+        <v>-0.2615343630313873</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4169737994670868</v>
+        <v>1.340373635292053</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3783230483531952</v>
+        <v>0.08806191384792328</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.6358693838119507</v>
+        <v>-0.2558265328407288</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4413881003856659</v>
+        <v>1.185972809791565</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4062983691692352</v>
+        <v>0.06601998209953308</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.546873927116394</v>
+        <v>-0.295401394367218</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3758910596370697</v>
+        <v>1.094873785972595</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3456515967845917</v>
+        <v>-0.03765487670898438</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.6666164398193359</v>
+        <v>-0.3022362589836121</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4932125210762024</v>
+        <v>0.8281227350234985</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5293670892715454</v>
+        <v>0.03657585382461548</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6810114979743958</v>
+        <v>-0.313140869140625</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5061491131782532</v>
+        <v>0.7764794826507568</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5594851970672607</v>
+        <v>0.02202666737139225</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.7704967260360718</v>
+        <v>-0.2810045480728149</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5676984190940857</v>
+        <v>0.6862121820449829</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7350099682807922</v>
+        <v>0.1155750602483749</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9846729040145874</v>
+        <v>-0.1912496089935303</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.7371364831924438</v>
+        <v>0.9783235788345337</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.8414227366447449</v>
+        <v>0.3166441023349762</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.196877121925354</v>
+        <v>-0.1200927272439003</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9313971996307373</v>
+        <v>0.9360699653625488</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.184050559997559</v>
+        <v>0.5467488765716553</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.661458253860474</v>
+        <v>-0.03827819973230362</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.358914494514465</v>
+        <v>1.016605496406555</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.479265689849854</v>
+        <v>0.4635315835475922</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.178656578063965</v>
+        <v>-0.0121128112077713</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.728607177734375</v>
+        <v>0.6364396810531616</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.870829820632935</v>
+        <v>0.4538789391517639</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.73308539390564</v>
+        <v>0.01496543735265732</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.030299186706543</v>
+        <v>0.6212190389633179</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.235754489898682</v>
+        <v>0.6472033262252808</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.223439693450928</v>
+        <v>-0.04414239525794983</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.475410580635071</v>
+        <v>0.4999485611915588</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.700997352600098</v>
+        <v>0.4517200589179993</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.267743825912476</v>
+        <v>-0.02226488292217255</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.466060161590576</v>
+        <v>0.5791211128234863</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.715641736984253</v>
+        <v>0.3896003663539886</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.250502586364746</v>
+        <v>-0.04243482649326324</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.436558723449707</v>
+        <v>0.4796445369720459</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.691025137901306</v>
+        <v>0.3573063015937805</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.064884901046753</v>
+        <v>-0.08013599365949631</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.266800999641418</v>
+        <v>0.3305093050003052</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.51455283164978</v>
+        <v>0.2802680730819702</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.943375587463379</v>
+        <v>-0.1119238883256912</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.143606305122375</v>
+        <v>0.3653483688831329</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.370260119438171</v>
+        <v>0.1499097645282745</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.809842944145203</v>
+        <v>-0.1920454204082489</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.068191409111023</v>
+        <v>0.2724541425704956</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.241937756538391</v>
+        <v>0.01263567991554737</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.806786179542542</v>
+        <v>-0.145933210849762</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.053012132644653</v>
+        <v>0.4149898886680603</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.223646759986877</v>
+        <v>0.08039972186088562</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.153735399246216</v>
+        <v>-0.007600344717502594</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.369949579238892</v>
+        <v>0.5441535115242004</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.581279158592224</v>
+        <v>0.3238792717456818</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.694478988647461</v>
+        <v>0.09827876091003418</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.870243310928345</v>
+        <v>0.7927875518798828</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.024070024490356</v>
+        <v>0.575194239616394</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.217777252197266</v>
+        <v>0.06464647501707077</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.167804360389709</v>
+        <v>0.7115654945373535</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.270215749740601</v>
+        <v>0.3586551249027252</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.032193660736084</v>
+        <v>0.02758488804101944</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.054648995399475</v>
+        <v>0.7799959182739258</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.131288647651672</v>
+        <v>0.2967432141304016</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.58299708366394</v>
+        <v>-0.05049724876880646</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.826522171497345</v>
+        <v>1.142170310020447</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7673119902610779</v>
+        <v>0.175712525844574</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.608467221260071</v>
+        <v>-0.06960821896791458</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.8556967377662659</v>
+        <v>1.008370637893677</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.8395984768867493</v>
+        <v>0.1504285782575607</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.618626117706299</v>
+        <v>-0.0403849333524704</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.8676700592041016</v>
+        <v>1.057899713516235</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.7918166518211365</v>
+        <v>0.2119726240634918</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.582774758338928</v>
+        <v>-0.0682109147310257</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.8412588238716125</v>
+        <v>1.038703322410583</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.8107416033744812</v>
+        <v>0.1236172765493393</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.648389339447021</v>
+        <v>-0.09309353679418564</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.8972006440162659</v>
+        <v>0.8432216644287109</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.9377453923225403</v>
+        <v>0.0360693484544754</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.690385341644287</v>
+        <v>-0.09912621229887009</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9351182579994202</v>
+        <v>0.7660492658615112</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.9693451523780823</v>
+        <v>0.01072604767978191</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.781856060028076</v>
+        <v>-0.1324770450592041</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.014727473258972</v>
+        <v>0.5760917663574219</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.060805559158325</v>
+        <v>-0.0353703647851944</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.842833161354065</v>
+        <v>-0.04158055037260056</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.044964790344238</v>
+        <v>0.5960919260978699</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.103900194168091</v>
+        <v>0.1715915650129318</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.861335396766663</v>
+        <v>-0.02040946483612061</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.9782816171646118</v>
+        <v>0.8672513961791992</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.034026861190796</v>
+        <v>0.2029184848070145</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.806956648826599</v>
+        <v>0.04531081020832062</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.8873305320739746</v>
+        <v>1.102838039398193</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.9103796482086182</v>
+        <v>0.2628606557846069</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.645286083221436</v>
+        <v>0.1411980986595154</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.352754831314087</v>
+        <v>0.6048151254653931</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.607060313224792</v>
+        <v>0.3149693310260773</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-2.704615592956543</v>
+        <v>0.1963611245155334</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.357889652252197</v>
+        <v>0.6896987557411194</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.592543721199036</v>
+        <v>0.3594852983951569</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-2.930953979492188</v>
+        <v>0.1356265544891357</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.517696976661682</v>
+        <v>0.4498003125190735</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.948245406150818</v>
+        <v>0.3958001136779785</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-2.870003461837769</v>
+        <v>0.1241646632552147</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.522629022598267</v>
+        <v>0.3800136148929596</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.928764581680298</v>
+        <v>0.4000025391578674</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-3.033835172653198</v>
+        <v>0.1680896580219269</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.647665619850159</v>
+        <v>0.4510046243667603</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.039335489273071</v>
+        <v>0.4890569150447845</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-3.060419797897339</v>
+        <v>0.1205702647566795</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.713095784187317</v>
+        <v>0.314757913351059</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.168010473251343</v>
+        <v>0.4325803220272064</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.110403060913086</v>
+        <v>0.08751962333917618</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.860777854919434</v>
+        <v>0.1337914913892746</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.259523630142212</v>
+        <v>0.429989367723465</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-3.034015893936157</v>
+        <v>0.08178624510765076</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.738161563873291</v>
+        <v>0.1018974930047989</v>
       </c>
       <c r="D57" t="n">
-        <v>-2.152952194213867</v>
+        <v>0.3804011046886444</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.963074207305908</v>
+        <v>0.03094352036714554</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.58335554599762</v>
+        <v>-0.02268064022064209</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.958098292350769</v>
+        <v>0.264837384223938</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-3.250766754150391</v>
+        <v>0.09684137254953384</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.880200266838074</v>
+        <v>0.08311489224433899</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.342547416687012</v>
+        <v>0.4027726352214813</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-3.408606767654419</v>
+        <v>0.1768795549869537</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.115740776062012</v>
+        <v>0.3190027475357056</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.53721022605896</v>
+        <v>0.5820218324661255</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-3.644289970397949</v>
+        <v>0.2338827848434448</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.35443639755249</v>
+        <v>0.4146332740783691</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.747881174087524</v>
+        <v>0.7259700894355774</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-4.607674598693848</v>
+        <v>0.4980558156967163</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.698876619338989</v>
+        <v>0.2392608374357224</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.157279253005981</v>
+        <v>0.8109502792358398</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-4.581547737121582</v>
+        <v>0.426611065864563</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.764103174209595</v>
+        <v>0.04013517498970032</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.348508358001709</v>
+        <v>0.6524272561073303</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.57779598236084</v>
+        <v>0.3534525036811829</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.938298463821411</v>
+        <v>0.1455843448638916</v>
       </c>
       <c r="D64" t="n">
-        <v>-3.474529027938843</v>
+        <v>0.7790812253952026</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-4.249995231628418</v>
+        <v>0.3103103935718536</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.642136812210083</v>
+        <v>0.1911674737930298</v>
       </c>
       <c r="D65" t="n">
-        <v>-3.171859979629517</v>
+        <v>0.6650622487068176</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.855637788772583</v>
+        <v>0.2780599594116211</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.196135759353638</v>
+        <v>0.3326578438282013</v>
       </c>
       <c r="D66" t="n">
-        <v>-2.677427530288696</v>
+        <v>0.5930657386779785</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-3.720702409744263</v>
+        <v>0.225909948348999</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.140968799591064</v>
+        <v>0.2573046386241913</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.644517421722412</v>
+        <v>0.4891281723976135</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.903498888015747</v>
+        <v>0.2340876460075378</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.882799744606018</v>
+        <v>0.2038962244987488</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.439326763153076</v>
+        <v>0.3514702618122101</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-4.132581233978271</v>
+        <v>0.2274781465530396</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.963962316513062</v>
+        <v>0.09907081723213196</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.550733804702759</v>
+        <v>0.3053485453128815</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-4.280716896057129</v>
+        <v>0.1912531554698944</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.981003999710083</v>
+        <v>0.02546301484107971</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.611173391342163</v>
+        <v>0.2061247229576111</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-4.090794086456299</v>
+        <v>0.2662046253681183</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.943357825279236</v>
+        <v>0.1772424280643463</v>
       </c>
       <c r="D71" t="n">
-        <v>-2.559569597244263</v>
+        <v>0.3107766807079315</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-4.0149827003479</v>
+        <v>0.3316984176635742</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.994183897972107</v>
+        <v>0.3130695521831512</v>
       </c>
       <c r="D72" t="n">
-        <v>-2.620688676834106</v>
+        <v>0.4283028841018677</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-3.98302698135376</v>
+        <v>0.3843889832496643</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.04587197303772</v>
+        <v>0.4554039835929871</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.650057554244995</v>
+        <v>0.5235023498535156</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-3.583971738815308</v>
+        <v>0.4125416576862335</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.713779330253601</v>
+        <v>0.5515825748443604</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.165321350097656</v>
+        <v>0.4676172733306885</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-3.514410734176636</v>
+        <v>0.3569939136505127</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.640865564346313</v>
+        <v>0.5813993215560913</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.065146684646606</v>
+        <v>0.3956528902053833</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-3.204086303710938</v>
+        <v>0.2942094206809998</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.483907341957092</v>
+        <v>0.6205196380615234</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.838916540145874</v>
+        <v>0.319683164358139</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-3.256160020828247</v>
+        <v>0.2913735508918762</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.508513808250427</v>
+        <v>0.5859741568565369</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.871830582618713</v>
+        <v>0.3135795593261719</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-3.211663722991943</v>
+        <v>0.3159030377864838</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.498276114463806</v>
+        <v>0.5608621835708618</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.862396478652954</v>
+        <v>0.3464482128620148</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-3.2031409740448</v>
+        <v>0.2892329692840576</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.470954656600952</v>
+        <v>0.5798286199569702</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.821508646011353</v>
+        <v>0.2935770153999329</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-3.490993022918701</v>
+        <v>0.2572544515132904</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.565460324287415</v>
+        <v>0.4332550764083862</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.92759895324707</v>
+        <v>0.2257542908191681</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-3.414914608001709</v>
+        <v>0.1989877820014954</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.508345007896423</v>
+        <v>0.5188373327255249</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.877137541770935</v>
+        <v>0.1202107295393944</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-3.456627368927002</v>
+        <v>0.1523566842079163</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.501630425453186</v>
+        <v>0.5152148008346558</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.882189035415649</v>
+        <v>0.04384679347276688</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.171566247940063</v>
+        <v>0.213037520647049</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.389099478721619</v>
+        <v>0.6671736240386963</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.72597348690033</v>
+        <v>0.1760850846767426</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.541390419006348</v>
+        <v>0.2258711755275726</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.109160780906677</v>
+        <v>0.9694610834121704</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.351433992385864</v>
+        <v>0.2540526390075684</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.306831359863281</v>
+        <v>0.2786681652069092</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.022634744644165</v>
+        <v>1.076627492904663</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.191856026649475</v>
+        <v>0.3437179028987885</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.799444437026978</v>
+        <v>0.2884601056575775</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.202698588371277</v>
+        <v>0.8828673362731934</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.479803919792175</v>
+        <v>0.263155996799469</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.761786699295044</v>
+        <v>0.2954012751579285</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.179039835929871</v>
+        <v>0.9096543788909912</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.477476239204407</v>
+        <v>0.2504861652851105</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-2.667719841003418</v>
+        <v>0.2961553931236267</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.138500094413757</v>
+        <v>0.8792088031768799</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.3785719871521</v>
+        <v>0.2525095343589783</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-2.605382680892944</v>
+        <v>0.3029171228408813</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.099652886390686</v>
+        <v>0.9027256965637207</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.318496823310852</v>
+        <v>0.2706039845943451</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.568031787872314</v>
+        <v>0.2687034606933594</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.062379956245422</v>
+        <v>0.9218751192092896</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.27160120010376</v>
+        <v>0.2180828303098679</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.705629587173462</v>
+        <v>0.2644534707069397</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.110154151916504</v>
+        <v>0.8562719821929932</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.320509314537048</v>
+        <v>0.1941050887107849</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-2.854950904846191</v>
+        <v>0.2132514119148254</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.177619099617004</v>
+        <v>0.7995960712432861</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.434261202812195</v>
+        <v>0.1062958687543869</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-3.015030145645142</v>
+        <v>0.1896097362041473</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.245084643363953</v>
+        <v>0.7208913564682007</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.530797362327576</v>
+        <v>0.05280802398920059</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-3.268881559371948</v>
+        <v>0.1652222573757172</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.360759496688843</v>
+        <v>0.5804738998413086</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.68070912361145</v>
+        <v>-0.01377580128610134</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-3.357418537139893</v>
+        <v>0.2693175971508026</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.385084509849548</v>
+        <v>0.5613917708396912</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.68338668346405</v>
+        <v>0.136968731880188</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-3.093134164810181</v>
+        <v>0.4138030707836151</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.220572590827942</v>
+        <v>0.7312846183776855</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.453453183174133</v>
+        <v>0.386976420879364</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-2.995012283325195</v>
+        <v>0.5290024280548096</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.208569169044495</v>
+        <v>0.7966796159744263</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.362757563591003</v>
+        <v>0.5660281777381897</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-3.415539503097534</v>
+        <v>0.5603533387184143</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.373206853866577</v>
+        <v>0.5956517457962036</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.620178818702698</v>
+        <v>0.538210391998291</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-3.697362422943115</v>
+        <v>0.5414228439331055</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.512946128845215</v>
+        <v>0.274037092924118</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.782010078430176</v>
+        <v>0.479207843542099</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-3.501626968383789</v>
+        <v>0.5895799398422241</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.425580382347107</v>
+        <v>0.4811020493507385</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.626668572425842</v>
+        <v>0.5648897290229797</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-3.584769487380981</v>
+        <v>0.5176668763160706</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.395247936248779</v>
+        <v>0.4882895946502686</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.6452716588974</v>
+        <v>0.4519601464271545</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-3.488192319869995</v>
+        <v>0.5350271463394165</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.351584315299988</v>
+        <v>0.5631117224693298</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.588873028755188</v>
+        <v>0.4882455468177795</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-3.522052526473999</v>
+        <v>0.4311156272888184</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.321548342704773</v>
+        <v>0.5596990585327148</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.534289479255676</v>
+        <v>0.3453323841094971</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-3.883640050888062</v>
+        <v>0.411545991897583</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.484076023101807</v>
+        <v>0.3015834987163544</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.717503547668457</v>
+        <v>0.2799985110759735</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-4.02248477935791</v>
+        <v>0.3509685099124908</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.507225632667542</v>
+        <v>0.2319760918617249</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.76682460308075</v>
+        <v>0.1701641529798508</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-4.148247718811035</v>
+        <v>0.2767441868782043</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.516958713531494</v>
+        <v>0.2575121223926544</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.827903151512146</v>
+        <v>0.06531961262226105</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-3.86200213432312</v>
+        <v>0.3217491209506989</v>
       </c>
       <c r="C107" t="n">
-        <v>-1.415650367736816</v>
+        <v>0.4910929501056671</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.648784756660461</v>
+        <v>0.1519807428121567</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-3.353582143783569</v>
+        <v>0.4458445608615875</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.236976861953735</v>
+        <v>0.7054911255836487</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.387130618095398</v>
+        <v>0.3827345669269562</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-3.032516717910767</v>
+        <v>0.4683864116668701</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.143423080444336</v>
+        <v>0.8882744312286377</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.252078056335449</v>
+        <v>0.4471659958362579</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-3.636198282241821</v>
+        <v>0.3802695870399475</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.247266411781311</v>
+        <v>0.7052103281021118</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.446270108222961</v>
+        <v>0.2035752832889557</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-3.290496587753296</v>
+        <v>0.3805975914001465</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.113442182540894</v>
+        <v>0.8481036424636841</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.286136984825134</v>
+        <v>0.2100650072097778</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-3.165994167327881</v>
+        <v>0.4291333854198456</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.09023129940033</v>
+        <v>0.904465913772583</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.226012825965881</v>
+        <v>0.2859308123588562</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-3.353634834289551</v>
+        <v>0.4171266555786133</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.160913109779358</v>
+        <v>0.785973072052002</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.314879298210144</v>
+        <v>0.2482167929410934</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-3.073184490203857</v>
+        <v>0.4684001207351685</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.099779486656189</v>
+        <v>0.963412880897522</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.229757308959961</v>
+        <v>0.3507678806781769</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-3.008140802383423</v>
+        <v>0.3702067136764526</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.015813946723938</v>
+        <v>0.9490869045257568</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.152725100517273</v>
+        <v>0.1941099017858505</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-3.067791700363159</v>
+        <v>0.2880272567272186</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.00485372543335</v>
+        <v>0.9394893646240234</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.144592881202698</v>
+        <v>0.07713776826858521</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-3.080142498016357</v>
+        <v>0.2385307252407074</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.000432372093201</v>
+        <v>0.9372509717941284</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.132014155387878</v>
+        <v>-0.003963498398661613</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-3.219223260879517</v>
+        <v>0.2744702398777008</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.073249101638794</v>
+        <v>0.7308776378631592</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.192329287528992</v>
+        <v>0.01115629449486732</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-2.961127758026123</v>
+        <v>0.2912050485610962</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.9680520296096802</v>
+        <v>0.9301563501358032</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.092176914215088</v>
+        <v>0.08173464238643646</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-2.77239727973938</v>
+        <v>0.3397173881530762</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.9532755613327026</v>
+        <v>1.163137197494507</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.066813588142395</v>
+        <v>0.2055312395095825</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-2.636873960494995</v>
+        <v>0.4318779706954956</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.9578962326049805</v>
+        <v>1.299230337142944</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.054793477058411</v>
+        <v>0.369265615940094</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-2.546219348907471</v>
+        <v>0.4480319917201996</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.9040216207504272</v>
+        <v>1.298969507217407</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9698034524917603</v>
+        <v>0.3363261818885803</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-2.76944637298584</v>
+        <v>0.3800866603851318</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.9178710579872131</v>
+        <v>1.065411448478699</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.019428372383118</v>
+        <v>0.1775951981544495</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-2.73035740852356</v>
+        <v>0.3877884745597839</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.9307900667190552</v>
+        <v>1.20108699798584</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.012648344039917</v>
+        <v>0.1905707120895386</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-2.674313068389893</v>
+        <v>0.4409615695476532</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.8984705209732056</v>
+        <v>1.209930896759033</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.9455949664115906</v>
+        <v>0.2210635095834732</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-2.58295726776123</v>
+        <v>0.493855893611908</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.8872866630554199</v>
+        <v>1.153880715370178</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9029775261878967</v>
+        <v>0.3023785054683685</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-2.568371772766113</v>
+        <v>0.4772911071777344</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.8444082140922546</v>
+        <v>0.9620742797851562</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.8541379570960999</v>
+        <v>0.2493848204612732</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-2.679181098937988</v>
+        <v>0.4387661218643188</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.848925769329071</v>
+        <v>0.8801082372665405</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.87283855676651</v>
+        <v>0.1623846292495728</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-2.797475814819336</v>
+        <v>0.3862473368644714</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.8743116855621338</v>
+        <v>0.8315047025680542</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9069953560829163</v>
+        <v>0.07080595195293427</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-2.978269338607788</v>
+        <v>0.2997939884662628</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.9299225807189941</v>
+        <v>0.8531018495559692</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.001353621482849</v>
+        <v>-0.02461858280003071</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-2.687666177749634</v>
+        <v>0.4473901093006134</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.8658190965652466</v>
+        <v>0.9999451637268066</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.9000910520553589</v>
+        <v>0.1815631091594696</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-2.271539688110352</v>
+        <v>0.5808248519897461</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.7968934178352356</v>
+        <v>1.195484042167664</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.755419909954071</v>
+        <v>0.4292265474796295</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-2.057384014129639</v>
+        <v>0.6471479535102844</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.7396247982978821</v>
+        <v>1.378382563591003</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.6863111257553101</v>
+        <v>0.5260524749755859</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-2.523248672485352</v>
+        <v>0.5468336939811707</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.8010331988334656</v>
+        <v>1.177215814590454</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.8000897765159607</v>
+        <v>0.2612769603729248</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-2.650639772415161</v>
+        <v>0.4447407722473145</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.7931124567985535</v>
+        <v>0.9576836824417114</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.8093931078910828</v>
+        <v>0.1001923456788063</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-2.518332958221436</v>
+        <v>0.500540018081665</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.7483838796615601</v>
+        <v>1.109794735908508</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.7414594292640686</v>
+        <v>0.1625556647777557</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-2.496903657913208</v>
+        <v>0.5163165926933289</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.7318969368934631</v>
+        <v>1.120172619819641</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.7219721078872681</v>
+        <v>0.1808683574199677</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-2.315935134887695</v>
+        <v>0.550203800201416</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.7164109945297241</v>
+        <v>1.345998883247375</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.6859920620918274</v>
+        <v>0.2609382271766663</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-2.426203012466431</v>
+        <v>0.5070968270301819</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.7109864354133606</v>
+        <v>1.196846604347229</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.6932104229927063</v>
+        <v>0.1688794642686844</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-2.638005018234253</v>
+        <v>0.4372082650661469</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.7480512261390686</v>
+        <v>1.050413608551025</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.7572312951087952</v>
+        <v>0.03648784756660461</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-2.747303247451782</v>
+        <v>0.4255459308624268</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.7804475426673889</v>
+        <v>0.8719741106033325</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.7795763611793518</v>
+        <v>-0.02401292882859707</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-2.948452711105347</v>
+        <v>0.3853586912155151</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.8674417734146118</v>
+        <v>0.7318434715270996</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.8914307951927185</v>
+        <v>-0.04046694934368134</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-2.607023477554321</v>
+        <v>0.5243776440620422</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.7721264958381653</v>
+        <v>1.031922936439514</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.7849154472351074</v>
+        <v>0.1785538345575333</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-2.413211822509766</v>
+        <v>0.592204213142395</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.7463406920433044</v>
+        <v>1.17638635635376</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.7410411238670349</v>
+        <v>0.3170203566551208</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-3.765928983688354</v>
+        <v>0.9537256956100464</v>
       </c>
       <c r="C145" t="n">
-        <v>-1.256623983383179</v>
+        <v>1.163711190223694</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.210867524147034</v>
+        <v>0.7497969269752502</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.027548313140869</v>
+        <v>0.9615586400032043</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.478048205375671</v>
+        <v>0.4146404266357422</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.555402040481567</v>
+        <v>0.6336489319801331</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.403087139129639</v>
+        <v>1.032496094703674</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.589489698410034</v>
+        <v>0.3112950325012207</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.718878149986267</v>
+        <v>0.5678901076316833</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-5.017421722412109</v>
+        <v>0.9643344283103943</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.540831446647644</v>
+        <v>0.4558625519275665</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.659500479698181</v>
+        <v>0.5216532349586487</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-4.720655918121338</v>
+        <v>0.9360911846160889</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.477277755737305</v>
+        <v>0.5742701292037964</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.577729344367981</v>
+        <v>0.4806255996227264</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-4.428019046783447</v>
+        <v>0.9149640202522278</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.398765325546265</v>
+        <v>0.679469108581543</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.46491551399231</v>
+        <v>0.4886131584644318</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-4.24823522567749</v>
+        <v>0.8690534234046936</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.267703294754028</v>
+        <v>0.633710503578186</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.33131730556488</v>
+        <v>0.3512263298034668</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-4.131018161773682</v>
+        <v>0.7443754076957703</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.181133151054382</v>
+        <v>0.4802525043487549</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.252580046653748</v>
+        <v>0.1748629212379456</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-3.93709921836853</v>
+        <v>0.6467059254646301</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.09322988986969</v>
+        <v>0.4550613760948181</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.146844148635864</v>
+        <v>0.07858898490667343</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-3.779696941375732</v>
+        <v>0.6153314709663391</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.062553644180298</v>
+        <v>0.4948505759239197</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.076656937599182</v>
+        <v>0.09644655138254166</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-3.664743185043335</v>
+        <v>0.6556879878044128</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.077608346939087</v>
+        <v>0.5972968339920044</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.064104795455933</v>
+        <v>0.2256751954555511</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-3.647087812423706</v>
+        <v>0.7237793207168579</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.107519626617432</v>
+        <v>0.8338640928268433</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.127770066261292</v>
+        <v>0.3721145689487457</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-2.554914474487305</v>
+        <v>0.6905099749565125</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.7898120284080505</v>
+        <v>1.577846765518188</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.7208131551742554</v>
+        <v>0.3731389045715332</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.493512988090515</v>
+        <v>0.4384182095527649</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.3618752658367157</v>
+        <v>2.03396201133728</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1891777813434601</v>
+        <v>-0.1870359480381012</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.414381861686707</v>
+        <v>0.2428900301456451</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.2251577973365784</v>
+        <v>2.084167718887329</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.1579578667879105</v>
+        <v>-0.6968254446983337</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.9168473482131958</v>
+        <v>0.3153762817382812</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.1194125637412071</v>
+        <v>2.674046039581299</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.04993709176778793</v>
+        <v>-0.444919764995575</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.04837954044342</v>
+        <v>0.3239865005016327</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.1371286809444427</v>
+        <v>2.542282342910767</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.072711281478405</v>
+        <v>-0.5054505467414856</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.8315384984016418</v>
+        <v>0.4117397367954254</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.1199183166027069</v>
+        <v>2.783273458480835</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.03568971902132034</v>
+        <v>-0.29248046875</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7617508172988892</v>
+        <v>0.4345008730888367</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.07017359882593155</v>
+        <v>2.828547716140747</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.01647218503057957</v>
+        <v>-0.3579017519950867</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.1994788646698</v>
+        <v>0.3416642546653748</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.1432851254940033</v>
+        <v>2.256051540374756</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.06282909959554672</v>
+        <v>-0.7144513726234436</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.506939768791199</v>
+        <v>0.3056587874889374</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.2192736566066742</v>
+        <v>1.998417139053345</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.100068025290966</v>
+        <v>-0.7731002569198608</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.678093552589417</v>
+        <v>0.2629846334457397</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.2584202587604523</v>
+        <v>1.910549759864807</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1392901837825775</v>
+        <v>-0.7648364305496216</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.388851404190063</v>
+        <v>0.39310422539711</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.2388004064559937</v>
+        <v>2.09798526763916</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1055528596043587</v>
+        <v>-0.5608746409416199</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.153669118881226</v>
+        <v>0.4815702438354492</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.2348901331424713</v>
+        <v>2.27931022644043</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1086362302303314</v>
+        <v>-0.2163094878196716</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.096011519432068</v>
+        <v>0.5975131392478943</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.251828134059906</v>
+        <v>2.74880838394165</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1108941808342934</v>
+        <v>0.1249236240983009</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.853970289230347</v>
+        <v>0.5288759469985962</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.4711643159389496</v>
+        <v>1.811810970306396</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.253575325012207</v>
+        <v>-0.05188838392496109</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.981231212615967</v>
+        <v>0.4573546051979065</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.4681976139545441</v>
+        <v>1.694448113441467</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.3284397721290588</v>
+        <v>-0.2613882124423981</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.8961101770401</v>
+        <v>0.4973016381263733</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.464839369058609</v>
+        <v>1.769592761993408</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.3215988874435425</v>
+        <v>-0.1508522480726242</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-2.130503177642822</v>
+        <v>0.5338599681854248</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.512340247631073</v>
+        <v>1.706559300422668</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4233490228652954</v>
+        <v>-0.1717890202999115</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-2.082041263580322</v>
+        <v>0.6004261374473572</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.5026450157165527</v>
+        <v>1.876105427742004</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.466155469417572</v>
+        <v>-0.1354146301746368</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-2.262335538864136</v>
+        <v>0.5861648321151733</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.5301988124847412</v>
+        <v>1.533007860183716</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4401124119758606</v>
+        <v>-0.2445648610591888</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-2.484780073165894</v>
+        <v>0.5120075941085815</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.5948169827461243</v>
+        <v>1.239055871963501</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.4658080339431763</v>
+        <v>-0.375769168138504</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-2.571420669555664</v>
+        <v>0.5340773463249207</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.621921718120575</v>
+        <v>1.268247246742249</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.5370581746101379</v>
+        <v>-0.2797768414020538</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.865116357803345</v>
+        <v>0.4940017461776733</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.7433695793151855</v>
+        <v>0.9534924030303955</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6820428967475891</v>
+        <v>-0.2867386639118195</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-2.678618192672729</v>
+        <v>0.62306147813797</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.6817460656166077</v>
+        <v>1.350242018699646</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.6565485000610352</v>
+        <v>-0.03296097368001938</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-2.401038885116577</v>
+        <v>0.6630926728248596</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.6060869097709656</v>
+        <v>1.514925479888916</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.5982242822647095</v>
+        <v>0.04093631356954575</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-2.393462181091309</v>
+        <v>0.7139168977737427</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.6237627267837524</v>
+        <v>1.493244290351868</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.6211076974868774</v>
+        <v>0.1370634287595749</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-2.85516357421875</v>
+        <v>0.7140353322029114</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.7044433951377869</v>
+        <v>1.185654997825623</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.6576232314109802</v>
+        <v>0.0677892193198204</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-2.762648105621338</v>
+        <v>0.7273949980735779</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.6745617985725403</v>
+        <v>1.061524868011475</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6009960770606995</v>
+        <v>-0.025961859151721</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-3.265735864639282</v>
+        <v>0.766670286655426</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.8307384848594666</v>
+        <v>1.155922055244446</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.7610288858413696</v>
+        <v>0.03469077497720718</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-3.876971960067749</v>
+        <v>0.8788473010063171</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.005794048309326</v>
+        <v>0.848326563835144</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.9363979697227478</v>
+        <v>0.0946543961763382</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-4.301858901977539</v>
+        <v>0.9296119809150696</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.13610827922821</v>
+        <v>0.8097997903823853</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.122369050979614</v>
+        <v>0.2147069871425629</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-3.740600109100342</v>
+        <v>0.8794492483139038</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.9795261025428772</v>
+        <v>0.519865095615387</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.9253706336021423</v>
+        <v>0.06967878341674805</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-3.464626789093018</v>
+        <v>0.8193727731704712</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.9015584588050842</v>
+        <v>0.4936198890209198</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.7844173312187195</v>
+        <v>-0.06072833389043808</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-3.455544710159302</v>
+        <v>0.8143736720085144</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.8912353515625</v>
+        <v>0.4800466299057007</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.7626892924308777</v>
+        <v>-0.1225638017058372</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-2.955138206481934</v>
+        <v>0.6733854413032532</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.6973746418952942</v>
+        <v>0.9128166437149048</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.5816399455070496</v>
+        <v>-0.2995688319206238</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-3.27638840675354</v>
+        <v>0.7695531249046326</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.7886725068092346</v>
+        <v>0.9941587448120117</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.6641290783882141</v>
+        <v>-0.2041696012020111</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-3.736743211746216</v>
+        <v>0.936228334903717</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.8990048766136169</v>
+        <v>1.06367015838623</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.7962822318077087</v>
+        <v>0.03654944896697998</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-4.252213954925537</v>
+        <v>1.042302846908569</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.029980301856995</v>
+        <v>1.048951268196106</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.9373271465301514</v>
+        <v>0.1843868345022202</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-3.466127395629883</v>
+        <v>0.8174093961715698</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.7905758023262024</v>
+        <v>1.239591360092163</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6514509320259094</v>
+        <v>-0.2523863315582275</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-3.347458124160767</v>
+        <v>0.7750872373580933</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.7414600253105164</v>
+        <v>1.159967541694641</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.5902155637741089</v>
+        <v>-0.5465331077575684</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-3.358959436416626</v>
+        <v>0.7627420425415039</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.7288998365402222</v>
+        <v>1.430265665054321</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.5794315338134766</v>
+        <v>-0.4165831208229065</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-3.297370910644531</v>
+        <v>0.7916643023490906</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.7119136452674866</v>
+        <v>1.431093692779541</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.5497214794158936</v>
+        <v>-0.4090031087398529</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-3.405911207199097</v>
+        <v>0.8183464407920837</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.7490871548652649</v>
+        <v>1.450857996940613</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.5447733402252197</v>
+        <v>-0.3321460783481598</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-3.19090747833252</v>
+        <v>0.8205553293228149</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.6621628999710083</v>
+        <v>1.376270890235901</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.5260454416275024</v>
+        <v>-0.4562677443027496</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.937710762023926</v>
+        <v>0.8173477053642273</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.5780739188194275</v>
+        <v>1.445859313011169</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.4524047374725342</v>
+        <v>-0.4747136533260345</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-2.970107793807983</v>
+        <v>0.805611252784729</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.5732110738754272</v>
+        <v>1.363466739654541</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.4322415292263031</v>
+        <v>-0.5114856362342834</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-3.136054515838623</v>
+        <v>0.8284651041030884</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.6398699879646301</v>
+        <v>1.158891916275024</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.44428551197052</v>
+        <v>-0.5415297746658325</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-3.159724235534668</v>
+        <v>0.8032128214836121</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.6492815017700195</v>
+        <v>1.482947945594788</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.4423694312572479</v>
+        <v>-0.439226895570755</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-3.64904260635376</v>
+        <v>0.8553737998008728</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.8003101944923401</v>
+        <v>1.549001812934875</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.5500257611274719</v>
+        <v>-0.2789888083934784</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-4.021161079406738</v>
+        <v>0.9165299534797668</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.9291481971740723</v>
+        <v>1.688499927520752</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.6415451765060425</v>
+        <v>-0.1318463385105133</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-3.490122556686401</v>
+        <v>0.9065287709236145</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.704300582408905</v>
+        <v>1.347623705863953</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.4463543891906738</v>
+        <v>-0.2357741594314575</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.275903224945068</v>
+        <v>0.9892808794975281</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.5901647806167603</v>
+        <v>1.307300925254822</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.3552254140377045</v>
+        <v>-0.1993454694747925</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-3.508936882019043</v>
+        <v>0.9838752150535583</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.66154944896698</v>
+        <v>1.2024747133255</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.3824584782123566</v>
+        <v>-0.1022019907832146</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-3.376662015914917</v>
+        <v>0.9941361546516418</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.6056278347969055</v>
+        <v>1.252950549125671</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.3786834478378296</v>
+        <v>-0.0822434201836586</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-3.396836519241333</v>
+        <v>1.032468676567078</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.6104180216789246</v>
+        <v>1.478486657142639</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.394635945558548</v>
+        <v>0.003789050504565239</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-3.129769563674927</v>
+        <v>1.027508974075317</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.5180836319923401</v>
+        <v>1.406338095664978</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.3075848817825317</v>
+        <v>-0.08509287983179092</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-3.2745521068573</v>
+        <v>1.010147333145142</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.5322577357292175</v>
+        <v>1.279940605163574</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.3210805654525757</v>
+        <v>-0.1208654120564461</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-3.225099563598633</v>
+        <v>1.033663153648376</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.5173751711845398</v>
+        <v>1.317039728164673</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.2992246150970459</v>
+        <v>-0.1649063527584076</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-3.429053068161011</v>
+        <v>1.021586656570435</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.5605449676513672</v>
+        <v>1.133262157440186</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.3406756818294525</v>
+        <v>-0.2231822609901428</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-3.909605026245117</v>
+        <v>1.087786316871643</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.738292396068573</v>
+        <v>1.011663436889648</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.5101620554924011</v>
+        <v>-0.02793603949248791</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-4.098422527313232</v>
+        <v>1.13458776473999</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.8008999228477478</v>
+        <v>1.062543511390686</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.624297022819519</v>
+        <v>0.03650960326194763</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-4.381233692169189</v>
+        <v>1.198360800743103</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.8818613290786743</v>
+        <v>1.360602140426636</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.6899012327194214</v>
+        <v>0.2173198908567429</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-3.878644704818726</v>
+        <v>1.138319969177246</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.7271496057510376</v>
+        <v>1.193294763565063</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.5326839089393616</v>
+        <v>-0.02377667091786861</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-3.796405076980591</v>
+        <v>1.140997290611267</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.66001957654953</v>
+        <v>1.15995180606842</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.4679479897022247</v>
+        <v>-0.05410171300172806</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-3.844467639923096</v>
+        <v>1.12568211555481</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.7234347462654114</v>
+        <v>1.220118522644043</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.5287253856658936</v>
+        <v>0.02535057999193668</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-3.873747110366821</v>
+        <v>1.15267014503479</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.7131637334823608</v>
+        <v>1.088041663169861</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.5337874293327332</v>
+        <v>-0.09174212068319321</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-4.043904304504395</v>
+        <v>1.194688320159912</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.7638275623321533</v>
+        <v>1.13584041595459</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.5984048843383789</v>
+        <v>0.006500227376818657</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-4.02151346206665</v>
+        <v>1.170336246490479</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.7481585741043091</v>
+        <v>1.068634748458862</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.6022236347198486</v>
+        <v>-0.04501692950725555</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-3.948822259902954</v>
+        <v>1.195092439651489</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.7303414940834045</v>
+        <v>0.9054479598999023</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.4908826351165771</v>
+        <v>-0.1196896955370903</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-3.972701549530029</v>
+        <v>1.194104671478271</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.7266413569450378</v>
+        <v>0.8480061292648315</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.4444445967674255</v>
+        <v>-0.1190486624836922</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-3.762296676635742</v>
+        <v>1.20647668838501</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.5868346691131592</v>
+        <v>1.121554017066956</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.3233611285686493</v>
+        <v>-0.202807754278183</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-3.97861123085022</v>
+        <v>1.213894009590149</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.6390588283538818</v>
+        <v>1.388303637504578</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.3927898705005646</v>
+        <v>-0.009073538705706596</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-4.281651496887207</v>
+        <v>1.254340767860413</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.6674830913543701</v>
+        <v>1.599686145782471</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.4562680721282959</v>
+        <v>0.1153645589947701</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-4.86981725692749</v>
+        <v>1.352995634078979</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.7904950976371765</v>
+        <v>2.102063417434692</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.6151478886604309</v>
+        <v>0.496535450220108</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-4.061636924743652</v>
+        <v>1.291982650756836</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.6376454830169678</v>
+        <v>1.558874487876892</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.3664564490318298</v>
+        <v>0.05712857097387314</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-3.841655254364014</v>
+        <v>1.32806122303009</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.5780920386314392</v>
+        <v>1.407349705696106</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.2937931716442108</v>
+        <v>-0.06666886061429977</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-4.169697284698486</v>
+        <v>1.312495827674866</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.6746991276741028</v>
+        <v>1.679184079170227</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.3852586150169373</v>
+        <v>0.1024034097790718</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-4.105995178222656</v>
+        <v>1.343441605567932</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.6420429348945618</v>
+        <v>1.616015672683716</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.3326574265956879</v>
+        <v>0.07831549644470215</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-4.334565162658691</v>
+        <v>1.35169517993927</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.6908435821533203</v>
+        <v>1.608178496360779</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.4077660143375397</v>
+        <v>0.1379894018173218</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-4.089497089385986</v>
+        <v>1.352357387542725</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.6382951140403748</v>
+        <v>1.556442618370056</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.3396720886230469</v>
+        <v>0.05546366423368454</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-3.875822067260742</v>
+        <v>1.377708911895752</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.5622591972351074</v>
+        <v>1.661538481712341</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.2218404561281204</v>
+        <v>-0.00993972085416317</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-3.924284696578979</v>
+        <v>1.383312582969666</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.5772866606712341</v>
+        <v>1.766098380088806</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.2080484181642532</v>
+        <v>0.01388964988291264</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-3.595490694046021</v>
+        <v>1.416542410850525</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.4992736876010895</v>
+        <v>1.837581515312195</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.1141593530774117</v>
+        <v>-0.02343940921127796</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-4.045376777648926</v>
+        <v>1.374345541000366</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.6158536672592163</v>
+        <v>1.757866263389587</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.2597187161445618</v>
+        <v>0.05544649809598923</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-4.350762844085693</v>
+        <v>1.418233633041382</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.6510012745857239</v>
+        <v>1.864697098731995</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.3698906898498535</v>
+        <v>0.209022581577301</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-4.783907413482666</v>
+        <v>1.560075998306274</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.7265514731407166</v>
+        <v>2.341605424880981</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.4638649821281433</v>
+        <v>0.5660258531570435</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-4.105493068695068</v>
+        <v>1.506797432899475</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.6043272614479065</v>
+        <v>1.879742860794067</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.2509334683418274</v>
+        <v>0.1637808680534363</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-3.542518615722656</v>
+        <v>1.431668996810913</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.4710390865802765</v>
+        <v>1.754230618476868</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.08292240649461746</v>
+        <v>0.01322722248733044</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-4.047678470611572</v>
+        <v>1.471300601959229</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.5262030959129333</v>
+        <v>2.171792268753052</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1739794164896011</v>
+        <v>0.1662396937608719</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-3.689617872238159</v>
+        <v>1.507484912872314</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.4567771553993225</v>
+        <v>2.128399133682251</v>
       </c>
       <c r="D245" t="n">
-        <v>0.01428561471402645</v>
+        <v>0.08805060386657715</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-4.136335372924805</v>
+        <v>1.494873523712158</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.5160860419273376</v>
+        <v>2.40645694732666</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1322873383760452</v>
+        <v>0.2343494594097137</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-4.014230251312256</v>
+        <v>1.443650960922241</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.4989098608493805</v>
+        <v>2.337281942367554</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.08699793368577957</v>
+        <v>0.09211207181215286</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-3.81629204750061</v>
+        <v>1.433885812759399</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.4504987001419067</v>
+        <v>2.182307720184326</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.04462439566850662</v>
+        <v>-0.04874581843614578</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-3.935896158218384</v>
+        <v>1.423383831977844</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.4634177386760712</v>
+        <v>2.361841440200806</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.04954779893159866</v>
+        <v>0.02429119311273098</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-3.760570764541626</v>
+        <v>1.380977272987366</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.3924895524978638</v>
+        <v>2.061345815658569</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.07560224086046219</v>
+        <v>-0.1659158915281296</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-3.969087839126587</v>
+        <v>1.40667450428009</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.3733547925949097</v>
+        <v>2.30487060546875</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.06564605981111526</v>
+        <v>-0.0515720397233963</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-4.385254383087158</v>
+        <v>1.434888005256653</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.4721750319004059</v>
+        <v>2.633952856063843</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.1552779227495193</v>
+        <v>0.1972296386957169</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-5.247035503387451</v>
+        <v>1.53171443939209</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.6349511742591858</v>
+        <v>3.011910915374756</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.3660131692886353</v>
+        <v>0.5277169942855835</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-4.491698741912842</v>
+        <v>1.376601457595825</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.4700317680835724</v>
+        <v>2.637932062149048</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.1873285919427872</v>
+        <v>0.1138355657458305</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-3.410565614700317</v>
+        <v>1.549769163131714</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.3911902606487274</v>
+        <v>1.935388088226318</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.009940573945641518</v>
+        <v>0.2126413732767105</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-3.071999073028564</v>
+        <v>1.703342080116272</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.3326227962970734</v>
+        <v>2.051568746566772</v>
       </c>
       <c r="D256" t="n">
-        <v>0.07998114079236984</v>
+        <v>0.306295782327652</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-3.035711050033569</v>
+        <v>1.677165389060974</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.3524582087993622</v>
+        <v>2.02813982963562</v>
       </c>
       <c r="D257" t="n">
-        <v>0.1111565157771111</v>
+        <v>0.2697807550430298</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-3.162748575210571</v>
+        <v>1.736657381057739</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.3356834948062897</v>
+        <v>2.196358680725098</v>
       </c>
       <c r="D258" t="n">
-        <v>0.08230637758970261</v>
+        <v>0.4198059141635895</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-2.944154977798462</v>
+        <v>1.724376678466797</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.3231227695941925</v>
+        <v>2.084663867950439</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1597459763288498</v>
+        <v>0.2599636316299438</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-2.728393793106079</v>
+        <v>1.748031616210938</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.3055582344532013</v>
+        <v>1.85457980632782</v>
       </c>
       <c r="D260" t="n">
-        <v>0.2004367858171463</v>
+        <v>0.2323466390371323</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-2.852619886398315</v>
+        <v>1.721533894538879</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.2727862596511841</v>
+        <v>1.985237240791321</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1482217758893967</v>
+        <v>0.258553683757782</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-2.369474411010742</v>
+        <v>1.730754613876343</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.228795051574707</v>
+        <v>1.653200268745422</v>
       </c>
       <c r="D262" t="n">
-        <v>0.3373743295669556</v>
+        <v>0.07013294100761414</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-2.897785425186157</v>
+        <v>1.940596461296082</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.2744967043399811</v>
+        <v>2.03795051574707</v>
       </c>
       <c r="D263" t="n">
-        <v>0.2904509902000427</v>
+        <v>0.4645772278308868</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-3.195084095001221</v>
+        <v>1.993138074874878</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.3333279192447662</v>
+        <v>2.346277475357056</v>
       </c>
       <c r="D264" t="n">
-        <v>0.200873538851738</v>
+        <v>0.6651249527931213</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-3.237588167190552</v>
+        <v>2.192344427108765</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.365586906671524</v>
+        <v>2.704323053359985</v>
       </c>
       <c r="D265" t="n">
-        <v>0.2622287273406982</v>
+        <v>1.072097897529602</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-3.027323484420776</v>
+        <v>2.091628074645996</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.2985692024230957</v>
+        <v>2.109917163848877</v>
       </c>
       <c r="D266" t="n">
-        <v>0.3250455856323242</v>
+        <v>0.5849189758300781</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-2.645182132720947</v>
+        <v>2.110773324966431</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.2284567654132843</v>
+        <v>1.94280481338501</v>
       </c>
       <c r="D267" t="n">
-        <v>0.4542202353477478</v>
+        <v>0.4541003406047821</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-3.415153741836548</v>
+        <v>2.234244346618652</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.3615485727787018</v>
+        <v>2.259824991226196</v>
       </c>
       <c r="D268" t="n">
-        <v>0.2760047912597656</v>
+        <v>0.7248808741569519</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-2.816158056259155</v>
+        <v>2.24958610534668</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2411721497774124</v>
+        <v>2.010377883911133</v>
       </c>
       <c r="D269" t="n">
-        <v>0.4531930387020111</v>
+        <v>0.6108483076095581</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-2.964048147201538</v>
+        <v>2.494867563247681</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.2589369416236877</v>
+        <v>2.129383563995361</v>
       </c>
       <c r="D270" t="n">
-        <v>0.5050992369651794</v>
+        <v>0.8879823088645935</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-2.799482345581055</v>
+        <v>2.625412940979004</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.1959085315465927</v>
+        <v>2.016576766967773</v>
       </c>
       <c r="D271" t="n">
-        <v>0.560074508190155</v>
+        <v>0.905789315700531</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-2.446605682373047</v>
+        <v>2.499582767486572</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.1504242867231369</v>
+        <v>1.87211799621582</v>
       </c>
       <c r="D272" t="n">
-        <v>0.6148967146873474</v>
+        <v>0.6389281153678894</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-2.04525089263916</v>
+        <v>2.447653293609619</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.1082912459969521</v>
+        <v>1.723816633224487</v>
       </c>
       <c r="D273" t="n">
-        <v>0.712037205696106</v>
+        <v>0.4475019574165344</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-2.365213632583618</v>
+        <v>2.198304653167725</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.1105557307600975</v>
+        <v>1.910977840423584</v>
       </c>
       <c r="D274" t="n">
-        <v>0.6360577940940857</v>
+        <v>0.1823649555444717</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-3.962089776992798</v>
+        <v>1.771313905715942</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.3240523934364319</v>
+        <v>2.726876974105835</v>
       </c>
       <c r="D275" t="n">
-        <v>0.1147479936480522</v>
+        <v>-0.02670898102223873</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-4.387558937072754</v>
+        <v>1.379952669143677</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.3845491409301758</v>
+        <v>2.854632139205933</v>
       </c>
       <c r="D276" t="n">
-        <v>0.01254927180707455</v>
+        <v>-0.5230674147605896</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-5.267510414123535</v>
+        <v>1.2571861743927</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.5656174421310425</v>
+        <v>3.459728002548218</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.1408329755067825</v>
+        <v>-0.4317789077758789</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-4.629568099975586</v>
+        <v>1.389308214187622</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.4693683087825775</v>
+        <v>3.018488883972168</v>
       </c>
       <c r="D278" t="n">
-        <v>0.003613045439124107</v>
+        <v>-0.5567360520362854</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-4.220712184906006</v>
+        <v>1.356938719749451</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.3963618576526642</v>
+        <v>2.70665717124939</v>
       </c>
       <c r="D279" t="n">
-        <v>0.1281406134366989</v>
+        <v>-0.6280549168586731</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-4.463315486907959</v>
+        <v>1.347042918205261</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.4438965916633606</v>
+        <v>2.77090048789978</v>
       </c>
       <c r="D280" t="n">
-        <v>0.08621906489133835</v>
+        <v>-0.5845981240272522</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-4.439317226409912</v>
+        <v>1.42000150680542</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.4090112447738647</v>
+        <v>2.731346607208252</v>
       </c>
       <c r="D281" t="n">
-        <v>0.09013872593641281</v>
+        <v>-0.5338857769966125</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-4.791729927062988</v>
+        <v>1.837176322937012</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.4192881882190704</v>
+        <v>2.79404878616333</v>
       </c>
       <c r="D282" t="n">
-        <v>0.08716636151075363</v>
+        <v>0.06807071715593338</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-4.574587345123291</v>
+        <v>1.841566324234009</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.3485665321350098</v>
+        <v>2.720016717910767</v>
       </c>
       <c r="D283" t="n">
-        <v>0.1687882393598557</v>
+        <v>0.08074191957712173</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-4.392142772674561</v>
+        <v>1.789158344268799</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.2930175960063934</v>
+        <v>2.434334993362427</v>
       </c>
       <c r="D284" t="n">
-        <v>0.1707944124937057</v>
+        <v>-0.07971686869859695</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-4.261184692382812</v>
+        <v>1.845606207847595</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.2744024097919464</v>
+        <v>2.396354913711548</v>
       </c>
       <c r="D285" t="n">
-        <v>0.2167697995901108</v>
+        <v>-0.05349010974168777</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-4.204864025115967</v>
+        <v>1.812319755554199</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.2553974688053131</v>
+        <v>2.409370422363281</v>
       </c>
       <c r="D286" t="n">
-        <v>0.2107023447751999</v>
+        <v>-0.08940274268388748</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-4.421302795410156</v>
+        <v>1.978420734405518</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.2741741240024567</v>
+        <v>2.5889892578125</v>
       </c>
       <c r="D287" t="n">
-        <v>0.2134640663862228</v>
+        <v>0.0475136786699295</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-4.712180614471436</v>
+        <v>2.002389907836914</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.3812080025672913</v>
+        <v>2.678054094314575</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1801041811704636</v>
+        <v>0.1833036243915558</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-5.384792804718018</v>
+        <v>2.18178391456604</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.5154412984848022</v>
+        <v>3.16345739364624</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.03593022376298904</v>
+        <v>0.6638642549514771</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-4.125514507293701</v>
+        <v>2.023697376251221</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.2265095710754395</v>
+        <v>2.294503927230835</v>
       </c>
       <c r="D290" t="n">
-        <v>0.3739204406738281</v>
+        <v>0.1390476375818253</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-4.059171199798584</v>
+        <v>2.029070138931274</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.2079952657222748</v>
+        <v>2.238966703414917</v>
       </c>
       <c r="D291" t="n">
-        <v>0.3523232340812683</v>
+        <v>0.03455134481191635</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-4.432877540588379</v>
+        <v>2.114523410797119</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.2580158412456512</v>
+        <v>2.531167507171631</v>
       </c>
       <c r="D292" t="n">
-        <v>0.3129645586013794</v>
+        <v>0.175600528717041</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-4.300602436065674</v>
+        <v>2.122927665710449</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.223543256521225</v>
+        <v>2.411185503005981</v>
       </c>
       <c r="D293" t="n">
-        <v>0.3821558356285095</v>
+        <v>0.1398765742778778</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-4.830745697021484</v>
+        <v>2.096876859664917</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.3926790952682495</v>
+        <v>2.703429698944092</v>
       </c>
       <c r="D294" t="n">
-        <v>0.1718969792127609</v>
+        <v>0.2003748565912247</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-4.772411346435547</v>
+        <v>2.036626815795898</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.3806203901767731</v>
+        <v>2.734401941299438</v>
       </c>
       <c r="D295" t="n">
-        <v>0.1808894127607346</v>
+        <v>0.1888379007577896</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-4.380541324615479</v>
+        <v>2.047693729400635</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.2726670801639557</v>
+        <v>2.511364221572876</v>
       </c>
       <c r="D296" t="n">
-        <v>0.2848535180091858</v>
+        <v>0.04665330052375793</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-4.194843292236328</v>
+        <v>1.991082191467285</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.2372051775455475</v>
+        <v>2.397150754928589</v>
       </c>
       <c r="D297" t="n">
-        <v>0.3168055415153503</v>
+        <v>0.01051230169832706</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-3.759084463119507</v>
+        <v>2.0781569480896</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.1757540106773376</v>
+        <v>2.018882989883423</v>
       </c>
       <c r="D298" t="n">
-        <v>0.3890137076377869</v>
+        <v>-0.0890059769153595</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-4.370886325836182</v>
+        <v>2.200088977813721</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.2217597961425781</v>
+        <v>2.429650068283081</v>
       </c>
       <c r="D299" t="n">
-        <v>0.3470665216445923</v>
+        <v>0.2875069975852966</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-4.948142051696777</v>
+        <v>2.223369836807251</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.3368255198001862</v>
+        <v>2.760402202606201</v>
       </c>
       <c r="D300" t="n">
-        <v>0.164825364947319</v>
+        <v>0.5150058269500732</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-5.615443229675293</v>
+        <v>2.395198106765747</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.4743342101573944</v>
+        <v>3.172076225280762</v>
       </c>
       <c r="D301" t="n">
-        <v>0.005063822492957115</v>
+        <v>1.000731587409973</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-4.169334888458252</v>
+        <v>2.30731987953186</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.1714616417884827</v>
+        <v>2.319487333297729</v>
       </c>
       <c r="D302" t="n">
-        <v>0.509807288646698</v>
+        <v>0.2509451508522034</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-3.753954410552979</v>
+        <v>2.3097083568573</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.1243268921971321</v>
+        <v>2.16733455657959</v>
       </c>
       <c r="D303" t="n">
-        <v>0.6361897587776184</v>
+        <v>0.1853945404291153</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-4.179489612579346</v>
+        <v>2.537885189056396</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.1825211346149445</v>
+        <v>2.474088907241821</v>
       </c>
       <c r="D304" t="n">
-        <v>0.5860485434532166</v>
+        <v>0.5287306904792786</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-3.635093450546265</v>
+        <v>2.56618332862854</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.05146519094705582</v>
+        <v>2.430808782577515</v>
       </c>
       <c r="D305" t="n">
-        <v>0.7947506904602051</v>
+        <v>0.4809629619121552</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-4.470328330993652</v>
+        <v>2.487292528152466</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.2691463530063629</v>
+        <v>2.580407619476318</v>
       </c>
       <c r="D306" t="n">
-        <v>0.4931750893592834</v>
+        <v>0.6242102980613708</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-4.090325832366943</v>
+        <v>2.338160037994385</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.2324549555778503</v>
+        <v>2.297670841217041</v>
       </c>
       <c r="D307" t="n">
-        <v>0.5217449069023132</v>
+        <v>0.4298297464847565</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-3.671509742736816</v>
+        <v>2.29996395111084</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.1521436870098114</v>
+        <v>2.081816911697388</v>
       </c>
       <c r="D308" t="n">
-        <v>0.6106905937194824</v>
+        <v>0.2664907872676849</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-3.857970476150513</v>
+        <v>2.277369976043701</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.1853533387184143</v>
+        <v>2.078593969345093</v>
       </c>
       <c r="D309" t="n">
-        <v>0.5222129225730896</v>
+        <v>0.2839199006557465</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-4.081047534942627</v>
+        <v>2.186811447143555</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.2228661477565765</v>
+        <v>2.406399965286255</v>
       </c>
       <c r="D310" t="n">
-        <v>0.3953098654747009</v>
+        <v>0.1313349604606628</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-4.761879444122314</v>
+        <v>2.422483444213867</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.2835235595703125</v>
+        <v>2.704587459564209</v>
       </c>
       <c r="D311" t="n">
-        <v>0.306597888469696</v>
+        <v>0.4560361802577972</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-4.64531946182251</v>
+        <v>2.499143600463867</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.319060206413269</v>
+        <v>2.583582639694214</v>
       </c>
       <c r="D312" t="n">
-        <v>0.430627167224884</v>
+        <v>0.650271475315094</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-5.746255874633789</v>
+        <v>2.703672170639038</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.5442424416542053</v>
+        <v>3.243288993835449</v>
       </c>
       <c r="D313" t="n">
-        <v>0.03557901829481125</v>
+        <v>1.14613664150238</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-4.286709785461426</v>
+        <v>2.496894359588623</v>
       </c>
       <c r="C314" t="n">
-        <v>-0.1440915167331696</v>
+        <v>2.594851732254028</v>
       </c>
       <c r="D314" t="n">
-        <v>0.608672022819519</v>
+        <v>0.4008828699588776</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-4.402509212493896</v>
+        <v>2.666888236999512</v>
       </c>
       <c r="C315" t="n">
-        <v>-0.1705915629863739</v>
+        <v>2.815736293792725</v>
       </c>
       <c r="D315" t="n">
-        <v>0.6080546975135803</v>
+        <v>0.4886981844902039</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-4.287356376647949</v>
+        <v>2.540963411331177</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.1164189353585243</v>
+        <v>2.699580669403076</v>
       </c>
       <c r="D316" t="n">
-        <v>0.6284524202346802</v>
+        <v>0.4264129996299744</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-4.543549060821533</v>
+        <v>2.538115739822388</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.1571199595928192</v>
+        <v>2.730661392211914</v>
       </c>
       <c r="D317" t="n">
-        <v>0.5574879050254822</v>
+        <v>0.3504377007484436</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-4.779355049133301</v>
+        <v>2.3219153881073</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.2930742502212524</v>
+        <v>2.733195304870605</v>
       </c>
       <c r="D318" t="n">
-        <v>0.2802137732505798</v>
+        <v>0.2576502859592438</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-4.751457691192627</v>
+        <v>2.269713640213013</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.2617501020431519</v>
+        <v>2.707901477813721</v>
       </c>
       <c r="D319" t="n">
-        <v>0.2893664240837097</v>
+        <v>0.1766657829284668</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-4.875434398651123</v>
+        <v>2.313454866409302</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.1969520747661591</v>
+        <v>2.806741714477539</v>
       </c>
       <c r="D320" t="n">
-        <v>0.3537777066230774</v>
+        <v>0.1062407121062279</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-4.670520782470703</v>
+        <v>2.363784551620483</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.1103381291031837</v>
+        <v>2.700418472290039</v>
       </c>
       <c r="D321" t="n">
-        <v>0.5462141633033752</v>
+        <v>0.07859626412391663</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-3.86693549156189</v>
+        <v>2.326885938644409</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.09617561846971512</v>
+        <v>2.309891223907471</v>
       </c>
       <c r="D322" t="n">
-        <v>0.5682387351989746</v>
+        <v>-0.05696996301412582</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-5.116936206817627</v>
+        <v>2.438817977905273</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.3071262240409851</v>
+        <v>3.005769491195679</v>
       </c>
       <c r="D323" t="n">
-        <v>0.2663010954856873</v>
+        <v>0.3051181733608246</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-5.302594184875488</v>
+        <v>2.446990013122559</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.3578205108642578</v>
+        <v>3.130542278289795</v>
       </c>
       <c r="D324" t="n">
-        <v>0.2054259032011032</v>
+        <v>0.3589508831501007</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-5.941236019134521</v>
+        <v>2.661147356033325</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.4862706065177917</v>
+        <v>3.856471300125122</v>
       </c>
       <c r="D325" t="n">
-        <v>0.05350666493177414</v>
+        <v>0.6924660205841064</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-5.148680210113525</v>
+        <v>2.608353614807129</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.2127785682678223</v>
+        <v>3.011967420578003</v>
       </c>
       <c r="D326" t="n">
-        <v>0.4866084456443787</v>
+        <v>0.2151644825935364</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-5.395697116851807</v>
+        <v>2.566255331039429</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.181742399930954</v>
+        <v>3.005352973937988</v>
       </c>
       <c r="D327" t="n">
-        <v>0.5159159302711487</v>
+        <v>0.05883613973855972</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-5.450427532196045</v>
+        <v>2.721295595169067</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.2654488682746887</v>
+        <v>3.318778038024902</v>
       </c>
       <c r="D328" t="n">
-        <v>0.4152656197547913</v>
+        <v>0.2217862010002136</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-5.355643749237061</v>
+        <v>2.595518112182617</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.2005595862865448</v>
+        <v>3.133672714233398</v>
       </c>
       <c r="D329" t="n">
-        <v>0.4783422350883484</v>
+        <v>0.0877438485622406</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-5.611881732940674</v>
+        <v>2.571240663528442</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.3850772678852081</v>
+        <v>3.345688581466675</v>
       </c>
       <c r="D330" t="n">
-        <v>0.2372928112745285</v>
+        <v>0.2635975778102875</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-5.329459667205811</v>
+        <v>2.54043984413147</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.2308579683303833</v>
+        <v>3.171555519104004</v>
       </c>
       <c r="D331" t="n">
-        <v>0.4454795718193054</v>
+        <v>0.09499981254339218</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-4.990429401397705</v>
+        <v>2.569190263748169</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.1924445033073425</v>
+        <v>2.9516921043396</v>
       </c>
       <c r="D332" t="n">
-        <v>0.5340448021888733</v>
+        <v>0.123507484793663</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-4.696176052093506</v>
+        <v>2.62916088104248</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.1007301285862923</v>
+        <v>2.866973161697388</v>
       </c>
       <c r="D333" t="n">
-        <v>0.7052732706069946</v>
+        <v>0.06744488328695297</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-5.015288829803467</v>
+        <v>2.613680601119995</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.0883185938000679</v>
+        <v>3.0372633934021</v>
       </c>
       <c r="D334" t="n">
-        <v>0.6969358325004578</v>
+        <v>-0.006860164925456047</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-5.57505464553833</v>
+        <v>2.6608567237854</v>
       </c>
       <c r="C335" t="n">
-        <v>-0.3592516481876373</v>
+        <v>3.436949491500854</v>
       </c>
       <c r="D335" t="n">
-        <v>0.2676073908805847</v>
+        <v>0.2544086575508118</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-5.668834209442139</v>
+        <v>2.673131942749023</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.3977194428443909</v>
+        <v>3.412458658218384</v>
       </c>
       <c r="D336" t="n">
-        <v>0.2593029141426086</v>
+        <v>0.2473754733800888</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-6.282468318939209</v>
+        <v>2.894062042236328</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.5144293308258057</v>
+        <v>4.105857849121094</v>
       </c>
       <c r="D337" t="n">
-        <v>0.09092026203870773</v>
+        <v>0.8034150004386902</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-5.473613739013672</v>
+        <v>2.688858032226562</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.2348071336746216</v>
+        <v>3.216777324676514</v>
       </c>
       <c r="D338" t="n">
-        <v>0.4688017964363098</v>
+        <v>0.1156889945268631</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-5.424197673797607</v>
+        <v>2.764705896377563</v>
       </c>
       <c r="C339" t="n">
-        <v>-0.2465059161186218</v>
+        <v>3.260929822921753</v>
       </c>
       <c r="D339" t="n">
-        <v>0.4931345582008362</v>
+        <v>0.0988277941942215</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-5.591080665588379</v>
+        <v>2.819751739501953</v>
       </c>
       <c r="C340" t="n">
-        <v>-0.2903222739696503</v>
+        <v>3.35254693031311</v>
       </c>
       <c r="D340" t="n">
-        <v>0.4201049208641052</v>
+        <v>0.1842901557683945</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-5.258507251739502</v>
+        <v>2.707915782928467</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.1908101141452789</v>
+        <v>3.123711347579956</v>
       </c>
       <c r="D341" t="n">
-        <v>0.5675521492958069</v>
+        <v>0.1016341671347618</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-5.367915630340576</v>
+        <v>2.758862018585205</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.320527583360672</v>
+        <v>3.207358360290527</v>
       </c>
       <c r="D342" t="n">
-        <v>0.4386048913002014</v>
+        <v>0.2495514899492264</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-4.95945405960083</v>
+        <v>2.725605249404907</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.1898479759693146</v>
+        <v>3.078564643859863</v>
       </c>
       <c r="D343" t="n">
-        <v>0.6141794323921204</v>
+        <v>0.1615811437368393</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-5.147573947906494</v>
+        <v>2.656516075134277</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.2028823494911194</v>
+        <v>3.064283132553101</v>
       </c>
       <c r="D344" t="n">
-        <v>0.5478768944740295</v>
+        <v>0.1027046293020248</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-5.21710729598999</v>
+        <v>2.687744379043579</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.08507130295038223</v>
+        <v>3.04792594909668</v>
       </c>
       <c r="D345" t="n">
-        <v>0.739942729473114</v>
+        <v>-0.00698704831302166</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-5.163175106048584</v>
+        <v>2.639280796051025</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.03045261465013027</v>
+        <v>3.080219984054565</v>
       </c>
       <c r="D346" t="n">
-        <v>0.7849782109260559</v>
+        <v>-0.07161902636289597</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-6.037989139556885</v>
+        <v>2.646090030670166</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.3354211449623108</v>
+        <v>3.551987171173096</v>
       </c>
       <c r="D347" t="n">
-        <v>0.2943136096000671</v>
+        <v>0.1383757591247559</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-6.243090152740479</v>
+        <v>2.492288589477539</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.2036430537700653</v>
+        <v>3.635471343994141</v>
       </c>
       <c r="D348" t="n">
-        <v>0.4730618596076965</v>
+        <v>-0.1739769279956818</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-7.186016082763672</v>
+        <v>2.506969690322876</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.4668042361736298</v>
+        <v>4.683492183685303</v>
       </c>
       <c r="D349" t="n">
-        <v>0.0631512925028801</v>
+        <v>0.07157959789037704</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-6.561906337738037</v>
+        <v>2.296566247940063</v>
       </c>
       <c r="C350" t="n">
-        <v>-0.2642865478992462</v>
+        <v>3.977932453155518</v>
       </c>
       <c r="D350" t="n">
-        <v>0.3852960467338562</v>
+        <v>-0.4290734529495239</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-6.37479305267334</v>
+        <v>2.391228199005127</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.1139780059456825</v>
+        <v>3.957611560821533</v>
       </c>
       <c r="D351" t="n">
-        <v>0.5952898859977722</v>
+        <v>-0.5989261269569397</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-7.017239093780518</v>
+        <v>2.419252395629883</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.3524244725704193</v>
+        <v>4.418779850006104</v>
       </c>
       <c r="D352" t="n">
-        <v>0.240870401263237</v>
+        <v>-0.3813777267932892</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-6.36228609085083</v>
+        <v>2.462304353713989</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.2048830091953278</v>
+        <v>3.976897478103638</v>
       </c>
       <c r="D353" t="n">
-        <v>0.4562484622001648</v>
+        <v>-0.3945314884185791</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-6.337664127349854</v>
+        <v>2.437439918518066</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.2054016888141632</v>
+        <v>3.910146236419678</v>
       </c>
       <c r="D354" t="n">
-        <v>0.4902971386909485</v>
+        <v>-0.3844150006771088</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-6.358047962188721</v>
+        <v>2.420067548751831</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.2037809789180756</v>
+        <v>3.735129833221436</v>
       </c>
       <c r="D355" t="n">
-        <v>0.4524233937263489</v>
+        <v>-0.2723215818405151</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-6.633228778839111</v>
+        <v>2.368834733963013</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.194198340177536</v>
+        <v>3.725930213928223</v>
       </c>
       <c r="D356" t="n">
-        <v>0.4807048439979553</v>
+        <v>-0.3497363030910492</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-6.403979778289795</v>
+        <v>2.372204780578613</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.1052086725831032</v>
+        <v>3.793248176574707</v>
       </c>
       <c r="D357" t="n">
-        <v>0.6173990368843079</v>
+        <v>-0.5341214537620544</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-6.326221942901611</v>
+        <v>2.311125993728638</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.09365556389093399</v>
+        <v>3.945350170135498</v>
       </c>
       <c r="D358" t="n">
-        <v>0.6177075505256653</v>
+        <v>-0.6633662581443787</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-6.768536567687988</v>
+        <v>2.424081802368164</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.2365537583827972</v>
+        <v>4.033217430114746</v>
       </c>
       <c r="D359" t="n">
-        <v>0.403545081615448</v>
+        <v>-0.4045028984546661</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-7.115024089813232</v>
+        <v>2.413553476333618</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.340322345495224</v>
+        <v>4.183579444885254</v>
       </c>
       <c r="D360" t="n">
-        <v>0.2708351016044617</v>
+        <v>-0.3946772515773773</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-7.570528984069824</v>
+        <v>2.432275295257568</v>
       </c>
       <c r="C361" t="n">
-        <v>-0.4881133735179901</v>
+        <v>4.767576217651367</v>
       </c>
       <c r="D361" t="n">
-        <v>0.1066015288233757</v>
+        <v>-0.2113566249608994</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-7.180468082427979</v>
+        <v>2.437350511550903</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.2583673894405365</v>
+        <v>4.550581455230713</v>
       </c>
       <c r="D362" t="n">
-        <v>0.48118656873703</v>
+        <v>-0.7536671757698059</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-7.001103401184082</v>
+        <v>2.460723161697388</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.1723327934741974</v>
+        <v>4.490100860595703</v>
       </c>
       <c r="D363" t="n">
-        <v>0.6458259224891663</v>
+        <v>-0.9143504500389099</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-7.522780418395996</v>
+        <v>2.536411762237549</v>
       </c>
       <c r="C364" t="n">
-        <v>-0.3452307879924774</v>
+        <v>4.668925285339355</v>
       </c>
       <c r="D364" t="n">
-        <v>0.33286052942276</v>
+        <v>-0.5689611434936523</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-7.148414611816406</v>
+        <v>2.565589427947998</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.1828245222568512</v>
+        <v>4.225170135498047</v>
       </c>
       <c r="D365" t="n">
-        <v>0.6067971587181091</v>
+        <v>-0.5621471405029297</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-7.456640243530273</v>
+        <v>2.599371671676636</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.2867114841938019</v>
+        <v>4.299678802490234</v>
       </c>
       <c r="D366" t="n">
-        <v>0.4365866780281067</v>
+        <v>-0.4153231382369995</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-7.392331600189209</v>
+        <v>2.570162773132324</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.2385948002338409</v>
+        <v>4.119380474090576</v>
       </c>
       <c r="D367" t="n">
-        <v>0.5055781006813049</v>
+        <v>-0.3944432735443115</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-7.197358131408691</v>
+        <v>2.53347373008728</v>
       </c>
       <c r="C368" t="n">
-        <v>-0.1630448400974274</v>
+        <v>4.204118728637695</v>
       </c>
       <c r="D368" t="n">
-        <v>0.6365429759025574</v>
+        <v>-0.6508908867835999</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-7.191483497619629</v>
+        <v>2.548138856887817</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.1656379401683807</v>
+        <v>4.23328971862793</v>
       </c>
       <c r="D369" t="n">
-        <v>0.6366761326789856</v>
+        <v>-0.6380776762962341</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-6.592387676239014</v>
+        <v>2.546954154968262</v>
       </c>
       <c r="C370" t="n">
-        <v>0.07393770664930344</v>
+        <v>3.825286626815796</v>
       </c>
       <c r="D370" t="n">
-        <v>1.035032510757446</v>
+        <v>-0.8539823293685913</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-7.792855739593506</v>
+        <v>2.757628440856934</v>
       </c>
       <c r="C371" t="n">
-        <v>-0.274052768945694</v>
+        <v>4.329802513122559</v>
       </c>
       <c r="D371" t="n">
-        <v>0.5094572901725769</v>
+        <v>-0.3608546257019043</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-7.88314962387085</v>
+        <v>2.73323392868042</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.3349473178386688</v>
+        <v>4.320025444030762</v>
       </c>
       <c r="D372" t="n">
-        <v>0.4039815068244934</v>
+        <v>-0.2994912266731262</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-8.179293632507324</v>
+        <v>2.887342214584351</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.4133028090000153</v>
+        <v>4.972320556640625</v>
       </c>
       <c r="D373" t="n">
-        <v>0.3466798663139343</v>
+        <v>-0.1862767338752747</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-8.085827827453613</v>
+        <v>2.961317300796509</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.2058251798152924</v>
+        <v>4.581356525421143</v>
       </c>
       <c r="D374" t="n">
-        <v>0.7579990029335022</v>
+        <v>-0.5786142349243164</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-8.019772529602051</v>
+        <v>2.928801298141479</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.1548626124858856</v>
+        <v>4.250830173492432</v>
       </c>
       <c r="D375" t="n">
-        <v>0.8060796856880188</v>
+        <v>-0.4755786955356598</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-8.227662086486816</v>
+        <v>2.941228866577148</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.2556488811969757</v>
+        <v>4.499967575073242</v>
       </c>
       <c r="D376" t="n">
-        <v>0.6339442133903503</v>
+        <v>-0.4205018877983093</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-8.315998077392578</v>
+        <v>2.982077360153198</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.1995104849338531</v>
+        <v>4.438475608825684</v>
       </c>
       <c r="D377" t="n">
-        <v>0.7623792290687561</v>
+        <v>-0.5047575235366821</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-8.548243522644043</v>
+        <v>2.916311979293823</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.3472428619861603</v>
+        <v>4.576784133911133</v>
       </c>
       <c r="D378" t="n">
-        <v>0.5096356272697449</v>
+        <v>-0.4007209837436676</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-8.276640892028809</v>
+        <v>2.878343820571899</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.2360450327396393</v>
+        <v>4.376769065856934</v>
       </c>
       <c r="D379" t="n">
-        <v>0.6716462969779968</v>
+        <v>-0.4741106927394867</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-8.02916145324707</v>
+        <v>2.953888654708862</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.1085225120186806</v>
+        <v>4.187432765960693</v>
       </c>
       <c r="D380" t="n">
-        <v>0.9153252243995667</v>
+        <v>-0.5826724767684937</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-7.748679637908936</v>
+        <v>2.844332218170166</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.05210373550653458</v>
+        <v>4.13697624206543</v>
       </c>
       <c r="D381" t="n">
-        <v>1.013033390045166</v>
+        <v>-0.6962352395057678</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-7.872971057891846</v>
+        <v>2.940311908721924</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.06470874696969986</v>
+        <v>4.216287612915039</v>
       </c>
       <c r="D382" t="n">
-        <v>0.9614344239234924</v>
+        <v>-0.5623299479484558</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-8.826967239379883</v>
+        <v>3.168765783309937</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.2426140606403351</v>
+        <v>4.643247604370117</v>
       </c>
       <c r="D383" t="n">
-        <v>0.6745299696922302</v>
+        <v>-0.3471297323703766</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-8.942039489746094</v>
+        <v>3.124881982803345</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.3677028119564056</v>
+        <v>4.788565158843994</v>
       </c>
       <c r="D384" t="n">
-        <v>0.4530157446861267</v>
+        <v>-0.2496845424175262</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-9.158819198608398</v>
+        <v>3.289092540740967</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.5135690569877625</v>
+        <v>5.439739227294922</v>
       </c>
       <c r="D385" t="n">
-        <v>0.2789481282234192</v>
+        <v>-0.1028986647725105</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-9.268389701843262</v>
+        <v>3.500893115997314</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.5056313276290894</v>
+        <v>6.013647556304932</v>
       </c>
       <c r="D386" t="n">
-        <v>0.3244019150733948</v>
+        <v>-0.266909271478653</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-8.581097602844238</v>
+        <v>3.225383758544922</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.06529507786035538</v>
+        <v>4.677927494049072</v>
       </c>
       <c r="D387" t="n">
-        <v>1.041346311569214</v>
+        <v>-0.7514616847038269</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-9.037692070007324</v>
+        <v>3.299140930175781</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.2859856188297272</v>
+        <v>4.873671531677246</v>
       </c>
       <c r="D388" t="n">
-        <v>0.6165445446968079</v>
+        <v>-0.350387305021286</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-8.856219291687012</v>
+        <v>3.310798406600952</v>
       </c>
       <c r="C389" t="n">
-        <v>-0.1599456965923309</v>
+        <v>4.599595546722412</v>
       </c>
       <c r="D389" t="n">
-        <v>0.8453356623649597</v>
+        <v>-0.427647739648819</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-9.076993942260742</v>
+        <v>3.291048765182495</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.3048083484172821</v>
+        <v>4.67123556137085</v>
       </c>
       <c r="D390" t="n">
-        <v>0.5953362584114075</v>
+        <v>-0.245588630437851</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-8.813957214355469</v>
+        <v>3.329850196838379</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.1502705514431</v>
+        <v>4.499540328979492</v>
       </c>
       <c r="D391" t="n">
-        <v>0.8496968150138855</v>
+        <v>-0.3078845739364624</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-8.843147277832031</v>
+        <v>3.279247283935547</v>
       </c>
       <c r="C392" t="n">
-        <v>-0.1478935182094574</v>
+        <v>4.655202388763428</v>
       </c>
       <c r="D392" t="n">
-        <v>0.8630436062812805</v>
+        <v>-0.4997698366641998</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-8.352862358093262</v>
+        <v>3.20947527885437</v>
       </c>
       <c r="C393" t="n">
-        <v>0.006659293547272682</v>
+        <v>4.433919429779053</v>
       </c>
       <c r="D393" t="n">
-        <v>1.138904452323914</v>
+        <v>-0.72319096326828</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-8.398517608642578</v>
+        <v>3.345491409301758</v>
       </c>
       <c r="C394" t="n">
-        <v>0.1045506820082664</v>
+        <v>4.255289077758789</v>
       </c>
       <c r="D394" t="n">
-        <v>1.311954498291016</v>
+        <v>-0.6480488777160645</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-9.146312713623047</v>
+        <v>3.399935722351074</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.3186558783054352</v>
+        <v>4.761526584625244</v>
       </c>
       <c r="D395" t="n">
-        <v>0.5740194916725159</v>
+        <v>-0.1369670331478119</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-9.410816192626953</v>
+        <v>3.297524690628052</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.3772796094417572</v>
+        <v>4.925505638122559</v>
       </c>
       <c r="D396" t="n">
-        <v>0.5285448431968689</v>
+        <v>-0.2529586255550385</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/real_enc.xlsx
+++ b/documents/latent_vector/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3026849925518036</v>
+        <v>-0.08781707286834717</v>
       </c>
       <c r="C2" t="n">
-        <v>1.192358493804932</v>
+        <v>1.014970898628235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3362948000431061</v>
+        <v>0.4221079349517822</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3220923542976379</v>
+        <v>-0.0567958652973175</v>
       </c>
       <c r="C3" t="n">
-        <v>1.117458820343018</v>
+        <v>0.997240424156189</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3078528046607971</v>
+        <v>0.3047016263008118</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.252936452627182</v>
+        <v>-0.074498251080513</v>
       </c>
       <c r="C4" t="n">
-        <v>1.338175415992737</v>
+        <v>0.9835540056228638</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2773962318897247</v>
+        <v>0.3847624361515045</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2740103602409363</v>
+        <v>-0.06349802017211914</v>
       </c>
       <c r="C5" t="n">
-        <v>1.24543309211731</v>
+        <v>0.9444432258605957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2166459560394287</v>
+        <v>0.4457587599754333</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2928985059261322</v>
+        <v>-0.02423371560871601</v>
       </c>
       <c r="C6" t="n">
-        <v>1.247150421142578</v>
+        <v>0.919092059135437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1575101017951965</v>
+        <v>0.4154379069805145</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3551492094993591</v>
+        <v>0.09289209544658661</v>
       </c>
       <c r="C7" t="n">
-        <v>1.141482591629028</v>
+        <v>0.7750122547149658</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.006148261949419975</v>
+        <v>0.5619542002677917</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3736217021942139</v>
+        <v>0.09203405678272247</v>
       </c>
       <c r="C8" t="n">
-        <v>1.041006445884705</v>
+        <v>0.7789449095726013</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03697394579648972</v>
+        <v>0.5561083555221558</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4219439625740051</v>
+        <v>0.1299458742141724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9893530607223511</v>
+        <v>0.7045954465866089</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.141760379076004</v>
+        <v>0.6594304442405701</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4591891765594482</v>
+        <v>0.1522046774625778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9628956317901611</v>
+        <v>0.6506196856498718</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2421309053897858</v>
+        <v>0.6510757803916931</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5064578652381897</v>
+        <v>0.1555888801813126</v>
       </c>
       <c r="C11" t="n">
-        <v>1.455357551574707</v>
+        <v>0.5593509078025818</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2955595850944519</v>
+        <v>0.4815307259559631</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.375127375125885</v>
+        <v>0.05256813764572144</v>
       </c>
       <c r="C12" t="n">
-        <v>1.455477237701416</v>
+        <v>0.7382543087005615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05280481278896332</v>
+        <v>0.4175370037555695</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3384816646575928</v>
+        <v>0.01865064911544323</v>
       </c>
       <c r="C13" t="n">
-        <v>1.853654861450195</v>
+        <v>0.871283233165741</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2403936386108398</v>
+        <v>0.2561604380607605</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5238835215568542</v>
+        <v>0.1170659437775612</v>
       </c>
       <c r="C14" t="n">
-        <v>1.620389819145203</v>
+        <v>0.6124249696731567</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.350523978471756</v>
+        <v>0.3509996831417084</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5916623473167419</v>
+        <v>0.1064920425415039</v>
       </c>
       <c r="C15" t="n">
-        <v>1.837364077568054</v>
+        <v>0.6505361795425415</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4363938271999359</v>
+        <v>0.2570568025112152</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3259205520153046</v>
+        <v>0.11185073107481</v>
       </c>
       <c r="C16" t="n">
-        <v>1.768394589424133</v>
+        <v>0.7135980725288391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02005243115127087</v>
+        <v>0.31907919049263</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2891227304935455</v>
+        <v>0.1000803411006927</v>
       </c>
       <c r="C17" t="n">
-        <v>1.601184964179993</v>
+        <v>0.7676035165786743</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07802191376686096</v>
+        <v>0.2999530136585236</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2615343630313873</v>
+        <v>0.08125586807727814</v>
       </c>
       <c r="C18" t="n">
-        <v>1.340373635292053</v>
+        <v>0.8428659439086914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08806191384792328</v>
+        <v>0.3906948566436768</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2558265328407288</v>
+        <v>-0.131608709692955</v>
       </c>
       <c r="C19" t="n">
-        <v>1.185972809791565</v>
+        <v>0.8631071448326111</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06601998209953308</v>
+        <v>0.5012936592102051</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.295401394367218</v>
+        <v>-0.011071533896029</v>
       </c>
       <c r="C20" t="n">
-        <v>1.094873785972595</v>
+        <v>0.7259320020675659</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03765487670898438</v>
+        <v>0.474044144153595</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3022362589836121</v>
+        <v>-0.2479060739278793</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8281227350234985</v>
+        <v>0.8859476447105408</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03657585382461548</v>
+        <v>0.8060408234596252</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.313140869140625</v>
+        <v>-0.2565347254276276</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7764794826507568</v>
+        <v>0.8961490988731384</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02202666737139225</v>
+        <v>0.8281368017196655</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2810045480728149</v>
+        <v>-0.3179733157157898</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6862121820449829</v>
+        <v>0.9908736348152161</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1155750602483749</v>
+        <v>1.001645445823669</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1912496089935303</v>
+        <v>-0.4618217349052429</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9783235788345337</v>
+        <v>1.068470239639282</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3166441023349762</v>
+        <v>0.9868526458740234</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1200927272439003</v>
+        <v>-0.6789659857749939</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9360699653625488</v>
+        <v>1.231450796127319</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5467488765716553</v>
+        <v>1.330336213111877</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.03827819973230362</v>
+        <v>-0.4251853227615356</v>
       </c>
       <c r="C26" t="n">
-        <v>1.016605496406555</v>
+        <v>1.406743288040161</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4635315835475922</v>
+        <v>0.7013322114944458</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0121128112077713</v>
+        <v>-0.6233956813812256</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6364396810531616</v>
+        <v>1.789085388183594</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4538789391517639</v>
+        <v>1.047157645225525</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01496543735265732</v>
+        <v>-0.5560973286628723</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6212190389633179</v>
+        <v>1.740000247955322</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6472033262252808</v>
+        <v>1.616477489471436</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.04414239525794983</v>
+        <v>-0.6552132964134216</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4999485611915588</v>
+        <v>1.819104194641113</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4517200589179993</v>
+        <v>1.396725535392761</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.02226488292217255</v>
+        <v>-0.5961264371871948</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5791211128234863</v>
+        <v>1.796095967292786</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3896003663539886</v>
+        <v>1.05586564540863</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.04243482649326324</v>
+        <v>-0.6597598791122437</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4796445369720459</v>
+        <v>1.852410435676575</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3573063015937805</v>
+        <v>1.165538787841797</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.08013599365949631</v>
+        <v>-0.7149020433425903</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3305093050003052</v>
+        <v>1.976073384284973</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2802680730819702</v>
+        <v>1.254631280899048</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1119238883256912</v>
+        <v>-0.5846638679504395</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3653483688831329</v>
+        <v>1.917026400566101</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1499097645282745</v>
+        <v>0.9755852222442627</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1920454204082489</v>
+        <v>-0.5662253499031067</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2724541425704956</v>
+        <v>1.875981092453003</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01263567991554737</v>
+        <v>0.9091745615005493</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.145933210849762</v>
+        <v>-0.5260700583457947</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4149898886680603</v>
+        <v>1.798572063446045</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08039972186088562</v>
+        <v>0.8603513836860657</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.007600344717502594</v>
+        <v>-0.6461804509162903</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5441535115242004</v>
+        <v>1.881858587265015</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3238792717456818</v>
+        <v>1.035938501358032</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09827876091003418</v>
+        <v>-0.7065731883049011</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7927875518798828</v>
+        <v>1.858197569847107</v>
       </c>
       <c r="D37" t="n">
-        <v>0.575194239616394</v>
+        <v>1.328140258789062</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06464647501707077</v>
+        <v>-0.6688017249107361</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7115654945373535</v>
+        <v>2.098913669586182</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3586551249027252</v>
+        <v>0.7783472537994385</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02758488804101944</v>
+        <v>-0.5639423727989197</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7799959182739258</v>
+        <v>1.986625671386719</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2967432141304016</v>
+        <v>0.4934501647949219</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.05049724876880646</v>
+        <v>-0.5442885756492615</v>
       </c>
       <c r="C40" t="n">
-        <v>1.142170310020447</v>
+        <v>1.860587596893311</v>
       </c>
       <c r="D40" t="n">
-        <v>0.175712525844574</v>
+        <v>0.5691947340965271</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.06960821896791458</v>
+        <v>-0.5234305262565613</v>
       </c>
       <c r="C41" t="n">
-        <v>1.008370637893677</v>
+        <v>1.854973793029785</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1504285782575607</v>
+        <v>0.4684642553329468</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0403849333524704</v>
+        <v>-0.6331173181533813</v>
       </c>
       <c r="C42" t="n">
-        <v>1.057899713516235</v>
+        <v>1.954186320304871</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2119726240634918</v>
+        <v>0.6481155753135681</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0682109147310257</v>
+        <v>-0.5431403517723083</v>
       </c>
       <c r="C43" t="n">
-        <v>1.038703322410583</v>
+        <v>1.914458870887756</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1236172765493393</v>
+        <v>0.5186479687690735</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.09309353679418564</v>
+        <v>-0.4955350756645203</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8432216644287109</v>
+        <v>1.931878924369812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0360693484544754</v>
+        <v>0.3677662312984467</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.09912621229887009</v>
+        <v>-0.4638155400753021</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7660492658615112</v>
+        <v>2.018280506134033</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01072604767978191</v>
+        <v>0.3201864361763</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1324770450592041</v>
+        <v>-0.4067919552326202</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5760917663574219</v>
+        <v>2.111576080322266</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0353703647851944</v>
+        <v>0.3473365008831024</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.04158055037260056</v>
+        <v>-0.6359654068946838</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5960919260978699</v>
+        <v>2.153244018554688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1715915650129318</v>
+        <v>0.5754001140594482</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02040946483612061</v>
+        <v>-0.6326707601547241</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8672513961791992</v>
+        <v>2.045161962509155</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2029184848070145</v>
+        <v>0.6617646217346191</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04531081020832062</v>
+        <v>-0.6306830048561096</v>
       </c>
       <c r="C49" t="n">
-        <v>1.102838039398193</v>
+        <v>2.069514751434326</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2628606557846069</v>
+        <v>0.6553912162780762</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1411980986595154</v>
+        <v>-0.7792791128158569</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6048151254653931</v>
+        <v>2.379480361938477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3149693310260773</v>
+        <v>0.8652085065841675</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1963611245155334</v>
+        <v>-0.7143082022666931</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6896987557411194</v>
+        <v>2.418632507324219</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3594852983951569</v>
+        <v>0.7995855808258057</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1356265544891357</v>
+        <v>-0.7661604881286621</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4498003125190735</v>
+        <v>2.389595985412598</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3958001136779785</v>
+        <v>1.077627778053284</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1241646632552147</v>
+        <v>-0.8992159962654114</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3800136148929596</v>
+        <v>2.459508895874023</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4000025391578674</v>
+        <v>1.299024939537048</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1680896580219269</v>
+        <v>-0.9888618588447571</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4510046243667603</v>
+        <v>2.531972885131836</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4890569150447845</v>
+        <v>1.44261360168457</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1205702647566795</v>
+        <v>-1.044101715087891</v>
       </c>
       <c r="C55" t="n">
-        <v>0.314757913351059</v>
+        <v>2.531819343566895</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4325803220272064</v>
+        <v>1.580528259277344</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08751962333917618</v>
+        <v>-1.237095475196838</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1337914913892746</v>
+        <v>2.648672342300415</v>
       </c>
       <c r="D56" t="n">
-        <v>0.429989367723465</v>
+        <v>1.719476699829102</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08178624510765076</v>
+        <v>-1.258439064025879</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1018974930047989</v>
+        <v>2.742937326431274</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3804011046886444</v>
+        <v>1.563287615776062</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03094352036714554</v>
+        <v>-1.329258918762207</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.02268064022064209</v>
+        <v>2.918018102645874</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264837384223938</v>
+        <v>1.409113526344299</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09684137254953384</v>
+        <v>-1.294385671615601</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08311489224433899</v>
+        <v>2.732029438018799</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4027726352214813</v>
+        <v>1.654036998748779</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1768795549869537</v>
+        <v>-1.249246716499329</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3190027475357056</v>
+        <v>2.646329402923584</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5820218324661255</v>
+        <v>1.745837330818176</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2338827848434448</v>
+        <v>-1.384016275405884</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4146332740783691</v>
+        <v>2.68213939666748</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7259700894355774</v>
+        <v>1.994019865989685</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4980558156967163</v>
+        <v>-1.596983432769775</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2392608374357224</v>
+        <v>3.10120153427124</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8109502792358398</v>
+        <v>1.852049589157104</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.426611065864563</v>
+        <v>-1.661234974861145</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04013517498970032</v>
+        <v>3.36144495010376</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6524272561073303</v>
+        <v>1.847517251968384</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3534525036811829</v>
+        <v>-1.641958355903625</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1455843448638916</v>
+        <v>3.161843776702881</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7790812253952026</v>
+        <v>2.101312160491943</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3103103935718536</v>
+        <v>-1.510313510894775</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1911674737930298</v>
+        <v>3.054477691650391</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6650622487068176</v>
+        <v>1.83250904083252</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2780599594116211</v>
+        <v>-1.365644931793213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3326578438282013</v>
+        <v>2.903990268707275</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5930657386779785</v>
+        <v>1.572548031806946</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.225909948348999</v>
+        <v>-1.306913375854492</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2573046386241913</v>
+        <v>2.946988344192505</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4891281723976135</v>
+        <v>1.483115315437317</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2340876460075378</v>
+        <v>-1.306994199752808</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2038962244987488</v>
+        <v>3.250819444656372</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3514702618122101</v>
+        <v>1.320650815963745</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2274781465530396</v>
+        <v>-1.450248956680298</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09907081723213196</v>
+        <v>3.55513334274292</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3053485453128815</v>
+        <v>1.34057605266571</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1912531554698944</v>
+        <v>-1.465306997299194</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02546301484107971</v>
+        <v>3.684540510177612</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2061247229576111</v>
+        <v>1.239089131355286</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2662046253681183</v>
+        <v>-1.408792734146118</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1772424280643463</v>
+        <v>3.525651931762695</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3107766807079315</v>
+        <v>1.264306783676147</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3316984176635742</v>
+        <v>-1.30704665184021</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3130695521831512</v>
+        <v>3.352556228637695</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4283028841018677</v>
+        <v>1.38205897808075</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3843889832496643</v>
+        <v>-1.105169534683228</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4554039835929871</v>
+        <v>3.165037155151367</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5235023498535156</v>
+        <v>1.376499533653259</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4125416576862335</v>
+        <v>-1.189581394195557</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5515825748443604</v>
+        <v>3.055081844329834</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4676172733306885</v>
+        <v>0.7696766257286072</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3569939136505127</v>
+        <v>-1.144022345542908</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5813993215560913</v>
+        <v>2.913060426712036</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3956528902053833</v>
+        <v>0.7283416986465454</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2942094206809998</v>
+        <v>-1.021017670631409</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6205196380615234</v>
+        <v>2.877597093582153</v>
       </c>
       <c r="D76" t="n">
-        <v>0.319683164358139</v>
+        <v>0.6811281442642212</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2913735508918762</v>
+        <v>-1.050113797187805</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5859741568565369</v>
+        <v>2.9213547706604</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3135795593261719</v>
+        <v>0.7151870727539062</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3159030377864838</v>
+        <v>-1.090970873832703</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5608621835708618</v>
+        <v>3.057431221008301</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3464482128620148</v>
+        <v>0.7155816555023193</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2892329692840576</v>
+        <v>-1.065258502960205</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5798286199569702</v>
+        <v>3.046808242797852</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2935770153999329</v>
+        <v>0.6989088654518127</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2572544515132904</v>
+        <v>-1.117958664894104</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4332550764083862</v>
+        <v>3.04305100440979</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2257542908191681</v>
+        <v>0.6197264194488525</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1989877820014954</v>
+        <v>-1.065168976783752</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5188373327255249</v>
+        <v>2.971076011657715</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1202107295393944</v>
+        <v>0.5546928644180298</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1523566842079163</v>
+        <v>-0.8197832703590393</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5152148008346558</v>
+        <v>2.895479679107666</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04384679347276688</v>
+        <v>0.4175690114498138</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.213037520647049</v>
+        <v>-1.029419422149658</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6671736240386963</v>
+        <v>2.796286106109619</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1760850846767426</v>
+        <v>0.498134434223175</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2258711755275726</v>
+        <v>-0.9003245234489441</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9694610834121704</v>
+        <v>2.606181859970093</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2540526390075684</v>
+        <v>0.4004482924938202</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2786681652069092</v>
+        <v>-0.8980236649513245</v>
       </c>
       <c r="C85" t="n">
-        <v>1.076627492904663</v>
+        <v>2.674299955368042</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3437179028987885</v>
+        <v>0.3763962686061859</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2884601056575775</v>
+        <v>-0.8676971793174744</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8828673362731934</v>
+        <v>2.663587093353271</v>
       </c>
       <c r="D86" t="n">
-        <v>0.263155996799469</v>
+        <v>0.2704409956932068</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2954012751579285</v>
+        <v>-0.8793454170227051</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9096543788909912</v>
+        <v>2.76479172706604</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2504861652851105</v>
+        <v>0.269192636013031</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2961553931236267</v>
+        <v>-0.8420575261116028</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8792088031768799</v>
+        <v>2.743760347366333</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2525095343589783</v>
+        <v>0.2113461494445801</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3029171228408813</v>
+        <v>-0.8917808532714844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9027256965637207</v>
+        <v>2.731213808059692</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2706039845943451</v>
+        <v>0.2093459367752075</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2687034606933594</v>
+        <v>-0.8812341094017029</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9218751192092896</v>
+        <v>2.661465167999268</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2180828303098679</v>
+        <v>0.1494734287261963</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2644534707069397</v>
+        <v>-0.9090507030487061</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8562719821929932</v>
+        <v>2.687946796417236</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1941050887107849</v>
+        <v>0.1424898505210876</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2132514119148254</v>
+        <v>-0.7932287454605103</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7995960712432861</v>
+        <v>2.507419347763062</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1062958687543869</v>
+        <v>0.1376051604747772</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1896097362041473</v>
+        <v>-0.7104132175445557</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7208913564682007</v>
+        <v>2.501260280609131</v>
       </c>
       <c r="D93" t="n">
-        <v>0.05280802398920059</v>
+        <v>0.12944495677948</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1652222573757172</v>
+        <v>-0.5554543137550354</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5804738998413086</v>
+        <v>2.574400424957275</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.01377580128610134</v>
+        <v>0.09308619052171707</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2693175971508026</v>
+        <v>-1.028517127037048</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5613917708396912</v>
+        <v>2.862795352935791</v>
       </c>
       <c r="D95" t="n">
-        <v>0.136968731880188</v>
+        <v>0.2039303183555603</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4138030707836151</v>
+        <v>-1.197989344596863</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7312846183776855</v>
+        <v>3.068484306335449</v>
       </c>
       <c r="D96" t="n">
-        <v>0.386976420879364</v>
+        <v>0.1772381067276001</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5290024280548096</v>
+        <v>-1.201590418815613</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7966796159744263</v>
+        <v>3.238139867782593</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5660281777381897</v>
+        <v>0.1248961761593819</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5603533387184143</v>
+        <v>-1.418049097061157</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5956517457962036</v>
+        <v>3.475057125091553</v>
       </c>
       <c r="D98" t="n">
-        <v>0.538210391998291</v>
+        <v>0.1363297700881958</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5414228439331055</v>
+        <v>-1.542646765708923</v>
       </c>
       <c r="C99" t="n">
-        <v>0.274037092924118</v>
+        <v>3.70208740234375</v>
       </c>
       <c r="D99" t="n">
-        <v>0.479207843542099</v>
+        <v>0.2884690761566162</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5895799398422241</v>
+        <v>-1.518762826919556</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4811020493507385</v>
+        <v>3.681017875671387</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5648897290229797</v>
+        <v>0.1594247221946716</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5176668763160706</v>
+        <v>-1.372983813285828</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4882895946502686</v>
+        <v>3.542593479156494</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4519601464271545</v>
+        <v>0.1406076550483704</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5350271463394165</v>
+        <v>-1.368970036506653</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5631117224693298</v>
+        <v>3.47322678565979</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4882455468177795</v>
+        <v>0.1256471276283264</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4311156272888184</v>
+        <v>-1.265462636947632</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5596990585327148</v>
+        <v>3.479343414306641</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3453323841094971</v>
+        <v>0.2037344574928284</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.411545991897583</v>
+        <v>-1.407321095466614</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3015834987163544</v>
+        <v>3.935810089111328</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2799985110759735</v>
+        <v>0.4110794067382812</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3509685099124908</v>
+        <v>-1.350971341133118</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2319760918617249</v>
+        <v>4.107510566711426</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1701641529798508</v>
+        <v>0.4688493609428406</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2767441868782043</v>
+        <v>-1.201286554336548</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2575121223926544</v>
+        <v>3.81009840965271</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06531961262226105</v>
+        <v>0.4649918079376221</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3217491209506989</v>
+        <v>-1.09899628162384</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4910929501056671</v>
+        <v>3.521305084228516</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1519807428121567</v>
+        <v>0.3052214384078979</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4458445608615875</v>
+        <v>-1.010754466056824</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7054911255836487</v>
+        <v>3.546823024749756</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3827345669269562</v>
+        <v>0.1566030383110046</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4683864116668701</v>
+        <v>-0.778545081615448</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8882744312286377</v>
+        <v>3.34069299697876</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4471659958362579</v>
+        <v>-0.01309608668088913</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3802695870399475</v>
+        <v>-0.9743797183036804</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7052103281021118</v>
+        <v>3.322742462158203</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2035752832889557</v>
+        <v>0.07632202655076981</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3805975914001465</v>
+        <v>-0.8833766579627991</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8481036424636841</v>
+        <v>3.075525283813477</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2100650072097778</v>
+        <v>-0.06722670048475266</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4291333854198456</v>
+        <v>-0.9404739737510681</v>
       </c>
       <c r="C112" t="n">
-        <v>0.904465913772583</v>
+        <v>3.12472677230835</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2859308123588562</v>
+        <v>-0.1376481652259827</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4171266555786133</v>
+        <v>-0.9629452228546143</v>
       </c>
       <c r="C113" t="n">
-        <v>0.785973072052002</v>
+        <v>3.255332469940186</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2482167929410934</v>
+        <v>-0.03355555981397629</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4684001207351685</v>
+        <v>-0.8738886713981628</v>
       </c>
       <c r="C114" t="n">
-        <v>0.963412880897522</v>
+        <v>3.228823661804199</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3507678806781769</v>
+        <v>-0.1529591083526611</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3702067136764526</v>
+        <v>-0.8130785226821899</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9490869045257568</v>
+        <v>2.740149974822998</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1941099017858505</v>
+        <v>-0.1699445247650146</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2880272567272186</v>
+        <v>-0.5067663788795471</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9394893646240234</v>
+        <v>2.417143106460571</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07713776826858521</v>
+        <v>-0.2241261601448059</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2385307252407074</v>
+        <v>-0.3162412643432617</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9372509717941284</v>
+        <v>2.308233022689819</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.003963498398661613</v>
+        <v>-0.3271626830101013</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2744702398777008</v>
+        <v>-0.6292426586151123</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7308776378631592</v>
+        <v>2.706742286682129</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01115629449486732</v>
+        <v>-0.2451321482658386</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2912050485610962</v>
+        <v>-0.6767446398735046</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9301563501358032</v>
+        <v>2.588608026504517</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08173464238643646</v>
+        <v>-0.1855383515357971</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3397173881530762</v>
+        <v>-0.7564657330513</v>
       </c>
       <c r="C120" t="n">
-        <v>1.163137197494507</v>
+        <v>2.680200099945068</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2055312395095825</v>
+        <v>-0.1838468909263611</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4318779706954956</v>
+        <v>-0.7947893738746643</v>
       </c>
       <c r="C121" t="n">
-        <v>1.299230337142944</v>
+        <v>3.038306713104248</v>
       </c>
       <c r="D121" t="n">
-        <v>0.369265615940094</v>
+        <v>-0.174688458442688</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4480319917201996</v>
+        <v>-0.853598415851593</v>
       </c>
       <c r="C122" t="n">
-        <v>1.298969507217407</v>
+        <v>2.997195720672607</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3363261818885803</v>
+        <v>-0.2381616830825806</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3800866603851318</v>
+        <v>-0.7231753468513489</v>
       </c>
       <c r="C123" t="n">
-        <v>1.065411448478699</v>
+        <v>2.724843978881836</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1775951981544495</v>
+        <v>-0.2729464173316956</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3877884745597839</v>
+        <v>-0.6784438490867615</v>
       </c>
       <c r="C124" t="n">
-        <v>1.20108699798584</v>
+        <v>2.700028896331787</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1905707120895386</v>
+        <v>-0.2953428626060486</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4409615695476532</v>
+        <v>-0.778312623500824</v>
       </c>
       <c r="C125" t="n">
-        <v>1.209930896759033</v>
+        <v>2.713596820831299</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2210635095834732</v>
+        <v>-0.3267905116081238</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.493855893611908</v>
+        <v>-0.9463358521461487</v>
       </c>
       <c r="C126" t="n">
-        <v>1.153880715370178</v>
+        <v>2.971642971038818</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3023785054683685</v>
+        <v>-0.2945730686187744</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4772911071777344</v>
+        <v>-0.950796902179718</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9620742797851562</v>
+        <v>2.984279155731201</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2493848204612732</v>
+        <v>-0.3771376609802246</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4387661218643188</v>
+        <v>-0.8346553444862366</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8801082372665405</v>
+        <v>2.90999174118042</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1623846292495728</v>
+        <v>-0.5259637832641602</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3862473368644714</v>
+        <v>-0.7352931499481201</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8315047025680542</v>
+        <v>2.80094313621521</v>
       </c>
       <c r="D129" t="n">
-        <v>0.07080595195293427</v>
+        <v>-0.591687798500061</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2997939884662628</v>
+        <v>-0.3725348711013794</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8531018495559692</v>
+        <v>2.540525436401367</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.02461858280003071</v>
+        <v>-0.6243470907211304</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4473901093006134</v>
+        <v>-0.839138925075531</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9999451637268066</v>
+        <v>2.822083950042725</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1815631091594696</v>
+        <v>-0.4650329053401947</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5808248519897461</v>
+        <v>-1.20531177520752</v>
       </c>
       <c r="C132" t="n">
-        <v>1.195484042167664</v>
+        <v>3.251410484313965</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4292265474796295</v>
+        <v>-0.3224265575408936</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6471479535102844</v>
+        <v>-1.335026979446411</v>
       </c>
       <c r="C133" t="n">
-        <v>1.378382563591003</v>
+        <v>3.351767539978027</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5260524749755859</v>
+        <v>-0.3270726799964905</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5468336939811707</v>
+        <v>-1.051948070526123</v>
       </c>
       <c r="C134" t="n">
-        <v>1.177215814590454</v>
+        <v>2.980981826782227</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2612769603729248</v>
+        <v>-0.5014500021934509</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4447407722473145</v>
+        <v>-0.8474358320236206</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9576836824417114</v>
+        <v>2.816838264465332</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1001923456788063</v>
+        <v>-0.60051429271698</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.500540018081665</v>
+        <v>-1.033251285552979</v>
       </c>
       <c r="C136" t="n">
-        <v>1.109794735908508</v>
+        <v>2.910348415374756</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1625556647777557</v>
+        <v>-0.5304022431373596</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5163165926933289</v>
+        <v>-1.092332601547241</v>
       </c>
       <c r="C137" t="n">
-        <v>1.120172619819641</v>
+        <v>2.883505821228027</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1808683574199677</v>
+        <v>-0.5033060908317566</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.550203800201416</v>
+        <v>-1.098272204399109</v>
       </c>
       <c r="C138" t="n">
-        <v>1.345998883247375</v>
+        <v>2.893828868865967</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2609382271766663</v>
+        <v>-0.414814680814743</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5070968270301819</v>
+        <v>-0.9370132088661194</v>
       </c>
       <c r="C139" t="n">
-        <v>1.196846604347229</v>
+        <v>2.758678913116455</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1688794642686844</v>
+        <v>-0.5161334872245789</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4372082650661469</v>
+        <v>-0.626649796962738</v>
       </c>
       <c r="C140" t="n">
-        <v>1.050413608551025</v>
+        <v>2.578926086425781</v>
       </c>
       <c r="D140" t="n">
-        <v>0.03648784756660461</v>
+        <v>-0.6446861028671265</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4255459308624268</v>
+        <v>-0.588788628578186</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8719741106033325</v>
+        <v>2.746669769287109</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.02401292882859707</v>
+        <v>-0.7390120029449463</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3853586912155151</v>
+        <v>-0.6321063637733459</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7318434715270996</v>
+        <v>2.930608034133911</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.04046694934368134</v>
+        <v>-0.6937243938446045</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5243776440620422</v>
+        <v>-0.9459647536277771</v>
       </c>
       <c r="C143" t="n">
-        <v>1.031922936439514</v>
+        <v>2.981511831283569</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1785538345575333</v>
+        <v>-0.5653142333030701</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.592204213142395</v>
+        <v>-1.240989446640015</v>
       </c>
       <c r="C144" t="n">
-        <v>1.17638635635376</v>
+        <v>3.138438940048218</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3170203566551208</v>
+        <v>-0.4453635215759277</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9537256956100464</v>
+        <v>-2.036932706832886</v>
       </c>
       <c r="C145" t="n">
-        <v>1.163711190223694</v>
+        <v>3.8941330909729</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7497969269752502</v>
+        <v>-0.4785076379776001</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9615586400032043</v>
+        <v>-2.331443071365356</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4146404266357422</v>
+        <v>4.071672439575195</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6336489319801331</v>
+        <v>-0.7244784235954285</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.032496094703674</v>
+        <v>-2.155384302139282</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3112950325012207</v>
+        <v>4.163399696350098</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5678901076316833</v>
+        <v>-0.9921801686286926</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9643344283103943</v>
+        <v>-1.966023564338684</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4558625519275665</v>
+        <v>4.091545104980469</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5216532349586487</v>
+        <v>-0.937800407409668</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9360911846160889</v>
+        <v>-1.794041633605957</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5742701292037964</v>
+        <v>4.049703121185303</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4806255996227264</v>
+        <v>-0.958982527256012</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9149640202522278</v>
+        <v>-1.813810706138611</v>
       </c>
       <c r="C150" t="n">
-        <v>0.679469108581543</v>
+        <v>4.043502807617188</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4886131584644318</v>
+        <v>-0.8877145051956177</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8690534234046936</v>
+        <v>-1.55799674987793</v>
       </c>
       <c r="C151" t="n">
-        <v>0.633710503578186</v>
+        <v>3.796322345733643</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3512263298034668</v>
+        <v>-0.9876558184623718</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7443754076957703</v>
+        <v>-1.295259833335876</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4802525043487549</v>
+        <v>3.580831050872803</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1748629212379456</v>
+        <v>-1.117406010627747</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6467059254646301</v>
+        <v>-1.261083841323853</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4550613760948181</v>
+        <v>3.418066501617432</v>
       </c>
       <c r="D153" t="n">
-        <v>0.07858898490667343</v>
+        <v>-1.109160780906677</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6153314709663391</v>
+        <v>-1.405022263526917</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4948505759239197</v>
+        <v>3.344240188598633</v>
       </c>
       <c r="D154" t="n">
-        <v>0.09644655138254166</v>
+        <v>-1.041497230529785</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6556879878044128</v>
+        <v>-1.509628415107727</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5972968339920044</v>
+        <v>3.448260545730591</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2256751954555511</v>
+        <v>-0.9686328172683716</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7237793207168579</v>
+        <v>-1.569058060646057</v>
       </c>
       <c r="C156" t="n">
-        <v>0.8338640928268433</v>
+        <v>3.59906792640686</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3721145689487457</v>
+        <v>-0.7953037023544312</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6905099749565125</v>
+        <v>-1.243974685668945</v>
       </c>
       <c r="C157" t="n">
-        <v>1.577846765518188</v>
+        <v>3.52929162979126</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3731389045715332</v>
+        <v>-0.5589592456817627</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4384182095527649</v>
+        <v>-0.7735682725906372</v>
       </c>
       <c r="C158" t="n">
-        <v>2.03396201133728</v>
+        <v>1.447203636169434</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1870359480381012</v>
+        <v>-0.719286322593689</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.2428900301456451</v>
+        <v>-0.6049232482910156</v>
       </c>
       <c r="C159" t="n">
-        <v>2.084167718887329</v>
+        <v>1.204970002174377</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.6968254446983337</v>
+        <v>-0.7228862047195435</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3153762817382812</v>
+        <v>-0.7072551846504211</v>
       </c>
       <c r="C160" t="n">
-        <v>2.674046039581299</v>
+        <v>1.189900398254395</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.444919764995575</v>
+        <v>-0.7298144102096558</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3239865005016327</v>
+        <v>-0.6228553652763367</v>
       </c>
       <c r="C161" t="n">
-        <v>2.542282342910767</v>
+        <v>1.105187773704529</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.5054505467414856</v>
+        <v>-0.7794235944747925</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4117397367954254</v>
+        <v>-0.7916369438171387</v>
       </c>
       <c r="C162" t="n">
-        <v>2.783273458480835</v>
+        <v>1.200978755950928</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.29248046875</v>
+        <v>-0.7443575263023376</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4345008730888367</v>
+        <v>-0.6964884996414185</v>
       </c>
       <c r="C163" t="n">
-        <v>2.828547716140747</v>
+        <v>1.261354088783264</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.3579017519950867</v>
+        <v>-0.8090802431106567</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3416642546653748</v>
+        <v>-0.4712046980857849</v>
       </c>
       <c r="C164" t="n">
-        <v>2.256051540374756</v>
+        <v>0.9518185257911682</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7144513726234436</v>
+        <v>-0.8224868774414062</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3056587874889374</v>
+        <v>-0.3339092135429382</v>
       </c>
       <c r="C165" t="n">
-        <v>1.998417139053345</v>
+        <v>0.8742381930351257</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.7731002569198608</v>
+        <v>-0.9442577958106995</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2629846334457397</v>
+        <v>-0.3325481116771698</v>
       </c>
       <c r="C166" t="n">
-        <v>1.910549759864807</v>
+        <v>0.8077266812324524</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.7648364305496216</v>
+        <v>-0.9117935299873352</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.39310422539711</v>
+        <v>-0.5097993016242981</v>
       </c>
       <c r="C167" t="n">
-        <v>2.09798526763916</v>
+        <v>0.9677420258522034</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.5608746409416199</v>
+        <v>-0.8492417335510254</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4815702438354492</v>
+        <v>-0.7290384769439697</v>
       </c>
       <c r="C168" t="n">
-        <v>2.27931022644043</v>
+        <v>1.437843084335327</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.2163094878196716</v>
+        <v>-0.8156347870826721</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5975131392478943</v>
+        <v>-0.9210143685340881</v>
       </c>
       <c r="C169" t="n">
-        <v>2.74880838394165</v>
+        <v>1.71623170375824</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1249236240983009</v>
+        <v>-0.9334897994995117</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5288759469985962</v>
+        <v>-0.6367577314376831</v>
       </c>
       <c r="C170" t="n">
-        <v>1.811810970306396</v>
+        <v>1.493966341018677</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.05188838392496109</v>
+        <v>-0.8035808801651001</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4573546051979065</v>
+        <v>-0.6476399898529053</v>
       </c>
       <c r="C171" t="n">
-        <v>1.694448113441467</v>
+        <v>1.856450080871582</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.2613882124423981</v>
+        <v>-0.8286216259002686</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4973016381263733</v>
+        <v>-0.6814355254173279</v>
       </c>
       <c r="C172" t="n">
-        <v>1.769592761993408</v>
+        <v>1.900851845741272</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1508522480726242</v>
+        <v>-0.7929137349128723</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5338599681854248</v>
+        <v>-0.7349554896354675</v>
       </c>
       <c r="C173" t="n">
-        <v>1.706559300422668</v>
+        <v>1.919034838676453</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1717890202999115</v>
+        <v>-0.749346137046814</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.6004261374473572</v>
+        <v>-0.7639769315719604</v>
       </c>
       <c r="C174" t="n">
-        <v>1.876105427742004</v>
+        <v>1.863527417182922</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1354146301746368</v>
+        <v>-0.7373021841049194</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5861648321151733</v>
+        <v>-0.7081450819969177</v>
       </c>
       <c r="C175" t="n">
-        <v>1.533007860183716</v>
+        <v>2.016993045806885</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.2445648610591888</v>
+        <v>-0.9430385231971741</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5120075941085815</v>
+        <v>-0.6795275807380676</v>
       </c>
       <c r="C176" t="n">
-        <v>1.239055871963501</v>
+        <v>2.254544019699097</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.375769168138504</v>
+        <v>-1.071418881416321</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5340773463249207</v>
+        <v>-0.7403528690338135</v>
       </c>
       <c r="C177" t="n">
-        <v>1.268247246742249</v>
+        <v>2.246033191680908</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.2797768414020538</v>
+        <v>-0.9975964426994324</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4940017461776733</v>
+        <v>-0.7925135493278503</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9534924030303955</v>
+        <v>2.605099201202393</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.2867386639118195</v>
+        <v>-1.026624798774719</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.62306147813797</v>
+        <v>-0.7794763445854187</v>
       </c>
       <c r="C179" t="n">
-        <v>1.350242018699646</v>
+        <v>2.336325168609619</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.03296097368001938</v>
+        <v>-0.822704017162323</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6630926728248596</v>
+        <v>-0.7286533713340759</v>
       </c>
       <c r="C180" t="n">
-        <v>1.514925479888916</v>
+        <v>2.152716875076294</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04093631356954575</v>
+        <v>-0.7644433975219727</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.7139168977737427</v>
+        <v>-0.7656098604202271</v>
       </c>
       <c r="C181" t="n">
-        <v>1.493244290351868</v>
+        <v>2.293173313140869</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1370634287595749</v>
+        <v>-0.7653775215148926</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7140353322029114</v>
+        <v>-0.9259170889854431</v>
       </c>
       <c r="C182" t="n">
-        <v>1.185654997825623</v>
+        <v>2.444095849990845</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0677892193198204</v>
+        <v>-0.8613359928131104</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.7273949980735779</v>
+        <v>-0.8775961399078369</v>
       </c>
       <c r="C183" t="n">
-        <v>1.061524868011475</v>
+        <v>2.521395921707153</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.025961859151721</v>
+        <v>-1.001428961753845</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.766670286655426</v>
+        <v>-1.004750847816467</v>
       </c>
       <c r="C184" t="n">
-        <v>1.155922055244446</v>
+        <v>2.737346649169922</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03469077497720718</v>
+        <v>-1.065209031105042</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8788473010063171</v>
+        <v>-1.149795413017273</v>
       </c>
       <c r="C185" t="n">
-        <v>0.848326563835144</v>
+        <v>2.951457977294922</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0946543961763382</v>
+        <v>-1.272872924804688</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9296119809150696</v>
+        <v>-1.195071935653687</v>
       </c>
       <c r="C186" t="n">
-        <v>0.8097997903823853</v>
+        <v>3.259936809539795</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2147069871425629</v>
+        <v>-1.371440649032593</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8794492483139038</v>
+        <v>-1.067456841468811</v>
       </c>
       <c r="C187" t="n">
-        <v>0.519865095615387</v>
+        <v>3.113397121429443</v>
       </c>
       <c r="D187" t="n">
-        <v>0.06967878341674805</v>
+        <v>-1.307645201683044</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8193727731704712</v>
+        <v>-0.9792739748954773</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4936198890209198</v>
+        <v>2.874919176101685</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.06072833389043808</v>
+        <v>-1.300218343734741</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8143736720085144</v>
+        <v>-0.9286491870880127</v>
       </c>
       <c r="C189" t="n">
-        <v>0.4800466299057007</v>
+        <v>2.836940765380859</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1225638017058372</v>
+        <v>-1.389906048774719</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.6733854413032532</v>
+        <v>-0.8473303914070129</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9128166437149048</v>
+        <v>2.32342791557312</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.2995688319206238</v>
+        <v>-1.151990294456482</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.7695531249046326</v>
+        <v>-0.9533129930496216</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9941587448120117</v>
+        <v>2.398563623428345</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.2041696012020111</v>
+        <v>-1.19432520866394</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.936228334903717</v>
+        <v>-1.042876005172729</v>
       </c>
       <c r="C192" t="n">
-        <v>1.06367015838623</v>
+        <v>2.453044652938843</v>
       </c>
       <c r="D192" t="n">
-        <v>0.03654944896697998</v>
+        <v>-1.36104428768158</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.042302846908569</v>
+        <v>-1.219489812850952</v>
       </c>
       <c r="C193" t="n">
-        <v>1.048951268196106</v>
+        <v>2.539465427398682</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1843868345022202</v>
+        <v>-1.543431878089905</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8174093961715698</v>
+        <v>-1.093036413192749</v>
       </c>
       <c r="C194" t="n">
-        <v>1.239591360092163</v>
+        <v>2.140011072158813</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.2523863315582275</v>
+        <v>-1.386256694793701</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7750872373580933</v>
+        <v>-1.03606390953064</v>
       </c>
       <c r="C195" t="n">
-        <v>1.159967541694641</v>
+        <v>1.815707921981812</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.5465331077575684</v>
+        <v>-1.246899962425232</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7627420425415039</v>
+        <v>-1.041497707366943</v>
       </c>
       <c r="C196" t="n">
-        <v>1.430265665054321</v>
+        <v>1.828298091888428</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.4165831208229065</v>
+        <v>-1.264784574508667</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7916643023490906</v>
+        <v>-1.000454306602478</v>
       </c>
       <c r="C197" t="n">
-        <v>1.431093692779541</v>
+        <v>1.79938006401062</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.4090031087398529</v>
+        <v>-1.317249536514282</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8183464407920837</v>
+        <v>-1.19309139251709</v>
       </c>
       <c r="C198" t="n">
-        <v>1.450857996940613</v>
+        <v>1.999042987823486</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.3321460783481598</v>
+        <v>-1.48275625705719</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8205553293228149</v>
+        <v>-0.9010921120643616</v>
       </c>
       <c r="C199" t="n">
-        <v>1.376270890235901</v>
+        <v>1.68899667263031</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.4562677443027496</v>
+        <v>-1.371551752090454</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8173477053642273</v>
+        <v>-0.7558327913284302</v>
       </c>
       <c r="C200" t="n">
-        <v>1.445859313011169</v>
+        <v>1.59137487411499</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.4747136533260345</v>
+        <v>-1.295196652412415</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.805611252784729</v>
+        <v>-0.7421038746833801</v>
       </c>
       <c r="C201" t="n">
-        <v>1.363466739654541</v>
+        <v>1.613808631896973</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.5114856362342834</v>
+        <v>-1.326377630233765</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8284651041030884</v>
+        <v>-0.8066268563270569</v>
       </c>
       <c r="C202" t="n">
-        <v>1.158891916275024</v>
+        <v>1.711759805679321</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.5415297746658325</v>
+        <v>-1.421051621437073</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8032128214836121</v>
+        <v>-0.8798478841781616</v>
       </c>
       <c r="C203" t="n">
-        <v>1.482947945594788</v>
+        <v>1.757370471954346</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.439226895570755</v>
+        <v>-1.413287401199341</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8553737998008728</v>
+        <v>-1.101837515830994</v>
       </c>
       <c r="C204" t="n">
-        <v>1.549001812934875</v>
+        <v>2.035782098770142</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.2789888083934784</v>
+        <v>-1.637801051139832</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9165299534797668</v>
+        <v>-1.182386755943298</v>
       </c>
       <c r="C205" t="n">
-        <v>1.688499927520752</v>
+        <v>2.303534030914307</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1318463385105133</v>
+        <v>-1.943783283233643</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.9065287709236145</v>
+        <v>-0.901551365852356</v>
       </c>
       <c r="C206" t="n">
-        <v>1.347623705863953</v>
+        <v>2.09375</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.2357741594314575</v>
+        <v>-1.718650698661804</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.9892808794975281</v>
+        <v>-0.6400182843208313</v>
       </c>
       <c r="C207" t="n">
-        <v>1.307300925254822</v>
+        <v>2.066319465637207</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.1993454694747925</v>
+        <v>-1.722931027412415</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9838752150535583</v>
+        <v>-0.8158326148986816</v>
       </c>
       <c r="C208" t="n">
-        <v>1.2024747133255</v>
+        <v>2.310146331787109</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1022019907832146</v>
+        <v>-1.81649386882782</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.9941361546516418</v>
+        <v>-0.7720385789871216</v>
       </c>
       <c r="C209" t="n">
-        <v>1.252950549125671</v>
+        <v>2.211060523986816</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.0822434201836586</v>
+        <v>-1.734630465507507</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.032468676567078</v>
+        <v>-0.7528197169303894</v>
       </c>
       <c r="C210" t="n">
-        <v>1.478486657142639</v>
+        <v>2.147987365722656</v>
       </c>
       <c r="D210" t="n">
-        <v>0.003789050504565239</v>
+        <v>-1.783079743385315</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.027508974075317</v>
+        <v>-0.576368510723114</v>
       </c>
       <c r="C211" t="n">
-        <v>1.406338095664978</v>
+        <v>2.051064014434814</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.08509287983179092</v>
+        <v>-1.735775828361511</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.010147333145142</v>
+        <v>-0.5676537156105042</v>
       </c>
       <c r="C212" t="n">
-        <v>1.279940605163574</v>
+        <v>2.101144790649414</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.1208654120564461</v>
+        <v>-1.79226541519165</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.033663153648376</v>
+        <v>-0.5054416656494141</v>
       </c>
       <c r="C213" t="n">
-        <v>1.317039728164673</v>
+        <v>2.000088691711426</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.1649063527584076</v>
+        <v>-1.753593564033508</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.021586656570435</v>
+        <v>-0.5535374283790588</v>
       </c>
       <c r="C214" t="n">
-        <v>1.133262157440186</v>
+        <v>2.0388343334198</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.2231822609901428</v>
+        <v>-1.744258999824524</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.087786316871643</v>
+        <v>-0.8804816007614136</v>
       </c>
       <c r="C215" t="n">
-        <v>1.011663436889648</v>
+        <v>2.526066780090332</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.02793603949248791</v>
+        <v>-2.02680492401123</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.13458776473999</v>
+        <v>-0.9378491044044495</v>
       </c>
       <c r="C216" t="n">
-        <v>1.062543511390686</v>
+        <v>2.479752540588379</v>
       </c>
       <c r="D216" t="n">
-        <v>0.03650960326194763</v>
+        <v>-2.07734489440918</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.198360800743103</v>
+        <v>-1.077037811279297</v>
       </c>
       <c r="C217" t="n">
-        <v>1.360602140426636</v>
+        <v>2.525923252105713</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2173198908567429</v>
+        <v>-2.257136583328247</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.138319969177246</v>
+        <v>-0.8234658241271973</v>
       </c>
       <c r="C218" t="n">
-        <v>1.193294763565063</v>
+        <v>2.185313701629639</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.02377667091786861</v>
+        <v>-1.939444422721863</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.140997290611267</v>
+        <v>-0.631795346736908</v>
       </c>
       <c r="C219" t="n">
-        <v>1.15995180606842</v>
+        <v>2.25080394744873</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.05410171300172806</v>
+        <v>-2.020930528640747</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.12568211555481</v>
+        <v>-0.8686249852180481</v>
       </c>
       <c r="C220" t="n">
-        <v>1.220118522644043</v>
+        <v>2.234573125839233</v>
       </c>
       <c r="D220" t="n">
-        <v>0.02535057999193668</v>
+        <v>-1.969196557998657</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.15267014503479</v>
+        <v>-0.7639618515968323</v>
       </c>
       <c r="C221" t="n">
-        <v>1.088041663169861</v>
+        <v>2.148151397705078</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.09174212068319321</v>
+        <v>-1.969540238380432</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.194688320159912</v>
+        <v>-0.8602762818336487</v>
       </c>
       <c r="C222" t="n">
-        <v>1.13584041595459</v>
+        <v>2.238845825195312</v>
       </c>
       <c r="D222" t="n">
-        <v>0.006500227376818657</v>
+        <v>-2.074527502059937</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.170336246490479</v>
+        <v>-0.7916913032531738</v>
       </c>
       <c r="C223" t="n">
-        <v>1.068634748458862</v>
+        <v>2.295531272888184</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.04501692950725555</v>
+        <v>-2.083611011505127</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.195092439651489</v>
+        <v>-0.6997929811477661</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9054479598999023</v>
+        <v>2.299102783203125</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1196896955370903</v>
+        <v>-2.134719133377075</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.194104671478271</v>
+        <v>-0.7452800869941711</v>
       </c>
       <c r="C225" t="n">
-        <v>0.8480061292648315</v>
+        <v>2.422465562820435</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.1190486624836922</v>
+        <v>-2.224534749984741</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.20647668838501</v>
+        <v>-0.4961265027523041</v>
       </c>
       <c r="C226" t="n">
-        <v>1.121554017066956</v>
+        <v>1.963117718696594</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.202807754278183</v>
+        <v>-1.983744621276855</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.213894009590149</v>
+        <v>-0.5211063027381897</v>
       </c>
       <c r="C227" t="n">
-        <v>1.388303637504578</v>
+        <v>2.15239405632019</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.009073538705706596</v>
+        <v>-2.160999774932861</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.254340767860413</v>
+        <v>-0.5482058525085449</v>
       </c>
       <c r="C228" t="n">
-        <v>1.599686145782471</v>
+        <v>2.175637245178223</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1153645589947701</v>
+        <v>-2.292683124542236</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.352995634078979</v>
+        <v>-0.6011037230491638</v>
       </c>
       <c r="C229" t="n">
-        <v>2.102063417434692</v>
+        <v>2.497427701950073</v>
       </c>
       <c r="D229" t="n">
-        <v>0.496535450220108</v>
+        <v>-2.809692144393921</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.291982650756836</v>
+        <v>-0.44729283452034</v>
       </c>
       <c r="C230" t="n">
-        <v>1.558874487876892</v>
+        <v>2.106803178787231</v>
       </c>
       <c r="D230" t="n">
-        <v>0.05712857097387314</v>
+        <v>-2.285610198974609</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.32806122303009</v>
+        <v>-0.3656653761863708</v>
       </c>
       <c r="C231" t="n">
-        <v>1.407349705696106</v>
+        <v>1.957677364349365</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.06666886061429977</v>
+        <v>-2.147238254547119</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.312495827674866</v>
+        <v>-0.4564985334873199</v>
       </c>
       <c r="C232" t="n">
-        <v>1.679184079170227</v>
+        <v>2.040208101272583</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1024034097790718</v>
+        <v>-2.306362867355347</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.343441605567932</v>
+        <v>-0.4319828450679779</v>
       </c>
       <c r="C233" t="n">
-        <v>1.616015672683716</v>
+        <v>2.001804828643799</v>
       </c>
       <c r="D233" t="n">
-        <v>0.07831549644470215</v>
+        <v>-2.302771806716919</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.35169517993927</v>
+        <v>-0.5452302098274231</v>
       </c>
       <c r="C234" t="n">
-        <v>1.608178496360779</v>
+        <v>2.124218702316284</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1379894018173218</v>
+        <v>-2.395082235336304</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.352357387542725</v>
+        <v>-0.4464988112449646</v>
       </c>
       <c r="C235" t="n">
-        <v>1.556442618370056</v>
+        <v>1.983664989471436</v>
       </c>
       <c r="D235" t="n">
-        <v>0.05546366423368454</v>
+        <v>-2.26518726348877</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.377708911895752</v>
+        <v>-0.2936838567256927</v>
       </c>
       <c r="C236" t="n">
-        <v>1.661538481712341</v>
+        <v>1.804206848144531</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.00993972085416317</v>
+        <v>-2.13944935798645</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.383312582969666</v>
+        <v>-0.2906922996044159</v>
       </c>
       <c r="C237" t="n">
-        <v>1.766098380088806</v>
+        <v>1.795809507369995</v>
       </c>
       <c r="D237" t="n">
-        <v>0.01388964988291264</v>
+        <v>-2.179772615432739</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.416542410850525</v>
+        <v>-0.09216232597827911</v>
       </c>
       <c r="C238" t="n">
-        <v>1.837581515312195</v>
+        <v>1.604342460632324</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.02343940921127796</v>
+        <v>-2.008599281311035</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.374345541000366</v>
+        <v>-0.3754687905311584</v>
       </c>
       <c r="C239" t="n">
-        <v>1.757866263389587</v>
+        <v>1.840237617492676</v>
       </c>
       <c r="D239" t="n">
-        <v>0.05544649809598923</v>
+        <v>-2.225869417190552</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.418233633041382</v>
+        <v>-0.534826934337616</v>
       </c>
       <c r="C240" t="n">
-        <v>1.864697098731995</v>
+        <v>1.949535608291626</v>
       </c>
       <c r="D240" t="n">
-        <v>0.209022581577301</v>
+        <v>-2.341857194900513</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.560075998306274</v>
+        <v>-0.5905447602272034</v>
       </c>
       <c r="C241" t="n">
-        <v>2.341605424880981</v>
+        <v>2.258293628692627</v>
       </c>
       <c r="D241" t="n">
-        <v>0.5660258531570435</v>
+        <v>-2.7394118309021</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.506797432899475</v>
+        <v>-0.3662006556987762</v>
       </c>
       <c r="C242" t="n">
-        <v>1.879742860794067</v>
+        <v>1.836373090744019</v>
       </c>
       <c r="D242" t="n">
-        <v>0.1637808680534363</v>
+        <v>-2.334138631820679</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.431668996810913</v>
+        <v>-0.1083518713712692</v>
       </c>
       <c r="C243" t="n">
-        <v>1.754230618476868</v>
+        <v>1.598815321922302</v>
       </c>
       <c r="D243" t="n">
-        <v>0.01322722248733044</v>
+        <v>-2.056317806243896</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.471300601959229</v>
+        <v>-0.1453069895505905</v>
       </c>
       <c r="C244" t="n">
-        <v>2.171792268753052</v>
+        <v>1.822200298309326</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1662396937608719</v>
+        <v>-2.442804574966431</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.507484912872314</v>
+        <v>0.01751141063868999</v>
       </c>
       <c r="C245" t="n">
-        <v>2.128399133682251</v>
+        <v>1.668254852294922</v>
       </c>
       <c r="D245" t="n">
-        <v>0.08805060386657715</v>
+        <v>-2.370437860488892</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.494873523712158</v>
+        <v>0.07627950608730316</v>
       </c>
       <c r="C246" t="n">
-        <v>2.40645694732666</v>
+        <v>1.905318140983582</v>
       </c>
       <c r="D246" t="n">
-        <v>0.2343494594097137</v>
+        <v>-2.764705896377563</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.443650960922241</v>
+        <v>0.1421154588460922</v>
       </c>
       <c r="C247" t="n">
-        <v>2.337281942367554</v>
+        <v>1.851855516433716</v>
       </c>
       <c r="D247" t="n">
-        <v>0.09211207181215286</v>
+        <v>-2.650903701782227</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.433885812759399</v>
+        <v>0.1996844261884689</v>
       </c>
       <c r="C248" t="n">
-        <v>2.182307720184326</v>
+        <v>1.772983431816101</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.04874581843614578</v>
+        <v>-2.492439746856689</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.423383831977844</v>
+        <v>0.2398853152990341</v>
       </c>
       <c r="C249" t="n">
-        <v>2.361841440200806</v>
+        <v>1.88812530040741</v>
       </c>
       <c r="D249" t="n">
-        <v>0.02429119311273098</v>
+        <v>-2.64732027053833</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.380977272987366</v>
+        <v>0.1805145889520645</v>
       </c>
       <c r="C250" t="n">
-        <v>2.061345815658569</v>
+        <v>1.86478066444397</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.1659158915281296</v>
+        <v>-2.424411773681641</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.40667450428009</v>
+        <v>0.3176308274269104</v>
       </c>
       <c r="C251" t="n">
-        <v>2.30487060546875</v>
+        <v>1.91838812828064</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.0515720397233963</v>
+        <v>-2.643432855606079</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.434888005256653</v>
+        <v>0.4022412300109863</v>
       </c>
       <c r="C252" t="n">
-        <v>2.633952856063843</v>
+        <v>2.118404388427734</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1972296386957169</v>
+        <v>-3.138809204101562</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.53171443939209</v>
+        <v>0.1675719171762466</v>
       </c>
       <c r="C253" t="n">
-        <v>3.011910915374756</v>
+        <v>2.487703800201416</v>
       </c>
       <c r="D253" t="n">
-        <v>0.5277169942855835</v>
+        <v>-3.632614850997925</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.376601457595825</v>
+        <v>0.2823440730571747</v>
       </c>
       <c r="C254" t="n">
-        <v>2.637932062149048</v>
+        <v>2.03770112991333</v>
       </c>
       <c r="D254" t="n">
-        <v>0.1138355657458305</v>
+        <v>-3.022946119308472</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.549769163131714</v>
+        <v>-0.06521828472614288</v>
       </c>
       <c r="C255" t="n">
-        <v>1.935388088226318</v>
+        <v>1.553586483001709</v>
       </c>
       <c r="D255" t="n">
-        <v>0.2126413732767105</v>
+        <v>-2.172874927520752</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.703342080116272</v>
+        <v>0.1839663237333298</v>
       </c>
       <c r="C256" t="n">
-        <v>2.051568746566772</v>
+        <v>1.310551643371582</v>
       </c>
       <c r="D256" t="n">
-        <v>0.306295782327652</v>
+        <v>-2.269293069839478</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.677165389060974</v>
+        <v>0.1876841634511948</v>
       </c>
       <c r="C257" t="n">
-        <v>2.02813982963562</v>
+        <v>1.261770009994507</v>
       </c>
       <c r="D257" t="n">
-        <v>0.2697807550430298</v>
+        <v>-2.23479437828064</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.736657381057739</v>
+        <v>0.09736368805170059</v>
       </c>
       <c r="C258" t="n">
-        <v>2.196358680725098</v>
+        <v>1.390279173851013</v>
       </c>
       <c r="D258" t="n">
-        <v>0.4198059141635895</v>
+        <v>-2.350845575332642</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1.724376678466797</v>
+        <v>0.2340884506702423</v>
       </c>
       <c r="C259" t="n">
-        <v>2.084663867950439</v>
+        <v>1.224436283111572</v>
       </c>
       <c r="D259" t="n">
-        <v>0.2599636316299438</v>
+        <v>-2.274765014648438</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.748031616210938</v>
+        <v>0.4635221660137177</v>
       </c>
       <c r="C260" t="n">
-        <v>1.85457980632782</v>
+        <v>1.227232694625854</v>
       </c>
       <c r="D260" t="n">
-        <v>0.2323466390371323</v>
+        <v>-2.327426195144653</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.721533894538879</v>
+        <v>0.4039396047592163</v>
       </c>
       <c r="C261" t="n">
-        <v>1.985237240791321</v>
+        <v>1.186160683631897</v>
       </c>
       <c r="D261" t="n">
-        <v>0.258553683757782</v>
+        <v>-2.238739252090454</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.730754613876343</v>
+        <v>0.6657366156578064</v>
       </c>
       <c r="C262" t="n">
-        <v>1.653200268745422</v>
+        <v>0.9955628514289856</v>
       </c>
       <c r="D262" t="n">
-        <v>0.07013294100761414</v>
+        <v>-2.223153829574585</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.940596461296082</v>
+        <v>0.5811868906021118</v>
       </c>
       <c r="C263" t="n">
-        <v>2.03795051574707</v>
+        <v>1.42463743686676</v>
       </c>
       <c r="D263" t="n">
-        <v>0.4645772278308868</v>
+        <v>-2.788498878479004</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.993138074874878</v>
+        <v>0.3648554086685181</v>
       </c>
       <c r="C264" t="n">
-        <v>2.346277475357056</v>
+        <v>1.614846348762512</v>
       </c>
       <c r="D264" t="n">
-        <v>0.6651249527931213</v>
+        <v>-2.915246248245239</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>2.192344427108765</v>
+        <v>0.3773398399353027</v>
       </c>
       <c r="C265" t="n">
-        <v>2.704323053359985</v>
+        <v>1.87915050983429</v>
       </c>
       <c r="D265" t="n">
-        <v>1.072097897529602</v>
+        <v>-3.378649473190308</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>2.091628074645996</v>
+        <v>0.5080110430717468</v>
       </c>
       <c r="C266" t="n">
-        <v>2.109917163848877</v>
+        <v>1.455129027366638</v>
       </c>
       <c r="D266" t="n">
-        <v>0.5849189758300781</v>
+        <v>-2.927209854125977</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>2.110773324966431</v>
+        <v>0.623960018157959</v>
       </c>
       <c r="C267" t="n">
-        <v>1.94280481338501</v>
+        <v>1.238995432853699</v>
       </c>
       <c r="D267" t="n">
-        <v>0.4541003406047821</v>
+        <v>-2.860882759094238</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>2.234244346618652</v>
+        <v>0.4301861524581909</v>
       </c>
       <c r="C268" t="n">
-        <v>2.259824991226196</v>
+        <v>1.531754374504089</v>
       </c>
       <c r="D268" t="n">
-        <v>0.7248808741569519</v>
+        <v>-3.06600022315979</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>2.24958610534668</v>
+        <v>0.6417697668075562</v>
       </c>
       <c r="C269" t="n">
-        <v>2.010377883911133</v>
+        <v>1.343876838684082</v>
       </c>
       <c r="D269" t="n">
-        <v>0.6108483076095581</v>
+        <v>-3.051008224487305</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>2.494867563247681</v>
+        <v>0.6464515328407288</v>
       </c>
       <c r="C270" t="n">
-        <v>2.129383563995361</v>
+        <v>1.502178907394409</v>
       </c>
       <c r="D270" t="n">
-        <v>0.8879823088645935</v>
+        <v>-3.427003145217896</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>2.625412940979004</v>
+        <v>0.7365824580192566</v>
       </c>
       <c r="C271" t="n">
-        <v>2.016576766967773</v>
+        <v>1.446720838546753</v>
       </c>
       <c r="D271" t="n">
-        <v>0.905789315700531</v>
+        <v>-3.485654354095459</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>2.499582767486572</v>
+        <v>0.7385596632957458</v>
       </c>
       <c r="C272" t="n">
-        <v>1.87211799621582</v>
+        <v>1.311753630638123</v>
       </c>
       <c r="D272" t="n">
-        <v>0.6389281153678894</v>
+        <v>-3.309677600860596</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.447653293609619</v>
+        <v>0.6190673112869263</v>
       </c>
       <c r="C273" t="n">
-        <v>1.723816633224487</v>
+        <v>1.109796524047852</v>
       </c>
       <c r="D273" t="n">
-        <v>0.4475019574165344</v>
+        <v>-3.068124055862427</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2.198304653167725</v>
+        <v>0.3265141248703003</v>
       </c>
       <c r="C274" t="n">
-        <v>1.910977840423584</v>
+        <v>0.9674621224403381</v>
       </c>
       <c r="D274" t="n">
-        <v>0.1823649555444717</v>
+        <v>-2.562093019485474</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1.771313905715942</v>
+        <v>-0.8717982172966003</v>
       </c>
       <c r="C275" t="n">
-        <v>2.726876974105835</v>
+        <v>1.687227964401245</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.02670898102223873</v>
+        <v>-2.211300134658813</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1.379952669143677</v>
+        <v>-1.045000910758972</v>
       </c>
       <c r="C276" t="n">
-        <v>2.854632139205933</v>
+        <v>1.701116442680359</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.5230674147605896</v>
+        <v>-2.156047582626343</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.2571861743927</v>
+        <v>-1.225968360900879</v>
       </c>
       <c r="C277" t="n">
-        <v>3.459728002548218</v>
+        <v>2.106264114379883</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.4317789077758789</v>
+        <v>-2.529430150985718</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1.389308214187622</v>
+        <v>-1.22697377204895</v>
       </c>
       <c r="C278" t="n">
-        <v>3.018488883972168</v>
+        <v>1.659112334251404</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.5567360520362854</v>
+        <v>-2.220200300216675</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1.356938719749451</v>
+        <v>-0.9540247321128845</v>
       </c>
       <c r="C279" t="n">
-        <v>2.70665717124939</v>
+        <v>1.588943719863892</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.6280549168586731</v>
+        <v>-1.982258439064026</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1.347042918205261</v>
+        <v>-1.115835905075073</v>
       </c>
       <c r="C280" t="n">
-        <v>2.77090048789978</v>
+        <v>1.739079713821411</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.5845981240272522</v>
+        <v>-2.184802532196045</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1.42000150680542</v>
+        <v>-0.9831832051277161</v>
       </c>
       <c r="C281" t="n">
-        <v>2.731346607208252</v>
+        <v>1.57250189781189</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.5338857769966125</v>
+        <v>-2.166954040527344</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1.837176322937012</v>
+        <v>-0.6736009120941162</v>
       </c>
       <c r="C282" t="n">
-        <v>2.79404878616333</v>
+        <v>1.596510052680969</v>
       </c>
       <c r="D282" t="n">
-        <v>0.06807071715593338</v>
+        <v>-2.406205415725708</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1.841566324234009</v>
+        <v>-0.3888395726680756</v>
       </c>
       <c r="C283" t="n">
-        <v>2.720016717910767</v>
+        <v>1.443966507911682</v>
       </c>
       <c r="D283" t="n">
-        <v>0.08074191957712173</v>
+        <v>-2.257213830947876</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>1.789158344268799</v>
+        <v>-0.5905693769454956</v>
       </c>
       <c r="C284" t="n">
-        <v>2.434334993362427</v>
+        <v>1.354864120483398</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.07971686869859695</v>
+        <v>-2.050034523010254</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1.845606207847595</v>
+        <v>-0.594633936882019</v>
       </c>
       <c r="C285" t="n">
-        <v>2.396354913711548</v>
+        <v>1.353749394416809</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.05349010974168777</v>
+        <v>-2.134964227676392</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1.812319755554199</v>
+        <v>-0.3820105791091919</v>
       </c>
       <c r="C286" t="n">
-        <v>2.409370422363281</v>
+        <v>1.232332110404968</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.08940274268388748</v>
+        <v>-2.03009819984436</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1.978420734405518</v>
+        <v>-0.4302660822868347</v>
       </c>
       <c r="C287" t="n">
-        <v>2.5889892578125</v>
+        <v>1.266711235046387</v>
       </c>
       <c r="D287" t="n">
-        <v>0.0475136786699295</v>
+        <v>-2.264771461486816</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2.002389907836914</v>
+        <v>-0.4310292303562164</v>
       </c>
       <c r="C288" t="n">
-        <v>2.678054094314575</v>
+        <v>1.47934091091156</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1833036243915558</v>
+        <v>-2.480667352676392</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2.18178391456604</v>
+        <v>-0.606273353099823</v>
       </c>
       <c r="C289" t="n">
-        <v>3.16345739364624</v>
+        <v>1.801487922668457</v>
       </c>
       <c r="D289" t="n">
-        <v>0.6638642549514771</v>
+        <v>-2.980657339096069</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2.023697376251221</v>
+        <v>-0.8053454160690308</v>
       </c>
       <c r="C290" t="n">
-        <v>2.294503927230835</v>
+        <v>1.443172931671143</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1390476375818253</v>
+        <v>-2.453108549118042</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2.029070138931274</v>
+        <v>-0.3475476503372192</v>
       </c>
       <c r="C291" t="n">
-        <v>2.238966703414917</v>
+        <v>1.19261372089386</v>
       </c>
       <c r="D291" t="n">
-        <v>0.03455134481191635</v>
+        <v>-2.352340936660767</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2.114523410797119</v>
+        <v>-0.4686458706855774</v>
       </c>
       <c r="C292" t="n">
-        <v>2.531167507171631</v>
+        <v>1.336010813713074</v>
       </c>
       <c r="D292" t="n">
-        <v>0.175600528717041</v>
+        <v>-2.543578624725342</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2.122927665710449</v>
+        <v>-0.3955859243869781</v>
       </c>
       <c r="C293" t="n">
-        <v>2.411185503005981</v>
+        <v>1.249881267547607</v>
       </c>
       <c r="D293" t="n">
-        <v>0.1398765742778778</v>
+        <v>-2.592720746994019</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2.096876859664917</v>
+        <v>-0.5707287192344666</v>
       </c>
       <c r="C294" t="n">
-        <v>2.703429698944092</v>
+        <v>1.417160272598267</v>
       </c>
       <c r="D294" t="n">
-        <v>0.2003748565912247</v>
+        <v>-2.52309513092041</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2.036626815795898</v>
+        <v>-0.4846653044223785</v>
       </c>
       <c r="C295" t="n">
-        <v>2.734401941299438</v>
+        <v>1.457077026367188</v>
       </c>
       <c r="D295" t="n">
-        <v>0.1888379007577896</v>
+        <v>-2.469056606292725</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2.047693729400635</v>
+        <v>-0.5700488686561584</v>
       </c>
       <c r="C296" t="n">
-        <v>2.511364221572876</v>
+        <v>1.308991312980652</v>
       </c>
       <c r="D296" t="n">
-        <v>0.04665330052375793</v>
+        <v>-2.335945606231689</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1.991082191467285</v>
+        <v>-0.7417556047439575</v>
       </c>
       <c r="C297" t="n">
-        <v>2.397150754928589</v>
+        <v>1.38894784450531</v>
       </c>
       <c r="D297" t="n">
-        <v>0.01051230169832706</v>
+        <v>-2.328063249588013</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2.0781569480896</v>
+        <v>-0.8089577555656433</v>
       </c>
       <c r="C298" t="n">
-        <v>2.018882989883423</v>
+        <v>1.236313104629517</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.0890059769153595</v>
+        <v>-2.200562953948975</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2.200088977813721</v>
+        <v>-0.4006237983703613</v>
       </c>
       <c r="C299" t="n">
-        <v>2.429650068283081</v>
+        <v>1.24496054649353</v>
       </c>
       <c r="D299" t="n">
-        <v>0.2875069975852966</v>
+        <v>-2.58572793006897</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2.223369836807251</v>
+        <v>-0.2352569848299026</v>
       </c>
       <c r="C300" t="n">
-        <v>2.760402202606201</v>
+        <v>1.453988075256348</v>
       </c>
       <c r="D300" t="n">
-        <v>0.5150058269500732</v>
+        <v>-2.72147011756897</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2.395198106765747</v>
+        <v>-0.2259296029806137</v>
       </c>
       <c r="C301" t="n">
-        <v>3.172076225280762</v>
+        <v>1.753660678863525</v>
       </c>
       <c r="D301" t="n">
-        <v>1.000731587409973</v>
+        <v>-3.309193849563599</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2.30731987953186</v>
+        <v>-0.5684138536453247</v>
       </c>
       <c r="C302" t="n">
-        <v>2.319487333297729</v>
+        <v>1.360019207000732</v>
       </c>
       <c r="D302" t="n">
-        <v>0.2509451508522034</v>
+        <v>-2.848276376724243</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2.3097083568573</v>
+        <v>0.01073776558041573</v>
       </c>
       <c r="C303" t="n">
-        <v>2.16733455657959</v>
+        <v>1.095072388648987</v>
       </c>
       <c r="D303" t="n">
-        <v>0.1853945404291153</v>
+        <v>-2.817585229873657</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2.537885189056396</v>
+        <v>-0.02554657496511936</v>
       </c>
       <c r="C304" t="n">
-        <v>2.474088907241821</v>
+        <v>1.350709438323975</v>
       </c>
       <c r="D304" t="n">
-        <v>0.5287306904792786</v>
+        <v>-3.073780059814453</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2.56618332862854</v>
+        <v>0.01511871349066496</v>
       </c>
       <c r="C305" t="n">
-        <v>2.430808782577515</v>
+        <v>1.221598505973816</v>
       </c>
       <c r="D305" t="n">
-        <v>0.4809629619121552</v>
+        <v>-3.022093534469604</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2.487292528152466</v>
+        <v>-0.0537581741809845</v>
       </c>
       <c r="C306" t="n">
-        <v>2.580407619476318</v>
+        <v>1.394422173500061</v>
       </c>
       <c r="D306" t="n">
-        <v>0.6242102980613708</v>
+        <v>-3.096988916397095</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2.338160037994385</v>
+        <v>0.007639068178832531</v>
       </c>
       <c r="C307" t="n">
-        <v>2.297670841217041</v>
+        <v>1.256542682647705</v>
       </c>
       <c r="D307" t="n">
-        <v>0.4298297464847565</v>
+        <v>-2.909423589706421</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2.29996395111084</v>
+        <v>0.1629887968301773</v>
       </c>
       <c r="C308" t="n">
-        <v>2.081816911697388</v>
+        <v>1.085558891296387</v>
       </c>
       <c r="D308" t="n">
-        <v>0.2664907872676849</v>
+        <v>-2.822146892547607</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2.277369976043701</v>
+        <v>-0.1007241755723953</v>
       </c>
       <c r="C309" t="n">
-        <v>2.078593969345093</v>
+        <v>1.31361997127533</v>
       </c>
       <c r="D309" t="n">
-        <v>0.2839199006557465</v>
+        <v>-2.916916608810425</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2.186811447143555</v>
+        <v>-0.02644005231559277</v>
       </c>
       <c r="C310" t="n">
-        <v>2.406399965286255</v>
+        <v>0.9776933789253235</v>
       </c>
       <c r="D310" t="n">
-        <v>0.1313349604606628</v>
+        <v>-2.41732931137085</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2.422483444213867</v>
+        <v>-0.2036925405263901</v>
       </c>
       <c r="C311" t="n">
-        <v>2.704587459564209</v>
+        <v>1.242079973220825</v>
       </c>
       <c r="D311" t="n">
-        <v>0.4560361802577972</v>
+        <v>-2.763695478439331</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2.499143600463867</v>
+        <v>-0.06653426587581635</v>
       </c>
       <c r="C312" t="n">
-        <v>2.583582639694214</v>
+        <v>1.46418559551239</v>
       </c>
       <c r="D312" t="n">
-        <v>0.650271475315094</v>
+        <v>-3.123562335968018</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2.703672170639038</v>
+        <v>-0.2237118184566498</v>
       </c>
       <c r="C313" t="n">
-        <v>3.243288993835449</v>
+        <v>1.732374787330627</v>
       </c>
       <c r="D313" t="n">
-        <v>1.14613664150238</v>
+        <v>-3.577381372451782</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2.496894359588623</v>
+        <v>-0.5013283491134644</v>
       </c>
       <c r="C314" t="n">
-        <v>2.594851732254028</v>
+        <v>1.363747119903564</v>
       </c>
       <c r="D314" t="n">
-        <v>0.4008828699588776</v>
+        <v>-3.033671140670776</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2.666888236999512</v>
+        <v>-0.3256116509437561</v>
       </c>
       <c r="C315" t="n">
-        <v>2.815736293792725</v>
+        <v>1.280899047851562</v>
       </c>
       <c r="D315" t="n">
-        <v>0.4886981844902039</v>
+        <v>-3.10651707649231</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2.540963411331177</v>
+        <v>-0.3414175510406494</v>
       </c>
       <c r="C316" t="n">
-        <v>2.699580669403076</v>
+        <v>1.253869295120239</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4264129996299744</v>
+        <v>-3.022033929824829</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2.538115739822388</v>
+        <v>-0.2852447628974915</v>
       </c>
       <c r="C317" t="n">
-        <v>2.730661392211914</v>
+        <v>1.157749652862549</v>
       </c>
       <c r="D317" t="n">
-        <v>0.3504377007484436</v>
+        <v>-2.90659499168396</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2.3219153881073</v>
+        <v>-0.347838819026947</v>
       </c>
       <c r="C318" t="n">
-        <v>2.733195304870605</v>
+        <v>1.149873852729797</v>
       </c>
       <c r="D318" t="n">
-        <v>0.2576502859592438</v>
+        <v>-2.665768623352051</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2.269713640213013</v>
+        <v>-0.362652599811554</v>
       </c>
       <c r="C319" t="n">
-        <v>2.707901477813721</v>
+        <v>0.9854345917701721</v>
       </c>
       <c r="D319" t="n">
-        <v>0.1766657829284668</v>
+        <v>-2.450127840042114</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2.313454866409302</v>
+        <v>-0.3548583388328552</v>
       </c>
       <c r="C320" t="n">
-        <v>2.806741714477539</v>
+        <v>0.8905537128448486</v>
       </c>
       <c r="D320" t="n">
-        <v>0.1062407121062279</v>
+        <v>-2.383587598800659</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2.363784551620483</v>
+        <v>-0.2641408145427704</v>
       </c>
       <c r="C321" t="n">
-        <v>2.700418472290039</v>
+        <v>0.8924542665481567</v>
       </c>
       <c r="D321" t="n">
-        <v>0.07859626412391663</v>
+        <v>-2.574669361114502</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2.326885938644409</v>
+        <v>0.00296941283158958</v>
       </c>
       <c r="C322" t="n">
-        <v>2.309891223907471</v>
+        <v>0.7112229466438293</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.05696996301412582</v>
+        <v>-2.505480527877808</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>2.438817977905273</v>
+        <v>-0.4588741064071655</v>
       </c>
       <c r="C323" t="n">
-        <v>3.005769491195679</v>
+        <v>1.110900402069092</v>
       </c>
       <c r="D323" t="n">
-        <v>0.3051181733608246</v>
+        <v>-2.673539638519287</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>2.446990013122559</v>
+        <v>-0.4915242791175842</v>
       </c>
       <c r="C324" t="n">
-        <v>3.130542278289795</v>
+        <v>1.090041399002075</v>
       </c>
       <c r="D324" t="n">
-        <v>0.3589508831501007</v>
+        <v>-2.714207410812378</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>2.661147356033325</v>
+        <v>-0.6387118697166443</v>
       </c>
       <c r="C325" t="n">
-        <v>3.856471300125122</v>
+        <v>1.300402283668518</v>
       </c>
       <c r="D325" t="n">
-        <v>0.6924660205841064</v>
+        <v>-3.127080202102661</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2.608353614807129</v>
+        <v>-0.4436119496822357</v>
       </c>
       <c r="C326" t="n">
-        <v>3.011967420578003</v>
+        <v>1.15703284740448</v>
       </c>
       <c r="D326" t="n">
-        <v>0.2151644825935364</v>
+        <v>-3.030379772186279</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>2.566255331039429</v>
+        <v>-0.3773795366287231</v>
       </c>
       <c r="C327" t="n">
-        <v>3.005352973937988</v>
+        <v>0.8406085968017578</v>
       </c>
       <c r="D327" t="n">
-        <v>0.05883613973855972</v>
+        <v>-2.676944971084595</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>2.721295595169067</v>
+        <v>-0.5428100228309631</v>
       </c>
       <c r="C328" t="n">
-        <v>3.318778038024902</v>
+        <v>0.9487420916557312</v>
       </c>
       <c r="D328" t="n">
-        <v>0.2217862010002136</v>
+        <v>-2.760125398635864</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>2.595518112182617</v>
+        <v>-0.4471645355224609</v>
       </c>
       <c r="C329" t="n">
-        <v>3.133672714233398</v>
+        <v>0.8494706749916077</v>
       </c>
       <c r="D329" t="n">
-        <v>0.0877438485622406</v>
+        <v>-2.646367788314819</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2.571240663528442</v>
+        <v>-0.568446159362793</v>
       </c>
       <c r="C330" t="n">
-        <v>3.345688581466675</v>
+        <v>1.068504571914673</v>
       </c>
       <c r="D330" t="n">
-        <v>0.2635975778102875</v>
+        <v>-2.824589014053345</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2.54043984413147</v>
+        <v>-0.5007559061050415</v>
       </c>
       <c r="C331" t="n">
-        <v>3.171555519104004</v>
+        <v>0.8414972424507141</v>
       </c>
       <c r="D331" t="n">
-        <v>0.09499981254339218</v>
+        <v>-2.611376762390137</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2.569190263748169</v>
+        <v>-0.2671763896942139</v>
       </c>
       <c r="C332" t="n">
-        <v>2.9516921043396</v>
+        <v>0.9512338638305664</v>
       </c>
       <c r="D332" t="n">
-        <v>0.123507484793663</v>
+        <v>-2.865463495254517</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>2.62916088104248</v>
+        <v>-0.2084959447383881</v>
       </c>
       <c r="C333" t="n">
-        <v>2.866973161697388</v>
+        <v>0.853719174861908</v>
       </c>
       <c r="D333" t="n">
-        <v>0.06744488328695297</v>
+        <v>-2.92217755317688</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>2.613680601119995</v>
+        <v>-0.3411470055580139</v>
       </c>
       <c r="C334" t="n">
-        <v>3.0372633934021</v>
+        <v>0.6791525483131409</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.006860164925456047</v>
+        <v>-2.551857471466064</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>2.6608567237854</v>
+        <v>-0.5693257451057434</v>
       </c>
       <c r="C335" t="n">
-        <v>3.436949491500854</v>
+        <v>0.9571709632873535</v>
       </c>
       <c r="D335" t="n">
-        <v>0.2544086575508118</v>
+        <v>-2.755188703536987</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>2.673131942749023</v>
+        <v>-0.5969257354736328</v>
       </c>
       <c r="C336" t="n">
-        <v>3.412458658218384</v>
+        <v>0.9829331040382385</v>
       </c>
       <c r="D336" t="n">
-        <v>0.2473754733800888</v>
+        <v>-2.827836513519287</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>2.894062042236328</v>
+        <v>-0.6210693717002869</v>
       </c>
       <c r="C337" t="n">
-        <v>4.105857849121094</v>
+        <v>1.261526823043823</v>
       </c>
       <c r="D337" t="n">
-        <v>0.8034150004386902</v>
+        <v>-3.307575464248657</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>2.688858032226562</v>
+        <v>-0.4976637065410614</v>
       </c>
       <c r="C338" t="n">
-        <v>3.216777324676514</v>
+        <v>0.9443142414093018</v>
       </c>
       <c r="D338" t="n">
-        <v>0.1156889945268631</v>
+        <v>-2.882357835769653</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2.764705896377563</v>
+        <v>-0.4780820906162262</v>
       </c>
       <c r="C339" t="n">
-        <v>3.260929822921753</v>
+        <v>0.8478959798812866</v>
       </c>
       <c r="D339" t="n">
-        <v>0.0988277941942215</v>
+        <v>-2.854310750961304</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>2.819751739501953</v>
+        <v>-0.5181176066398621</v>
       </c>
       <c r="C340" t="n">
-        <v>3.35254693031311</v>
+        <v>0.9419190287590027</v>
       </c>
       <c r="D340" t="n">
-        <v>0.1842901557683945</v>
+        <v>-2.92685341835022</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2.707915782928467</v>
+        <v>-0.3931540846824646</v>
       </c>
       <c r="C341" t="n">
-        <v>3.123711347579956</v>
+        <v>0.805514931678772</v>
       </c>
       <c r="D341" t="n">
-        <v>0.1016341671347618</v>
+        <v>-2.75744366645813</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2.758862018585205</v>
+        <v>-0.4359811246395111</v>
       </c>
       <c r="C342" t="n">
-        <v>3.207358360290527</v>
+        <v>0.9640384316444397</v>
       </c>
       <c r="D342" t="n">
-        <v>0.2495514899492264</v>
+        <v>-2.99271035194397</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>2.725605249404907</v>
+        <v>-0.3731590509414673</v>
       </c>
       <c r="C343" t="n">
-        <v>3.078564643859863</v>
+        <v>0.8024222254753113</v>
       </c>
       <c r="D343" t="n">
-        <v>0.1615811437368393</v>
+        <v>-2.811469316482544</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>2.656516075134277</v>
+        <v>-0.3443784117698669</v>
       </c>
       <c r="C344" t="n">
-        <v>3.064283132553101</v>
+        <v>0.8147163987159729</v>
       </c>
       <c r="D344" t="n">
-        <v>0.1027046293020248</v>
+        <v>-2.771623134613037</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>2.687744379043579</v>
+        <v>-0.3547292351722717</v>
       </c>
       <c r="C345" t="n">
-        <v>3.04792594909668</v>
+        <v>0.6798005700111389</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.00698704831302166</v>
+        <v>-2.669778108596802</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>2.639280796051025</v>
+        <v>-0.3779290914535522</v>
       </c>
       <c r="C346" t="n">
-        <v>3.080219984054565</v>
+        <v>0.5796188712120056</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.07161902636289597</v>
+        <v>-2.473746776580811</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>2.646090030670166</v>
+        <v>-0.714824378490448</v>
       </c>
       <c r="C347" t="n">
-        <v>3.551987171173096</v>
+        <v>0.8967908620834351</v>
       </c>
       <c r="D347" t="n">
-        <v>0.1383757591247559</v>
+        <v>-2.627546548843384</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>2.492288589477539</v>
+        <v>-0.7807691097259521</v>
       </c>
       <c r="C348" t="n">
-        <v>3.635471343994141</v>
+        <v>0.7342655062675476</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.1739769279956818</v>
+        <v>-2.390610218048096</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>2.506969690322876</v>
+        <v>-1.173267364501953</v>
       </c>
       <c r="C349" t="n">
-        <v>4.683492183685303</v>
+        <v>1.254227161407471</v>
       </c>
       <c r="D349" t="n">
-        <v>0.07157959789037704</v>
+        <v>-2.725872755050659</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>2.296566247940063</v>
+        <v>-1.182628750801086</v>
       </c>
       <c r="C350" t="n">
-        <v>3.977932453155518</v>
+        <v>1.057755589485168</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.4290734529495239</v>
+        <v>-2.482549428939819</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>2.391228199005127</v>
+        <v>-1.181433081626892</v>
       </c>
       <c r="C351" t="n">
-        <v>3.957611560821533</v>
+        <v>0.4948034882545471</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.5989261269569397</v>
+        <v>-1.981199979782104</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2.419252395629883</v>
+        <v>-1.155935525894165</v>
       </c>
       <c r="C352" t="n">
-        <v>4.418779850006104</v>
+        <v>0.9842610955238342</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.3813777267932892</v>
+        <v>-2.495087146759033</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>2.462304353713989</v>
+        <v>-1.022799015045166</v>
       </c>
       <c r="C353" t="n">
-        <v>3.976897478103638</v>
+        <v>0.7623146176338196</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.3945314884185791</v>
+        <v>-2.315008401870728</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>2.437439918518066</v>
+        <v>-1.066991448402405</v>
       </c>
       <c r="C354" t="n">
-        <v>3.910146236419678</v>
+        <v>0.8417944312095642</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.3844150006771088</v>
+        <v>-2.444603681564331</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>2.420067548751831</v>
+        <v>-0.9021822214126587</v>
       </c>
       <c r="C355" t="n">
-        <v>3.735129833221436</v>
+        <v>0.7489941716194153</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.2723215818405151</v>
+        <v>-2.323035478591919</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>2.368834733963013</v>
+        <v>-1.045140504837036</v>
       </c>
       <c r="C356" t="n">
-        <v>3.725930213928223</v>
+        <v>0.6353386044502258</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.3497363030910492</v>
+        <v>-2.084336280822754</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>2.372204780578613</v>
+        <v>-1.173396587371826</v>
       </c>
       <c r="C357" t="n">
-        <v>3.793248176574707</v>
+        <v>0.4768900573253632</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.5341214537620544</v>
+        <v>-1.928695321083069</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>2.311125993728638</v>
+        <v>-1.133201599121094</v>
       </c>
       <c r="C358" t="n">
-        <v>3.945350170135498</v>
+        <v>0.3856661319732666</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.6633662581443787</v>
+        <v>-1.746430993080139</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>2.424081802368164</v>
+        <v>-1.074107766151428</v>
       </c>
       <c r="C359" t="n">
-        <v>4.033217430114746</v>
+        <v>0.685413122177124</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.4045028984546661</v>
+        <v>-2.152382612228394</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>2.413553476333618</v>
+        <v>-1.039750456809998</v>
       </c>
       <c r="C360" t="n">
-        <v>4.183579444885254</v>
+        <v>0.7360617518424988</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.3946772515773773</v>
+        <v>-2.253784894943237</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2.432275295257568</v>
+        <v>-1.430873513221741</v>
       </c>
       <c r="C361" t="n">
-        <v>4.767576217651367</v>
+        <v>1.267856121063232</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.2113566249608994</v>
+        <v>-2.549458265304565</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>2.437350511550903</v>
+        <v>-1.466172218322754</v>
       </c>
       <c r="C362" t="n">
-        <v>4.550581455230713</v>
+        <v>0.6612658500671387</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.7536671757698059</v>
+        <v>-2.085779428482056</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>2.460723161697388</v>
+        <v>-1.61124587059021</v>
       </c>
       <c r="C363" t="n">
-        <v>4.490100860595703</v>
+        <v>0.5087080597877502</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.9143504500389099</v>
+        <v>-2.015202045440674</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>2.536411762237549</v>
+        <v>-1.293726921081543</v>
       </c>
       <c r="C364" t="n">
-        <v>4.668925285339355</v>
+        <v>0.7770138382911682</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.5689611434936523</v>
+        <v>-2.265520811080933</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>2.565589427947998</v>
+        <v>-1.196077942848206</v>
       </c>
       <c r="C365" t="n">
-        <v>4.225170135498047</v>
+        <v>0.5146467685699463</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.5621471405029297</v>
+        <v>-2.110005378723145</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>2.599371671676636</v>
+        <v>-1.127291560173035</v>
       </c>
       <c r="C366" t="n">
-        <v>4.299678802490234</v>
+        <v>0.6914177536964417</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.4153231382369995</v>
+        <v>-2.320986986160278</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>2.570162773132324</v>
+        <v>-0.9913830757141113</v>
       </c>
       <c r="C367" t="n">
-        <v>4.119380474090576</v>
+        <v>0.5415634512901306</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.3944432735443115</v>
+        <v>-2.180143594741821</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>2.53347373008728</v>
+        <v>-1.227129817008972</v>
       </c>
       <c r="C368" t="n">
-        <v>4.204118728637695</v>
+        <v>0.3973755836486816</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.6508908867835999</v>
+        <v>-1.928967952728271</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2.548138856887817</v>
+        <v>-1.289011359214783</v>
       </c>
       <c r="C369" t="n">
-        <v>4.23328971862793</v>
+        <v>0.4482530355453491</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.6380776762962341</v>
+        <v>-2.046648979187012</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>2.546954154968262</v>
+        <v>-1.566724896430969</v>
       </c>
       <c r="C370" t="n">
-        <v>3.825286626815796</v>
+        <v>0.07735729962587357</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.8539823293685913</v>
+        <v>-1.777228951454163</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>2.757628440856934</v>
+        <v>-1.019107937812805</v>
       </c>
       <c r="C371" t="n">
-        <v>4.329802513122559</v>
+        <v>0.5466828346252441</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.3608546257019043</v>
+        <v>-2.294427156448364</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>2.73323392868042</v>
+        <v>-1.068607330322266</v>
       </c>
       <c r="C372" t="n">
-        <v>4.320025444030762</v>
+        <v>0.6689951419830322</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.2994912266731262</v>
+        <v>-2.430830717086792</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>2.887342214584351</v>
+        <v>-1.383109211921692</v>
       </c>
       <c r="C373" t="n">
-        <v>4.972320556640625</v>
+        <v>0.798525333404541</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.1862767338752747</v>
+        <v>-2.6805579662323</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>2.961317300796509</v>
+        <v>-1.49957013130188</v>
       </c>
       <c r="C374" t="n">
-        <v>4.581356525421143</v>
+        <v>0.5897974967956543</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.5786142349243164</v>
+        <v>-2.540886402130127</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>2.928801298141479</v>
+        <v>-1.204620242118835</v>
       </c>
       <c r="C375" t="n">
-        <v>4.250830173492432</v>
+        <v>0.3753013610839844</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.4755786955356598</v>
+        <v>-2.300523042678833</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>2.941228866577148</v>
+        <v>-1.201117873191833</v>
       </c>
       <c r="C376" t="n">
-        <v>4.499967575073242</v>
+        <v>0.5282577872276306</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.4205018877983093</v>
+        <v>-2.427902936935425</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>2.982077360153198</v>
+        <v>-1.128946542739868</v>
       </c>
       <c r="C377" t="n">
-        <v>4.438475608825684</v>
+        <v>0.3409650921821594</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.5047575235366821</v>
+        <v>-2.245433568954468</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>2.916311979293823</v>
+        <v>-1.236162900924683</v>
       </c>
       <c r="C378" t="n">
-        <v>4.576784133911133</v>
+        <v>0.6034699082374573</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.4007209837436676</v>
+        <v>-2.544657945632935</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>2.878343820571899</v>
+        <v>-1.098845362663269</v>
       </c>
       <c r="C379" t="n">
-        <v>4.376769065856934</v>
+        <v>0.3681113123893738</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.4741106927394867</v>
+        <v>-2.240625143051147</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>2.953888654708862</v>
+        <v>-1.25879430770874</v>
       </c>
       <c r="C380" t="n">
-        <v>4.187432765960693</v>
+        <v>0.2279970645904541</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.5826724767684937</v>
+        <v>-2.129291534423828</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>2.844332218170166</v>
+        <v>-1.49042534828186</v>
       </c>
       <c r="C381" t="n">
-        <v>4.13697624206543</v>
+        <v>0.2452006340026855</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.6962352395057678</v>
+        <v>-2.14118766784668</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>2.940311908721924</v>
+        <v>-1.234769105911255</v>
       </c>
       <c r="C382" t="n">
-        <v>4.216287612915039</v>
+        <v>0.2100162506103516</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.5623299479484558</v>
+        <v>-2.102135896682739</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>3.168765783309937</v>
+        <v>-0.9276459813117981</v>
       </c>
       <c r="C383" t="n">
-        <v>4.643247604370117</v>
+        <v>0.3613437712192535</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.3471297323703766</v>
+        <v>-2.40066933631897</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>3.124881982803345</v>
+        <v>-0.9656527638435364</v>
       </c>
       <c r="C384" t="n">
-        <v>4.788565158843994</v>
+        <v>0.5746986269950867</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.2496845424175262</v>
+        <v>-2.638479709625244</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>3.289092540740967</v>
+        <v>-1.318986177444458</v>
       </c>
       <c r="C385" t="n">
-        <v>5.439739227294922</v>
+        <v>0.7152342200279236</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.1028986647725105</v>
+        <v>-2.956669330596924</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>3.500893115997314</v>
+        <v>-1.412030935287476</v>
       </c>
       <c r="C386" t="n">
-        <v>6.013647556304932</v>
+        <v>0.7785797119140625</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.266909271478653</v>
+        <v>-3.180009603500366</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>3.225383758544922</v>
+        <v>-1.433546423912048</v>
       </c>
       <c r="C387" t="n">
-        <v>4.677927494049072</v>
+        <v>0.1709582805633545</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.7514616847038269</v>
+        <v>-2.380248308181763</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>3.299140930175781</v>
+        <v>-1.006025671958923</v>
       </c>
       <c r="C388" t="n">
-        <v>4.873671531677246</v>
+        <v>0.4617840945720673</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.350387305021286</v>
+        <v>-2.69633936882019</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>3.310798406600952</v>
+        <v>-1.093446969985962</v>
       </c>
       <c r="C389" t="n">
-        <v>4.599595546722412</v>
+        <v>0.2787790298461914</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.427647739648819</v>
+        <v>-2.54106330871582</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>3.291048765182495</v>
+        <v>-0.994111955165863</v>
       </c>
       <c r="C390" t="n">
-        <v>4.67123556137085</v>
+        <v>0.4823683202266693</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.245588630437851</v>
+        <v>-2.766418218612671</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>3.329850196838379</v>
+        <v>-0.934253990650177</v>
       </c>
       <c r="C391" t="n">
-        <v>4.499540328979492</v>
+        <v>0.2723723649978638</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.3078845739364624</v>
+        <v>-2.554406642913818</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>3.279247283935547</v>
+        <v>-1.174036145210266</v>
       </c>
       <c r="C392" t="n">
-        <v>4.655202388763428</v>
+        <v>0.259155809879303</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.4997698366641998</v>
+        <v>-2.464380025863647</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>3.20947527885437</v>
+        <v>-1.505038380622864</v>
       </c>
       <c r="C393" t="n">
-        <v>4.433919429779053</v>
+        <v>0.1001102402806282</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.72319096326828</v>
+        <v>-2.376179456710815</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>3.345491409301758</v>
+        <v>-1.330404162406921</v>
       </c>
       <c r="C394" t="n">
-        <v>4.255289077758789</v>
+        <v>-0.08688124269247055</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.6480488777160645</v>
+        <v>-2.211962461471558</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>3.399935722351074</v>
+        <v>-0.9176551103591919</v>
       </c>
       <c r="C395" t="n">
-        <v>4.761526584625244</v>
+        <v>0.4967273473739624</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.1369670331478119</v>
+        <v>-2.794983625411987</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>3.297524690628052</v>
+        <v>-0.9466216564178467</v>
       </c>
       <c r="C396" t="n">
-        <v>4.925505638122559</v>
+        <v>0.4822010695934296</v>
       </c>
       <c r="D396" t="n">
-        <v>-0.2529586255550385</v>
+        <v>-2.6458740234375</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/real_enc.xlsx
+++ b/documents/latent_vector/real_enc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D396"/>
+  <dimension ref="A1:D432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.08781707286834717</v>
+        <v>0.1440857499837875</v>
       </c>
       <c r="C2" t="n">
-        <v>1.014970898628235</v>
+        <v>0.4107679724693298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4221079349517822</v>
+        <v>0.01104369480162859</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0567958652973175</v>
+        <v>0.09676720201969147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.997240424156189</v>
+        <v>0.3930801749229431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3047016263008118</v>
+        <v>0.0285405945032835</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.074498251080513</v>
+        <v>0.1019769385457039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9835540056228638</v>
+        <v>0.3440578281879425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3847624361515045</v>
+        <v>0.03883831575512886</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.06349802017211914</v>
+        <v>0.09717350453138351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9444432258605957</v>
+        <v>0.3343146741390228</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4457587599754333</v>
+        <v>0.03122178092598915</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02423371560871601</v>
+        <v>0.06349457800388336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.919092059135437</v>
+        <v>0.3042043447494507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4154379069805145</v>
+        <v>0.0335366316139698</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09289209544658661</v>
+        <v>0.07940769195556641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7750122547149658</v>
+        <v>0.2837286591529846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5619542002677917</v>
+        <v>0.01033466029912233</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09203405678272247</v>
+        <v>0.09226787835359573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7789449095726013</v>
+        <v>0.3017025887966156</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5561083555221558</v>
+        <v>-9.523960761725903e-05</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1299458742141724</v>
+        <v>0.1090778559446335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7045954465866089</v>
+        <v>0.3094581365585327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6594304442405701</v>
+        <v>-0.02409290336072445</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1522046774625778</v>
+        <v>0.1171571463346481</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6506196856498718</v>
+        <v>0.3053264617919922</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6510757803916931</v>
+        <v>-0.03764566034078598</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1555888801813126</v>
+        <v>0.1552867442369461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5593509078025818</v>
+        <v>0.3111896812915802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4815307259559631</v>
+        <v>-0.02205586992204189</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05256813764572144</v>
+        <v>0.1502929925918579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7382543087005615</v>
+        <v>0.3362689316272736</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4175370037555695</v>
+        <v>0.0005993072409182787</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01865064911544323</v>
+        <v>0.1287198215723038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.871283233165741</v>
+        <v>0.3184242844581604</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2561604380607605</v>
+        <v>0.0443611741065979</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1170659437775612</v>
+        <v>0.1421749740839005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6124249696731567</v>
+        <v>0.3789571821689606</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3509996831417084</v>
+        <v>0.01269513089209795</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1064920425415039</v>
+        <v>0.1225832179188728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6505361795425415</v>
+        <v>0.3897652626037598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2570568025112152</v>
+        <v>0.04618093371391296</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11185073107481</v>
+        <v>0.1490711271762848</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7135980725288391</v>
+        <v>0.3358328938484192</v>
       </c>
       <c r="D16" t="n">
-        <v>0.31907919049263</v>
+        <v>0.009989880956709385</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1000803411006927</v>
+        <v>0.1143970116972923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7676035165786743</v>
+        <v>0.3218403160572052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2999530136585236</v>
+        <v>0.02195469848811626</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08125586807727814</v>
+        <v>0.07129044830799103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8428659439086914</v>
+        <v>0.3006476759910583</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3906948566436768</v>
+        <v>0.02691386453807354</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.131608709692955</v>
+        <v>0.05282179638743401</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8631071448326111</v>
+        <v>0.2958742380142212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5012936592102051</v>
+        <v>0.02691460587084293</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.011071533896029</v>
+        <v>0.07195929437875748</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7259320020675659</v>
+        <v>0.3057488203048706</v>
       </c>
       <c r="D20" t="n">
-        <v>0.474044144153595</v>
+        <v>0.006782439537346363</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2479060739278793</v>
+        <v>0.1046727150678635</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8859476447105408</v>
+        <v>0.343734085559845</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8060408234596252</v>
+        <v>-0.002806522650644183</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2565347254276276</v>
+        <v>0.1131207942962646</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8961490988731384</v>
+        <v>0.3511603474617004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8281368017196655</v>
+        <v>-0.00959534477442503</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3179733157157898</v>
+        <v>0.08540650457143784</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9908736348152161</v>
+        <v>0.362648218870163</v>
       </c>
       <c r="D23" t="n">
-        <v>1.001645445823669</v>
+        <v>-0.006515213288366795</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4618217349052429</v>
+        <v>0.03123422153294086</v>
       </c>
       <c r="C24" t="n">
-        <v>1.068470239639282</v>
+        <v>0.3482808172702789</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9868526458740234</v>
+        <v>0.02400304190814495</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6789659857749939</v>
+        <v>0.001985619543120265</v>
       </c>
       <c r="C25" t="n">
-        <v>1.231450796127319</v>
+        <v>0.3625988960266113</v>
       </c>
       <c r="D25" t="n">
-        <v>1.330336213111877</v>
+        <v>0.04616783186793327</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.4251853227615356</v>
+        <v>0.01813886500895023</v>
       </c>
       <c r="C26" t="n">
-        <v>1.406743288040161</v>
+        <v>0.4291926026344299</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7013322114944458</v>
+        <v>0.03784215450286865</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.6233956813812256</v>
+        <v>0.03270016238093376</v>
       </c>
       <c r="C27" t="n">
-        <v>1.789085388183594</v>
+        <v>0.4525432586669922</v>
       </c>
       <c r="D27" t="n">
-        <v>1.047157645225525</v>
+        <v>0.02281936071813107</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.5560973286628723</v>
+        <v>-0.002835308434441686</v>
       </c>
       <c r="C28" t="n">
-        <v>1.740000247955322</v>
+        <v>0.4137873351573944</v>
       </c>
       <c r="D28" t="n">
-        <v>1.616477489471436</v>
+        <v>0.06605775654315948</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6552132964134216</v>
+        <v>0.02810300327837467</v>
       </c>
       <c r="C29" t="n">
-        <v>1.819104194641113</v>
+        <v>0.3932966589927673</v>
       </c>
       <c r="D29" t="n">
-        <v>1.396725535392761</v>
+        <v>0.02306240610778332</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.5961264371871948</v>
+        <v>0.04549152031540871</v>
       </c>
       <c r="C30" t="n">
-        <v>1.796095967292786</v>
+        <v>0.3823922872543335</v>
       </c>
       <c r="D30" t="n">
-        <v>1.05586564540863</v>
+        <v>0.02299719117581844</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.6597598791122437</v>
+        <v>0.01964487321674824</v>
       </c>
       <c r="C31" t="n">
-        <v>1.852410435676575</v>
+        <v>0.3702236413955688</v>
       </c>
       <c r="D31" t="n">
-        <v>1.165538787841797</v>
+        <v>0.01172310952097178</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.7149020433425903</v>
+        <v>0.04463682696223259</v>
       </c>
       <c r="C32" t="n">
-        <v>1.976073384284973</v>
+        <v>0.3959478139877319</v>
       </c>
       <c r="D32" t="n">
-        <v>1.254631280899048</v>
+        <v>-0.008772044442594051</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5846638679504395</v>
+        <v>0.08985406160354614</v>
       </c>
       <c r="C33" t="n">
-        <v>1.917026400566101</v>
+        <v>0.4068862497806549</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9755852222442627</v>
+        <v>-0.01411463227123022</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.5662253499031067</v>
+        <v>0.0936257392168045</v>
       </c>
       <c r="C34" t="n">
-        <v>1.875981092453003</v>
+        <v>0.4060207605361938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9091745615005493</v>
+        <v>-0.0377763919532299</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5260700583457947</v>
+        <v>0.1361721307039261</v>
       </c>
       <c r="C35" t="n">
-        <v>1.798572063446045</v>
+        <v>0.4391806721687317</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8603513836860657</v>
+        <v>-0.01800709962844849</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.6461804509162903</v>
+        <v>0.1004852876067162</v>
       </c>
       <c r="C36" t="n">
-        <v>1.881858587265015</v>
+        <v>0.4332404434680939</v>
       </c>
       <c r="D36" t="n">
-        <v>1.035938501358032</v>
+        <v>0.007988515309989452</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.7065731883049011</v>
+        <v>0.06955466419458389</v>
       </c>
       <c r="C37" t="n">
-        <v>1.858197569847107</v>
+        <v>0.4085836410522461</v>
       </c>
       <c r="D37" t="n">
-        <v>1.328140258789062</v>
+        <v>0.04326290264725685</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.6688017249107361</v>
+        <v>0.09519895166158676</v>
       </c>
       <c r="C38" t="n">
-        <v>2.098913669586182</v>
+        <v>0.4934112429618835</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7783472537994385</v>
+        <v>0.03081830777227879</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.5639423727989197</v>
+        <v>0.1143055930733681</v>
       </c>
       <c r="C39" t="n">
-        <v>1.986625671386719</v>
+        <v>0.4938671290874481</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4934501647949219</v>
+        <v>0.03614936769008636</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.5442885756492615</v>
+        <v>0.1068792119622231</v>
       </c>
       <c r="C40" t="n">
-        <v>1.860587596893311</v>
+        <v>0.4256637096405029</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5691947340965271</v>
+        <v>0.0625331923365593</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.5234305262565613</v>
+        <v>0.07737209647893906</v>
       </c>
       <c r="C41" t="n">
-        <v>1.854973793029785</v>
+        <v>0.4237167835235596</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4684642553329468</v>
+        <v>0.04246898368000984</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.6331173181533813</v>
+        <v>0.04814889654517174</v>
       </c>
       <c r="C42" t="n">
-        <v>1.954186320304871</v>
+        <v>0.4228449761867523</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6481155753135681</v>
+        <v>0.05639313533902168</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.5431403517723083</v>
+        <v>0.06196653470396996</v>
       </c>
       <c r="C43" t="n">
-        <v>1.914458870887756</v>
+        <v>0.4152218103408813</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5186479687690735</v>
+        <v>0.04687525704503059</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.4955350756645203</v>
+        <v>0.1005881428718567</v>
       </c>
       <c r="C44" t="n">
-        <v>1.931878924369812</v>
+        <v>0.4375959634780884</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3677662312984467</v>
+        <v>0.00894389022141695</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.4638155400753021</v>
+        <v>0.09984541684389114</v>
       </c>
       <c r="C45" t="n">
-        <v>2.018280506134033</v>
+        <v>0.4457335472106934</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3201864361763</v>
+        <v>0.0005518321413546801</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.4067919552326202</v>
+        <v>0.0991286113858223</v>
       </c>
       <c r="C46" t="n">
-        <v>2.111576080322266</v>
+        <v>0.4669649600982666</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3473365008831024</v>
+        <v>-0.01800890453159809</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.6359654068946838</v>
+        <v>0.09650615602731705</v>
       </c>
       <c r="C47" t="n">
-        <v>2.153244018554688</v>
+        <v>0.4775694310665131</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5754001140594482</v>
+        <v>-0.003393768100067973</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.6326707601547241</v>
+        <v>0.07989245653152466</v>
       </c>
       <c r="C48" t="n">
-        <v>2.045161962509155</v>
+        <v>0.4463005661964417</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6617646217346191</v>
+        <v>0.02675146795809269</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6306830048561096</v>
+        <v>0.1081087067723274</v>
       </c>
       <c r="C49" t="n">
-        <v>2.069514751434326</v>
+        <v>0.4402123689651489</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6553912162780762</v>
+        <v>0.0433344691991806</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.7792791128158569</v>
+        <v>0.1467101871967316</v>
       </c>
       <c r="C50" t="n">
-        <v>2.379480361938477</v>
+        <v>0.5187488794326782</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8652085065841675</v>
+        <v>-0.01454785373061895</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.7143082022666931</v>
+        <v>0.1135760620236397</v>
       </c>
       <c r="C51" t="n">
-        <v>2.418632507324219</v>
+        <v>0.5292923450469971</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7995855808258057</v>
+        <v>-0.0005231450777500868</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.7661604881286621</v>
+        <v>0.109102688729763</v>
       </c>
       <c r="C52" t="n">
-        <v>2.389595985412598</v>
+        <v>0.4563272297382355</v>
       </c>
       <c r="D52" t="n">
-        <v>1.077627778053284</v>
+        <v>0.02199034206569195</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.8992159962654114</v>
+        <v>0.09009910374879837</v>
       </c>
       <c r="C53" t="n">
-        <v>2.459508895874023</v>
+        <v>0.4857532978057861</v>
       </c>
       <c r="D53" t="n">
-        <v>1.299024939537048</v>
+        <v>0.01700486801564693</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.9888618588447571</v>
+        <v>0.09299106150865555</v>
       </c>
       <c r="C54" t="n">
-        <v>2.531972885131836</v>
+        <v>0.4918122589588165</v>
       </c>
       <c r="D54" t="n">
-        <v>1.44261360168457</v>
+        <v>0.04514602944254875</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.044101715087891</v>
+        <v>0.08444943279027939</v>
       </c>
       <c r="C55" t="n">
-        <v>2.531819343566895</v>
+        <v>0.4969765543937683</v>
       </c>
       <c r="D55" t="n">
-        <v>1.580528259277344</v>
+        <v>0.0346875861287117</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.237095475196838</v>
+        <v>0.09366361051797867</v>
       </c>
       <c r="C56" t="n">
-        <v>2.648672342300415</v>
+        <v>0.5317656397819519</v>
       </c>
       <c r="D56" t="n">
-        <v>1.719476699829102</v>
+        <v>0.01990487985312939</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.258439064025879</v>
+        <v>0.1246827617287636</v>
       </c>
       <c r="C57" t="n">
-        <v>2.742937326431274</v>
+        <v>0.5386250615119934</v>
       </c>
       <c r="D57" t="n">
-        <v>1.563287615776062</v>
+        <v>0.007641361095011234</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.329258918762207</v>
+        <v>0.1275747716426849</v>
       </c>
       <c r="C58" t="n">
-        <v>2.918018102645874</v>
+        <v>0.5417457222938538</v>
       </c>
       <c r="D58" t="n">
-        <v>1.409113526344299</v>
+        <v>-0.01510703843086958</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.294385671615601</v>
+        <v>0.1409683674573898</v>
       </c>
       <c r="C59" t="n">
-        <v>2.732029438018799</v>
+        <v>0.5538769364356995</v>
       </c>
       <c r="D59" t="n">
-        <v>1.654036998748779</v>
+        <v>0.003639010014012456</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.249246716499329</v>
+        <v>0.1182270050048828</v>
       </c>
       <c r="C60" t="n">
-        <v>2.646329402923584</v>
+        <v>0.5220686793327332</v>
       </c>
       <c r="D60" t="n">
-        <v>1.745837330818176</v>
+        <v>0.05728543549776077</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.384016275405884</v>
+        <v>0.1227296814322472</v>
       </c>
       <c r="C61" t="n">
-        <v>2.68213939666748</v>
+        <v>0.5373064279556274</v>
       </c>
       <c r="D61" t="n">
-        <v>1.994019865989685</v>
+        <v>0.063756063580513</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.596983432769775</v>
+        <v>0.179979220032692</v>
       </c>
       <c r="C62" t="n">
-        <v>3.10120153427124</v>
+        <v>0.6488837599754333</v>
       </c>
       <c r="D62" t="n">
-        <v>1.852049589157104</v>
+        <v>0.03971678763628006</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.661234974861145</v>
+        <v>0.1294863671064377</v>
       </c>
       <c r="C63" t="n">
-        <v>3.36144495010376</v>
+        <v>0.6397635340690613</v>
       </c>
       <c r="D63" t="n">
-        <v>1.847517251968384</v>
+        <v>0.03460237383842468</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.641958355903625</v>
+        <v>0.100906603038311</v>
       </c>
       <c r="C64" t="n">
-        <v>3.161843776702881</v>
+        <v>0.6079800128936768</v>
       </c>
       <c r="D64" t="n">
-        <v>2.101312160491943</v>
+        <v>0.06146981567144394</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.510313510894775</v>
+        <v>0.09794463962316513</v>
       </c>
       <c r="C65" t="n">
-        <v>3.054477691650391</v>
+        <v>0.5851823687553406</v>
       </c>
       <c r="D65" t="n">
-        <v>1.83250904083252</v>
+        <v>0.06095314025878906</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.365644931793213</v>
+        <v>0.1117498949170113</v>
       </c>
       <c r="C66" t="n">
-        <v>2.903990268707275</v>
+        <v>0.5673369169235229</v>
       </c>
       <c r="D66" t="n">
-        <v>1.572548031806946</v>
+        <v>0.06261339783668518</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.306913375854492</v>
+        <v>0.101065419614315</v>
       </c>
       <c r="C67" t="n">
-        <v>2.946988344192505</v>
+        <v>0.5596995949745178</v>
       </c>
       <c r="D67" t="n">
-        <v>1.483115315437317</v>
+        <v>0.04367852583527565</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.306994199752808</v>
+        <v>0.1223549470305443</v>
       </c>
       <c r="C68" t="n">
-        <v>3.250819444656372</v>
+        <v>0.5747619271278381</v>
       </c>
       <c r="D68" t="n">
-        <v>1.320650815963745</v>
+        <v>0.01378631312400103</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.450248956680298</v>
+        <v>0.1199055910110474</v>
       </c>
       <c r="C69" t="n">
-        <v>3.55513334274292</v>
+        <v>0.5855643153190613</v>
       </c>
       <c r="D69" t="n">
-        <v>1.34057605266571</v>
+        <v>-0.006330887787044048</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.465306997299194</v>
+        <v>0.1174737140536308</v>
       </c>
       <c r="C70" t="n">
-        <v>3.684540510177612</v>
+        <v>0.5874447226524353</v>
       </c>
       <c r="D70" t="n">
-        <v>1.239089131355286</v>
+        <v>-0.02993635274469852</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.408792734146118</v>
+        <v>0.1353002935647964</v>
       </c>
       <c r="C71" t="n">
-        <v>3.525651931762695</v>
+        <v>0.597074031829834</v>
       </c>
       <c r="D71" t="n">
-        <v>1.264306783676147</v>
+        <v>-0.01311810594052076</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.30704665184021</v>
+        <v>0.08183432370424271</v>
       </c>
       <c r="C72" t="n">
-        <v>3.352556228637695</v>
+        <v>0.5777546167373657</v>
       </c>
       <c r="D72" t="n">
-        <v>1.38205897808075</v>
+        <v>0.02286589704453945</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.105169534683228</v>
+        <v>0.0960431769490242</v>
       </c>
       <c r="C73" t="n">
-        <v>3.165037155151367</v>
+        <v>0.5784685015678406</v>
       </c>
       <c r="D73" t="n">
-        <v>1.376499533653259</v>
+        <v>0.04239194467663765</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.189581394195557</v>
+        <v>0.09219632297754288</v>
       </c>
       <c r="C74" t="n">
-        <v>3.055081844329834</v>
+        <v>0.60030198097229</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7696766257286072</v>
+        <v>0.0409892238676548</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.144022345542908</v>
+        <v>0.1076483055949211</v>
       </c>
       <c r="C75" t="n">
-        <v>2.913060426712036</v>
+        <v>0.5970128178596497</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7283416986465454</v>
+        <v>0.03070616535842419</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.021017670631409</v>
+        <v>0.08913630992174149</v>
       </c>
       <c r="C76" t="n">
-        <v>2.877597093582153</v>
+        <v>0.5435621738433838</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6811281442642212</v>
+        <v>0.03938184306025505</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.050113797187805</v>
+        <v>0.07975106686353683</v>
       </c>
       <c r="C77" t="n">
-        <v>2.9213547706604</v>
+        <v>0.5448735952377319</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7151870727539062</v>
+        <v>0.0364917628467083</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.090970873832703</v>
+        <v>0.04146970435976982</v>
       </c>
       <c r="C78" t="n">
-        <v>3.057431221008301</v>
+        <v>0.5312579274177551</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7155816555023193</v>
+        <v>0.03726723417639732</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.065258502960205</v>
+        <v>0.03139814361929893</v>
       </c>
       <c r="C79" t="n">
-        <v>3.046808242797852</v>
+        <v>0.5122682452201843</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6989088654518127</v>
+        <v>0.03591016307473183</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.117958664894104</v>
+        <v>0.04679432138800621</v>
       </c>
       <c r="C80" t="n">
-        <v>3.04305100440979</v>
+        <v>0.5304438471794128</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6197264194488525</v>
+        <v>0.0184029396623373</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.065168976783752</v>
+        <v>0.08656517416238785</v>
       </c>
       <c r="C81" t="n">
-        <v>2.971076011657715</v>
+        <v>0.5314498543739319</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5546928644180298</v>
+        <v>0.00229683262296021</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.8197832703590393</v>
+        <v>0.1008829101920128</v>
       </c>
       <c r="C82" t="n">
-        <v>2.895479679107666</v>
+        <v>0.5485448241233826</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4175690114498138</v>
+        <v>-0.01400119345635176</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.029419422149658</v>
+        <v>0.1229697689414024</v>
       </c>
       <c r="C83" t="n">
-        <v>2.796286106109619</v>
+        <v>0.558189332485199</v>
       </c>
       <c r="D83" t="n">
-        <v>0.498134434223175</v>
+        <v>0.004191045649349689</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9003245234489441</v>
+        <v>0.09807553142309189</v>
       </c>
       <c r="C84" t="n">
-        <v>2.606181859970093</v>
+        <v>0.5279768109321594</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4004482924938202</v>
+        <v>0.04640058800578117</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.8980236649513245</v>
+        <v>0.08206459134817123</v>
       </c>
       <c r="C85" t="n">
-        <v>2.674299955368042</v>
+        <v>0.5271392464637756</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3763962686061859</v>
+        <v>0.0632319450378418</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.8676971793174744</v>
+        <v>0.1126552596688271</v>
       </c>
       <c r="C86" t="n">
-        <v>2.663587093353271</v>
+        <v>0.5607224702835083</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2704409956932068</v>
+        <v>0.02651978097856045</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.8793454170227051</v>
+        <v>0.08161116391420364</v>
       </c>
       <c r="C87" t="n">
-        <v>2.76479172706604</v>
+        <v>0.5398159623146057</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269192636013031</v>
+        <v>0.02519618533551693</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.8420575261116028</v>
+        <v>0.08491086214780807</v>
       </c>
       <c r="C88" t="n">
-        <v>2.743760347366333</v>
+        <v>0.5293784141540527</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2113461494445801</v>
+        <v>0.03033248148858547</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8917808532714844</v>
+        <v>0.06673974543809891</v>
       </c>
       <c r="C89" t="n">
-        <v>2.731213808059692</v>
+        <v>0.516414999961853</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2093459367752075</v>
+        <v>0.04141039773821831</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.8812341094017029</v>
+        <v>0.06344559043645859</v>
       </c>
       <c r="C90" t="n">
-        <v>2.661465167999268</v>
+        <v>0.5018620491027832</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1494734287261963</v>
+        <v>0.04117609187960625</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.9090507030487061</v>
+        <v>0.0398569218814373</v>
       </c>
       <c r="C91" t="n">
-        <v>2.687946796417236</v>
+        <v>0.4895085692405701</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1424898505210876</v>
+        <v>0.03999951109290123</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.7932287454605103</v>
+        <v>0.06628797203302383</v>
       </c>
       <c r="C92" t="n">
-        <v>2.507419347763062</v>
+        <v>0.4982009530067444</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1376051604747772</v>
+        <v>0.02038325183093548</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.7104132175445557</v>
+        <v>0.07779496163129807</v>
       </c>
       <c r="C93" t="n">
-        <v>2.501260280609131</v>
+        <v>0.5062345862388611</v>
       </c>
       <c r="D93" t="n">
-        <v>0.12944495677948</v>
+        <v>0.005370293743908405</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.5554543137550354</v>
+        <v>0.08442998677492142</v>
       </c>
       <c r="C94" t="n">
-        <v>2.574400424957275</v>
+        <v>0.5210834741592407</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09308619052171707</v>
+        <v>-0.002879838226363063</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.028517127037048</v>
+        <v>0.06111664697527885</v>
       </c>
       <c r="C95" t="n">
-        <v>2.862795352935791</v>
+        <v>0.523822009563446</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2039303183555603</v>
+        <v>0.01884257607161999</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.197989344596863</v>
+        <v>-0.002114956500008702</v>
       </c>
       <c r="C96" t="n">
-        <v>3.068484306335449</v>
+        <v>0.4964561462402344</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1772381067276001</v>
+        <v>0.05968179926276207</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.201590418815613</v>
+        <v>-0.006222461350262165</v>
       </c>
       <c r="C97" t="n">
-        <v>3.238139867782593</v>
+        <v>0.4933405816555023</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1248961761593819</v>
+        <v>0.07435816526412964</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.418049097061157</v>
+        <v>0.03113354183733463</v>
       </c>
       <c r="C98" t="n">
-        <v>3.475057125091553</v>
+        <v>0.5508984923362732</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1363297700881958</v>
+        <v>0.03448572382330894</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.542646765708923</v>
+        <v>0.02102329768240452</v>
       </c>
       <c r="C99" t="n">
-        <v>3.70208740234375</v>
+        <v>0.5527291893959045</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2884690761566162</v>
+        <v>0.04786757752299309</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.518762826919556</v>
+        <v>0.00919176172465086</v>
       </c>
       <c r="C100" t="n">
-        <v>3.681017875671387</v>
+        <v>0.527859628200531</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1594247221946716</v>
+        <v>0.06885781139135361</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.372983813285828</v>
+        <v>0.002198244212195277</v>
       </c>
       <c r="C101" t="n">
-        <v>3.542593479156494</v>
+        <v>0.5182116627693176</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1406076550483704</v>
+        <v>0.05262785777449608</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.368970036506653</v>
+        <v>-0.006989275105297565</v>
       </c>
       <c r="C102" t="n">
-        <v>3.47322678565979</v>
+        <v>0.5120154023170471</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1256471276283264</v>
+        <v>0.05572187528014183</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.265462636947632</v>
+        <v>-0.01566008292138577</v>
       </c>
       <c r="C103" t="n">
-        <v>3.479343414306641</v>
+        <v>0.4981853365898132</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2037344574928284</v>
+        <v>0.05503850802779198</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.407321095466614</v>
+        <v>0.03940291330218315</v>
       </c>
       <c r="C104" t="n">
-        <v>3.935810089111328</v>
+        <v>0.5352230668067932</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4110794067382812</v>
+        <v>0.03654448315501213</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.350971341133118</v>
+        <v>0.02861104346811771</v>
       </c>
       <c r="C105" t="n">
-        <v>4.107510566711426</v>
+        <v>0.5266551375389099</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4688493609428406</v>
+        <v>0.03642062470316887</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.201286554336548</v>
+        <v>0.03925782069563866</v>
       </c>
       <c r="C106" t="n">
-        <v>3.81009840965271</v>
+        <v>0.5295349955558777</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4649918079376221</v>
+        <v>0.01004646439105272</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.09899628162384</v>
+        <v>0.03936206921935081</v>
       </c>
       <c r="C107" t="n">
-        <v>3.521305084228516</v>
+        <v>0.5194935202598572</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3052214384078979</v>
+        <v>0.02451027743518353</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.010754466056824</v>
+        <v>-0.008845661766827106</v>
       </c>
       <c r="C108" t="n">
-        <v>3.546823024749756</v>
+        <v>0.5012208819389343</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1566030383110046</v>
+        <v>0.05496245995163918</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.778545081615448</v>
+        <v>0.02079790271818638</v>
       </c>
       <c r="C109" t="n">
-        <v>3.34069299697876</v>
+        <v>0.5085970759391785</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.01309608668088913</v>
+        <v>0.0645979568362236</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.9743797183036804</v>
+        <v>0.05569350346922874</v>
       </c>
       <c r="C110" t="n">
-        <v>3.322742462158203</v>
+        <v>0.537985622882843</v>
       </c>
       <c r="D110" t="n">
-        <v>0.07632202655076981</v>
+        <v>-0.003826218424364924</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.8833766579627991</v>
+        <v>0.03674560412764549</v>
       </c>
       <c r="C111" t="n">
-        <v>3.075525283813477</v>
+        <v>0.5163332223892212</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.06722670048475266</v>
+        <v>0.01570419780910015</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.9404739737510681</v>
+        <v>0.06777095049619675</v>
       </c>
       <c r="C112" t="n">
-        <v>3.12472677230835</v>
+        <v>0.5256046056747437</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1376481652259827</v>
+        <v>0.02476947568356991</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9629452228546143</v>
+        <v>0.0270595345646143</v>
       </c>
       <c r="C113" t="n">
-        <v>3.255332469940186</v>
+        <v>0.5006346106529236</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.03355555981397629</v>
+        <v>0.0343276672065258</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.8738886713981628</v>
+        <v>0.02327225543558598</v>
       </c>
       <c r="C114" t="n">
-        <v>3.228823661804199</v>
+        <v>0.5004721879959106</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1529591083526611</v>
+        <v>0.05441912263631821</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.8130785226821899</v>
+        <v>0.03803298994898796</v>
       </c>
       <c r="C115" t="n">
-        <v>2.740149974822998</v>
+        <v>0.4844259023666382</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1699445247650146</v>
+        <v>0.03929056599736214</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.5067663788795471</v>
+        <v>0.08460021764039993</v>
       </c>
       <c r="C116" t="n">
-        <v>2.417143106460571</v>
+        <v>0.4883260726928711</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.2241261601448059</v>
+        <v>0.0209899228066206</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.3162412643432617</v>
+        <v>0.1104231402277946</v>
       </c>
       <c r="C117" t="n">
-        <v>2.308233022689819</v>
+        <v>0.496947318315506</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.3271626830101013</v>
+        <v>0.009655875153839588</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.6292426586151123</v>
+        <v>0.09700464457273483</v>
       </c>
       <c r="C118" t="n">
-        <v>2.706742286682129</v>
+        <v>0.5153583288192749</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.2451321482658386</v>
+        <v>-0.003093006787821651</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.6767446398735046</v>
+        <v>0.09929246455430984</v>
       </c>
       <c r="C119" t="n">
-        <v>2.588608026504517</v>
+        <v>0.5142998099327087</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1855383515357971</v>
+        <v>-0.002839448628947139</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.7564657330513</v>
+        <v>0.08004697412252426</v>
       </c>
       <c r="C120" t="n">
-        <v>2.680200099945068</v>
+        <v>0.502507746219635</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1838468909263611</v>
+        <v>0.04089756682515144</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.7947893738746643</v>
+        <v>0.06089713796973228</v>
       </c>
       <c r="C121" t="n">
-        <v>3.038306713104248</v>
+        <v>0.5194602608680725</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.174688458442688</v>
+        <v>0.05643415823578835</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.853598415851593</v>
+        <v>0.05984466895461082</v>
       </c>
       <c r="C122" t="n">
-        <v>2.997195720672607</v>
+        <v>0.5217598080635071</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.2381616830825806</v>
+        <v>0.05573214218020439</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.7231753468513489</v>
+        <v>0.06368914991617203</v>
       </c>
       <c r="C123" t="n">
-        <v>2.724843978881836</v>
+        <v>0.5074923038482666</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2729464173316956</v>
+        <v>0.01944237016141415</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.6784438490867615</v>
+        <v>0.0927036926150322</v>
       </c>
       <c r="C124" t="n">
-        <v>2.700028896331787</v>
+        <v>0.5134700536727905</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.2953428626060486</v>
+        <v>0.02945519797503948</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.778312623500824</v>
+        <v>0.07663590461015701</v>
       </c>
       <c r="C125" t="n">
-        <v>2.713596820831299</v>
+        <v>0.494943380355835</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.3267905116081238</v>
+        <v>0.03761393949389458</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.9463358521461487</v>
+        <v>0.0477299652993679</v>
       </c>
       <c r="C126" t="n">
-        <v>2.971642971038818</v>
+        <v>0.4918105602264404</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.2945730686187744</v>
+        <v>0.05993599817156792</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.950796902179718</v>
+        <v>0.03123917616903782</v>
       </c>
       <c r="C127" t="n">
-        <v>2.984279155731201</v>
+        <v>0.4832914173603058</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3771376609802246</v>
+        <v>0.05993640050292015</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.8346553444862366</v>
+        <v>0.04111431166529655</v>
       </c>
       <c r="C128" t="n">
-        <v>2.90999174118042</v>
+        <v>0.4817185401916504</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.5259637832641602</v>
+        <v>0.04124318435788155</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.7352931499481201</v>
+        <v>0.06187228485941887</v>
       </c>
       <c r="C129" t="n">
-        <v>2.80094313621521</v>
+        <v>0.4857336580753326</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.591687798500061</v>
+        <v>0.01910401694476604</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.3725348711013794</v>
+        <v>0.08411865681409836</v>
       </c>
       <c r="C130" t="n">
-        <v>2.540525436401367</v>
+        <v>0.4925415515899658</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.6243470907211304</v>
+        <v>-0.01055911462754011</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.839138925075531</v>
+        <v>0.06642933934926987</v>
       </c>
       <c r="C131" t="n">
-        <v>2.822083950042725</v>
+        <v>0.5008807778358459</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.4650329053401947</v>
+        <v>0.03278425708413124</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.20531177520752</v>
+        <v>0.01265902351588011</v>
       </c>
       <c r="C132" t="n">
-        <v>3.251410484313965</v>
+        <v>0.4890646934509277</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.3224265575408936</v>
+        <v>0.06329705566167831</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.335026979446411</v>
+        <v>0.01890326477587223</v>
       </c>
       <c r="C133" t="n">
-        <v>3.351767539978027</v>
+        <v>0.4834432005882263</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.3270726799964905</v>
+        <v>0.07722719013690948</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.051948070526123</v>
+        <v>0.08670371025800705</v>
       </c>
       <c r="C134" t="n">
-        <v>2.980981826782227</v>
+        <v>0.5144798159599304</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.5014500021934509</v>
+        <v>0.02242766879498959</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.8474358320236206</v>
+        <v>0.05934667214751244</v>
       </c>
       <c r="C135" t="n">
-        <v>2.816838264465332</v>
+        <v>0.4964600205421448</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.60051429271698</v>
+        <v>0.02211140654981136</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.033251285552979</v>
+        <v>0.07945003360509872</v>
       </c>
       <c r="C136" t="n">
-        <v>2.910348415374756</v>
+        <v>0.5011438131332397</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.5304022431373596</v>
+        <v>0.04368025436997414</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.092332601547241</v>
+        <v>0.07415337115526199</v>
       </c>
       <c r="C137" t="n">
-        <v>2.883505821228027</v>
+        <v>0.4971678555011749</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.5033060908317566</v>
+        <v>0.04981293901801109</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.098272204399109</v>
+        <v>0.0761289969086647</v>
       </c>
       <c r="C138" t="n">
-        <v>2.893828868865967</v>
+        <v>0.480646163225174</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.414814680814743</v>
+        <v>0.05283723399043083</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.9370132088661194</v>
+        <v>0.07066995650529861</v>
       </c>
       <c r="C139" t="n">
-        <v>2.758678913116455</v>
+        <v>0.4765839576721191</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.5161334872245789</v>
+        <v>0.04621280357241631</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.626649796962738</v>
+        <v>0.09404300898313522</v>
       </c>
       <c r="C140" t="n">
-        <v>2.578926086425781</v>
+        <v>0.4839048683643341</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.6446861028671265</v>
+        <v>0.04027193412184715</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.588788628578186</v>
+        <v>0.09723515063524246</v>
       </c>
       <c r="C141" t="n">
-        <v>2.746669769287109</v>
+        <v>0.4932105243206024</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.7390120029449463</v>
+        <v>0.04297147318720818</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.6321063637733459</v>
+        <v>0.0789724662899971</v>
       </c>
       <c r="C142" t="n">
-        <v>2.930608034133911</v>
+        <v>0.4895332455635071</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.6937243938446045</v>
+        <v>0.02113459818065166</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.9459647536277771</v>
+        <v>0.07496470957994461</v>
       </c>
       <c r="C143" t="n">
-        <v>2.981511831283569</v>
+        <v>0.4914286732673645</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.5653142333030701</v>
+        <v>0.03913166746497154</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.240989446640015</v>
+        <v>0.03084311820566654</v>
       </c>
       <c r="C144" t="n">
-        <v>3.138438940048218</v>
+        <v>0.4787862300872803</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.4453635215759277</v>
+        <v>0.04343104735016823</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-2.036932706832886</v>
+        <v>0.03492208942770958</v>
       </c>
       <c r="C145" t="n">
-        <v>3.8941330909729</v>
+        <v>0.4947782754898071</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.4785076379776001</v>
+        <v>0.01215250510722399</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-2.331443071365356</v>
+        <v>0.09043014794588089</v>
       </c>
       <c r="C146" t="n">
-        <v>4.071672439575195</v>
+        <v>0.5053794384002686</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.7244784235954285</v>
+        <v>-0.07576331496238708</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-2.155384302139282</v>
+        <v>0.04923703894019127</v>
       </c>
       <c r="C147" t="n">
-        <v>4.163399696350098</v>
+        <v>0.4789499044418335</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.9921801686286926</v>
+        <v>-0.03449564054608345</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.966023564338684</v>
+        <v>0.04778086766600609</v>
       </c>
       <c r="C148" t="n">
-        <v>4.091545104980469</v>
+        <v>0.482671856880188</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.937800407409668</v>
+        <v>-0.01311712246388197</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.794041633605957</v>
+        <v>0.02084303833544254</v>
       </c>
       <c r="C149" t="n">
-        <v>4.049703121185303</v>
+        <v>0.459134429693222</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.958982527256012</v>
+        <v>-0.001890855608507991</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.813810706138611</v>
+        <v>0.01694718934595585</v>
       </c>
       <c r="C150" t="n">
-        <v>4.043502807617188</v>
+        <v>0.4488455057144165</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.8877145051956177</v>
+        <v>0.003051069797948003</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.55799674987793</v>
+        <v>0.03499509021639824</v>
       </c>
       <c r="C151" t="n">
-        <v>3.796322345733643</v>
+        <v>0.4381712973117828</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.9876558184623718</v>
+        <v>-0.01126142125576735</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.295259833335876</v>
+        <v>0.05280181393027306</v>
       </c>
       <c r="C152" t="n">
-        <v>3.580831050872803</v>
+        <v>0.4449908137321472</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.117406010627747</v>
+        <v>-0.02124647237360477</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.261083841323853</v>
+        <v>0.07424608618021011</v>
       </c>
       <c r="C153" t="n">
-        <v>3.418066501617432</v>
+        <v>0.459556519985199</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.109160780906677</v>
+        <v>-0.02590052224695683</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.405022263526917</v>
+        <v>0.08422494679689407</v>
       </c>
       <c r="C154" t="n">
-        <v>3.344240188598633</v>
+        <v>0.4684099853038788</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.041497230529785</v>
+        <v>-0.02981000579893589</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.509628415107727</v>
+        <v>0.06223521754145622</v>
       </c>
       <c r="C155" t="n">
-        <v>3.448260545730591</v>
+        <v>0.4661572575569153</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.9686328172683716</v>
+        <v>-0.02190096117556095</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.569058060646057</v>
+        <v>0.02585110999643803</v>
       </c>
       <c r="C156" t="n">
-        <v>3.59906792640686</v>
+        <v>0.440966784954071</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.7953037023544312</v>
+        <v>-0.001537578878924251</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.243974685668945</v>
+        <v>0.03468757495284081</v>
       </c>
       <c r="C157" t="n">
-        <v>3.52929162979126</v>
+        <v>0.4327691495418549</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.5589592456817627</v>
+        <v>0.04907897859811783</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.7735682725906372</v>
+        <v>0.04859308525919914</v>
       </c>
       <c r="C158" t="n">
-        <v>1.447203636169434</v>
+        <v>0.479941725730896</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.719286322593689</v>
+        <v>0.06509324908256531</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.6049232482910156</v>
+        <v>0.04002782329916954</v>
       </c>
       <c r="C159" t="n">
-        <v>1.204970002174377</v>
+        <v>0.4654738306999207</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.7228862047195435</v>
+        <v>0.08092857897281647</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.7072551846504211</v>
+        <v>0.04535634443163872</v>
       </c>
       <c r="C160" t="n">
-        <v>1.189900398254395</v>
+        <v>0.4902237355709076</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.7298144102096558</v>
+        <v>0.1039542034268379</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.6228553652763367</v>
+        <v>0.04767630621790886</v>
       </c>
       <c r="C161" t="n">
-        <v>1.105187773704529</v>
+        <v>0.4677604138851166</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.7794235944747925</v>
+        <v>0.08795326948165894</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.7916369438171387</v>
+        <v>0.03411551937460899</v>
       </c>
       <c r="C162" t="n">
-        <v>1.200978755950928</v>
+        <v>0.4466856122016907</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.7443575263023376</v>
+        <v>0.09238535165786743</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.6964884996414185</v>
+        <v>0.02277692593634129</v>
       </c>
       <c r="C163" t="n">
-        <v>1.261354088783264</v>
+        <v>0.4490771293640137</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.8090802431106567</v>
+        <v>0.1071461588144302</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.4712046980857849</v>
+        <v>0.06567224115133286</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9518185257911682</v>
+        <v>0.4617459177970886</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.8224868774414062</v>
+        <v>0.05823317915201187</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.3339092135429382</v>
+        <v>0.1037760898470879</v>
       </c>
       <c r="C165" t="n">
-        <v>0.8742381930351257</v>
+        <v>0.4869058132171631</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.9442577958106995</v>
+        <v>0.05825088545680046</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.3325481116771698</v>
+        <v>0.1208130642771721</v>
       </c>
       <c r="C166" t="n">
-        <v>0.8077266812324524</v>
+        <v>0.4930635690689087</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.9117935299873352</v>
+        <v>0.03174956515431404</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.5097993016242981</v>
+        <v>0.09819010645151138</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9677420258522034</v>
+        <v>0.491426020860672</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.8492417335510254</v>
+        <v>0.04889740794897079</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.7290384769439697</v>
+        <v>0.02811908163130283</v>
       </c>
       <c r="C168" t="n">
-        <v>1.437843084335327</v>
+        <v>0.458641529083252</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.8156347870826721</v>
+        <v>0.07819062471389771</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.9210143685340881</v>
+        <v>0.03310349211096764</v>
       </c>
       <c r="C169" t="n">
-        <v>1.71623170375824</v>
+        <v>0.4510616064071655</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.9334897994995117</v>
+        <v>0.1109405159950256</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.6367577314376831</v>
+        <v>0.06934807449579239</v>
       </c>
       <c r="C170" t="n">
-        <v>1.493966341018677</v>
+        <v>0.5112103223800659</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.8035808801651001</v>
+        <v>0.04319911077618599</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.6476399898529053</v>
+        <v>0.01684598065912724</v>
       </c>
       <c r="C171" t="n">
-        <v>1.856450080871582</v>
+        <v>0.4770718216896057</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.8286216259002686</v>
+        <v>0.05553947016596794</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.6814355254173279</v>
+        <v>0.03827404603362083</v>
       </c>
       <c r="C172" t="n">
-        <v>1.900851845741272</v>
+        <v>0.505363404750824</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.7929137349128723</v>
+        <v>0.06117121502757072</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.7349554896354675</v>
+        <v>0.02987622655928135</v>
       </c>
       <c r="C173" t="n">
-        <v>1.919034838676453</v>
+        <v>0.4681540727615356</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.749346137046814</v>
+        <v>0.03730608895421028</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.7639769315719604</v>
+        <v>0.0273860190063715</v>
       </c>
       <c r="C174" t="n">
-        <v>1.863527417182922</v>
+        <v>0.4766902923583984</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.7373021841049194</v>
+        <v>0.0738370269536972</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.7081450819969177</v>
+        <v>0.008927489630877972</v>
       </c>
       <c r="C175" t="n">
-        <v>2.016993045806885</v>
+        <v>0.4710490703582764</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.9430385231971741</v>
+        <v>0.07758936285972595</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.6795275807380676</v>
+        <v>0.02991662360727787</v>
       </c>
       <c r="C176" t="n">
-        <v>2.254544019699097</v>
+        <v>0.4981060326099396</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.071418881416321</v>
+        <v>0.08562127500772476</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.7403528690338135</v>
+        <v>0.06365820020437241</v>
       </c>
       <c r="C177" t="n">
-        <v>2.246033191680908</v>
+        <v>0.4779412150382996</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9975964426994324</v>
+        <v>0.04819243028759956</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.7925135493278503</v>
+        <v>0.04918044432997704</v>
       </c>
       <c r="C178" t="n">
-        <v>2.605099201202393</v>
+        <v>0.4974387288093567</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.026624798774719</v>
+        <v>0.05890174582600594</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.7794763445854187</v>
+        <v>0.05432030186057091</v>
       </c>
       <c r="C179" t="n">
-        <v>2.336325168609619</v>
+        <v>0.4917742013931274</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.822704017162323</v>
+        <v>0.05588272958993912</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.7286533713340759</v>
+        <v>0.04195926710963249</v>
       </c>
       <c r="C180" t="n">
-        <v>2.152716875076294</v>
+        <v>0.4923547506332397</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.7644433975219727</v>
+        <v>0.05125366151332855</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.7656098604202271</v>
+        <v>0.04480208083987236</v>
       </c>
       <c r="C181" t="n">
-        <v>2.293173313140869</v>
+        <v>0.4932087659835815</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.7653775215148926</v>
+        <v>0.04340096935629845</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.9259170889854431</v>
+        <v>0.06167444214224815</v>
       </c>
       <c r="C182" t="n">
-        <v>2.444095849990845</v>
+        <v>0.4905430674552917</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.8613359928131104</v>
+        <v>0.01770137809216976</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.8775961399078369</v>
+        <v>0.03595177456736565</v>
       </c>
       <c r="C183" t="n">
-        <v>2.521395921707153</v>
+        <v>0.4586783945560455</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.001428961753845</v>
+        <v>0.05341579765081406</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.004750847816467</v>
+        <v>0.04293731972575188</v>
       </c>
       <c r="C184" t="n">
-        <v>2.737346649169922</v>
+        <v>0.5040171146392822</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.065209031105042</v>
+        <v>0.09039022028446198</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.149795413017273</v>
+        <v>0.01552508305758238</v>
       </c>
       <c r="C185" t="n">
-        <v>2.951457977294922</v>
+        <v>0.5106861591339111</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.272872924804688</v>
+        <v>0.1060392037034035</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.195071935653687</v>
+        <v>-0.002653201343491673</v>
       </c>
       <c r="C186" t="n">
-        <v>3.259936809539795</v>
+        <v>0.4892425835132599</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.371440649032593</v>
+        <v>0.1075420826673508</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.067456841468811</v>
+        <v>-0.01222184766083956</v>
       </c>
       <c r="C187" t="n">
-        <v>3.113397121429443</v>
+        <v>0.4903252422809601</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.307645201683044</v>
+        <v>0.1336352527141571</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.9792739748954773</v>
+        <v>0.0112981153652072</v>
       </c>
       <c r="C188" t="n">
-        <v>2.874919176101685</v>
+        <v>0.5168889164924622</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.300218343734741</v>
+        <v>0.1452802717685699</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.9286491870880127</v>
+        <v>0.01810953952372074</v>
       </c>
       <c r="C189" t="n">
-        <v>2.836940765380859</v>
+        <v>0.5421461462974548</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.389906048774719</v>
+        <v>0.1723552793264389</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.8473303914070129</v>
+        <v>0.06514788419008255</v>
       </c>
       <c r="C190" t="n">
-        <v>2.32342791557312</v>
+        <v>0.5062903165817261</v>
       </c>
       <c r="D190" t="n">
-        <v>-1.151990294456482</v>
+        <v>0.1000080853700638</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.9533129930496216</v>
+        <v>0.06410887092351913</v>
       </c>
       <c r="C191" t="n">
-        <v>2.398563623428345</v>
+        <v>0.5269485116004944</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.19432520866394</v>
+        <v>0.1133691295981407</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.042876005172729</v>
+        <v>0.03992050513625145</v>
       </c>
       <c r="C192" t="n">
-        <v>2.453044652938843</v>
+        <v>0.5312856435775757</v>
       </c>
       <c r="D192" t="n">
-        <v>-1.36104428768158</v>
+        <v>0.1239550411701202</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.219489812850952</v>
+        <v>0.02915051020681858</v>
       </c>
       <c r="C193" t="n">
-        <v>2.539465427398682</v>
+        <v>0.5322717428207397</v>
       </c>
       <c r="D193" t="n">
-        <v>-1.543431878089905</v>
+        <v>0.1434079855680466</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.093036413192749</v>
+        <v>0.07833834737539291</v>
       </c>
       <c r="C194" t="n">
-        <v>2.140011072158813</v>
+        <v>0.5645958781242371</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.386256694793701</v>
+        <v>0.1470845341682434</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.03606390953064</v>
+        <v>0.08907947689294815</v>
       </c>
       <c r="C195" t="n">
-        <v>1.815707921981812</v>
+        <v>0.5735172629356384</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.246899962425232</v>
+        <v>0.1690962761640549</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.041497707366943</v>
+        <v>0.1176051422953606</v>
       </c>
       <c r="C196" t="n">
-        <v>1.828298091888428</v>
+        <v>0.5682749152183533</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.264784574508667</v>
+        <v>0.1445495635271072</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.000454306602478</v>
+        <v>0.1121580526232719</v>
       </c>
       <c r="C197" t="n">
-        <v>1.79938006401062</v>
+        <v>0.5573832988739014</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.317249536514282</v>
+        <v>0.145088404417038</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.19309139251709</v>
+        <v>0.08039660006761551</v>
       </c>
       <c r="C198" t="n">
-        <v>1.999042987823486</v>
+        <v>0.5478748679161072</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.48275625705719</v>
+        <v>0.1940188407897949</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.9010921120643616</v>
+        <v>0.09721920639276505</v>
       </c>
       <c r="C199" t="n">
-        <v>1.68899667263031</v>
+        <v>0.5402365326881409</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.371551752090454</v>
+        <v>0.1751274466514587</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.7558327913284302</v>
+        <v>0.1200941801071167</v>
       </c>
       <c r="C200" t="n">
-        <v>1.59137487411499</v>
+        <v>0.5247315764427185</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.295196652412415</v>
+        <v>0.1522232592105865</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.7421038746833801</v>
+        <v>0.1255909204483032</v>
       </c>
       <c r="C201" t="n">
-        <v>1.613808631896973</v>
+        <v>0.5302026867866516</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.326377630233765</v>
+        <v>0.1576342433691025</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.8066268563270569</v>
+        <v>0.1181089803576469</v>
       </c>
       <c r="C202" t="n">
-        <v>1.711759805679321</v>
+        <v>0.5687877535820007</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.421051621437073</v>
+        <v>0.16049924492836</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.8798478841781616</v>
+        <v>0.1153063252568245</v>
       </c>
       <c r="C203" t="n">
-        <v>1.757370471954346</v>
+        <v>0.5185403823852539</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.413287401199341</v>
+        <v>0.1490855365991592</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.101837515830994</v>
+        <v>0.09677351266145706</v>
       </c>
       <c r="C204" t="n">
-        <v>2.035782098770142</v>
+        <v>0.5314608216285706</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.637801051139832</v>
+        <v>0.1688519716262817</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.182386755943298</v>
+        <v>0.08120123296976089</v>
       </c>
       <c r="C205" t="n">
-        <v>2.303534030914307</v>
+        <v>0.5264891982078552</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.943783283233643</v>
+        <v>0.1710686683654785</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.901551365852356</v>
+        <v>0.09519612044095993</v>
       </c>
       <c r="C206" t="n">
-        <v>2.09375</v>
+        <v>0.5750849843025208</v>
       </c>
       <c r="D206" t="n">
-        <v>-1.718650698661804</v>
+        <v>0.1596798300743103</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.6400182843208313</v>
+        <v>0.07407758384943008</v>
       </c>
       <c r="C207" t="n">
-        <v>2.066319465637207</v>
+        <v>0.5467684864997864</v>
       </c>
       <c r="D207" t="n">
-        <v>-1.722931027412415</v>
+        <v>0.1614876389503479</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.8158326148986816</v>
+        <v>0.05202190205454826</v>
       </c>
       <c r="C208" t="n">
-        <v>2.310146331787109</v>
+        <v>0.56419438123703</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.81649386882782</v>
+        <v>0.1831919848918915</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.7720385789871216</v>
+        <v>0.04968183860182762</v>
       </c>
       <c r="C209" t="n">
-        <v>2.211060523986816</v>
+        <v>0.540096640586853</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.734630465507507</v>
+        <v>0.1687273681163788</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.7528197169303894</v>
+        <v>0.04401260241866112</v>
       </c>
       <c r="C210" t="n">
-        <v>2.147987365722656</v>
+        <v>0.5118187069892883</v>
       </c>
       <c r="D210" t="n">
-        <v>-1.783079743385315</v>
+        <v>0.1664609313011169</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.576368510723114</v>
+        <v>0.04329003021121025</v>
       </c>
       <c r="C211" t="n">
-        <v>2.051064014434814</v>
+        <v>0.4996302127838135</v>
       </c>
       <c r="D211" t="n">
-        <v>-1.735775828361511</v>
+        <v>0.1636298894882202</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.5676537156105042</v>
+        <v>0.04989076778292656</v>
       </c>
       <c r="C212" t="n">
-        <v>2.101144790649414</v>
+        <v>0.5219241380691528</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.79226541519165</v>
+        <v>0.1740198731422424</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.5054416656494141</v>
+        <v>0.07299285382032394</v>
       </c>
       <c r="C213" t="n">
-        <v>2.000088691711426</v>
+        <v>0.522602379322052</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.753593564033508</v>
+        <v>0.1518801897764206</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.5535374283790588</v>
+        <v>0.08342515677213669</v>
       </c>
       <c r="C214" t="n">
-        <v>2.0388343334198</v>
+        <v>0.5564828515052795</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.744258999824524</v>
+        <v>0.1485923230648041</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.8804816007614136</v>
+        <v>0.05590904876589775</v>
       </c>
       <c r="C215" t="n">
-        <v>2.526066780090332</v>
+        <v>0.6025626659393311</v>
       </c>
       <c r="D215" t="n">
-        <v>-2.02680492401123</v>
+        <v>0.1912774592638016</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.9378491044044495</v>
+        <v>0.03543664142489433</v>
       </c>
       <c r="C216" t="n">
-        <v>2.479752540588379</v>
+        <v>0.5751529335975647</v>
       </c>
       <c r="D216" t="n">
-        <v>-2.07734489440918</v>
+        <v>0.1761823892593384</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.077037811279297</v>
+        <v>0.0333225391805172</v>
       </c>
       <c r="C217" t="n">
-        <v>2.525923252105713</v>
+        <v>0.5435581207275391</v>
       </c>
       <c r="D217" t="n">
-        <v>-2.257136583328247</v>
+        <v>0.1909377574920654</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.8234658241271973</v>
+        <v>0.05985539779067039</v>
       </c>
       <c r="C218" t="n">
-        <v>2.185313701629639</v>
+        <v>0.5767938494682312</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.939444422721863</v>
+        <v>0.1611313670873642</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.631795346736908</v>
+        <v>0.04670336470007896</v>
       </c>
       <c r="C219" t="n">
-        <v>2.25080394744873</v>
+        <v>0.5813834071159363</v>
       </c>
       <c r="D219" t="n">
-        <v>-2.020930528640747</v>
+        <v>0.1772855371236801</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.8686249852180481</v>
+        <v>0.07168596237897873</v>
       </c>
       <c r="C220" t="n">
-        <v>2.234573125839233</v>
+        <v>0.5955950617790222</v>
       </c>
       <c r="D220" t="n">
-        <v>-1.969196557998657</v>
+        <v>0.1642946004867554</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.7639618515968323</v>
+        <v>0.06659331172704697</v>
       </c>
       <c r="C221" t="n">
-        <v>2.148151397705078</v>
+        <v>0.5929178595542908</v>
       </c>
       <c r="D221" t="n">
-        <v>-1.969540238380432</v>
+        <v>0.1719363033771515</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.8602762818336487</v>
+        <v>0.04650771245360374</v>
       </c>
       <c r="C222" t="n">
-        <v>2.238845825195312</v>
+        <v>0.5811273455619812</v>
       </c>
       <c r="D222" t="n">
-        <v>-2.074527502059937</v>
+        <v>0.1863132417201996</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.7916913032531738</v>
+        <v>0.02681184746325016</v>
       </c>
       <c r="C223" t="n">
-        <v>2.295531272888184</v>
+        <v>0.5850216150283813</v>
       </c>
       <c r="D223" t="n">
-        <v>-2.083611011505127</v>
+        <v>0.2070493400096893</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6997929811477661</v>
+        <v>0.02470629848539829</v>
       </c>
       <c r="C224" t="n">
-        <v>2.299102783203125</v>
+        <v>0.6057191491127014</v>
       </c>
       <c r="D224" t="n">
-        <v>-2.134719133377075</v>
+        <v>0.2116202116012573</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.7452800869941711</v>
+        <v>0.01855970360338688</v>
       </c>
       <c r="C225" t="n">
-        <v>2.422465562820435</v>
+        <v>0.613591730594635</v>
       </c>
       <c r="D225" t="n">
-        <v>-2.224534749984741</v>
+        <v>0.2266171723604202</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4961265027523041</v>
+        <v>0.04146098718047142</v>
       </c>
       <c r="C226" t="n">
-        <v>1.963117718696594</v>
+        <v>0.5840017199516296</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.983744621276855</v>
+        <v>0.1726149767637253</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.5211063027381897</v>
+        <v>0.05777203664183617</v>
       </c>
       <c r="C227" t="n">
-        <v>2.15239405632019</v>
+        <v>0.5614715218544006</v>
       </c>
       <c r="D227" t="n">
-        <v>-2.160999774932861</v>
+        <v>0.1483132094144821</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.5482058525085449</v>
+        <v>0.02156695164740086</v>
       </c>
       <c r="C228" t="n">
-        <v>2.175637245178223</v>
+        <v>0.5253207087516785</v>
       </c>
       <c r="D228" t="n">
-        <v>-2.292683124542236</v>
+        <v>0.1593082249164581</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.6011037230491638</v>
+        <v>-0.003295083763077855</v>
       </c>
       <c r="C229" t="n">
-        <v>2.497427701950073</v>
+        <v>0.493564248085022</v>
       </c>
       <c r="D229" t="n">
-        <v>-2.809692144393921</v>
+        <v>0.1820753365755081</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.44729283452034</v>
+        <v>0.06218564137816429</v>
       </c>
       <c r="C230" t="n">
-        <v>2.106803178787231</v>
+        <v>0.5628653168678284</v>
       </c>
       <c r="D230" t="n">
-        <v>-2.285610198974609</v>
+        <v>0.1318396180868149</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.3656653761863708</v>
+        <v>0.02675569988787174</v>
       </c>
       <c r="C231" t="n">
-        <v>1.957677364349365</v>
+        <v>0.562265932559967</v>
       </c>
       <c r="D231" t="n">
-        <v>-2.147238254547119</v>
+        <v>0.1655263900756836</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.4564985334873199</v>
+        <v>0.07155667990446091</v>
       </c>
       <c r="C232" t="n">
-        <v>2.040208101272583</v>
+        <v>0.5657532811164856</v>
       </c>
       <c r="D232" t="n">
-        <v>-2.306362867355347</v>
+        <v>0.1477565765380859</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.4319828450679779</v>
+        <v>0.0591297410428524</v>
       </c>
       <c r="C233" t="n">
-        <v>2.001804828643799</v>
+        <v>0.5522214770317078</v>
       </c>
       <c r="D233" t="n">
-        <v>-2.302771806716919</v>
+        <v>0.1460574269294739</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.5452302098274231</v>
+        <v>0.04448750242590904</v>
       </c>
       <c r="C234" t="n">
-        <v>2.124218702316284</v>
+        <v>0.5606310367584229</v>
       </c>
       <c r="D234" t="n">
-        <v>-2.395082235336304</v>
+        <v>0.1674052029848099</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.4464988112449646</v>
+        <v>0.02000183798372746</v>
       </c>
       <c r="C235" t="n">
-        <v>1.983664989471436</v>
+        <v>0.5538086295127869</v>
       </c>
       <c r="D235" t="n">
-        <v>-2.26518726348877</v>
+        <v>0.1800695359706879</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2936838567256927</v>
+        <v>0.05833331868052483</v>
       </c>
       <c r="C236" t="n">
-        <v>1.804206848144531</v>
+        <v>0.5502270460128784</v>
       </c>
       <c r="D236" t="n">
-        <v>-2.13944935798645</v>
+        <v>0.1531746834516525</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.2906922996044159</v>
+        <v>0.06475945562124252</v>
       </c>
       <c r="C237" t="n">
-        <v>1.795809507369995</v>
+        <v>0.5556418895721436</v>
       </c>
       <c r="D237" t="n">
-        <v>-2.179772615432739</v>
+        <v>0.1657329648733139</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.09216232597827911</v>
+        <v>0.08760008215904236</v>
       </c>
       <c r="C238" t="n">
-        <v>1.604342460632324</v>
+        <v>0.5322334170341492</v>
       </c>
       <c r="D238" t="n">
-        <v>-2.008599281311035</v>
+        <v>0.1318282186985016</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.3754687905311584</v>
+        <v>0.1006981655955315</v>
       </c>
       <c r="C239" t="n">
-        <v>1.840237617492676</v>
+        <v>0.5552929043769836</v>
       </c>
       <c r="D239" t="n">
-        <v>-2.225869417190552</v>
+        <v>0.1264099478721619</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.534826934337616</v>
+        <v>0.07147068530321121</v>
       </c>
       <c r="C240" t="n">
-        <v>1.949535608291626</v>
+        <v>0.5461359024047852</v>
       </c>
       <c r="D240" t="n">
-        <v>-2.341857194900513</v>
+        <v>0.1529126614332199</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.5905447602272034</v>
+        <v>0.06173023208975792</v>
       </c>
       <c r="C241" t="n">
-        <v>2.258293628692627</v>
+        <v>0.5367703437805176</v>
       </c>
       <c r="D241" t="n">
-        <v>-2.7394118309021</v>
+        <v>0.1551854908466339</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.3662006556987762</v>
+        <v>0.0893559530377388</v>
       </c>
       <c r="C242" t="n">
-        <v>1.836373090744019</v>
+        <v>0.5722799301147461</v>
       </c>
       <c r="D242" t="n">
-        <v>-2.334138631820679</v>
+        <v>0.1571612954139709</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.1083518713712692</v>
+        <v>0.05218451842665672</v>
       </c>
       <c r="C243" t="n">
-        <v>1.598815321922302</v>
+        <v>0.5610988140106201</v>
       </c>
       <c r="D243" t="n">
-        <v>-2.056317806243896</v>
+        <v>0.1818290650844574</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.1453069895505905</v>
+        <v>0.08855193108320236</v>
       </c>
       <c r="C244" t="n">
-        <v>1.822200298309326</v>
+        <v>0.5419833064079285</v>
       </c>
       <c r="D244" t="n">
-        <v>-2.442804574966431</v>
+        <v>0.1448229253292084</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.01751141063868999</v>
+        <v>0.07973605394363403</v>
       </c>
       <c r="C245" t="n">
-        <v>1.668254852294922</v>
+        <v>0.5410950779914856</v>
       </c>
       <c r="D245" t="n">
-        <v>-2.370437860488892</v>
+        <v>0.1470872759819031</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.07627950608730316</v>
+        <v>0.0696796253323555</v>
       </c>
       <c r="C246" t="n">
-        <v>1.905318140983582</v>
+        <v>0.524770975112915</v>
       </c>
       <c r="D246" t="n">
-        <v>-2.764705896377563</v>
+        <v>0.1515035033226013</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1421154588460922</v>
+        <v>0.04785613343119621</v>
       </c>
       <c r="C247" t="n">
-        <v>1.851855516433716</v>
+        <v>0.513500452041626</v>
       </c>
       <c r="D247" t="n">
-        <v>-2.650903701782227</v>
+        <v>0.1745762228965759</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1996844261884689</v>
+        <v>0.05607527121901512</v>
       </c>
       <c r="C248" t="n">
-        <v>1.772983431816101</v>
+        <v>0.5237086415290833</v>
       </c>
       <c r="D248" t="n">
-        <v>-2.492439746856689</v>
+        <v>0.167576864361763</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.2398853152990341</v>
+        <v>0.064732626080513</v>
       </c>
       <c r="C249" t="n">
-        <v>1.88812530040741</v>
+        <v>0.5056765675544739</v>
       </c>
       <c r="D249" t="n">
-        <v>-2.64732027053833</v>
+        <v>0.1571418792009354</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1805145889520645</v>
+        <v>0.04495296254754066</v>
       </c>
       <c r="C250" t="n">
-        <v>1.86478066444397</v>
+        <v>0.5300405621528625</v>
       </c>
       <c r="D250" t="n">
-        <v>-2.424411773681641</v>
+        <v>0.1795654147863388</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3176308274269104</v>
+        <v>0.0534052737057209</v>
       </c>
       <c r="C251" t="n">
-        <v>1.91838812828064</v>
+        <v>0.5097950100898743</v>
       </c>
       <c r="D251" t="n">
-        <v>-2.643432855606079</v>
+        <v>0.1458284258842468</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4022412300109863</v>
+        <v>0.05671875551342964</v>
       </c>
       <c r="C252" t="n">
-        <v>2.118404388427734</v>
+        <v>0.5030045509338379</v>
       </c>
       <c r="D252" t="n">
-        <v>-3.138809204101562</v>
+        <v>0.1647501587867737</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1675719171762466</v>
+        <v>0.04399017617106438</v>
       </c>
       <c r="C253" t="n">
-        <v>2.487703800201416</v>
+        <v>0.4928783476352692</v>
       </c>
       <c r="D253" t="n">
-        <v>-3.632614850997925</v>
+        <v>0.2071704417467117</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.2823440730571747</v>
+        <v>0.06774013489484787</v>
       </c>
       <c r="C254" t="n">
-        <v>2.03770112991333</v>
+        <v>0.5241968631744385</v>
       </c>
       <c r="D254" t="n">
-        <v>-3.022946119308472</v>
+        <v>0.1671148240566254</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.06521828472614288</v>
+        <v>0.03301100060343742</v>
       </c>
       <c r="C255" t="n">
-        <v>1.553586483001709</v>
+        <v>0.5580375790596008</v>
       </c>
       <c r="D255" t="n">
-        <v>-2.172874927520752</v>
+        <v>0.1711481809616089</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1839663237333298</v>
+        <v>0.07012256234884262</v>
       </c>
       <c r="C256" t="n">
-        <v>1.310551643371582</v>
+        <v>0.575146496295929</v>
       </c>
       <c r="D256" t="n">
-        <v>-2.269293069839478</v>
+        <v>0.1686068922281265</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1876841634511948</v>
+        <v>0.04427240416407585</v>
       </c>
       <c r="C257" t="n">
-        <v>1.261770009994507</v>
+        <v>0.5685271024703979</v>
       </c>
       <c r="D257" t="n">
-        <v>-2.23479437828064</v>
+        <v>0.183375209569931</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.09736368805170059</v>
+        <v>0.03157089278101921</v>
       </c>
       <c r="C258" t="n">
-        <v>1.390279173851013</v>
+        <v>0.5580944418907166</v>
       </c>
       <c r="D258" t="n">
-        <v>-2.350845575332642</v>
+        <v>0.1939758509397507</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.2340884506702423</v>
+        <v>0.02707273699343204</v>
       </c>
       <c r="C259" t="n">
-        <v>1.224436283111572</v>
+        <v>0.563625156879425</v>
       </c>
       <c r="D259" t="n">
-        <v>-2.274765014648438</v>
+        <v>0.2000229805707932</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.4635221660137177</v>
+        <v>0.03284130617976189</v>
       </c>
       <c r="C260" t="n">
-        <v>1.227232694625854</v>
+        <v>0.5863090753555298</v>
       </c>
       <c r="D260" t="n">
-        <v>-2.327426195144653</v>
+        <v>0.2085931748151779</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4039396047592163</v>
+        <v>0.0499182902276516</v>
       </c>
       <c r="C261" t="n">
-        <v>1.186160683631897</v>
+        <v>0.5820542573928833</v>
       </c>
       <c r="D261" t="n">
-        <v>-2.238739252090454</v>
+        <v>0.1951229423284531</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.6657366156578064</v>
+        <v>0.05150509998202324</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9955628514289856</v>
+        <v>0.6112846732139587</v>
       </c>
       <c r="D262" t="n">
-        <v>-2.223153829574585</v>
+        <v>0.1975497305393219</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.5811868906021118</v>
+        <v>0.07605063170194626</v>
       </c>
       <c r="C263" t="n">
-        <v>1.42463743686676</v>
+        <v>0.6176623702049255</v>
       </c>
       <c r="D263" t="n">
-        <v>-2.788498878479004</v>
+        <v>0.1860941052436829</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.3648554086685181</v>
+        <v>0.04332507774233818</v>
       </c>
       <c r="C264" t="n">
-        <v>1.614846348762512</v>
+        <v>0.5849738717079163</v>
       </c>
       <c r="D264" t="n">
-        <v>-2.915246248245239</v>
+        <v>0.1828243732452393</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.3773398399353027</v>
+        <v>0.01228674780577421</v>
       </c>
       <c r="C265" t="n">
-        <v>1.87915050983429</v>
+        <v>0.6016472578048706</v>
       </c>
       <c r="D265" t="n">
-        <v>-3.378649473190308</v>
+        <v>0.2205111384391785</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.5080110430717468</v>
+        <v>0.07570710033178329</v>
       </c>
       <c r="C266" t="n">
-        <v>1.455129027366638</v>
+        <v>0.5995979905128479</v>
       </c>
       <c r="D266" t="n">
-        <v>-2.927209854125977</v>
+        <v>0.1597208976745605</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.623960018157959</v>
+        <v>0.07280082255601883</v>
       </c>
       <c r="C267" t="n">
-        <v>1.238995432853699</v>
+        <v>0.6039579510688782</v>
       </c>
       <c r="D267" t="n">
-        <v>-2.860882759094238</v>
+        <v>0.1666779220104218</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.4301861524581909</v>
+        <v>0.1161431446671486</v>
       </c>
       <c r="C268" t="n">
-        <v>1.531754374504089</v>
+        <v>0.6116140484809875</v>
       </c>
       <c r="D268" t="n">
-        <v>-3.06600022315979</v>
+        <v>0.1327103674411774</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.6417697668075562</v>
+        <v>0.05755968019366264</v>
       </c>
       <c r="C269" t="n">
-        <v>1.343876838684082</v>
+        <v>0.6100221872329712</v>
       </c>
       <c r="D269" t="n">
-        <v>-3.051008224487305</v>
+        <v>0.1810227334499359</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.6464515328407288</v>
+        <v>0.05759113654494286</v>
       </c>
       <c r="C270" t="n">
-        <v>1.502178907394409</v>
+        <v>0.6274988055229187</v>
       </c>
       <c r="D270" t="n">
-        <v>-3.427003145217896</v>
+        <v>0.1863466799259186</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.7365824580192566</v>
+        <v>0.04948769137263298</v>
       </c>
       <c r="C271" t="n">
-        <v>1.446720838546753</v>
+        <v>0.6243988275527954</v>
       </c>
       <c r="D271" t="n">
-        <v>-3.485654354095459</v>
+        <v>0.2038774639368057</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.7385596632957458</v>
+        <v>0.02657301165163517</v>
       </c>
       <c r="C272" t="n">
-        <v>1.311753630638123</v>
+        <v>0.6175658702850342</v>
       </c>
       <c r="D272" t="n">
-        <v>-3.309677600860596</v>
+        <v>0.2037887275218964</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.6190673112869263</v>
+        <v>0.03822539374232292</v>
       </c>
       <c r="C273" t="n">
-        <v>1.109796524047852</v>
+        <v>0.6126421689987183</v>
       </c>
       <c r="D273" t="n">
-        <v>-3.068124055862427</v>
+        <v>0.1844778656959534</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.3265141248703003</v>
+        <v>0.05853759869933128</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9674621224403381</v>
+        <v>0.5895879864692688</v>
       </c>
       <c r="D274" t="n">
-        <v>-2.562093019485474</v>
+        <v>0.1547465771436691</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.8717982172966003</v>
+        <v>0.1029689088463783</v>
       </c>
       <c r="C275" t="n">
-        <v>1.687227964401245</v>
+        <v>0.5864652395248413</v>
       </c>
       <c r="D275" t="n">
-        <v>-2.211300134658813</v>
+        <v>0.1015583947300911</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.045000910758972</v>
+        <v>0.08711551874876022</v>
       </c>
       <c r="C276" t="n">
-        <v>1.701116442680359</v>
+        <v>0.5772795677185059</v>
       </c>
       <c r="D276" t="n">
-        <v>-2.156047582626343</v>
+        <v>0.1139552444219589</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.225968360900879</v>
+        <v>0.06674685329198837</v>
       </c>
       <c r="C277" t="n">
-        <v>2.106264114379883</v>
+        <v>0.5709367394447327</v>
       </c>
       <c r="D277" t="n">
-        <v>-2.529430150985718</v>
+        <v>0.157844752073288</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.22697377204895</v>
+        <v>0.08580786734819412</v>
       </c>
       <c r="C278" t="n">
-        <v>1.659112334251404</v>
+        <v>0.5804732441902161</v>
       </c>
       <c r="D278" t="n">
-        <v>-2.220200300216675</v>
+        <v>0.1329632997512817</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.9540247321128845</v>
+        <v>0.09767293930053711</v>
       </c>
       <c r="C279" t="n">
-        <v>1.588943719863892</v>
+        <v>0.563771665096283</v>
       </c>
       <c r="D279" t="n">
-        <v>-1.982258439064026</v>
+        <v>0.1359417587518692</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.115835905075073</v>
+        <v>0.1075286045670509</v>
       </c>
       <c r="C280" t="n">
-        <v>1.739079713821411</v>
+        <v>0.5936228036880493</v>
       </c>
       <c r="D280" t="n">
-        <v>-2.184802532196045</v>
+        <v>0.1278089582920074</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.9831832051277161</v>
+        <v>0.08547090739011765</v>
       </c>
       <c r="C281" t="n">
-        <v>1.57250189781189</v>
+        <v>0.5890929102897644</v>
       </c>
       <c r="D281" t="n">
-        <v>-2.166954040527344</v>
+        <v>0.1540722846984863</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.6736009120941162</v>
+        <v>0.09419489651918411</v>
       </c>
       <c r="C282" t="n">
-        <v>1.596510052680969</v>
+        <v>0.5913143754005432</v>
       </c>
       <c r="D282" t="n">
-        <v>-2.406205415725708</v>
+        <v>0.1501555293798447</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.3888395726680756</v>
+        <v>0.09819851815700531</v>
       </c>
       <c r="C283" t="n">
-        <v>1.443966507911682</v>
+        <v>0.5702670812606812</v>
       </c>
       <c r="D283" t="n">
-        <v>-2.257213830947876</v>
+        <v>0.1493416726589203</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.5905693769454956</v>
+        <v>0.08104688674211502</v>
       </c>
       <c r="C284" t="n">
-        <v>1.354864120483398</v>
+        <v>0.5966463685035706</v>
       </c>
       <c r="D284" t="n">
-        <v>-2.050034523010254</v>
+        <v>0.1786090135574341</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.594633936882019</v>
+        <v>0.07700522989034653</v>
       </c>
       <c r="C285" t="n">
-        <v>1.353749394416809</v>
+        <v>0.5960357785224915</v>
       </c>
       <c r="D285" t="n">
-        <v>-2.134964227676392</v>
+        <v>0.1791287958621979</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.3820105791091919</v>
+        <v>0.08402081578969955</v>
       </c>
       <c r="C286" t="n">
-        <v>1.232332110404968</v>
+        <v>0.5963826775550842</v>
       </c>
       <c r="D286" t="n">
-        <v>-2.03009819984436</v>
+        <v>0.1762779653072357</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.4302660822868347</v>
+        <v>0.09942682832479477</v>
       </c>
       <c r="C287" t="n">
-        <v>1.266711235046387</v>
+        <v>0.6058254837989807</v>
       </c>
       <c r="D287" t="n">
-        <v>-2.264771461486816</v>
+        <v>0.1610408425331116</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.4310292303562164</v>
+        <v>0.09775837510824203</v>
       </c>
       <c r="C288" t="n">
-        <v>1.47934091091156</v>
+        <v>0.5928246378898621</v>
       </c>
       <c r="D288" t="n">
-        <v>-2.480667352676392</v>
+        <v>0.1585091948509216</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.606273353099823</v>
+        <v>0.05430547520518303</v>
       </c>
       <c r="C289" t="n">
-        <v>1.801487922668457</v>
+        <v>0.6040422320365906</v>
       </c>
       <c r="D289" t="n">
-        <v>-2.980657339096069</v>
+        <v>0.2047273367643356</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.8053454160690308</v>
+        <v>0.0652635470032692</v>
       </c>
       <c r="C290" t="n">
-        <v>1.443172931671143</v>
+        <v>0.6121284365653992</v>
       </c>
       <c r="D290" t="n">
-        <v>-2.453108549118042</v>
+        <v>0.1667775809764862</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.3475476503372192</v>
+        <v>0.05522811040282249</v>
       </c>
       <c r="C291" t="n">
-        <v>1.19261372089386</v>
+        <v>0.6047195792198181</v>
       </c>
       <c r="D291" t="n">
-        <v>-2.352340936660767</v>
+        <v>0.1886892914772034</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.4686458706855774</v>
+        <v>0.0862257108092308</v>
       </c>
       <c r="C292" t="n">
-        <v>1.336010813713074</v>
+        <v>0.6237010955810547</v>
       </c>
       <c r="D292" t="n">
-        <v>-2.543578624725342</v>
+        <v>0.1675496101379395</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.3955859243869781</v>
+        <v>0.06920268386602402</v>
       </c>
       <c r="C293" t="n">
-        <v>1.249881267547607</v>
+        <v>0.6194636225700378</v>
       </c>
       <c r="D293" t="n">
-        <v>-2.592720746994019</v>
+        <v>0.1861701011657715</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.5707287192344666</v>
+        <v>0.08217630535364151</v>
       </c>
       <c r="C294" t="n">
-        <v>1.417160272598267</v>
+        <v>0.6036543250083923</v>
       </c>
       <c r="D294" t="n">
-        <v>-2.52309513092041</v>
+        <v>0.1548011600971222</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.4846653044223785</v>
+        <v>0.08545710891485214</v>
       </c>
       <c r="C295" t="n">
-        <v>1.457077026367188</v>
+        <v>0.6041192412376404</v>
       </c>
       <c r="D295" t="n">
-        <v>-2.469056606292725</v>
+        <v>0.1535335332155228</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.5700488686561584</v>
+        <v>0.08694339543581009</v>
       </c>
       <c r="C296" t="n">
-        <v>1.308991312980652</v>
+        <v>0.6181020140647888</v>
       </c>
       <c r="D296" t="n">
-        <v>-2.335945606231689</v>
+        <v>0.1669215857982635</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.7417556047439575</v>
+        <v>0.05854440852999687</v>
       </c>
       <c r="C297" t="n">
-        <v>1.38894784450531</v>
+        <v>0.6121082305908203</v>
       </c>
       <c r="D297" t="n">
-        <v>-2.328063249588013</v>
+        <v>0.1903089135885239</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.8089577555656433</v>
+        <v>0.06493870168924332</v>
       </c>
       <c r="C298" t="n">
-        <v>1.236313104629517</v>
+        <v>0.6470951437950134</v>
       </c>
       <c r="D298" t="n">
-        <v>-2.200562953948975</v>
+        <v>0.2191579341888428</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.4006237983703613</v>
+        <v>0.106404684484005</v>
       </c>
       <c r="C299" t="n">
-        <v>1.24496054649353</v>
+        <v>0.6580403447151184</v>
       </c>
       <c r="D299" t="n">
-        <v>-2.58572793006897</v>
+        <v>0.1577554494142532</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.2352569848299026</v>
+        <v>0.1106539592146873</v>
       </c>
       <c r="C300" t="n">
-        <v>1.453988075256348</v>
+        <v>0.6363232135772705</v>
       </c>
       <c r="D300" t="n">
-        <v>-2.72147011756897</v>
+        <v>0.1517713069915771</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.2259296029806137</v>
+        <v>0.06222416087985039</v>
       </c>
       <c r="C301" t="n">
-        <v>1.753660678863525</v>
+        <v>0.6698856949806213</v>
       </c>
       <c r="D301" t="n">
-        <v>-3.309193849563599</v>
+        <v>0.2177817523479462</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.5684138536453247</v>
+        <v>0.1083169355988503</v>
       </c>
       <c r="C302" t="n">
-        <v>1.360019207000732</v>
+        <v>0.6786033511161804</v>
       </c>
       <c r="D302" t="n">
-        <v>-2.848276376724243</v>
+        <v>0.1613117158412933</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.01073776558041573</v>
+        <v>0.07659048587083817</v>
       </c>
       <c r="C303" t="n">
-        <v>1.095072388648987</v>
+        <v>0.6608065366744995</v>
       </c>
       <c r="D303" t="n">
-        <v>-2.817585229873657</v>
+        <v>0.1924126297235489</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.02554657496511936</v>
+        <v>0.1091897264122963</v>
       </c>
       <c r="C304" t="n">
-        <v>1.350709438323975</v>
+        <v>0.6847172379493713</v>
       </c>
       <c r="D304" t="n">
-        <v>-3.073780059814453</v>
+        <v>0.1664321422576904</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.01511871349066496</v>
+        <v>0.1008419916033745</v>
       </c>
       <c r="C305" t="n">
-        <v>1.221598505973816</v>
+        <v>0.6760296225547791</v>
       </c>
       <c r="D305" t="n">
-        <v>-3.022093534469604</v>
+        <v>0.1717993319034576</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.0537581741809845</v>
+        <v>0.08465545624494553</v>
       </c>
       <c r="C306" t="n">
-        <v>1.394422173500061</v>
+        <v>0.6580337882041931</v>
       </c>
       <c r="D306" t="n">
-        <v>-3.096988916397095</v>
+        <v>0.1676935851573944</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.007639068178832531</v>
+        <v>0.04896415397524834</v>
       </c>
       <c r="C307" t="n">
-        <v>1.256542682647705</v>
+        <v>0.6423764824867249</v>
       </c>
       <c r="D307" t="n">
-        <v>-2.909423589706421</v>
+        <v>0.1982850134372711</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1629887968301773</v>
+        <v>0.04706012830138206</v>
       </c>
       <c r="C308" t="n">
-        <v>1.085558891296387</v>
+        <v>0.6471925377845764</v>
       </c>
       <c r="D308" t="n">
-        <v>-2.822146892547607</v>
+        <v>0.2057425379753113</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.1007241755723953</v>
+        <v>0.03244603797793388</v>
       </c>
       <c r="C309" t="n">
-        <v>1.31361997127533</v>
+        <v>0.6488270163536072</v>
       </c>
       <c r="D309" t="n">
-        <v>-2.916916608810425</v>
+        <v>0.2207696437835693</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.02644005231559277</v>
+        <v>0.07816361635923386</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9776933789253235</v>
+        <v>0.6378061175346375</v>
       </c>
       <c r="D310" t="n">
-        <v>-2.41732931137085</v>
+        <v>0.1820016950368881</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.2036925405263901</v>
+        <v>0.1129467114806175</v>
       </c>
       <c r="C311" t="n">
-        <v>1.242079973220825</v>
+        <v>0.6537914872169495</v>
       </c>
       <c r="D311" t="n">
-        <v>-2.763695478439331</v>
+        <v>0.1420288532972336</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.06653426587581635</v>
+        <v>0.07331959158182144</v>
       </c>
       <c r="C312" t="n">
-        <v>1.46418559551239</v>
+        <v>0.6560391783714294</v>
       </c>
       <c r="D312" t="n">
-        <v>-3.123562335968018</v>
+        <v>0.1817700862884521</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.2237118184566498</v>
+        <v>0.05093769356608391</v>
       </c>
       <c r="C313" t="n">
-        <v>1.732374787330627</v>
+        <v>0.6568384766578674</v>
       </c>
       <c r="D313" t="n">
-        <v>-3.577381372451782</v>
+        <v>0.2050566226243973</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.5013283491134644</v>
+        <v>0.1184377893805504</v>
       </c>
       <c r="C314" t="n">
-        <v>1.363747119903564</v>
+        <v>0.6860364675521851</v>
       </c>
       <c r="D314" t="n">
-        <v>-3.033671140670776</v>
+        <v>0.1461800187826157</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.3256116509437561</v>
+        <v>0.1830265820026398</v>
       </c>
       <c r="C315" t="n">
-        <v>1.280899047851562</v>
+        <v>0.7110945582389832</v>
       </c>
       <c r="D315" t="n">
-        <v>-3.10651707649231</v>
+        <v>0.1217673718929291</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.3414175510406494</v>
+        <v>0.1427219659090042</v>
       </c>
       <c r="C316" t="n">
-        <v>1.253869295120239</v>
+        <v>0.6946638226509094</v>
       </c>
       <c r="D316" t="n">
-        <v>-3.022033929824829</v>
+        <v>0.1443068832159042</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2852447628974915</v>
+        <v>0.1244780644774437</v>
       </c>
       <c r="C317" t="n">
-        <v>1.157749652862549</v>
+        <v>0.6801850199699402</v>
       </c>
       <c r="D317" t="n">
-        <v>-2.90659499168396</v>
+        <v>0.1512228548526764</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.347838819026947</v>
+        <v>0.1020442917943001</v>
       </c>
       <c r="C318" t="n">
-        <v>1.149873852729797</v>
+        <v>0.6537157893180847</v>
       </c>
       <c r="D318" t="n">
-        <v>-2.665768623352051</v>
+        <v>0.1592282354831696</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.362652599811554</v>
+        <v>0.08802586048841476</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9854345917701721</v>
+        <v>0.6423346400260925</v>
       </c>
       <c r="D319" t="n">
-        <v>-2.450127840042114</v>
+        <v>0.1640023440122604</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.3548583388328552</v>
+        <v>0.1098943278193474</v>
       </c>
       <c r="C320" t="n">
-        <v>0.8905537128448486</v>
+        <v>0.6559271812438965</v>
       </c>
       <c r="D320" t="n">
-        <v>-2.383587598800659</v>
+        <v>0.1647849082946777</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.2641408145427704</v>
+        <v>0.1219692900776863</v>
       </c>
       <c r="C321" t="n">
-        <v>0.8924542665481567</v>
+        <v>0.6700153946876526</v>
       </c>
       <c r="D321" t="n">
-        <v>-2.574669361114502</v>
+        <v>0.1713430732488632</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.00296941283158958</v>
+        <v>0.09321432560682297</v>
       </c>
       <c r="C322" t="n">
-        <v>0.7112229466438293</v>
+        <v>0.6716682314872742</v>
       </c>
       <c r="D322" t="n">
-        <v>-2.505480527877808</v>
+        <v>0.1998280733823776</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.4588741064071655</v>
+        <v>0.1405898928642273</v>
       </c>
       <c r="C323" t="n">
-        <v>1.110900402069092</v>
+        <v>0.6630708575248718</v>
       </c>
       <c r="D323" t="n">
-        <v>-2.673539638519287</v>
+        <v>0.1376783102750778</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.4915242791175842</v>
+        <v>0.1282975673675537</v>
       </c>
       <c r="C324" t="n">
-        <v>1.090041399002075</v>
+        <v>0.6526781916618347</v>
       </c>
       <c r="D324" t="n">
-        <v>-2.714207410812378</v>
+        <v>0.1513074785470963</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.6387118697166443</v>
+        <v>0.1014231219887733</v>
       </c>
       <c r="C325" t="n">
-        <v>1.300402283668518</v>
+        <v>0.6557000279426575</v>
       </c>
       <c r="D325" t="n">
-        <v>-3.127080202102661</v>
+        <v>0.1844258904457092</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.4436119496822357</v>
+        <v>0.1390589475631714</v>
       </c>
       <c r="C326" t="n">
-        <v>1.15703284740448</v>
+        <v>0.6777045130729675</v>
       </c>
       <c r="D326" t="n">
-        <v>-3.030379772186279</v>
+        <v>0.1553221791982651</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.3773795366287231</v>
+        <v>0.1224196776747704</v>
       </c>
       <c r="C327" t="n">
-        <v>0.8406085968017578</v>
+        <v>0.6546016335487366</v>
       </c>
       <c r="D327" t="n">
-        <v>-2.676944971084595</v>
+        <v>0.1689172387123108</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.5428100228309631</v>
+        <v>0.1929476112127304</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9487420916557312</v>
+        <v>0.6769756674766541</v>
       </c>
       <c r="D328" t="n">
-        <v>-2.760125398635864</v>
+        <v>0.1203993260860443</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.4471645355224609</v>
+        <v>0.1355698257684708</v>
       </c>
       <c r="C329" t="n">
-        <v>0.8494706749916077</v>
+        <v>0.6637890934944153</v>
       </c>
       <c r="D329" t="n">
-        <v>-2.646367788314819</v>
+        <v>0.1624873429536819</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.568446159362793</v>
+        <v>0.1310832351446152</v>
       </c>
       <c r="C330" t="n">
-        <v>1.068504571914673</v>
+        <v>0.6530197858810425</v>
       </c>
       <c r="D330" t="n">
-        <v>-2.824589014053345</v>
+        <v>0.1662698984146118</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.5007559061050415</v>
+        <v>0.1178165823221207</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8414972424507141</v>
+        <v>0.6479759812355042</v>
       </c>
       <c r="D331" t="n">
-        <v>-2.611376762390137</v>
+        <v>0.1757529228925705</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.2671763896942139</v>
+        <v>0.1064574345946312</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9512338638305664</v>
+        <v>0.674315869808197</v>
       </c>
       <c r="D332" t="n">
-        <v>-2.865463495254517</v>
+        <v>0.2029077559709549</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.2084959447383881</v>
+        <v>0.1058016791939735</v>
       </c>
       <c r="C333" t="n">
-        <v>0.853719174861908</v>
+        <v>0.6791492104530334</v>
       </c>
       <c r="D333" t="n">
-        <v>-2.92217755317688</v>
+        <v>0.2094079852104187</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.3411470055580139</v>
+        <v>0.1521867662668228</v>
       </c>
       <c r="C334" t="n">
-        <v>0.6791525483131409</v>
+        <v>0.670023500919342</v>
       </c>
       <c r="D334" t="n">
-        <v>-2.551857471466064</v>
+        <v>0.1685382127761841</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.5693257451057434</v>
+        <v>0.1699458211660385</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9571709632873535</v>
+        <v>0.6596794128417969</v>
       </c>
       <c r="D335" t="n">
-        <v>-2.755188703536987</v>
+        <v>0.1458127647638321</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.5969257354736328</v>
+        <v>0.1555047184228897</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9829331040382385</v>
+        <v>0.6555803418159485</v>
       </c>
       <c r="D336" t="n">
-        <v>-2.827836513519287</v>
+        <v>0.1566435098648071</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.6210693717002869</v>
+        <v>0.121184840798378</v>
       </c>
       <c r="C337" t="n">
-        <v>1.261526823043823</v>
+        <v>0.6604018211364746</v>
       </c>
       <c r="D337" t="n">
-        <v>-3.307575464248657</v>
+        <v>0.1906043738126755</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.4976637065410614</v>
+        <v>0.1499715596437454</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9443142414093018</v>
+        <v>0.6752061247825623</v>
       </c>
       <c r="D338" t="n">
-        <v>-2.882357835769653</v>
+        <v>0.1530851870775223</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.4780820906162262</v>
+        <v>0.1634632796049118</v>
       </c>
       <c r="C339" t="n">
-        <v>0.8478959798812866</v>
+        <v>0.6826657652854919</v>
       </c>
       <c r="D339" t="n">
-        <v>-2.854310750961304</v>
+        <v>0.1624961495399475</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.5181176066398621</v>
+        <v>0.1887864917516708</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9419190287590027</v>
+        <v>0.6933445930480957</v>
       </c>
       <c r="D340" t="n">
-        <v>-2.92685341835022</v>
+        <v>0.1410187780857086</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.3931540846824646</v>
+        <v>0.1340016573667526</v>
       </c>
       <c r="C341" t="n">
-        <v>0.805514931678772</v>
+        <v>0.669297993183136</v>
       </c>
       <c r="D341" t="n">
-        <v>-2.75744366645813</v>
+        <v>0.1746737957000732</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.4359811246395111</v>
+        <v>0.1297085881233215</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9640384316444397</v>
+        <v>0.6674374341964722</v>
       </c>
       <c r="D342" t="n">
-        <v>-2.99271035194397</v>
+        <v>0.1784289181232452</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.3731590509414673</v>
+        <v>0.1116195693612099</v>
       </c>
       <c r="C343" t="n">
-        <v>0.8024222254753113</v>
+        <v>0.659587562084198</v>
       </c>
       <c r="D343" t="n">
-        <v>-2.811469316482544</v>
+        <v>0.1932348906993866</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.3443784117698669</v>
+        <v>0.1106279864907265</v>
       </c>
       <c r="C344" t="n">
-        <v>0.8147163987159729</v>
+        <v>0.6573892831802368</v>
       </c>
       <c r="D344" t="n">
-        <v>-2.771623134613037</v>
+        <v>0.1946638524532318</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.3547292351722717</v>
+        <v>0.1092484667897224</v>
       </c>
       <c r="C345" t="n">
-        <v>0.6798005700111389</v>
+        <v>0.6581302285194397</v>
       </c>
       <c r="D345" t="n">
-        <v>-2.669778108596802</v>
+        <v>0.1972106993198395</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.3779290914535522</v>
+        <v>0.1223354637622833</v>
       </c>
       <c r="C346" t="n">
-        <v>0.5796188712120056</v>
+        <v>0.656743049621582</v>
       </c>
       <c r="D346" t="n">
-        <v>-2.473746776580811</v>
+        <v>0.1890941262245178</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.714824378490448</v>
+        <v>0.1502366662025452</v>
       </c>
       <c r="C347" t="n">
-        <v>0.8967908620834351</v>
+        <v>0.6450486779212952</v>
       </c>
       <c r="D347" t="n">
-        <v>-2.627546548843384</v>
+        <v>0.1542762815952301</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.7807691097259521</v>
+        <v>0.1329376548528671</v>
       </c>
       <c r="C348" t="n">
-        <v>0.7342655062675476</v>
+        <v>0.6276776790618896</v>
       </c>
       <c r="D348" t="n">
-        <v>-2.390610218048096</v>
+        <v>0.1624481081962585</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.173267364501953</v>
+        <v>0.1171836107969284</v>
       </c>
       <c r="C349" t="n">
-        <v>1.254227161407471</v>
+        <v>0.6179498434066772</v>
       </c>
       <c r="D349" t="n">
-        <v>-2.725872755050659</v>
+        <v>0.1824083924293518</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.182628750801086</v>
+        <v>0.1366401016712189</v>
       </c>
       <c r="C350" t="n">
-        <v>1.057755589485168</v>
+        <v>0.6240752935409546</v>
       </c>
       <c r="D350" t="n">
-        <v>-2.482549428939819</v>
+        <v>0.1422674059867859</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-1.181433081626892</v>
+        <v>0.1352716982364655</v>
       </c>
       <c r="C351" t="n">
-        <v>0.4948034882545471</v>
+        <v>0.6175152659416199</v>
       </c>
       <c r="D351" t="n">
-        <v>-1.981199979782104</v>
+        <v>0.1448194533586502</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-1.155935525894165</v>
+        <v>0.2039488404989243</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9842610955238342</v>
+        <v>0.633882999420166</v>
       </c>
       <c r="D352" t="n">
-        <v>-2.495087146759033</v>
+        <v>0.1006025969982147</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-1.022799015045166</v>
+        <v>0.1526417583227158</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7623146176338196</v>
+        <v>0.6341978311538696</v>
       </c>
       <c r="D353" t="n">
-        <v>-2.315008401870728</v>
+        <v>0.1424803137779236</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-1.066991448402405</v>
+        <v>0.1221297532320023</v>
       </c>
       <c r="C354" t="n">
-        <v>0.8417944312095642</v>
+        <v>0.6249457597732544</v>
       </c>
       <c r="D354" t="n">
-        <v>-2.444603681564331</v>
+        <v>0.1630928516387939</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.9021822214126587</v>
+        <v>0.1045512408018112</v>
       </c>
       <c r="C355" t="n">
-        <v>0.7489941716194153</v>
+        <v>0.6163167357444763</v>
       </c>
       <c r="D355" t="n">
-        <v>-2.323035478591919</v>
+        <v>0.1752577424049377</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-1.045140504837036</v>
+        <v>0.1066914275288582</v>
       </c>
       <c r="C356" t="n">
-        <v>0.6353386044502258</v>
+        <v>0.6051459312438965</v>
       </c>
       <c r="D356" t="n">
-        <v>-2.084336280822754</v>
+        <v>0.152702733874321</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-1.173396587371826</v>
+        <v>0.1106177717447281</v>
       </c>
       <c r="C357" t="n">
-        <v>0.4768900573253632</v>
+        <v>0.6143367886543274</v>
       </c>
       <c r="D357" t="n">
-        <v>-1.928695321083069</v>
+        <v>0.1603148430585861</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-1.133201599121094</v>
+        <v>0.1216157451272011</v>
       </c>
       <c r="C358" t="n">
-        <v>0.3856661319732666</v>
+        <v>0.6130478978157043</v>
       </c>
       <c r="D358" t="n">
-        <v>-1.746430993080139</v>
+        <v>0.151347815990448</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-1.074107766151428</v>
+        <v>0.1472768634557724</v>
       </c>
       <c r="C359" t="n">
-        <v>0.685413122177124</v>
+        <v>0.6181632876396179</v>
       </c>
       <c r="D359" t="n">
-        <v>-2.152382612228394</v>
+        <v>0.1348202973604202</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-1.039750456809998</v>
+        <v>0.1309561431407928</v>
       </c>
       <c r="C360" t="n">
-        <v>0.7360617518424988</v>
+        <v>0.6029046773910522</v>
       </c>
       <c r="D360" t="n">
-        <v>-2.253784894943237</v>
+        <v>0.1423411071300507</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-1.430873513221741</v>
+        <v>0.09359144419431686</v>
       </c>
       <c r="C361" t="n">
-        <v>1.267856121063232</v>
+        <v>0.6069744229316711</v>
       </c>
       <c r="D361" t="n">
-        <v>-2.549458265304565</v>
+        <v>0.1864272207021713</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.466172218322754</v>
+        <v>0.1536191254854202</v>
       </c>
       <c r="C362" t="n">
-        <v>0.6612658500671387</v>
+        <v>0.6151009202003479</v>
       </c>
       <c r="D362" t="n">
-        <v>-2.085779428482056</v>
+        <v>0.1166454255580902</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-1.61124587059021</v>
+        <v>0.1414058357477188</v>
       </c>
       <c r="C363" t="n">
-        <v>0.5087080597877502</v>
+        <v>0.6196748614311218</v>
       </c>
       <c r="D363" t="n">
-        <v>-2.015202045440674</v>
+        <v>0.1441612541675568</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-1.293726921081543</v>
+        <v>0.1862508505582809</v>
       </c>
       <c r="C364" t="n">
-        <v>0.7770138382911682</v>
+        <v>0.6223913431167603</v>
       </c>
       <c r="D364" t="n">
-        <v>-2.265520811080933</v>
+        <v>0.1055183261632919</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-1.196077942848206</v>
+        <v>0.1377058178186417</v>
       </c>
       <c r="C365" t="n">
-        <v>0.5146467685699463</v>
+        <v>0.6116929650306702</v>
       </c>
       <c r="D365" t="n">
-        <v>-2.110005378723145</v>
+        <v>0.1388045251369476</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.127291560173035</v>
+        <v>0.150276780128479</v>
       </c>
       <c r="C366" t="n">
-        <v>0.6914177536964417</v>
+        <v>0.6183169484138489</v>
       </c>
       <c r="D366" t="n">
-        <v>-2.320986986160278</v>
+        <v>0.1343360245227814</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.9913830757141113</v>
+        <v>0.1248182207345963</v>
       </c>
       <c r="C367" t="n">
-        <v>0.5415634512901306</v>
+        <v>0.6028184294700623</v>
       </c>
       <c r="D367" t="n">
-        <v>-2.180143594741821</v>
+        <v>0.14930160343647</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.227129817008972</v>
+        <v>0.1297989934682846</v>
       </c>
       <c r="C368" t="n">
-        <v>0.3973755836486816</v>
+        <v>0.6048590540885925</v>
       </c>
       <c r="D368" t="n">
-        <v>-1.928967952728271</v>
+        <v>0.1543083935976028</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.289011359214783</v>
+        <v>0.1292554885149002</v>
       </c>
       <c r="C369" t="n">
-        <v>0.4482530355453491</v>
+        <v>0.6109764575958252</v>
       </c>
       <c r="D369" t="n">
-        <v>-2.046648979187012</v>
+        <v>0.1698407381772995</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-1.566724896430969</v>
+        <v>0.1045210361480713</v>
       </c>
       <c r="C370" t="n">
-        <v>0.07735729962587357</v>
+        <v>0.623835027217865</v>
       </c>
       <c r="D370" t="n">
-        <v>-1.777228951454163</v>
+        <v>0.2122798711061478</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-1.019107937812805</v>
+        <v>0.162085697054863</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5466828346252441</v>
+        <v>0.6166325211524963</v>
       </c>
       <c r="D371" t="n">
-        <v>-2.294427156448364</v>
+        <v>0.1297152489423752</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.068607330322266</v>
+        <v>0.1452656835317612</v>
       </c>
       <c r="C372" t="n">
-        <v>0.6689951419830322</v>
+        <v>0.6209639310836792</v>
       </c>
       <c r="D372" t="n">
-        <v>-2.430830717086792</v>
+        <v>0.1502752602100372</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-1.383109211921692</v>
+        <v>0.1680879443883896</v>
       </c>
       <c r="C373" t="n">
-        <v>0.798525333404541</v>
+        <v>0.6404644250869751</v>
       </c>
       <c r="D373" t="n">
-        <v>-2.6805579662323</v>
+        <v>0.1549272388219833</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-1.49957013130188</v>
+        <v>0.1734123080968857</v>
       </c>
       <c r="C374" t="n">
-        <v>0.5897974967956543</v>
+        <v>0.6408514976501465</v>
       </c>
       <c r="D374" t="n">
-        <v>-2.540886402130127</v>
+        <v>0.1246341913938522</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-1.204620242118835</v>
+        <v>0.1363907158374786</v>
       </c>
       <c r="C375" t="n">
-        <v>0.3753013610839844</v>
+        <v>0.6180445551872253</v>
       </c>
       <c r="D375" t="n">
-        <v>-2.300523042678833</v>
+        <v>0.1582890748977661</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-1.201117873191833</v>
+        <v>0.149802953004837</v>
       </c>
       <c r="C376" t="n">
-        <v>0.5282577872276306</v>
+        <v>0.6242813467979431</v>
       </c>
       <c r="D376" t="n">
-        <v>-2.427902936935425</v>
+        <v>0.1441695094108582</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-1.128946542739868</v>
+        <v>0.1407714933156967</v>
       </c>
       <c r="C377" t="n">
-        <v>0.3409650921821594</v>
+        <v>0.6076745390892029</v>
       </c>
       <c r="D377" t="n">
-        <v>-2.245433568954468</v>
+        <v>0.1403183043003082</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.236162900924683</v>
+        <v>0.1331125050783157</v>
       </c>
       <c r="C378" t="n">
-        <v>0.6034699082374573</v>
+        <v>0.6108230352401733</v>
       </c>
       <c r="D378" t="n">
-        <v>-2.544657945632935</v>
+        <v>0.1626366972923279</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.098845362663269</v>
+        <v>0.1173229664564133</v>
       </c>
       <c r="C379" t="n">
-        <v>0.3681113123893738</v>
+        <v>0.5928898453712463</v>
       </c>
       <c r="D379" t="n">
-        <v>-2.240625143051147</v>
+        <v>0.1651145219802856</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-1.25879430770874</v>
+        <v>0.1181740760803223</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2279970645904541</v>
+        <v>0.6070423126220703</v>
       </c>
       <c r="D380" t="n">
-        <v>-2.129291534423828</v>
+        <v>0.1694734394550323</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-1.49042534828186</v>
+        <v>0.1120086535811424</v>
       </c>
       <c r="C381" t="n">
-        <v>0.2452006340026855</v>
+        <v>0.6152288317680359</v>
       </c>
       <c r="D381" t="n">
-        <v>-2.14118766784668</v>
+        <v>0.1948900520801544</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-1.234769105911255</v>
+        <v>0.1380086094141006</v>
       </c>
       <c r="C382" t="n">
-        <v>0.2100162506103516</v>
+        <v>0.6143092513084412</v>
       </c>
       <c r="D382" t="n">
-        <v>-2.102135896682739</v>
+        <v>0.1700132787227631</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.9276459813117981</v>
+        <v>0.2053800970315933</v>
       </c>
       <c r="C383" t="n">
-        <v>0.3613437712192535</v>
+        <v>0.6199631690979004</v>
       </c>
       <c r="D383" t="n">
-        <v>-2.40066933631897</v>
+        <v>0.1082261800765991</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.9656527638435364</v>
+        <v>0.1907422095537186</v>
       </c>
       <c r="C384" t="n">
-        <v>0.5746986269950867</v>
+        <v>0.6189754605293274</v>
       </c>
       <c r="D384" t="n">
-        <v>-2.638479709625244</v>
+        <v>0.1360053420066833</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.318986177444458</v>
+        <v>0.2073969841003418</v>
       </c>
       <c r="C385" t="n">
-        <v>0.7152342200279236</v>
+        <v>0.6452298164367676</v>
       </c>
       <c r="D385" t="n">
-        <v>-2.956669330596924</v>
+        <v>0.1484331786632538</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-1.412030935287476</v>
+        <v>0.3097032606601715</v>
       </c>
       <c r="C386" t="n">
-        <v>0.7785797119140625</v>
+        <v>0.6744247674942017</v>
       </c>
       <c r="D386" t="n">
-        <v>-3.180009603500366</v>
+        <v>0.08860430866479874</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-1.433546423912048</v>
+        <v>0.1859830766916275</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1709582805633545</v>
+        <v>0.637177050113678</v>
       </c>
       <c r="D387" t="n">
-        <v>-2.380248308181763</v>
+        <v>0.1643254160881042</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.006025671958923</v>
+        <v>0.2163562774658203</v>
       </c>
       <c r="C388" t="n">
-        <v>0.4617840945720673</v>
+        <v>0.6373163461685181</v>
       </c>
       <c r="D388" t="n">
-        <v>-2.69633936882019</v>
+        <v>0.129714623093605</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.093446969985962</v>
+        <v>0.1786569356918335</v>
       </c>
       <c r="C389" t="n">
-        <v>0.2787790298461914</v>
+        <v>0.6327847838401794</v>
       </c>
       <c r="D389" t="n">
-        <v>-2.54106330871582</v>
+        <v>0.1623713970184326</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.994111955165863</v>
+        <v>0.1807318776845932</v>
       </c>
       <c r="C390" t="n">
-        <v>0.4823683202266693</v>
+        <v>0.6287220120429993</v>
       </c>
       <c r="D390" t="n">
-        <v>-2.766418218612671</v>
+        <v>0.1582224369049072</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.934253990650177</v>
+        <v>0.169858381152153</v>
       </c>
       <c r="C391" t="n">
-        <v>0.2723723649978638</v>
+        <v>0.6244351267814636</v>
       </c>
       <c r="D391" t="n">
-        <v>-2.554406642913818</v>
+        <v>0.1615424752235413</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-1.174036145210266</v>
+        <v>0.1867426633834839</v>
       </c>
       <c r="C392" t="n">
-        <v>0.259155809879303</v>
+        <v>0.6397345662117004</v>
       </c>
       <c r="D392" t="n">
-        <v>-2.464380025863647</v>
+        <v>0.166064441204071</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-1.505038380622864</v>
+        <v>0.1636562198400497</v>
       </c>
       <c r="C393" t="n">
-        <v>0.1001102402806282</v>
+        <v>0.6470972895622253</v>
       </c>
       <c r="D393" t="n">
-        <v>-2.376179456710815</v>
+        <v>0.1991513073444366</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-1.330404162406921</v>
+        <v>0.1594463884830475</v>
       </c>
       <c r="C394" t="n">
-        <v>-0.08688124269247055</v>
+        <v>0.6362001895904541</v>
       </c>
       <c r="D394" t="n">
-        <v>-2.211962461471558</v>
+        <v>0.1899286359548569</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.9176551103591919</v>
+        <v>0.2077538222074509</v>
       </c>
       <c r="C395" t="n">
-        <v>0.4967273473739624</v>
+        <v>0.6271329522132874</v>
       </c>
       <c r="D395" t="n">
-        <v>-2.794983625411987</v>
+        <v>0.1419303566217422</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,517 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.9466216564178467</v>
+        <v>0.1768902838230133</v>
       </c>
       <c r="C396" t="n">
-        <v>0.4822010695934296</v>
+        <v>0.5966986417770386</v>
       </c>
       <c r="D396" t="n">
-        <v>-2.6458740234375</v>
+        <v>0.151411384344101</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.2115097790956497</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6289993524551392</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.148855984210968</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.2534165680408478</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6545767188072205</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.1378093510866165</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.1818517744541168</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6183669567108154</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.1615458726882935</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.2265983670949936</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6411775946617126</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.1446120291948318</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.2020273357629776</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.6385490894317627</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.1615503430366516</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.2085200846195221</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.6279778480529785</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.1557550579309464</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.1892782300710678</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.6239098906517029</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.160694032907486</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.1907123029232025</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.6291036009788513</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.1656284034252167</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.2090609818696976</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.6260918974876404</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.1492801904678345</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.2193367779254913</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.6218928694725037</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.1463409662246704</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.2464968115091324</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.6312990784645081</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.1425646841526031</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.2408450096845627</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6287932991981506</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.139658585190773</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.2498017549514771</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.6386034488677979</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.1369068175554276</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.2822232246398926</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.6459928154945374</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.1267939507961273</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.2318527698516846</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.6125588417053223</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.14175745844841</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.2180398106575012</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.5825352072715759</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.1344874054193497</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.2052456140518188</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.5681975483894348</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.1595487594604492</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.2060400098562241</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.6019230484962463</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.170395091176033</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.187353327870369</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.60613614320755</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.1842289566993713</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.1833796948194504</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.6149038672447205</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.1985767483711243</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.1999252438545227</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.6277793645858765</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.1828290522098541</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.1748475432395935</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.6194623708724976</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.2071359604597092</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.2142121344804764</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.6228394508361816</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.1916036903858185</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.1945220232009888</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6305200457572937</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.2043147683143616</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.2118488252162933</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.6389855146408081</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.1982303857803345</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.200846940279007</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.6503552794456482</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.189052015542984</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.1314217448234558</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.6379161477088928</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.2279486954212189</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.1807884573936462</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.6617448925971985</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.2088586688041687</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.1599101573228836</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.6599684357643127</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.2245567589998245</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.1715249419212341</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.6633042097091675</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.2142444849014282</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.1672453135251999</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.6641730070114136</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.2252667248249054</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.1888570338487625</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.6752482056617737</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.2028932273387909</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.194733515381813</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.668081521987915</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.1928347051143646</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.2015468627214432</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.6736984848976135</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.1879885941743851</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.2330481559038162</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.6939991116523743</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.1634799838066101</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.2132424116134644</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.6666560769081116</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.1723686903715134</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/real_enc.xlsx
+++ b/documents/latent_vector/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1440857499837875</v>
+        <v>-0.08456175774335861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4107679724693298</v>
+        <v>0.2463026791810989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01104369480162859</v>
+        <v>0.2297831475734711</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09676720201969147</v>
+        <v>-0.07314638048410416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3930801749229431</v>
+        <v>0.231352761387825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0285405945032835</v>
+        <v>0.221712738275528</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1019769385457039</v>
+        <v>-0.1132434830069542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3440578281879425</v>
+        <v>0.2358287125825882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03883831575512886</v>
+        <v>0.2534012198448181</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09717350453138351</v>
+        <v>-0.07954961806535721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3343146741390228</v>
+        <v>0.2194788604974747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03122178092598915</v>
+        <v>0.2267964780330658</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06349457800388336</v>
+        <v>-0.06870564073324203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3042043447494507</v>
+        <v>0.2166845351457596</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0335366316139698</v>
+        <v>0.2231320142745972</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07940769195556641</v>
+        <v>-0.01840195804834366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2837286591529846</v>
+        <v>0.177190974354744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01033466029912233</v>
+        <v>0.167796790599823</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09226787835359573</v>
+        <v>0.001538261771202087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3017025887966156</v>
+        <v>0.1577248275279999</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.523960761725903e-05</v>
+        <v>0.1465028673410416</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1090778559446335</v>
+        <v>0.04483703523874283</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3094581365585327</v>
+        <v>0.1457689255475998</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02409290336072445</v>
+        <v>0.1066718026995659</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1171571463346481</v>
+        <v>0.06502740830183029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3053264617919922</v>
+        <v>0.1355548948049545</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03764566034078598</v>
+        <v>0.08410795778036118</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1552867442369461</v>
+        <v>0.02891740947961807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3111896812915802</v>
+        <v>0.3379614353179932</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02205586992204189</v>
+        <v>0.3040581345558167</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1502929925918579</v>
+        <v>-0.01657970249652863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3362689316272736</v>
+        <v>0.3360558152198792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0005993072409182787</v>
+        <v>0.3112624883651733</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1287198215723038</v>
+        <v>0.0004730895161628723</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3184242844581604</v>
+        <v>0.4811567068099976</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0443611741065979</v>
+        <v>0.4310940206050873</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1421749740839005</v>
+        <v>-0.2339275479316711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3789571821689606</v>
+        <v>0.5155849456787109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01269513089209795</v>
+        <v>0.6857126355171204</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1225832179188728</v>
+        <v>-0.2373848259449005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3897652626037598</v>
+        <v>0.592801570892334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04618093371391296</v>
+        <v>0.7192592620849609</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1490711271762848</v>
+        <v>-0.1075317710638046</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3358328938484192</v>
+        <v>0.4402675628662109</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009989880956709385</v>
+        <v>0.5272144079208374</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1143970116972923</v>
+        <v>-0.09395154565572739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3218403160572052</v>
+        <v>0.3887025713920593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02195469848811626</v>
+        <v>0.4993827641010284</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07129044830799103</v>
+        <v>-0.1014560386538506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3006476759910583</v>
+        <v>0.2583965063095093</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02691386453807354</v>
+        <v>0.3751029372215271</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05282179638743401</v>
+        <v>-0.08109592646360397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2958742380142212</v>
+        <v>0.1687066256999969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02691460587084293</v>
+        <v>0.2107399553060532</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07195929437875748</v>
+        <v>-0.01739221066236496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3057488203048706</v>
+        <v>0.1369584947824478</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006782439537346363</v>
+        <v>0.1500462144613266</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1046727150678635</v>
+        <v>0.04034600406885147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.343734085559845</v>
+        <v>0.02654874697327614</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.002806522650644183</v>
+        <v>0.06597523391246796</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1131207942962646</v>
+        <v>0.06342162936925888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3511603474617004</v>
+        <v>-0.002794433385133743</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00959534477442503</v>
+        <v>0.04048235714435577</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08540650457143784</v>
+        <v>0.06819348782300949</v>
       </c>
       <c r="C23" t="n">
-        <v>0.362648218870163</v>
+        <v>-0.04557215422391891</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.006515213288366795</v>
+        <v>0.02191567420959473</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03123422153294086</v>
+        <v>-0.1433579623699188</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3482808172702789</v>
+        <v>0.1320609897375107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02400304190814495</v>
+        <v>0.2154772281646729</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001985619543120265</v>
+        <v>-0.2353865504264832</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3625988960266113</v>
+        <v>0.1517298966646194</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04616783186793327</v>
+        <v>0.2715665996074677</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01813886500895023</v>
+        <v>-0.2675304114818573</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4291926026344299</v>
+        <v>0.09714698791503906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03784215450286865</v>
+        <v>0.256750077009201</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03270016238093376</v>
+        <v>-0.1719508022069931</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4525432586669922</v>
+        <v>-0.137518510222435</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02281936071813107</v>
+        <v>0.07838155329227448</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.002835308434441686</v>
+        <v>-0.2717907130718231</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4137873351573944</v>
+        <v>0.02334688231348991</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06605775654315948</v>
+        <v>0.2259418368339539</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02810300327837467</v>
+        <v>-0.2648414671421051</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3932966589927673</v>
+        <v>-0.02289058640599251</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02306240610778332</v>
+        <v>0.2010557949542999</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04549152031540871</v>
+        <v>-0.3086495101451874</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3823922872543335</v>
+        <v>-0.009093102067708969</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02299719117581844</v>
+        <v>0.2525133192539215</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01964487321674824</v>
+        <v>-0.2912269234657288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3702236413955688</v>
+        <v>-0.03500496596097946</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01172310952097178</v>
+        <v>0.2183977365493774</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04463682696223259</v>
+        <v>-0.2010154724121094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3959478139877319</v>
+        <v>-0.09265737235546112</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.008772044442594051</v>
+        <v>0.1043983399868011</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08985406160354614</v>
+        <v>-0.2121196687221527</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4068862497806549</v>
+        <v>-0.08761967718601227</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01411463227123022</v>
+        <v>0.1207037717103958</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0936257392168045</v>
+        <v>-0.1988017708063126</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4060207605361938</v>
+        <v>-0.06260938942432404</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0377763919532299</v>
+        <v>0.08928938955068588</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1361721307039261</v>
+        <v>-0.2484897971153259</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4391806721687317</v>
+        <v>-0.08437766134738922</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.01800709962844849</v>
+        <v>0.1491803228855133</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1004852876067162</v>
+        <v>-0.3231566846370697</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4332404434680939</v>
+        <v>-0.0385189987719059</v>
       </c>
       <c r="D36" t="n">
-        <v>0.007988515309989452</v>
+        <v>0.2413018643856049</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06955466419458389</v>
+        <v>-0.4081002771854401</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4085836410522461</v>
+        <v>0.06162362918257713</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04326290264725685</v>
+        <v>0.3548896014690399</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09519895166158676</v>
+        <v>-0.4180178344249725</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4934112429618835</v>
+        <v>-0.04144268855452538</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03081830777227879</v>
+        <v>0.2789378762245178</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1143055930733681</v>
+        <v>-0.4704564809799194</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4938671290874481</v>
+        <v>0.04815388843417168</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03614936769008636</v>
+        <v>0.3727810680866241</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1068792119622231</v>
+        <v>-0.4819486141204834</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4256637096405029</v>
+        <v>0.1123312562704086</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0625331923365593</v>
+        <v>0.4337093830108643</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07737209647893906</v>
+        <v>-0.4286794662475586</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4237167835235596</v>
+        <v>0.05477753654122353</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04246898368000984</v>
+        <v>0.3587801158428192</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04814889654517174</v>
+        <v>-0.4770643413066864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4228449761867523</v>
+        <v>0.086695596575737</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05639313533902168</v>
+        <v>0.404083251953125</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06196653470396996</v>
+        <v>-0.4506088197231293</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4152218103408813</v>
+        <v>0.06180806085467339</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04687525704503059</v>
+        <v>0.380066305398941</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1005881428718567</v>
+        <v>-0.3442696928977966</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4375959634780884</v>
+        <v>-0.06485156714916229</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00894389022141695</v>
+        <v>0.2281879484653473</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09984541684389114</v>
+        <v>-0.2904934287071228</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4457335472106934</v>
+        <v>-0.1139063388109207</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0005518321413546801</v>
+        <v>0.1547531336545944</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0991286113858223</v>
+        <v>-0.2663966417312622</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4669649600982666</v>
+        <v>-0.08457237482070923</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.01800890453159809</v>
+        <v>0.05690242350101471</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09650615602731705</v>
+        <v>-0.2378665506839752</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4775694310665131</v>
+        <v>-0.1232530921697617</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.003393768100067973</v>
+        <v>0.06982267647981644</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07989245653152466</v>
+        <v>-0.4366468787193298</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4463005661964417</v>
+        <v>0.007636163383722305</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02675146795809269</v>
+        <v>0.3328160345554352</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1081087067723274</v>
+        <v>-0.5371176600456238</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4402123689651489</v>
+        <v>0.09789548814296722</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0433344691991806</v>
+        <v>0.4668227434158325</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1467101871967316</v>
+        <v>-0.5562587380409241</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5187488794326782</v>
+        <v>-0.05992556735873222</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01454785373061895</v>
+        <v>0.3350602984428406</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1135760620236397</v>
+        <v>-0.6189234852790833</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5292923450469971</v>
+        <v>-0.05971453711390495</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0005231450777500868</v>
+        <v>0.3654383420944214</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.109102688729763</v>
+        <v>-0.5248550176620483</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4563272297382355</v>
+        <v>-0.09696431457996368</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02199034206569195</v>
+        <v>0.3668121695518494</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09009910374879837</v>
+        <v>-0.4758554995059967</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4857532978057861</v>
+        <v>-0.1300910264253616</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01700486801564693</v>
+        <v>0.2978349626064301</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09299106150865555</v>
+        <v>-0.4887852370738983</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4918122589588165</v>
+        <v>-0.11959108710289</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04514602944254875</v>
+        <v>0.3038042187690735</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08444943279027939</v>
+        <v>-0.4396175444126129</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4969765543937683</v>
+        <v>-0.1705637276172638</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0346875861287117</v>
+        <v>0.2227978855371475</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09366361051797867</v>
+        <v>-0.3399991393089294</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5317656397819519</v>
+        <v>-0.1781009882688522</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01990487985312939</v>
+        <v>0.04094292223453522</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1246827617287636</v>
+        <v>-0.3689209520816803</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5386250615119934</v>
+        <v>-0.1503070592880249</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007641361095011234</v>
+        <v>0.02882196009159088</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1275747716426849</v>
+        <v>-0.3837050497531891</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5417457222938538</v>
+        <v>-0.1207759976387024</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01510703843086958</v>
+        <v>-0.09347555041313171</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1409683674573898</v>
+        <v>-0.3784306049346924</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5538769364356995</v>
+        <v>-0.1528584808111191</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003639010014012456</v>
+        <v>0.02002334594726562</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1182270050048828</v>
+        <v>-0.4581033885478973</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5220686793327332</v>
+        <v>-0.1608684360980988</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05728543549776077</v>
+        <v>0.2341614067554474</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1227296814322472</v>
+        <v>-0.4886114001274109</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5373064279556274</v>
+        <v>-0.1407007873058319</v>
       </c>
       <c r="D61" t="n">
-        <v>0.063756063580513</v>
+        <v>0.2459182143211365</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.179979220032692</v>
+        <v>-0.4097347855567932</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6488837599754333</v>
+        <v>-0.3086484372615814</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03971678763628006</v>
+        <v>0.00643002986907959</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1294863671064377</v>
+        <v>-0.4616690278053284</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6397635340690613</v>
+        <v>-0.27334064245224</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03460237383842468</v>
+        <v>-0.04197984933853149</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100906603038311</v>
+        <v>-0.4050223529338837</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6079800128936768</v>
+        <v>-0.2970315217971802</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06146981567144394</v>
+        <v>0.01278962194919586</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09794463962316513</v>
+        <v>-0.4183478355407715</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5851823687553406</v>
+        <v>-0.2919547259807587</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06095314025878906</v>
+        <v>0.05623142421245575</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1117498949170113</v>
+        <v>-0.5568873882293701</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5673369169235229</v>
+        <v>-0.2087397426366806</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06261339783668518</v>
+        <v>0.2444629669189453</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.101065419614315</v>
+        <v>-0.5139811038970947</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5596995949745178</v>
+        <v>-0.2614938616752625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04367852583527565</v>
+        <v>0.1798390597105026</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1223549470305443</v>
+        <v>-0.6329822540283203</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5747619271278381</v>
+        <v>-0.2739940285682678</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01378631312400103</v>
+        <v>0.1851857602596283</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1199055910110474</v>
+        <v>-0.6157774925231934</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5855643153190613</v>
+        <v>-0.2627773284912109</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.006330887787044048</v>
+        <v>0.08073016256093979</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1174737140536308</v>
+        <v>-0.6696058511734009</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5874447226524353</v>
+        <v>-0.2483648806810379</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02993635274469852</v>
+        <v>0.05685171484947205</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1353002935647964</v>
+        <v>-0.6601282954216003</v>
       </c>
       <c r="C71" t="n">
-        <v>0.597074031829834</v>
+        <v>-0.2687205076217651</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01311810594052076</v>
+        <v>0.1385761946439743</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08183432370424271</v>
+        <v>-0.6451191306114197</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5777546167373657</v>
+        <v>-0.2637466192245483</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02286589704453945</v>
+        <v>0.2382830381393433</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0960431769490242</v>
+        <v>-0.6392706632614136</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5784685015678406</v>
+        <v>-0.2249125838279724</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04239194467663765</v>
+        <v>0.2780393660068512</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09219632297754288</v>
+        <v>-0.708756148815155</v>
       </c>
       <c r="C74" t="n">
-        <v>0.60030198097229</v>
+        <v>-0.2709562182426453</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0409892238676548</v>
+        <v>0.2203760594129562</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1076483055949211</v>
+        <v>-0.7328036427497864</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5970128178596497</v>
+        <v>-0.2559880912303925</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03070616535842419</v>
+        <v>0.225126713514328</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08913630992174149</v>
+        <v>-0.7418407797813416</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5435621738433838</v>
+        <v>-0.2366251647472382</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03938184306025505</v>
+        <v>0.2789818048477173</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07975106686353683</v>
+        <v>-0.7352721095085144</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5448735952377319</v>
+        <v>-0.248575896024704</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0364917628467083</v>
+        <v>0.2680022418498993</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.04146970435976982</v>
+        <v>-0.7320809364318848</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5312579274177551</v>
+        <v>-0.2463579177856445</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03726723417639732</v>
+        <v>0.2749399244785309</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03139814361929893</v>
+        <v>-0.7328911423683167</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5122682452201843</v>
+        <v>-0.2575570642948151</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03591016307473183</v>
+        <v>0.2599132359027863</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04679432138800621</v>
+        <v>-0.7156708836555481</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5304438471794128</v>
+        <v>-0.3393168747425079</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0184029396623373</v>
+        <v>0.1480477750301361</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08656517416238785</v>
+        <v>-0.7447004914283752</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5314498543739319</v>
+        <v>-0.3205272555351257</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00229683262296021</v>
+        <v>0.1410083919763565</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1008829101920128</v>
+        <v>-0.7492009401321411</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5485448241233826</v>
+        <v>-0.3298560976982117</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01400119345635176</v>
+        <v>0.1058246344327927</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1229697689414024</v>
+        <v>-0.770007848739624</v>
       </c>
       <c r="C83" t="n">
-        <v>0.558189332485199</v>
+        <v>-0.2823861837387085</v>
       </c>
       <c r="D83" t="n">
-        <v>0.004191045649349689</v>
+        <v>0.1810846924781799</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09807553142309189</v>
+        <v>-0.8252208828926086</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5279768109321594</v>
+        <v>-0.1160649731755257</v>
       </c>
       <c r="D84" t="n">
-        <v>0.04640058800578117</v>
+        <v>0.3670027852058411</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.08206459134817123</v>
+        <v>-0.8428624272346497</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5271392464637756</v>
+        <v>-0.05418870970606804</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0632319450378418</v>
+        <v>0.454115629196167</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1126552596688271</v>
+        <v>-0.8305061459541321</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5607224702835083</v>
+        <v>-0.1422749757766724</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02651978097856045</v>
+        <v>0.3515531420707703</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.08161116391420364</v>
+        <v>-0.8259434700012207</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5398159623146057</v>
+        <v>-0.1464010030031204</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02519618533551693</v>
+        <v>0.3607684671878815</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08491086214780807</v>
+        <v>-0.836700975894928</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5293784141540527</v>
+        <v>-0.1756153106689453</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03033248148858547</v>
+        <v>0.3407056927680969</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06673974543809891</v>
+        <v>-0.8387302756309509</v>
       </c>
       <c r="C89" t="n">
-        <v>0.516414999961853</v>
+        <v>-0.1703974306583405</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04141039773821831</v>
+        <v>0.3527363240718842</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.06344559043645859</v>
+        <v>-0.8453989624977112</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5018620491027832</v>
+        <v>-0.1795012503862381</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04117609187960625</v>
+        <v>0.336263120174408</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0398569218814373</v>
+        <v>-0.8164201378822327</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4895085692405701</v>
+        <v>-0.2509289979934692</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03999951109290123</v>
+        <v>0.278459221124649</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06628797203302383</v>
+        <v>-0.7816876769065857</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4982009530067444</v>
+        <v>-0.3212400376796722</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02038325183093548</v>
+        <v>0.1965780407190323</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.07779496163129807</v>
+        <v>-0.7615346312522888</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5062345862388611</v>
+        <v>-0.3769086301326752</v>
       </c>
       <c r="D93" t="n">
-        <v>0.005370293743908405</v>
+        <v>0.1357869207859039</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.08442998677492142</v>
+        <v>-0.7736548781394958</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5210834741592407</v>
+        <v>-0.3625246584415436</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.002879838226363063</v>
+        <v>0.1020077019929886</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06111664697527885</v>
+        <v>-0.7342373132705688</v>
       </c>
       <c r="C95" t="n">
-        <v>0.523822009563446</v>
+        <v>-0.4115832448005676</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01884257607161999</v>
+        <v>0.09690266847610474</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.002114956500008702</v>
+        <v>-0.7502925992012024</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4964561462402344</v>
+        <v>-0.3799242973327637</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05968179926276207</v>
+        <v>0.1880001425743103</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.006222461350262165</v>
+        <v>-0.7841382622718811</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4933405816555023</v>
+        <v>-0.3112836480140686</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07435816526412964</v>
+        <v>0.2569889724254608</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03113354183733463</v>
+        <v>-0.7207085490226746</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5508984923362732</v>
+        <v>-0.474923312664032</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03448572382330894</v>
+        <v>0.06202240288257599</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02102329768240452</v>
+        <v>-0.6622605323791504</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5527291893959045</v>
+        <v>-0.5188713073730469</v>
       </c>
       <c r="D99" t="n">
-        <v>0.04786757752299309</v>
+        <v>-0.05427752435207367</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00919176172465086</v>
+        <v>-0.7075223326683044</v>
       </c>
       <c r="C100" t="n">
-        <v>0.527859628200531</v>
+        <v>-0.519515335559845</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06885781139135361</v>
+        <v>0.03221052885055542</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.002198244212195277</v>
+        <v>-0.7168542742729187</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5182116627693176</v>
+        <v>-0.4977787733078003</v>
       </c>
       <c r="D101" t="n">
-        <v>0.05262785777449608</v>
+        <v>0.0423533171415329</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.006989275105297565</v>
+        <v>-0.7197783589363098</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5120154023170471</v>
+        <v>-0.4949595630168915</v>
       </c>
       <c r="D102" t="n">
-        <v>0.05572187528014183</v>
+        <v>0.07785099744796753</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.01566008292138577</v>
+        <v>-0.7331113815307617</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4981853365898132</v>
+        <v>-0.4541479647159576</v>
       </c>
       <c r="D103" t="n">
-        <v>0.05503850802779198</v>
+        <v>0.1071434766054153</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.03940291330218315</v>
+        <v>-0.6717929840087891</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5352230668067932</v>
+        <v>-0.5138819217681885</v>
       </c>
       <c r="D104" t="n">
-        <v>0.03654448315501213</v>
+        <v>-0.0441281646490097</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.02861104346811771</v>
+        <v>-0.6733940243721008</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5266551375389099</v>
+        <v>-0.5140549540519714</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03642062470316887</v>
+        <v>-0.05157588422298431</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.03925782069563866</v>
+        <v>-0.6850190758705139</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5295349955558777</v>
+        <v>-0.4813039898872375</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01004646439105272</v>
+        <v>-0.03731480240821838</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03936206921935081</v>
+        <v>-0.745657742023468</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5194935202598572</v>
+        <v>-0.4207671880722046</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02451027743518353</v>
+        <v>0.08706492930650711</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.008845661766827106</v>
+        <v>-0.7971301674842834</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5012208819389343</v>
+        <v>-0.3162268698215485</v>
       </c>
       <c r="D108" t="n">
-        <v>0.05496245995163918</v>
+        <v>0.2393636107444763</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02079790271818638</v>
+        <v>-0.8647690415382385</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5085970759391785</v>
+        <v>-0.2006928026676178</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0645979568362236</v>
+        <v>0.3540823459625244</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.05569350346922874</v>
+        <v>-0.8185502886772156</v>
       </c>
       <c r="C110" t="n">
-        <v>0.537985622882843</v>
+        <v>-0.3273940682411194</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.003826218424364924</v>
+        <v>0.2025540173053741</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.03674560412764549</v>
+        <v>-0.8370603919029236</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5163332223892212</v>
+        <v>-0.3265643417835236</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01570419780910015</v>
+        <v>0.2195405662059784</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.06777095049619675</v>
+        <v>-0.8574684262275696</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5256046056747437</v>
+        <v>-0.3105631470680237</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02476947568356991</v>
+        <v>0.2391834706068039</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0270595345646143</v>
+        <v>-0.834934413433075</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5006346106529236</v>
+        <v>-0.3209859132766724</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0343276672065258</v>
+        <v>0.2340325564146042</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.02327225543558598</v>
+        <v>-0.8900359272956848</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5004721879959106</v>
+        <v>-0.2196657508611679</v>
       </c>
       <c r="D114" t="n">
-        <v>0.05441912263631821</v>
+        <v>0.3524541556835175</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.03803298994898796</v>
+        <v>-0.8484374284744263</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4844259023666382</v>
+        <v>-0.3259148597717285</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03929056599736214</v>
+        <v>0.2325437217950821</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.08460021764039993</v>
+        <v>-0.8259639143943787</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4883260726928711</v>
+        <v>-0.3785494565963745</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0209899228066206</v>
+        <v>0.1503138989210129</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1104231402277946</v>
+        <v>-0.843092143535614</v>
       </c>
       <c r="C117" t="n">
-        <v>0.496947318315506</v>
+        <v>-0.3764130771160126</v>
       </c>
       <c r="D117" t="n">
-        <v>0.009655875153839588</v>
+        <v>0.1170179545879364</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.09700464457273483</v>
+        <v>-0.8285169005393982</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5153583288192749</v>
+        <v>-0.3907663822174072</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.003093006787821651</v>
+        <v>0.08272828161716461</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.09929246455430984</v>
+        <v>-0.8447255492210388</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5142998099327087</v>
+        <v>-0.3615684509277344</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.002839448628947139</v>
+        <v>0.1604920923709869</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.08004697412252426</v>
+        <v>-0.9214047789573669</v>
       </c>
       <c r="C120" t="n">
-        <v>0.502507746219635</v>
+        <v>-0.2042309045791626</v>
       </c>
       <c r="D120" t="n">
-        <v>0.04089756682515144</v>
+        <v>0.3401376605033875</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.06089713796973228</v>
+        <v>-0.9485881924629211</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5194602608680725</v>
+        <v>-0.1235713362693787</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05643415823578835</v>
+        <v>0.4600385427474976</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.05984466895461082</v>
+        <v>-0.9655944108963013</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5217598080635071</v>
+        <v>-0.1436151564121246</v>
       </c>
       <c r="D122" t="n">
-        <v>0.05573214218020439</v>
+        <v>0.4439765214920044</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.06368914991617203</v>
+        <v>-0.911501944065094</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5074923038482666</v>
+        <v>-0.2688126564025879</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01944237016141415</v>
+        <v>0.2985973060131073</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0927036926150322</v>
+        <v>-0.9459811449050903</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5134700536727905</v>
+        <v>-0.2222900390625</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02945519797503948</v>
+        <v>0.3427742719650269</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.07663590461015701</v>
+        <v>-0.9249633550643921</v>
       </c>
       <c r="C125" t="n">
-        <v>0.494943380355835</v>
+        <v>-0.2690897583961487</v>
       </c>
       <c r="D125" t="n">
-        <v>0.03761393949389458</v>
+        <v>0.3003886342048645</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0477299652993679</v>
+        <v>-0.9144521355628967</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4918105602264404</v>
+        <v>-0.2696376144886017</v>
       </c>
       <c r="D126" t="n">
-        <v>0.05993599817156792</v>
+        <v>0.3124959766864777</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.03123917616903782</v>
+        <v>-0.8684348464012146</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4832914173603058</v>
+        <v>-0.3582787215709686</v>
       </c>
       <c r="D127" t="n">
-        <v>0.05993640050292015</v>
+        <v>0.2291839718818665</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.04111431166529655</v>
+        <v>-0.8606672883033752</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4817185401916504</v>
+        <v>-0.3975884914398193</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04124318435788155</v>
+        <v>0.1576179265975952</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.06187228485941887</v>
+        <v>-0.8767121434211731</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4857336580753326</v>
+        <v>-0.3903644979000092</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01910401694476604</v>
+        <v>0.1302017271518707</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.08411865681409836</v>
+        <v>-0.890245258808136</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4925415515899658</v>
+        <v>-0.377825528383255</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.01055911462754011</v>
+        <v>0.1134418547153473</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.06642933934926987</v>
+        <v>-0.8775265216827393</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5008807778358459</v>
+        <v>-0.3887646794319153</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03278425708413124</v>
+        <v>0.1672698259353638</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.01265902351588011</v>
+        <v>-0.9282053112983704</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4890646934509277</v>
+        <v>-0.2785983979701996</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06329705566167831</v>
+        <v>0.3325831294059753</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01890326477587223</v>
+        <v>-0.9757896065711975</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4834432005882263</v>
+        <v>-0.214456632733345</v>
       </c>
       <c r="D133" t="n">
-        <v>0.07722719013690948</v>
+        <v>0.4115698933601379</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08670371025800705</v>
+        <v>-0.9459744095802307</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5144798159599304</v>
+        <v>-0.3282512426376343</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02242766879498959</v>
+        <v>0.2181288003921509</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.05934667214751244</v>
+        <v>-0.9147322177886963</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4964600205421448</v>
+        <v>-0.3819887340068817</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02211140654981136</v>
+        <v>0.1310013979673386</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.07945003360509872</v>
+        <v>-0.9365052580833435</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5011438131332397</v>
+        <v>-0.3566048443317413</v>
       </c>
       <c r="D136" t="n">
-        <v>0.04368025436997414</v>
+        <v>0.1641445606946945</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.07415337115526199</v>
+        <v>-0.9271066784858704</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4971678555011749</v>
+        <v>-0.3634925484657288</v>
       </c>
       <c r="D137" t="n">
-        <v>0.04981293901801109</v>
+        <v>0.1590185165405273</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0761289969086647</v>
+        <v>-0.9739189743995667</v>
       </c>
       <c r="C138" t="n">
-        <v>0.480646163225174</v>
+        <v>-0.2655314207077026</v>
       </c>
       <c r="D138" t="n">
-        <v>0.05283723399043083</v>
+        <v>0.2976278066635132</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.07066995650529861</v>
+        <v>-0.9326193928718567</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4765839576721191</v>
+        <v>-0.3620849847793579</v>
       </c>
       <c r="D139" t="n">
-        <v>0.04621280357241631</v>
+        <v>0.1866158246994019</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.09404300898313522</v>
+        <v>-0.9369868040084839</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4839048683643341</v>
+        <v>-0.3764042854309082</v>
       </c>
       <c r="D140" t="n">
-        <v>0.04027193412184715</v>
+        <v>0.1150234192609787</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.09723515063524246</v>
+        <v>-0.9353330731391907</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4932105243206024</v>
+        <v>-0.389050155878067</v>
       </c>
       <c r="D141" t="n">
-        <v>0.04297147318720818</v>
+        <v>0.07777614891529083</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0789724662899971</v>
+        <v>-0.9223038554191589</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4895332455635071</v>
+        <v>-0.4036856293678284</v>
       </c>
       <c r="D142" t="n">
-        <v>0.02113459818065166</v>
+        <v>0.07218082249164581</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.07496470957994461</v>
+        <v>-0.9316263794898987</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4914286732673645</v>
+        <v>-0.3827348351478577</v>
       </c>
       <c r="D143" t="n">
-        <v>0.03913166746497154</v>
+        <v>0.15583536028862</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03084311820566654</v>
+        <v>-0.9537723660469055</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4787862300872803</v>
+        <v>-0.3364481627941132</v>
       </c>
       <c r="D144" t="n">
-        <v>0.04343104735016823</v>
+        <v>0.2530672252178192</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03492208942770958</v>
+        <v>-1.045775532722473</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4947782754898071</v>
+        <v>-0.3619504272937775</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01215250510722399</v>
+        <v>0.2390026897192001</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.09043014794588089</v>
+        <v>-1.132930517196655</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5053794384002686</v>
+        <v>-0.3743908107280731</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.07576331496238708</v>
+        <v>0.1732966601848602</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.04923703894019127</v>
+        <v>-1.137664318084717</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4789499044418335</v>
+        <v>-0.4029720425605774</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.03449564054608345</v>
+        <v>0.2121004909276962</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.04778086766600609</v>
+        <v>-1.104733228683472</v>
       </c>
       <c r="C148" t="n">
-        <v>0.482671856880188</v>
+        <v>-0.4093534052371979</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.01311712246388197</v>
+        <v>0.2109535187482834</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.02084303833544254</v>
+        <v>-1.077468991279602</v>
       </c>
       <c r="C149" t="n">
-        <v>0.459134429693222</v>
+        <v>-0.4242956638336182</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.001890855608507991</v>
+        <v>0.2213426232337952</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01694718934595585</v>
+        <v>-1.05913233757019</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4488455057144165</v>
+        <v>-0.4421166777610779</v>
       </c>
       <c r="D150" t="n">
-        <v>0.003051069797948003</v>
+        <v>0.2017683684825897</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03499509021639824</v>
+        <v>-1.072854042053223</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4381712973117828</v>
+        <v>-0.4423632323741913</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.01126142125576735</v>
+        <v>0.1869601905345917</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.05280181393027306</v>
+        <v>-1.057381749153137</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4449908137321472</v>
+        <v>-0.4569050669670105</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.02124647237360477</v>
+        <v>0.1346694976091385</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.07424608618021011</v>
+        <v>-1.055423498153687</v>
       </c>
       <c r="C153" t="n">
-        <v>0.459556519985199</v>
+        <v>-0.4655616581439972</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.02590052224695683</v>
+        <v>0.09763775765895844</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.08422494679689407</v>
+        <v>-1.064639449119568</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4684099853038788</v>
+        <v>-0.4693747162818909</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.02981000579893589</v>
+        <v>0.07318209111690521</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.06223521754145622</v>
+        <v>-1.038482546806335</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4661572575569153</v>
+        <v>-0.497712254524231</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.02190096117556095</v>
+        <v>0.05909022688865662</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02585110999643803</v>
+        <v>-1.003304719924927</v>
       </c>
       <c r="C156" t="n">
-        <v>0.440966784954071</v>
+        <v>-0.527624249458313</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.001537578878924251</v>
+        <v>0.07556328177452087</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.03468757495284081</v>
+        <v>-1.216614484786987</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4327691495418549</v>
+        <v>-0.179699644446373</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04907897859811783</v>
+        <v>0.4607934951782227</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04859308525919914</v>
+        <v>-1.783010601997375</v>
       </c>
       <c r="C158" t="n">
-        <v>0.479941725730896</v>
+        <v>-0.1467951685190201</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06509324908256531</v>
+        <v>0.9946409463882446</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.04002782329916954</v>
+        <v>-1.989010095596313</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4654738306999207</v>
+        <v>-0.2033243328332901</v>
       </c>
       <c r="D159" t="n">
-        <v>0.08092857897281647</v>
+        <v>1.074924468994141</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.04535634443163872</v>
+        <v>-2.044949054718018</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4902237355709076</v>
+        <v>-0.08716534078121185</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1039542034268379</v>
+        <v>1.195220947265625</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.04767630621790886</v>
+        <v>-2.086714029312134</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4677604138851166</v>
+        <v>-0.1331827193498611</v>
       </c>
       <c r="D161" t="n">
-        <v>0.08795326948165894</v>
+        <v>1.175058007240295</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.03411551937460899</v>
+        <v>-2.128726720809937</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4466856122016907</v>
+        <v>0.01264522597193718</v>
       </c>
       <c r="D162" t="n">
-        <v>0.09238535165786743</v>
+        <v>1.284298896789551</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.02277692593634129</v>
+        <v>-2.145000457763672</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4490771293640137</v>
+        <v>-0.01570408418774605</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1071461588144302</v>
+        <v>1.267814040184021</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.06567224115133286</v>
+        <v>-2.159506559371948</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4617459177970886</v>
+        <v>-0.2155966013669968</v>
       </c>
       <c r="D164" t="n">
-        <v>0.05823317915201187</v>
+        <v>1.17516016960144</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1037760898470879</v>
+        <v>-2.072633266448975</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4869058132171631</v>
+        <v>-0.3476926684379578</v>
       </c>
       <c r="D165" t="n">
-        <v>0.05825088545680046</v>
+        <v>1.047555685043335</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1208130642771721</v>
+        <v>-2.093919992446899</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4930635690689087</v>
+        <v>-0.3716325461864471</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03174956515431404</v>
+        <v>1.051247835159302</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.09819010645151138</v>
+        <v>-2.0260329246521</v>
       </c>
       <c r="C167" t="n">
-        <v>0.491426020860672</v>
+        <v>-0.2520362138748169</v>
       </c>
       <c r="D167" t="n">
-        <v>0.04889740794897079</v>
+        <v>1.070571303367615</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.02811908163130283</v>
+        <v>-1.931926250457764</v>
       </c>
       <c r="C168" t="n">
-        <v>0.458641529083252</v>
+        <v>-0.04472203925251961</v>
       </c>
       <c r="D168" t="n">
-        <v>0.07819062471389771</v>
+        <v>1.137194514274597</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.03310349211096764</v>
+        <v>-1.974544048309326</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4510616064071655</v>
+        <v>0.06120492145419121</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1109405159950256</v>
+        <v>1.238317966461182</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.06934807449579239</v>
+        <v>-1.748393893241882</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5112103223800659</v>
+        <v>-0.1955273598432541</v>
       </c>
       <c r="D170" t="n">
-        <v>0.04319911077618599</v>
+        <v>0.9013147950172424</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.01684598065912724</v>
+        <v>-1.67651104927063</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4770718216896057</v>
+        <v>-0.3076188564300537</v>
       </c>
       <c r="D171" t="n">
-        <v>0.05553947016596794</v>
+        <v>0.8052494525909424</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.03827404603362083</v>
+        <v>-1.634011030197144</v>
       </c>
       <c r="C172" t="n">
-        <v>0.505363404750824</v>
+        <v>-0.2901472151279449</v>
       </c>
       <c r="D172" t="n">
-        <v>0.06117121502757072</v>
+        <v>0.7881463170051575</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02987622655928135</v>
+        <v>-1.655237674713135</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4681540727615356</v>
+        <v>-0.3279651999473572</v>
       </c>
       <c r="D173" t="n">
-        <v>0.03730608895421028</v>
+        <v>0.7863034009933472</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0273860190063715</v>
+        <v>-1.699411392211914</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4766902923583984</v>
+        <v>-0.2700903117656708</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0738370269536972</v>
+        <v>0.853056013584137</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.008927489630877972</v>
+        <v>-1.576750516891479</v>
       </c>
       <c r="C175" t="n">
-        <v>0.4710490703582764</v>
+        <v>-0.441311776638031</v>
       </c>
       <c r="D175" t="n">
-        <v>0.07758936285972595</v>
+        <v>0.6926037073135376</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.02991662360727787</v>
+        <v>-1.452142000198364</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4981060326099396</v>
+        <v>-0.6064175963401794</v>
       </c>
       <c r="D176" t="n">
-        <v>0.08562127500772476</v>
+        <v>0.4267909228801727</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.06365820020437241</v>
+        <v>-1.511626482009888</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4779412150382996</v>
+        <v>-0.5830485820770264</v>
       </c>
       <c r="D177" t="n">
-        <v>0.04819243028759956</v>
+        <v>0.5198026895523071</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04918044432997704</v>
+        <v>-1.387740135192871</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4974387288093567</v>
+        <v>-0.6559417843818665</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05890174582600594</v>
+        <v>0.3610787391662598</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.05432030186057091</v>
+        <v>-1.480555295944214</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4917742013931274</v>
+        <v>-0.5088083148002625</v>
       </c>
       <c r="D179" t="n">
-        <v>0.05588272958993912</v>
+        <v>0.6223471164703369</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.04195926710963249</v>
+        <v>-1.52554976940155</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4923547506332397</v>
+        <v>-0.4505595266819</v>
       </c>
       <c r="D180" t="n">
-        <v>0.05125366151332855</v>
+        <v>0.6803866624832153</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.04480208083987236</v>
+        <v>-1.472860097885132</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4932087659835815</v>
+        <v>-0.4547649323940277</v>
       </c>
       <c r="D181" t="n">
-        <v>0.04340096935629845</v>
+        <v>0.6667351722717285</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.06167444214224815</v>
+        <v>-1.426987290382385</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4905430674552917</v>
+        <v>-0.516110897064209</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01770137809216976</v>
+        <v>0.50058913230896</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.03595177456736565</v>
+        <v>-1.408869028091431</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4586783945560455</v>
+        <v>-0.6161384582519531</v>
       </c>
       <c r="D183" t="n">
-        <v>0.05341579765081406</v>
+        <v>0.4360267519950867</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.04293731972575188</v>
+        <v>-1.370665788650513</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5040171146392822</v>
+        <v>-0.627099871635437</v>
       </c>
       <c r="D184" t="n">
-        <v>0.09039022028446198</v>
+        <v>0.4162567257881165</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.01552508305758238</v>
+        <v>-1.298129796981812</v>
       </c>
       <c r="C185" t="n">
-        <v>0.5106861591339111</v>
+        <v>-0.701832115650177</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1060392037034035</v>
+        <v>0.3500524163246155</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.002653201343491673</v>
+        <v>-1.283712267875671</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4892425835132599</v>
+        <v>-0.6624091267585754</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1075420826673508</v>
+        <v>0.4299933910369873</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.01222184766083956</v>
+        <v>-1.280064463615417</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4903252422809601</v>
+        <v>-0.7432682514190674</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1336352527141571</v>
+        <v>0.3538944721221924</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0112981153652072</v>
+        <v>-1.324272513389587</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5168889164924622</v>
+        <v>-0.7456855773925781</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1452802717685699</v>
+        <v>0.274627685546875</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.01810953952372074</v>
+        <v>-1.32249653339386</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5421461462974548</v>
+        <v>-0.7843401432037354</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1723552793264389</v>
+        <v>0.2081281840801239</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.06514788419008255</v>
+        <v>-1.437769055366516</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5062903165817261</v>
+        <v>-0.7535610198974609</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1000080853700638</v>
+        <v>0.1896760761737823</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.06410887092351913</v>
+        <v>-1.406718850135803</v>
       </c>
       <c r="C191" t="n">
-        <v>0.5269485116004944</v>
+        <v>-0.7686367034912109</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1133691295981407</v>
+        <v>0.1629841476678848</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.03992050513625145</v>
+        <v>-1.354354619979858</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5312856435775757</v>
+        <v>-0.8168173432350159</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1239550411701202</v>
+        <v>0.130364716053009</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02915051020681858</v>
+        <v>-1.327736377716064</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5322717428207397</v>
+        <v>-0.8527572751045227</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1434079855680466</v>
+        <v>0.08884122967720032</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.07833834737539291</v>
+        <v>-1.472908973693848</v>
       </c>
       <c r="C194" t="n">
-        <v>0.5645958781242371</v>
+        <v>-0.8741029500961304</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1470845341682434</v>
+        <v>0.02404321730136871</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.08907947689294815</v>
+        <v>-1.42647385597229</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5735172629356384</v>
+        <v>-0.9826175570487976</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1690962761640549</v>
+        <v>-0.3336100578308105</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1176051422953606</v>
+        <v>-1.559195637702942</v>
       </c>
       <c r="C196" t="n">
-        <v>0.5682749152183533</v>
+        <v>-0.9413796663284302</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1445495635271072</v>
+        <v>-0.009212672710418701</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1121580526232719</v>
+        <v>-1.570571184158325</v>
       </c>
       <c r="C197" t="n">
-        <v>0.5573832988739014</v>
+        <v>-0.9847158193588257</v>
       </c>
       <c r="D197" t="n">
-        <v>0.145088404417038</v>
+        <v>0.01143342256546021</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.08039660006761551</v>
+        <v>-1.55463171005249</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5478748679161072</v>
+        <v>-1.020283579826355</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1940188407897949</v>
+        <v>0.07759704440832138</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.09721920639276505</v>
+        <v>-1.580664873123169</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5402365326881409</v>
+        <v>-1.0717533826828</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1751274466514587</v>
+        <v>-0.01036232709884644</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1200941801071167</v>
+        <v>-1.628114581108093</v>
       </c>
       <c r="C200" t="n">
-        <v>0.5247315764427185</v>
+        <v>-1.04022204875946</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1522232592105865</v>
+        <v>0.04975420236587524</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1255909204483032</v>
+        <v>-1.599562406539917</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5302026867866516</v>
+        <v>-1.045326590538025</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1576342433691025</v>
+        <v>-0.02084358036518097</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1181089803576469</v>
+        <v>-1.45747172832489</v>
       </c>
       <c r="C202" t="n">
-        <v>0.5687877535820007</v>
+        <v>-1.056895017623901</v>
       </c>
       <c r="D202" t="n">
-        <v>0.16049924492836</v>
+        <v>-0.3491204977035522</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1153063252568245</v>
+        <v>-1.619886636734009</v>
       </c>
       <c r="C203" t="n">
-        <v>0.5185403823852539</v>
+        <v>-1.013879537582397</v>
       </c>
       <c r="D203" t="n">
-        <v>0.1490855365991592</v>
+        <v>0.06109900772571564</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.09677351266145706</v>
+        <v>-1.572377443313599</v>
       </c>
       <c r="C204" t="n">
-        <v>0.5314608216285706</v>
+        <v>-1.046919703483582</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1688519716262817</v>
+        <v>0.08788792788982391</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.08120123296976089</v>
+        <v>-1.561698794364929</v>
       </c>
       <c r="C205" t="n">
-        <v>0.5264891982078552</v>
+        <v>-1.06062650680542</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1710686683654785</v>
+        <v>0.1349416375160217</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.09519612044095993</v>
+        <v>-1.528532743453979</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5750849843025208</v>
+        <v>-1.043450236320496</v>
       </c>
       <c r="D206" t="n">
-        <v>0.1596798300743103</v>
+        <v>0.03207437694072723</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.07407758384943008</v>
+        <v>-1.570558309555054</v>
       </c>
       <c r="C207" t="n">
-        <v>0.5467684864997864</v>
+        <v>-1.046781301498413</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1614876389503479</v>
+        <v>0.1815023124217987</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.05202190205454826</v>
+        <v>-1.497663259506226</v>
       </c>
       <c r="C208" t="n">
-        <v>0.56419438123703</v>
+        <v>-0.9879473447799683</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1831919848918915</v>
+        <v>0.1816578358411789</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.04968183860182762</v>
+        <v>-1.516194820404053</v>
       </c>
       <c r="C209" t="n">
-        <v>0.540096640586853</v>
+        <v>-0.9674060940742493</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1687273681163788</v>
+        <v>0.1694856584072113</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.04401260241866112</v>
+        <v>-1.542701244354248</v>
       </c>
       <c r="C210" t="n">
-        <v>0.5118187069892883</v>
+        <v>-0.9819499254226685</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1664609313011169</v>
+        <v>0.1740263700485229</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.04329003021121025</v>
+        <v>-1.566232681274414</v>
       </c>
       <c r="C211" t="n">
-        <v>0.4996302127838135</v>
+        <v>-0.997011661529541</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1636298894882202</v>
+        <v>0.1901676654815674</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.04989076778292656</v>
+        <v>-1.556259989738464</v>
       </c>
       <c r="C212" t="n">
-        <v>0.5219241380691528</v>
+        <v>-0.9914773106575012</v>
       </c>
       <c r="D212" t="n">
-        <v>0.1740198731422424</v>
+        <v>0.199918270111084</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.07299285382032394</v>
+        <v>-1.586571931838989</v>
       </c>
       <c r="C213" t="n">
-        <v>0.522602379322052</v>
+        <v>-1.013491630554199</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1518801897764206</v>
+        <v>0.1788381934165955</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.08342515677213669</v>
+        <v>-1.51381778717041</v>
       </c>
       <c r="C214" t="n">
-        <v>0.5564828515052795</v>
+        <v>-1.015744805335999</v>
       </c>
       <c r="D214" t="n">
-        <v>0.1485923230648041</v>
+        <v>-0.0420476496219635</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.05590904876589775</v>
+        <v>-1.37722373008728</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6025626659393311</v>
+        <v>-1.00473427772522</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1912774592638016</v>
+        <v>-0.241787850856781</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.03543664142489433</v>
+        <v>-1.416969418525696</v>
       </c>
       <c r="C216" t="n">
-        <v>0.5751529335975647</v>
+        <v>-1.044036865234375</v>
       </c>
       <c r="D216" t="n">
-        <v>0.1761823892593384</v>
+        <v>-0.1564886271953583</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0333225391805172</v>
+        <v>-1.51719331741333</v>
       </c>
       <c r="C217" t="n">
-        <v>0.5435581207275391</v>
+        <v>-1.006954312324524</v>
       </c>
       <c r="D217" t="n">
-        <v>0.1909377574920654</v>
+        <v>0.1681042909622192</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.05985539779067039</v>
+        <v>-1.500737071037292</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5767938494682312</v>
+        <v>-1.088659524917603</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1611313670873642</v>
+        <v>-0.1436258256435394</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.04670336470007896</v>
+        <v>-1.508562445640564</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5813834071159363</v>
+        <v>-1.082996606826782</v>
       </c>
       <c r="D219" t="n">
-        <v>0.1772855371236801</v>
+        <v>-0.0868740975856781</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.07168596237897873</v>
+        <v>-1.521994829177856</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5955950617790222</v>
+        <v>-1.06550931930542</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1642946004867554</v>
+        <v>-0.09751236438751221</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.06659331172704697</v>
+        <v>-1.499152421951294</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5929178595542908</v>
+        <v>-1.144633650779724</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1719363033771515</v>
+        <v>-0.2699792385101318</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.04650771245360374</v>
+        <v>-1.507452726364136</v>
       </c>
       <c r="C222" t="n">
-        <v>0.5811273455619812</v>
+        <v>-1.156846642494202</v>
       </c>
       <c r="D222" t="n">
-        <v>0.1863132417201996</v>
+        <v>-0.1606444716453552</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.02681184746325016</v>
+        <v>-1.463950634002686</v>
       </c>
       <c r="C223" t="n">
-        <v>0.5850216150283813</v>
+        <v>-1.159436941146851</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2070493400096893</v>
+        <v>-0.1358067989349365</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.02470629848539829</v>
+        <v>-1.402525186538696</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6057191491127014</v>
+        <v>-1.146269202232361</v>
       </c>
       <c r="D224" t="n">
-        <v>0.2116202116012573</v>
+        <v>-0.3543353080749512</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.01855970360338688</v>
+        <v>-1.356374979019165</v>
       </c>
       <c r="C225" t="n">
-        <v>0.613591730594635</v>
+        <v>-1.120901942253113</v>
       </c>
       <c r="D225" t="n">
-        <v>0.2266171723604202</v>
+        <v>-0.3857125639915466</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.04146098718047142</v>
+        <v>-1.493156671524048</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5840017199516296</v>
+        <v>-1.159587264060974</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1726149767637253</v>
+        <v>-0.1950477957725525</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.05777203664183617</v>
+        <v>-1.662839651107788</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5614715218544006</v>
+        <v>-1.034683465957642</v>
       </c>
       <c r="D227" t="n">
-        <v>0.1483132094144821</v>
+        <v>0.3113904595375061</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.02156695164740086</v>
+        <v>-1.754946231842041</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5253207087516785</v>
+        <v>-0.9440653920173645</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1593082249164581</v>
+        <v>0.5743111371994019</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.003295083763077855</v>
+        <v>-1.815625071525574</v>
       </c>
       <c r="C229" t="n">
-        <v>0.493564248085022</v>
+        <v>-0.8152647614479065</v>
       </c>
       <c r="D229" t="n">
-        <v>0.1820753365755081</v>
+        <v>0.7976044416427612</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.06218564137816429</v>
+        <v>-1.802355647087097</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5628653168678284</v>
+        <v>-0.9702258110046387</v>
       </c>
       <c r="D230" t="n">
-        <v>0.1318396180868149</v>
+        <v>0.5331711769104004</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.02675569988787174</v>
+        <v>-1.771081447601318</v>
       </c>
       <c r="C231" t="n">
-        <v>0.562265932559967</v>
+        <v>-1.082276701927185</v>
       </c>
       <c r="D231" t="n">
-        <v>0.1655263900756836</v>
+        <v>0.38518226146698</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.07155667990446091</v>
+        <v>-1.878070592880249</v>
       </c>
       <c r="C232" t="n">
-        <v>0.5657532811164856</v>
+        <v>-0.9818108677864075</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1477565765380859</v>
+        <v>0.6346713304519653</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.0591297410428524</v>
+        <v>-1.856719970703125</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5522214770317078</v>
+        <v>-1.017596364021301</v>
       </c>
       <c r="D233" t="n">
-        <v>0.1460574269294739</v>
+        <v>0.5360806584358215</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.04448750242590904</v>
+        <v>-1.871326327323914</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5606310367584229</v>
+        <v>-1.011011242866516</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1674052029848099</v>
+        <v>0.5889183282852173</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.02000183798372746</v>
+        <v>-1.851065635681152</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5538086295127869</v>
+        <v>-1.045450329780579</v>
       </c>
       <c r="D235" t="n">
-        <v>0.1800695359706879</v>
+        <v>0.547533392906189</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.05833331868052483</v>
+        <v>-1.84859299659729</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5502270460128784</v>
+        <v>-1.093679308891296</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1531746834516525</v>
+        <v>0.5196549296379089</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.06475945562124252</v>
+        <v>-1.874082803726196</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5556418895721436</v>
+        <v>-1.123941898345947</v>
       </c>
       <c r="D237" t="n">
-        <v>0.1657329648733139</v>
+        <v>0.564017653465271</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.08760008215904236</v>
+        <v>-1.971215605735779</v>
       </c>
       <c r="C238" t="n">
-        <v>0.5322334170341492</v>
+        <v>-1.130048513412476</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1318282186985016</v>
+        <v>0.5585366487503052</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1006981655955315</v>
+        <v>-1.939403533935547</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5552929043769836</v>
+        <v>-1.08655846118927</v>
       </c>
       <c r="D239" t="n">
-        <v>0.1264099478721619</v>
+        <v>0.582122802734375</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.07147068530321121</v>
+        <v>-1.99914026260376</v>
       </c>
       <c r="C240" t="n">
-        <v>0.5461359024047852</v>
+        <v>-1.038505554199219</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1529126614332199</v>
+        <v>0.7131080627441406</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.06173023208975792</v>
+        <v>-2.080153226852417</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5367703437805176</v>
+        <v>-0.9648888111114502</v>
       </c>
       <c r="D241" t="n">
-        <v>0.1551854908466339</v>
+        <v>0.8828690648078918</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.0893559530377388</v>
+        <v>-2.033726215362549</v>
       </c>
       <c r="C242" t="n">
-        <v>0.5722799301147461</v>
+        <v>-1.142843961715698</v>
       </c>
       <c r="D242" t="n">
-        <v>0.1571612954139709</v>
+        <v>0.686201810836792</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.05218451842665672</v>
+        <v>-2.004902362823486</v>
       </c>
       <c r="C243" t="n">
-        <v>0.5610988140106201</v>
+        <v>-1.136409163475037</v>
       </c>
       <c r="D243" t="n">
-        <v>0.1818290650844574</v>
+        <v>0.6001856327056885</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.08855193108320236</v>
+        <v>-2.093258142471313</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5419833064079285</v>
+        <v>-1.012253403663635</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1448229253292084</v>
+        <v>0.8124297857284546</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.07973605394363403</v>
+        <v>-2.107842922210693</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5410950779914856</v>
+        <v>-1.092243790626526</v>
       </c>
       <c r="D245" t="n">
-        <v>0.1470872759819031</v>
+        <v>0.8030040860176086</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.0696796253323555</v>
+        <v>-2.125185489654541</v>
       </c>
       <c r="C246" t="n">
-        <v>0.524770975112915</v>
+        <v>-0.9565997123718262</v>
       </c>
       <c r="D246" t="n">
-        <v>0.1515035033226013</v>
+        <v>0.9477384090423584</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.04785613343119621</v>
+        <v>-2.047141075134277</v>
       </c>
       <c r="C247" t="n">
-        <v>0.513500452041626</v>
+        <v>-1.030030369758606</v>
       </c>
       <c r="D247" t="n">
-        <v>0.1745762228965759</v>
+        <v>0.8583180904388428</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.05607527121901512</v>
+        <v>-2.012389659881592</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5237086415290833</v>
+        <v>-1.123159885406494</v>
       </c>
       <c r="D248" t="n">
-        <v>0.167576864361763</v>
+        <v>0.7564324140548706</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.064732626080513</v>
+        <v>-2.025671482086182</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5056765675544739</v>
+        <v>-1.025158047676086</v>
       </c>
       <c r="D249" t="n">
-        <v>0.1571418792009354</v>
+        <v>0.8248000144958496</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.04495296254754066</v>
+        <v>-1.912344217300415</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5300405621528625</v>
+        <v>-1.112402439117432</v>
       </c>
       <c r="D250" t="n">
-        <v>0.1795654147863388</v>
+        <v>0.6665048599243164</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.0534052737057209</v>
+        <v>-1.973646640777588</v>
       </c>
       <c r="C251" t="n">
-        <v>0.5097950100898743</v>
+        <v>-0.9897987842559814</v>
       </c>
       <c r="D251" t="n">
-        <v>0.1458284258842468</v>
+        <v>0.8179478645324707</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.05671875551342964</v>
+        <v>-2.030355930328369</v>
       </c>
       <c r="C252" t="n">
-        <v>0.5030045509338379</v>
+        <v>-0.9238721132278442</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1647501587867737</v>
+        <v>0.9599629640579224</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.04399017617106438</v>
+        <v>-2.067649602890015</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4928783476352692</v>
+        <v>-0.9263141751289368</v>
       </c>
       <c r="D253" t="n">
-        <v>0.2071704417467117</v>
+        <v>1.028985381126404</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.06774013489484787</v>
+        <v>-2.054369926452637</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5241968631744385</v>
+        <v>-0.9100632667541504</v>
       </c>
       <c r="D254" t="n">
-        <v>0.1671148240566254</v>
+        <v>0.9102991223335266</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.03301100060343742</v>
+        <v>-2.115147113800049</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5580375790596008</v>
+        <v>-1.074553489685059</v>
       </c>
       <c r="D255" t="n">
-        <v>0.1711481809616089</v>
+        <v>0.7308281660079956</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.07012256234884262</v>
+        <v>-2.321772336959839</v>
       </c>
       <c r="C256" t="n">
-        <v>0.575146496295929</v>
+        <v>-1.142915844917297</v>
       </c>
       <c r="D256" t="n">
-        <v>0.1686068922281265</v>
+        <v>0.8315295577049255</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.04427240416407585</v>
+        <v>-2.286800861358643</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5685271024703979</v>
+        <v>-1.156206846237183</v>
       </c>
       <c r="D257" t="n">
-        <v>0.183375209569931</v>
+        <v>0.8113964200019836</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.03157089278101921</v>
+        <v>-2.348663806915283</v>
       </c>
       <c r="C258" t="n">
-        <v>0.5580944418907166</v>
+        <v>-1.10271167755127</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1939758509397507</v>
+        <v>0.9310041069984436</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.02707273699343204</v>
+        <v>-2.331547021865845</v>
       </c>
       <c r="C259" t="n">
-        <v>0.563625156879425</v>
+        <v>-1.240946769714355</v>
       </c>
       <c r="D259" t="n">
-        <v>0.2000229805707932</v>
+        <v>0.8761763572692871</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.03284130617976189</v>
+        <v>-2.297134399414062</v>
       </c>
       <c r="C260" t="n">
-        <v>0.5863090753555298</v>
+        <v>-1.259121060371399</v>
       </c>
       <c r="D260" t="n">
-        <v>0.2085931748151779</v>
+        <v>0.8295646905899048</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0499182902276516</v>
+        <v>-2.387508153915405</v>
       </c>
       <c r="C261" t="n">
-        <v>0.5820542573928833</v>
+        <v>-1.185464382171631</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1951229423284531</v>
+        <v>0.9218668937683105</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.05150509998202324</v>
+        <v>-2.24205756187439</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6112846732139587</v>
+        <v>-1.275739669799805</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1975497305393219</v>
+        <v>0.5445516705513</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.07605063170194626</v>
+        <v>-2.412123203277588</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6176623702049255</v>
+        <v>-1.302481293678284</v>
       </c>
       <c r="D263" t="n">
-        <v>0.1860941052436829</v>
+        <v>0.9833629727363586</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.04332507774233818</v>
+        <v>-2.426757097244263</v>
       </c>
       <c r="C264" t="n">
-        <v>0.5849738717079163</v>
+        <v>-1.259621143341064</v>
       </c>
       <c r="D264" t="n">
-        <v>0.1828243732452393</v>
+        <v>1.058686017990112</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.01228674780577421</v>
+        <v>-2.403349637985229</v>
       </c>
       <c r="C265" t="n">
-        <v>0.6016472578048706</v>
+        <v>-1.346914052963257</v>
       </c>
       <c r="D265" t="n">
-        <v>0.2205111384391785</v>
+        <v>1.089393615722656</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.07570710033178329</v>
+        <v>-2.323061943054199</v>
       </c>
       <c r="C266" t="n">
-        <v>0.5995979905128479</v>
+        <v>-1.382651925086975</v>
       </c>
       <c r="D266" t="n">
-        <v>0.1597208976745605</v>
+        <v>0.880541980266571</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.07280082255601883</v>
+        <v>-2.271362066268921</v>
       </c>
       <c r="C267" t="n">
-        <v>0.6039579510688782</v>
+        <v>-1.508450746536255</v>
       </c>
       <c r="D267" t="n">
-        <v>0.1666779220104218</v>
+        <v>0.7498765587806702</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1161431446671486</v>
+        <v>-2.290128231048584</v>
       </c>
       <c r="C268" t="n">
-        <v>0.6116140484809875</v>
+        <v>-1.470177412033081</v>
       </c>
       <c r="D268" t="n">
-        <v>0.1327103674411774</v>
+        <v>0.7718908190727234</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.05755968019366264</v>
+        <v>-2.237274169921875</v>
       </c>
       <c r="C269" t="n">
-        <v>0.6100221872329712</v>
+        <v>-1.582477807998657</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1810227334499359</v>
+        <v>0.7454168200492859</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.05759113654494286</v>
+        <v>-2.229074478149414</v>
       </c>
       <c r="C270" t="n">
-        <v>0.6274988055229187</v>
+        <v>-1.685420274734497</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1863466799259186</v>
+        <v>0.7612119913101196</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.04948769137263298</v>
+        <v>-2.200809955596924</v>
       </c>
       <c r="C271" t="n">
-        <v>0.6243988275527954</v>
+        <v>-1.832834005355835</v>
       </c>
       <c r="D271" t="n">
-        <v>0.2038774639368057</v>
+        <v>0.7114998698234558</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.02657301165163517</v>
+        <v>-2.224825859069824</v>
       </c>
       <c r="C272" t="n">
-        <v>0.6175658702850342</v>
+        <v>-1.830488324165344</v>
       </c>
       <c r="D272" t="n">
-        <v>0.2037887275218964</v>
+        <v>0.7003756165504456</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.03822539374232292</v>
+        <v>-2.326571226119995</v>
       </c>
       <c r="C273" t="n">
-        <v>0.6126421689987183</v>
+        <v>-1.838570952415466</v>
       </c>
       <c r="D273" t="n">
-        <v>0.1844778656959534</v>
+        <v>0.7191014885902405</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.05853759869933128</v>
+        <v>-2.184341192245483</v>
       </c>
       <c r="C274" t="n">
-        <v>0.5895879864692688</v>
+        <v>-1.655518293380737</v>
       </c>
       <c r="D274" t="n">
-        <v>0.1547465771436691</v>
+        <v>0.3813179433345795</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1029689088463783</v>
+        <v>-1.921237230300903</v>
       </c>
       <c r="C275" t="n">
-        <v>0.5864652395248413</v>
+        <v>-1.495146751403809</v>
       </c>
       <c r="D275" t="n">
-        <v>0.1015583947300911</v>
+        <v>0.01535752415657043</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.08711551874876022</v>
+        <v>-1.852103233337402</v>
       </c>
       <c r="C276" t="n">
-        <v>0.5772795677185059</v>
+        <v>-1.425674200057983</v>
       </c>
       <c r="D276" t="n">
-        <v>0.1139552444219589</v>
+        <v>-0.1516117453575134</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.06674685329198837</v>
+        <v>-1.975675940513611</v>
       </c>
       <c r="C277" t="n">
-        <v>0.5709367394447327</v>
+        <v>-1.322754263877869</v>
       </c>
       <c r="D277" t="n">
-        <v>0.157844752073288</v>
+        <v>0.08788959681987762</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.08580786734819412</v>
+        <v>-1.913102865219116</v>
       </c>
       <c r="C278" t="n">
-        <v>0.5804732441902161</v>
+        <v>-1.313107132911682</v>
       </c>
       <c r="D278" t="n">
-        <v>0.1329632997512817</v>
+        <v>-0.1226431131362915</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.09767293930053711</v>
+        <v>-1.768544554710388</v>
       </c>
       <c r="C279" t="n">
-        <v>0.563771665096283</v>
+        <v>-1.482410192489624</v>
       </c>
       <c r="D279" t="n">
-        <v>0.1359417587518692</v>
+        <v>-0.1815974414348602</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.1075286045670509</v>
+        <v>-1.755783200263977</v>
       </c>
       <c r="C280" t="n">
-        <v>0.5936228036880493</v>
+        <v>-1.448899269104004</v>
       </c>
       <c r="D280" t="n">
-        <v>0.1278089582920074</v>
+        <v>-0.1845093667507172</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0.08547090739011765</v>
+        <v>-1.804781556129456</v>
       </c>
       <c r="C281" t="n">
-        <v>0.5890929102897644</v>
+        <v>-1.501875519752502</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1540722846984863</v>
+        <v>-0.2261533141136169</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.09419489651918411</v>
+        <v>-1.989008188247681</v>
       </c>
       <c r="C282" t="n">
-        <v>0.5913143754005432</v>
+        <v>-1.541212797164917</v>
       </c>
       <c r="D282" t="n">
-        <v>0.1501555293798447</v>
+        <v>0.05407872796058655</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.09819851815700531</v>
+        <v>-2.00315260887146</v>
       </c>
       <c r="C283" t="n">
-        <v>0.5702670812606812</v>
+        <v>-1.550747632980347</v>
       </c>
       <c r="D283" t="n">
-        <v>0.1493416726589203</v>
+        <v>0.09019288420677185</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.08104688674211502</v>
+        <v>-1.920434236526489</v>
       </c>
       <c r="C284" t="n">
-        <v>0.5966463685035706</v>
+        <v>-1.57147479057312</v>
       </c>
       <c r="D284" t="n">
-        <v>0.1786090135574341</v>
+        <v>-0.06976157426834106</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.07700522989034653</v>
+        <v>-1.921657562255859</v>
       </c>
       <c r="C285" t="n">
-        <v>0.5960357785224915</v>
+        <v>-1.613569617271423</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1791287958621979</v>
+        <v>-0.08891847729682922</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.08402081578969955</v>
+        <v>-1.917552828788757</v>
       </c>
       <c r="C286" t="n">
-        <v>0.5963826775550842</v>
+        <v>-1.634633779525757</v>
       </c>
       <c r="D286" t="n">
-        <v>0.1762779653072357</v>
+        <v>-0.1097840368747711</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.09942682832479477</v>
+        <v>-2.022311687469482</v>
       </c>
       <c r="C287" t="n">
-        <v>0.6058254837989807</v>
+        <v>-1.666454315185547</v>
       </c>
       <c r="D287" t="n">
-        <v>0.1610408425331116</v>
+        <v>-0.004235103726387024</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.09775837510824203</v>
+        <v>-2.060508012771606</v>
       </c>
       <c r="C288" t="n">
-        <v>0.5928246378898621</v>
+        <v>-1.640357851982117</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1585091948509216</v>
+        <v>0.1662351191043854</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.05430547520518303</v>
+        <v>-2.026836633682251</v>
       </c>
       <c r="C289" t="n">
-        <v>0.6040422320365906</v>
+        <v>-1.577241659164429</v>
       </c>
       <c r="D289" t="n">
-        <v>0.2047273367643356</v>
+        <v>0.2836095690727234</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.0652635470032692</v>
+        <v>-1.961551189422607</v>
       </c>
       <c r="C290" t="n">
-        <v>0.6121284365653992</v>
+        <v>-1.629140257835388</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1667775809764862</v>
+        <v>-0.08512741327285767</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.05522811040282249</v>
+        <v>-1.945907115936279</v>
       </c>
       <c r="C291" t="n">
-        <v>0.6047195792198181</v>
+        <v>-1.766560316085815</v>
       </c>
       <c r="D291" t="n">
-        <v>0.1886892914772034</v>
+        <v>-0.177513599395752</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.0862257108092308</v>
+        <v>-2.110547065734863</v>
       </c>
       <c r="C292" t="n">
-        <v>0.6237010955810547</v>
+        <v>-1.739184617996216</v>
       </c>
       <c r="D292" t="n">
-        <v>0.1675496101379395</v>
+        <v>0.05068202316761017</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.06920268386602402</v>
+        <v>-2.072473287582397</v>
       </c>
       <c r="C293" t="n">
-        <v>0.6194636225700378</v>
+        <v>-1.770048975944519</v>
       </c>
       <c r="D293" t="n">
-        <v>0.1861701011657715</v>
+        <v>0.01874789595603943</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0.08217630535364151</v>
+        <v>-2.169084548950195</v>
       </c>
       <c r="C294" t="n">
-        <v>0.6036543250083923</v>
+        <v>-1.704886794090271</v>
       </c>
       <c r="D294" t="n">
-        <v>0.1548011600971222</v>
+        <v>0.06887529790401459</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.08545710891485214</v>
+        <v>-2.111682415008545</v>
       </c>
       <c r="C295" t="n">
-        <v>0.6041192412376404</v>
+        <v>-1.697949290275574</v>
       </c>
       <c r="D295" t="n">
-        <v>0.1535335332155228</v>
+        <v>0.04020228981971741</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.08694339543581009</v>
+        <v>-2.05882453918457</v>
       </c>
       <c r="C296" t="n">
-        <v>0.6181020140647888</v>
+        <v>-1.743006348609924</v>
       </c>
       <c r="D296" t="n">
-        <v>0.1669215857982635</v>
+        <v>-0.08377298712730408</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.05854440852999687</v>
+        <v>-2.034067630767822</v>
       </c>
       <c r="C297" t="n">
-        <v>0.6121082305908203</v>
+        <v>-1.707350134849548</v>
       </c>
       <c r="D297" t="n">
-        <v>0.1903089135885239</v>
+        <v>-0.1783063411712646</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.06493870168924332</v>
+        <v>-1.840668439865112</v>
       </c>
       <c r="C298" t="n">
-        <v>0.6470951437950134</v>
+        <v>-1.897819638252258</v>
       </c>
       <c r="D298" t="n">
-        <v>0.2191579341888428</v>
+        <v>-0.696649432182312</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.106404684484005</v>
+        <v>-2.091540336608887</v>
       </c>
       <c r="C299" t="n">
-        <v>0.6580403447151184</v>
+        <v>-1.777849912643433</v>
       </c>
       <c r="D299" t="n">
-        <v>0.1577554494142532</v>
+        <v>-0.07327297329902649</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1106539592146873</v>
+        <v>-2.27278995513916</v>
       </c>
       <c r="C300" t="n">
-        <v>0.6363232135772705</v>
+        <v>-1.715304136276245</v>
       </c>
       <c r="D300" t="n">
-        <v>0.1517713069915771</v>
+        <v>0.2309800982475281</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.06222416087985039</v>
+        <v>-2.220468997955322</v>
       </c>
       <c r="C301" t="n">
-        <v>0.6698856949806213</v>
+        <v>-1.734437823295593</v>
       </c>
       <c r="D301" t="n">
-        <v>0.2177817523479462</v>
+        <v>0.3290964066982269</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1083169355988503</v>
+        <v>-2.100761651992798</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6786033511161804</v>
+        <v>-1.838624835014343</v>
       </c>
       <c r="D302" t="n">
-        <v>0.1613117158412933</v>
+        <v>-0.1603814661502838</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.07659048587083817</v>
+        <v>-2.042016744613647</v>
       </c>
       <c r="C303" t="n">
-        <v>0.6608065366744995</v>
+        <v>-1.949486017227173</v>
       </c>
       <c r="D303" t="n">
-        <v>0.1924126297235489</v>
+        <v>-0.2073139250278473</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1091897264122963</v>
+        <v>-2.221237182617188</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6847172379493713</v>
+        <v>-1.91079306602478</v>
       </c>
       <c r="D304" t="n">
-        <v>0.1664321422576904</v>
+        <v>0.1914525330066681</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.1008419916033745</v>
+        <v>-2.313562870025635</v>
       </c>
       <c r="C305" t="n">
-        <v>0.6760296225547791</v>
+        <v>-1.936498880386353</v>
       </c>
       <c r="D305" t="n">
-        <v>0.1717993319034576</v>
+        <v>0.3162989616394043</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.08465545624494553</v>
+        <v>-2.311951637268066</v>
       </c>
       <c r="C306" t="n">
-        <v>0.6580337882041931</v>
+        <v>-1.84761917591095</v>
       </c>
       <c r="D306" t="n">
-        <v>0.1676935851573944</v>
+        <v>0.3465574979782104</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.04896415397524834</v>
+        <v>-2.202881813049316</v>
       </c>
       <c r="C307" t="n">
-        <v>0.6423764824867249</v>
+        <v>-1.848558783531189</v>
       </c>
       <c r="D307" t="n">
-        <v>0.1982850134372711</v>
+        <v>0.1742531955242157</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.04706012830138206</v>
+        <v>-2.092704057693481</v>
       </c>
       <c r="C308" t="n">
-        <v>0.6471925377845764</v>
+        <v>-1.913205146789551</v>
       </c>
       <c r="D308" t="n">
-        <v>0.2057425379753113</v>
+        <v>-0.09093758463859558</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.03244603797793388</v>
+        <v>-2.051288604736328</v>
       </c>
       <c r="C309" t="n">
-        <v>0.6488270163536072</v>
+        <v>-1.89665949344635</v>
       </c>
       <c r="D309" t="n">
-        <v>0.2207696437835693</v>
+        <v>-0.1718040406703949</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.07816361635923386</v>
+        <v>-2.150289297103882</v>
       </c>
       <c r="C310" t="n">
-        <v>0.6378061175346375</v>
+        <v>-1.901829957962036</v>
       </c>
       <c r="D310" t="n">
-        <v>0.1820016950368881</v>
+        <v>-0.2111164033412933</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.1129467114806175</v>
+        <v>-2.310184001922607</v>
       </c>
       <c r="C311" t="n">
-        <v>0.6537914872169495</v>
+        <v>-1.889206290245056</v>
       </c>
       <c r="D311" t="n">
-        <v>0.1420288532972336</v>
+        <v>0.1173525154590607</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.07331959158182144</v>
+        <v>-2.25904369354248</v>
       </c>
       <c r="C312" t="n">
-        <v>0.6560391783714294</v>
+        <v>-1.871431350708008</v>
       </c>
       <c r="D312" t="n">
-        <v>0.1817700862884521</v>
+        <v>0.2785694003105164</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.05093769356608391</v>
+        <v>-2.237567901611328</v>
       </c>
       <c r="C313" t="n">
-        <v>0.6568384766578674</v>
+        <v>-1.812850952148438</v>
       </c>
       <c r="D313" t="n">
-        <v>0.2050566226243973</v>
+        <v>0.3471132218837738</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.1184377893805504</v>
+        <v>-2.306745529174805</v>
       </c>
       <c r="C314" t="n">
-        <v>0.6860364675521851</v>
+        <v>-1.919862985610962</v>
       </c>
       <c r="D314" t="n">
-        <v>0.1461800187826157</v>
+        <v>-0.03277009725570679</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1830265820026398</v>
+        <v>-2.398491382598877</v>
       </c>
       <c r="C315" t="n">
-        <v>0.7110945582389832</v>
+        <v>-2.057455778121948</v>
       </c>
       <c r="D315" t="n">
-        <v>0.1217673718929291</v>
+        <v>-0.01026433706283569</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>0.1427219659090042</v>
+        <v>-2.414394378662109</v>
       </c>
       <c r="C316" t="n">
-        <v>0.6946638226509094</v>
+        <v>-2.008543014526367</v>
       </c>
       <c r="D316" t="n">
-        <v>0.1443068832159042</v>
+        <v>0.0191202312707901</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.1244780644774437</v>
+        <v>-2.442245006561279</v>
       </c>
       <c r="C317" t="n">
-        <v>0.6801850199699402</v>
+        <v>-2.042616367340088</v>
       </c>
       <c r="D317" t="n">
-        <v>0.1512228548526764</v>
+        <v>0.05218672752380371</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.1020442917943001</v>
+        <v>-2.409902572631836</v>
       </c>
       <c r="C318" t="n">
-        <v>0.6537157893180847</v>
+        <v>-1.923212766647339</v>
       </c>
       <c r="D318" t="n">
-        <v>0.1592282354831696</v>
+        <v>0.01177422702312469</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.08802586048841476</v>
+        <v>-2.408373355865479</v>
       </c>
       <c r="C319" t="n">
-        <v>0.6423346400260925</v>
+        <v>-1.922966003417969</v>
       </c>
       <c r="D319" t="n">
-        <v>0.1640023440122604</v>
+        <v>-0.05520144104957581</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.1098943278193474</v>
+        <v>-2.446556091308594</v>
       </c>
       <c r="C320" t="n">
-        <v>0.6559271812438965</v>
+        <v>-1.992838621139526</v>
       </c>
       <c r="D320" t="n">
-        <v>0.1647849082946777</v>
+        <v>-0.1250243186950684</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.1219692900776863</v>
+        <v>-2.412835597991943</v>
       </c>
       <c r="C321" t="n">
-        <v>0.6700153946876526</v>
+        <v>-2.046182632446289</v>
       </c>
       <c r="D321" t="n">
-        <v>0.1713430732488632</v>
+        <v>-0.1689418852329254</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.09321432560682297</v>
+        <v>-2.173102140426636</v>
       </c>
       <c r="C322" t="n">
-        <v>0.6716682314872742</v>
+        <v>-2.120618104934692</v>
       </c>
       <c r="D322" t="n">
-        <v>0.1998280733823776</v>
+        <v>-0.6064908504486084</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.1405898928642273</v>
+        <v>-2.541050910949707</v>
       </c>
       <c r="C323" t="n">
-        <v>0.6630708575248718</v>
+        <v>-1.982301831245422</v>
       </c>
       <c r="D323" t="n">
-        <v>0.1376783102750778</v>
+        <v>0.02808363735675812</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.1282975673675537</v>
+        <v>-2.643587350845337</v>
       </c>
       <c r="C324" t="n">
-        <v>0.6526781916618347</v>
+        <v>-1.988691449165344</v>
       </c>
       <c r="D324" t="n">
-        <v>0.1513074785470963</v>
+        <v>0.1617847383022308</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1014231219887733</v>
+        <v>-2.725366115570068</v>
       </c>
       <c r="C325" t="n">
-        <v>0.6557000279426575</v>
+        <v>-1.992207527160645</v>
       </c>
       <c r="D325" t="n">
-        <v>0.1844258904457092</v>
+        <v>0.2900927364826202</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.1390589475631714</v>
+        <v>-2.480508804321289</v>
       </c>
       <c r="C326" t="n">
-        <v>0.6777045130729675</v>
+        <v>-2.058907270431519</v>
       </c>
       <c r="D326" t="n">
-        <v>0.1553221791982651</v>
+        <v>-0.03677074611186981</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.1224196776747704</v>
+        <v>-2.469169139862061</v>
       </c>
       <c r="C327" t="n">
-        <v>0.6546016335487366</v>
+        <v>-2.13544774055481</v>
       </c>
       <c r="D327" t="n">
-        <v>0.1689172387123108</v>
+        <v>-0.1358280777931213</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1929476112127304</v>
+        <v>-2.615635395050049</v>
       </c>
       <c r="C328" t="n">
-        <v>0.6769756674766541</v>
+        <v>-2.17894983291626</v>
       </c>
       <c r="D328" t="n">
-        <v>0.1203993260860443</v>
+        <v>0.0005656331777572632</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.1355698257684708</v>
+        <v>-2.488900184631348</v>
       </c>
       <c r="C329" t="n">
-        <v>0.6637890934944153</v>
+        <v>-2.150877952575684</v>
       </c>
       <c r="D329" t="n">
-        <v>0.1624873429536819</v>
+        <v>-0.1721897423267365</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.1310832351446152</v>
+        <v>-2.604295253753662</v>
       </c>
       <c r="C330" t="n">
-        <v>0.6530197858810425</v>
+        <v>-2.055191040039062</v>
       </c>
       <c r="D330" t="n">
-        <v>0.1662698984146118</v>
+        <v>0.1579798758029938</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.1178165823221207</v>
+        <v>-2.534205436706543</v>
       </c>
       <c r="C331" t="n">
-        <v>0.6479759812355042</v>
+        <v>-2.142470121383667</v>
       </c>
       <c r="D331" t="n">
-        <v>0.1757529228925705</v>
+        <v>0.03808054327964783</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1064574345946312</v>
+        <v>-2.381178855895996</v>
       </c>
       <c r="C332" t="n">
-        <v>0.674315869808197</v>
+        <v>-2.164904832839966</v>
       </c>
       <c r="D332" t="n">
-        <v>0.2029077559709549</v>
+        <v>-0.0172380805015564</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.1058016791939735</v>
+        <v>-2.321264743804932</v>
       </c>
       <c r="C333" t="n">
-        <v>0.6791492104530334</v>
+        <v>-2.239456653594971</v>
       </c>
       <c r="D333" t="n">
-        <v>0.2094079852104187</v>
+        <v>-0.260874330997467</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.1521867662668228</v>
+        <v>-2.469164848327637</v>
       </c>
       <c r="C334" t="n">
-        <v>0.670023500919342</v>
+        <v>-2.265910387039185</v>
       </c>
       <c r="D334" t="n">
-        <v>0.1685382127761841</v>
+        <v>-0.2004934251308441</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.1699458211660385</v>
+        <v>-2.665410041809082</v>
       </c>
       <c r="C335" t="n">
-        <v>0.6596794128417969</v>
+        <v>-2.13751482963562</v>
       </c>
       <c r="D335" t="n">
-        <v>0.1458127647638321</v>
+        <v>0.1279686689376831</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.1555047184228897</v>
+        <v>-2.683248519897461</v>
       </c>
       <c r="C336" t="n">
-        <v>0.6555803418159485</v>
+        <v>-2.137476444244385</v>
       </c>
       <c r="D336" t="n">
-        <v>0.1566435098648071</v>
+        <v>0.1525044441223145</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0.121184840798378</v>
+        <v>-2.733581781387329</v>
       </c>
       <c r="C337" t="n">
-        <v>0.6604018211364746</v>
+        <v>-2.092743635177612</v>
       </c>
       <c r="D337" t="n">
-        <v>0.1906043738126755</v>
+        <v>0.3346055448055267</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.1499715596437454</v>
+        <v>-2.597923040390015</v>
       </c>
       <c r="C338" t="n">
-        <v>0.6752061247825623</v>
+        <v>-2.169441223144531</v>
       </c>
       <c r="D338" t="n">
-        <v>0.1530851870775223</v>
+        <v>-0.08003765344619751</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.1634632796049118</v>
+        <v>-2.592773914337158</v>
       </c>
       <c r="C339" t="n">
-        <v>0.6826657652854919</v>
+        <v>-2.282297372817993</v>
       </c>
       <c r="D339" t="n">
-        <v>0.1624961495399475</v>
+        <v>-0.1368257999420166</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1887864917516708</v>
+        <v>-2.60211181640625</v>
       </c>
       <c r="C340" t="n">
-        <v>0.6933445930480957</v>
+        <v>-2.278398990631104</v>
       </c>
       <c r="D340" t="n">
-        <v>0.1410187780857086</v>
+        <v>-0.1236923933029175</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.1340016573667526</v>
+        <v>-2.511025190353394</v>
       </c>
       <c r="C341" t="n">
-        <v>0.669297993183136</v>
+        <v>-2.262361526489258</v>
       </c>
       <c r="D341" t="n">
-        <v>0.1746737957000732</v>
+        <v>-0.1726969480514526</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1297085881233215</v>
+        <v>-2.614712715148926</v>
       </c>
       <c r="C342" t="n">
-        <v>0.6674374341964722</v>
+        <v>-2.213142395019531</v>
       </c>
       <c r="D342" t="n">
-        <v>0.1784289181232452</v>
+        <v>0.1321849524974823</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1116195693612099</v>
+        <v>-2.555770874023438</v>
       </c>
       <c r="C343" t="n">
-        <v>0.659587562084198</v>
+        <v>-2.264504671096802</v>
       </c>
       <c r="D343" t="n">
-        <v>0.1932348906993866</v>
+        <v>0.03512988984584808</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.1106279864907265</v>
+        <v>-2.51997447013855</v>
       </c>
       <c r="C344" t="n">
-        <v>0.6573892831802368</v>
+        <v>-2.214085817337036</v>
       </c>
       <c r="D344" t="n">
-        <v>0.1946638524532318</v>
+        <v>-0.06083548069000244</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.1092484667897224</v>
+        <v>-2.491179227828979</v>
       </c>
       <c r="C345" t="n">
-        <v>0.6581302285194397</v>
+        <v>-2.310540914535522</v>
       </c>
       <c r="D345" t="n">
-        <v>0.1972106993198395</v>
+        <v>-0.3162297010421753</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.1223354637622833</v>
+        <v>-2.48624324798584</v>
       </c>
       <c r="C346" t="n">
-        <v>0.656743049621582</v>
+        <v>-2.31262993812561</v>
       </c>
       <c r="D346" t="n">
-        <v>0.1890941262245178</v>
+        <v>-0.4424098134040833</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.1502366662025452</v>
+        <v>-2.837289571762085</v>
       </c>
       <c r="C347" t="n">
-        <v>0.6450486779212952</v>
+        <v>-2.210832118988037</v>
       </c>
       <c r="D347" t="n">
-        <v>0.1542762815952301</v>
+        <v>0.02249923348426819</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.1329376548528671</v>
+        <v>-3.008249759674072</v>
       </c>
       <c r="C348" t="n">
-        <v>0.6276776790618896</v>
+        <v>-2.347636461257935</v>
       </c>
       <c r="D348" t="n">
-        <v>0.1624481081962585</v>
+        <v>-0.1691657602787018</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1171836107969284</v>
+        <v>-3.3502516746521</v>
       </c>
       <c r="C349" t="n">
-        <v>0.6179498434066772</v>
+        <v>-2.276846885681152</v>
       </c>
       <c r="D349" t="n">
-        <v>0.1824083924293518</v>
+        <v>0.1589559018611908</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1366401016712189</v>
+        <v>-3.292062997817993</v>
       </c>
       <c r="C350" t="n">
-        <v>0.6240752935409546</v>
+        <v>-2.295642137527466</v>
       </c>
       <c r="D350" t="n">
-        <v>0.1422674059867859</v>
+        <v>-0.08046305179595947</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1352716982364655</v>
+        <v>-3.254727363586426</v>
       </c>
       <c r="C351" t="n">
-        <v>0.6175152659416199</v>
+        <v>-2.533278465270996</v>
       </c>
       <c r="D351" t="n">
-        <v>0.1448194533586502</v>
+        <v>-0.5498568415641785</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.2039488404989243</v>
+        <v>-3.534369945526123</v>
       </c>
       <c r="C352" t="n">
-        <v>0.633882999420166</v>
+        <v>-2.389901161193848</v>
       </c>
       <c r="D352" t="n">
-        <v>0.1006025969982147</v>
+        <v>0.01655122637748718</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1526417583227158</v>
+        <v>-3.234797954559326</v>
       </c>
       <c r="C353" t="n">
-        <v>0.6341978311538696</v>
+        <v>-2.449452877044678</v>
       </c>
       <c r="D353" t="n">
-        <v>0.1424803137779236</v>
+        <v>-0.2841647267341614</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.1221297532320023</v>
+        <v>-3.284411668777466</v>
       </c>
       <c r="C354" t="n">
-        <v>0.6249457597732544</v>
+        <v>-2.409777641296387</v>
       </c>
       <c r="D354" t="n">
-        <v>0.1630928516387939</v>
+        <v>-0.08529525995254517</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0.1045512408018112</v>
+        <v>-3.136746883392334</v>
       </c>
       <c r="C355" t="n">
-        <v>0.6163167357444763</v>
+        <v>-2.348824501037598</v>
       </c>
       <c r="D355" t="n">
-        <v>0.1752577424049377</v>
+        <v>-0.1238603293895721</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.1066914275288582</v>
+        <v>-3.223153352737427</v>
       </c>
       <c r="C356" t="n">
-        <v>0.6051459312438965</v>
+        <v>-2.352092504501343</v>
       </c>
       <c r="D356" t="n">
-        <v>0.152702733874321</v>
+        <v>-0.2237012386322021</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.1106177717447281</v>
+        <v>-3.182234287261963</v>
       </c>
       <c r="C357" t="n">
-        <v>0.6143367886543274</v>
+        <v>-2.498837232589722</v>
       </c>
       <c r="D357" t="n">
-        <v>0.1603148430585861</v>
+        <v>-0.4982409477233887</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.1216157451272011</v>
+        <v>-3.201371192932129</v>
       </c>
       <c r="C358" t="n">
-        <v>0.6130478978157043</v>
+        <v>-2.529603242874146</v>
       </c>
       <c r="D358" t="n">
-        <v>0.151347815990448</v>
+        <v>-0.6034591794013977</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.1472768634557724</v>
+        <v>-3.315505027770996</v>
       </c>
       <c r="C359" t="n">
-        <v>0.6181632876396179</v>
+        <v>-2.444647073745728</v>
       </c>
       <c r="D359" t="n">
-        <v>0.1348202973604202</v>
+        <v>-0.2805695235729218</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.1309561431407928</v>
+        <v>-3.476534843444824</v>
       </c>
       <c r="C360" t="n">
-        <v>0.6029046773910522</v>
+        <v>-2.456791639328003</v>
       </c>
       <c r="D360" t="n">
-        <v>0.1423411071300507</v>
+        <v>-0.1297415494918823</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.09359144419431686</v>
+        <v>-3.568724632263184</v>
       </c>
       <c r="C361" t="n">
-        <v>0.6069744229316711</v>
+        <v>-2.442293882369995</v>
       </c>
       <c r="D361" t="n">
-        <v>0.1864272207021713</v>
+        <v>-0.007144838571548462</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.1536191254854202</v>
+        <v>-3.620471715927124</v>
       </c>
       <c r="C362" t="n">
-        <v>0.6151009202003479</v>
+        <v>-2.612154722213745</v>
       </c>
       <c r="D362" t="n">
-        <v>0.1166454255580902</v>
+        <v>-0.4466574788093567</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.1414058357477188</v>
+        <v>-3.628730058670044</v>
       </c>
       <c r="C363" t="n">
-        <v>0.6196748614311218</v>
+        <v>-2.81796669960022</v>
       </c>
       <c r="D363" t="n">
-        <v>0.1441612541675568</v>
+        <v>-0.642545759677887</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.1862508505582809</v>
+        <v>-3.63586688041687</v>
       </c>
       <c r="C364" t="n">
-        <v>0.6223913431167603</v>
+        <v>-2.57986307144165</v>
       </c>
       <c r="D364" t="n">
-        <v>0.1055183261632919</v>
+        <v>-0.2239668071269989</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1377058178186417</v>
+        <v>-3.454917192459106</v>
       </c>
       <c r="C365" t="n">
-        <v>0.6116929650306702</v>
+        <v>-2.639799118041992</v>
       </c>
       <c r="D365" t="n">
-        <v>0.1388045251369476</v>
+        <v>-0.3402077555656433</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.150276780128479</v>
+        <v>-3.497774124145508</v>
       </c>
       <c r="C366" t="n">
-        <v>0.6183169484138489</v>
+        <v>-2.578412294387817</v>
       </c>
       <c r="D366" t="n">
-        <v>0.1343360245227814</v>
+        <v>-0.1520774066448212</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.1248182207345963</v>
+        <v>-3.450069904327393</v>
       </c>
       <c r="C367" t="n">
-        <v>0.6028184294700623</v>
+        <v>-2.581659317016602</v>
       </c>
       <c r="D367" t="n">
-        <v>0.14930160343647</v>
+        <v>-0.178467869758606</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.1297989934682846</v>
+        <v>-3.512839317321777</v>
       </c>
       <c r="C368" t="n">
-        <v>0.6048590540885925</v>
+        <v>-2.723312139511108</v>
       </c>
       <c r="D368" t="n">
-        <v>0.1543083935976028</v>
+        <v>-0.4692836403846741</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.1292554885149002</v>
+        <v>-3.523588180541992</v>
       </c>
       <c r="C369" t="n">
-        <v>0.6109764575958252</v>
+        <v>-2.736291170120239</v>
       </c>
       <c r="D369" t="n">
-        <v>0.1698407381772995</v>
+        <v>-0.4265958070755005</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.1045210361480713</v>
+        <v>-3.433269739151001</v>
       </c>
       <c r="C370" t="n">
-        <v>0.623835027217865</v>
+        <v>-3.059682846069336</v>
       </c>
       <c r="D370" t="n">
-        <v>0.2122798711061478</v>
+        <v>-0.9485727548599243</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.162085697054863</v>
+        <v>-3.551695108413696</v>
       </c>
       <c r="C371" t="n">
-        <v>0.6166325211524963</v>
+        <v>-2.745568513870239</v>
       </c>
       <c r="D371" t="n">
-        <v>0.1297152489423752</v>
+        <v>-0.2614069283008575</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.1452656835317612</v>
+        <v>-3.514050483703613</v>
       </c>
       <c r="C372" t="n">
-        <v>0.6209639310836792</v>
+        <v>-2.696582317352295</v>
       </c>
       <c r="D372" t="n">
-        <v>0.1502752602100372</v>
+        <v>-0.1801724433898926</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0.1680879443883896</v>
+        <v>-3.763575553894043</v>
       </c>
       <c r="C373" t="n">
-        <v>0.6404644250869751</v>
+        <v>-2.896888732910156</v>
       </c>
       <c r="D373" t="n">
-        <v>0.1549272388219833</v>
+        <v>-0.1811582446098328</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.1734123080968857</v>
+        <v>-4.011786937713623</v>
       </c>
       <c r="C374" t="n">
-        <v>0.6408514976501465</v>
+        <v>-3.273080587387085</v>
       </c>
       <c r="D374" t="n">
-        <v>0.1246341913938522</v>
+        <v>-0.4145601987838745</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1363907158374786</v>
+        <v>-3.73552393913269</v>
       </c>
       <c r="C375" t="n">
-        <v>0.6180445551872253</v>
+        <v>-3.173118114471436</v>
       </c>
       <c r="D375" t="n">
-        <v>0.1582890748977661</v>
+        <v>-0.4265236854553223</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.149802953004837</v>
+        <v>-3.708231925964355</v>
       </c>
       <c r="C376" t="n">
-        <v>0.6242813467979431</v>
+        <v>-3.058495044708252</v>
       </c>
       <c r="D376" t="n">
-        <v>0.1441695094108582</v>
+        <v>-0.3476815819740295</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.1407714933156967</v>
+        <v>-3.831758737564087</v>
       </c>
       <c r="C377" t="n">
-        <v>0.6076745390892029</v>
+        <v>-3.209208726882935</v>
       </c>
       <c r="D377" t="n">
-        <v>0.1403183043003082</v>
+        <v>-0.4630473256111145</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.1331125050783157</v>
+        <v>-3.870420455932617</v>
       </c>
       <c r="C378" t="n">
-        <v>0.6108230352401733</v>
+        <v>-3.017356395721436</v>
       </c>
       <c r="D378" t="n">
-        <v>0.1626366972923279</v>
+        <v>-0.09151279926300049</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0.1173229664564133</v>
+        <v>-3.773553848266602</v>
       </c>
       <c r="C379" t="n">
-        <v>0.5928898453712463</v>
+        <v>-3.041189432144165</v>
       </c>
       <c r="D379" t="n">
-        <v>0.1651145219802856</v>
+        <v>-0.2710011303424835</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.1181740760803223</v>
+        <v>-3.832511425018311</v>
       </c>
       <c r="C380" t="n">
-        <v>0.6070423126220703</v>
+        <v>-3.346112489700317</v>
       </c>
       <c r="D380" t="n">
-        <v>0.1694734394550323</v>
+        <v>-0.63433837890625</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0.1120086535811424</v>
+        <v>-3.915101289749146</v>
       </c>
       <c r="C381" t="n">
-        <v>0.6152288317680359</v>
+        <v>-3.438246488571167</v>
       </c>
       <c r="D381" t="n">
-        <v>0.1948900520801544</v>
+        <v>-0.7017694115638733</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0.1380086094141006</v>
+        <v>-3.816556453704834</v>
       </c>
       <c r="C382" t="n">
-        <v>0.6143092513084412</v>
+        <v>-3.340951919555664</v>
       </c>
       <c r="D382" t="n">
-        <v>0.1700132787227631</v>
+        <v>-0.6394565105438232</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.2053800970315933</v>
+        <v>-4.020495891571045</v>
       </c>
       <c r="C383" t="n">
-        <v>0.6199631690979004</v>
+        <v>-3.353979825973511</v>
       </c>
       <c r="D383" t="n">
-        <v>0.1082261800765991</v>
+        <v>-0.4121282696723938</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1907422095537186</v>
+        <v>-4.033719539642334</v>
       </c>
       <c r="C384" t="n">
-        <v>0.6189754605293274</v>
+        <v>-3.117347955703735</v>
       </c>
       <c r="D384" t="n">
-        <v>0.1360053420066833</v>
+        <v>-0.03716015815734863</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.2073969841003418</v>
+        <v>-4.547203540802002</v>
       </c>
       <c r="C385" t="n">
-        <v>0.6452298164367676</v>
+        <v>-3.526153564453125</v>
       </c>
       <c r="D385" t="n">
-        <v>0.1484331786632538</v>
+        <v>-0.05191713571548462</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.3097032606601715</v>
+        <v>-5.045166492462158</v>
       </c>
       <c r="C386" t="n">
-        <v>0.6744247674942017</v>
+        <v>-3.938167333602905</v>
       </c>
       <c r="D386" t="n">
-        <v>0.08860430866479874</v>
+        <v>-0.2462535202503204</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.1859830766916275</v>
+        <v>-5.027435302734375</v>
       </c>
       <c r="C387" t="n">
-        <v>0.637177050113678</v>
+        <v>-4.160058498382568</v>
       </c>
       <c r="D387" t="n">
-        <v>0.1643254160881042</v>
+        <v>-0.6223751306533813</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.2163562774658203</v>
+        <v>-4.33296012878418</v>
       </c>
       <c r="C388" t="n">
-        <v>0.6373163461685181</v>
+        <v>-3.514479875564575</v>
       </c>
       <c r="D388" t="n">
-        <v>0.129714623093605</v>
+        <v>-0.1663287281990051</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.1786569356918335</v>
+        <v>-4.356147289276123</v>
       </c>
       <c r="C389" t="n">
-        <v>0.6327847838401794</v>
+        <v>-3.736922740936279</v>
       </c>
       <c r="D389" t="n">
-        <v>0.1623713970184326</v>
+        <v>-0.3876972198486328</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.1807318776845932</v>
+        <v>-4.265866756439209</v>
       </c>
       <c r="C390" t="n">
-        <v>0.6287220120429993</v>
+        <v>-3.46579384803772</v>
       </c>
       <c r="D390" t="n">
-        <v>0.1582224369049072</v>
+        <v>-0.04794949293136597</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.169858381152153</v>
+        <v>-4.220057964324951</v>
       </c>
       <c r="C391" t="n">
-        <v>0.6244351267814636</v>
+        <v>-3.612068653106689</v>
       </c>
       <c r="D391" t="n">
-        <v>0.1615424752235413</v>
+        <v>-0.2408273816108704</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.1867426633834839</v>
+        <v>-4.371411800384521</v>
       </c>
       <c r="C392" t="n">
-        <v>0.6397345662117004</v>
+        <v>-3.777753829956055</v>
       </c>
       <c r="D392" t="n">
-        <v>0.166064441204071</v>
+        <v>-0.5053251981735229</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1636562198400497</v>
+        <v>-5.1239914894104</v>
       </c>
       <c r="C393" t="n">
-        <v>0.6470972895622253</v>
+        <v>-4.324838638305664</v>
       </c>
       <c r="D393" t="n">
-        <v>0.1991513073444366</v>
+        <v>-0.778063952922821</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.1594463884830475</v>
+        <v>-5.149536609649658</v>
       </c>
       <c r="C394" t="n">
-        <v>0.6362001895904541</v>
+        <v>-4.512418746948242</v>
       </c>
       <c r="D394" t="n">
-        <v>0.1899286359548569</v>
+        <v>-0.9346752166748047</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.2077538222074509</v>
+        <v>-4.302934169769287</v>
       </c>
       <c r="C395" t="n">
-        <v>0.6271329522132874</v>
+        <v>-3.584212779998779</v>
       </c>
       <c r="D395" t="n">
-        <v>0.1419303566217422</v>
+        <v>-0.1938196420669556</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.1768902838230133</v>
+        <v>-4.361277103424072</v>
       </c>
       <c r="C396" t="n">
-        <v>0.5966986417770386</v>
+        <v>-3.466722249984741</v>
       </c>
       <c r="D396" t="n">
-        <v>0.151411384344101</v>
+        <v>-0.1199701130390167</v>
       </c>
     </row>
     <row r="397">
@@ -5979,13 +5979,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2115097790956497</v>
+        <v>-5.074654102325439</v>
       </c>
       <c r="C397" t="n">
-        <v>0.6289993524551392</v>
+        <v>-3.887997150421143</v>
       </c>
       <c r="D397" t="n">
-        <v>0.148855984210968</v>
+        <v>-0.1301887631416321</v>
       </c>
     </row>
     <row r="398">
@@ -5993,13 +5993,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.2534165680408478</v>
+        <v>-4.959993839263916</v>
       </c>
       <c r="C398" t="n">
-        <v>0.6545767188072205</v>
+        <v>-4.060990810394287</v>
       </c>
       <c r="D398" t="n">
-        <v>0.1378093510866165</v>
+        <v>-0.5937773585319519</v>
       </c>
     </row>
     <row r="399">
@@ -6007,13 +6007,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.1818517744541168</v>
+        <v>-4.656467914581299</v>
       </c>
       <c r="C399" t="n">
-        <v>0.6183669567108154</v>
+        <v>-3.95496654510498</v>
       </c>
       <c r="D399" t="n">
-        <v>0.1615458726882935</v>
+        <v>-0.5940384864807129</v>
       </c>
     </row>
     <row r="400">
@@ -6021,13 +6021,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.2265983670949936</v>
+        <v>-4.727467060089111</v>
       </c>
       <c r="C400" t="n">
-        <v>0.6411775946617126</v>
+        <v>-3.960944890975952</v>
       </c>
       <c r="D400" t="n">
-        <v>0.1446120291948318</v>
+        <v>-0.5491486787796021</v>
       </c>
     </row>
     <row r="401">
@@ -6035,13 +6035,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.2020273357629776</v>
+        <v>-4.575474262237549</v>
       </c>
       <c r="C401" t="n">
-        <v>0.6385490894317627</v>
+        <v>-3.908063411712646</v>
       </c>
       <c r="D401" t="n">
-        <v>0.1615503430366516</v>
+        <v>-0.5316681265830994</v>
       </c>
     </row>
     <row r="402">
@@ -6049,13 +6049,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.2085200846195221</v>
+        <v>-4.734140396118164</v>
       </c>
       <c r="C402" t="n">
-        <v>0.6279778480529785</v>
+        <v>-3.840267896652222</v>
       </c>
       <c r="D402" t="n">
-        <v>0.1557550579309464</v>
+        <v>-0.3818541169166565</v>
       </c>
     </row>
     <row r="403">
@@ -6063,13 +6063,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.1892782300710678</v>
+        <v>-4.683387279510498</v>
       </c>
       <c r="C403" t="n">
-        <v>0.6239098906517029</v>
+        <v>-4.011436462402344</v>
       </c>
       <c r="D403" t="n">
-        <v>0.160694032907486</v>
+        <v>-0.6163153052330017</v>
       </c>
     </row>
     <row r="404">
@@ -6077,13 +6077,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.1907123029232025</v>
+        <v>-4.62199878692627</v>
       </c>
       <c r="C404" t="n">
-        <v>0.6291036009788513</v>
+        <v>-3.93140435218811</v>
       </c>
       <c r="D404" t="n">
-        <v>0.1656284034252167</v>
+        <v>-0.5635579228401184</v>
       </c>
     </row>
     <row r="405">
@@ -6091,13 +6091,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.2090609818696976</v>
+        <v>-4.754285335540771</v>
       </c>
       <c r="C405" t="n">
-        <v>0.6260918974876404</v>
+        <v>-3.936844825744629</v>
       </c>
       <c r="D405" t="n">
-        <v>0.1492801904678345</v>
+        <v>-0.5803984403610229</v>
       </c>
     </row>
     <row r="406">
@@ -6105,13 +6105,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.2193367779254913</v>
+        <v>-4.774770736694336</v>
       </c>
       <c r="C406" t="n">
-        <v>0.6218928694725037</v>
+        <v>-3.956835031509399</v>
       </c>
       <c r="D406" t="n">
-        <v>0.1463409662246704</v>
+        <v>-0.6738795042037964</v>
       </c>
     </row>
     <row r="407">
@@ -6119,13 +6119,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.2464968115091324</v>
+        <v>-4.846818447113037</v>
       </c>
       <c r="C407" t="n">
-        <v>0.6312990784645081</v>
+        <v>-3.90156078338623</v>
       </c>
       <c r="D407" t="n">
-        <v>0.1425646841526031</v>
+        <v>-0.4806560873985291</v>
       </c>
     </row>
     <row r="408">
@@ -6133,13 +6133,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.2408450096845627</v>
+        <v>-4.937140941619873</v>
       </c>
       <c r="C408" t="n">
-        <v>0.6287932991981506</v>
+        <v>-3.981662511825562</v>
       </c>
       <c r="D408" t="n">
-        <v>0.139658585190773</v>
+        <v>-0.4311306476593018</v>
       </c>
     </row>
     <row r="409">
@@ -6147,13 +6147,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.2498017549514771</v>
+        <v>-5.082876682281494</v>
       </c>
       <c r="C409" t="n">
-        <v>0.6386034488677979</v>
+        <v>-4.066071033477783</v>
       </c>
       <c r="D409" t="n">
-        <v>0.1369068175554276</v>
+        <v>-0.2447609901428223</v>
       </c>
     </row>
     <row r="410">
@@ -6161,13 +6161,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.2822232246398926</v>
+        <v>-5.482404232025146</v>
       </c>
       <c r="C410" t="n">
-        <v>0.6459928154945374</v>
+        <v>-4.451139450073242</v>
       </c>
       <c r="D410" t="n">
-        <v>0.1267939507961273</v>
+        <v>-0.508371889591217</v>
       </c>
     </row>
     <row r="411">
@@ -6175,13 +6175,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0.2318527698516846</v>
+        <v>-5.270910739898682</v>
       </c>
       <c r="C411" t="n">
-        <v>0.6125588417053223</v>
+        <v>-4.249159336090088</v>
       </c>
       <c r="D411" t="n">
-        <v>0.14175745844841</v>
+        <v>-0.4517608284950256</v>
       </c>
     </row>
     <row r="412">
@@ -6189,13 +6189,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.2180398106575012</v>
+        <v>-5.521288394927979</v>
       </c>
       <c r="C412" t="n">
-        <v>0.5825352072715759</v>
+        <v>-4.136650562286377</v>
       </c>
       <c r="D412" t="n">
-        <v>0.1344874054193497</v>
+        <v>-0.5923247933387756</v>
       </c>
     </row>
     <row r="413">
@@ -6203,13 +6203,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.2052456140518188</v>
+        <v>-5.342553615570068</v>
       </c>
       <c r="C413" t="n">
-        <v>0.5681975483894348</v>
+        <v>-4.049121856689453</v>
       </c>
       <c r="D413" t="n">
-        <v>0.1595487594604492</v>
+        <v>-0.8233290910720825</v>
       </c>
     </row>
     <row r="414">
@@ -6217,13 +6217,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.2060400098562241</v>
+        <v>-5.259994029998779</v>
       </c>
       <c r="C414" t="n">
-        <v>0.6019230484962463</v>
+        <v>-4.195657730102539</v>
       </c>
       <c r="D414" t="n">
-        <v>0.170395091176033</v>
+        <v>-0.7401689887046814</v>
       </c>
     </row>
     <row r="415">
@@ -6231,13 +6231,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0.187353327870369</v>
+        <v>-5.224829196929932</v>
       </c>
       <c r="C415" t="n">
-        <v>0.60613614320755</v>
+        <v>-4.335406303405762</v>
       </c>
       <c r="D415" t="n">
-        <v>0.1842289566993713</v>
+        <v>-0.8066786527633667</v>
       </c>
     </row>
     <row r="416">
@@ -6245,13 +6245,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.1833796948194504</v>
+        <v>-5.176108837127686</v>
       </c>
       <c r="C416" t="n">
-        <v>0.6149038672447205</v>
+        <v>-4.378766059875488</v>
       </c>
       <c r="D416" t="n">
-        <v>0.1985767483711243</v>
+        <v>-0.8617846965789795</v>
       </c>
     </row>
     <row r="417">
@@ -6259,13 +6259,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0.1999252438545227</v>
+        <v>-5.794223308563232</v>
       </c>
       <c r="C417" t="n">
-        <v>0.6277793645858765</v>
+        <v>-4.854811191558838</v>
       </c>
       <c r="D417" t="n">
-        <v>0.1828290522098541</v>
+        <v>-1.042813301086426</v>
       </c>
     </row>
     <row r="418">
@@ -6273,13 +6273,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0.1748475432395935</v>
+        <v>-5.675280570983887</v>
       </c>
       <c r="C418" t="n">
-        <v>0.6194623708724976</v>
+        <v>-4.786156177520752</v>
       </c>
       <c r="D418" t="n">
-        <v>0.2071359604597092</v>
+        <v>-1.060848355293274</v>
       </c>
     </row>
     <row r="419">
@@ -6287,13 +6287,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.2142121344804764</v>
+        <v>-6.023550987243652</v>
       </c>
       <c r="C419" t="n">
-        <v>0.6228394508361816</v>
+        <v>-4.863699436187744</v>
       </c>
       <c r="D419" t="n">
-        <v>0.1916036903858185</v>
+        <v>-1.052384257316589</v>
       </c>
     </row>
     <row r="420">
@@ -6301,13 +6301,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.1945220232009888</v>
+        <v>-6.23710298538208</v>
       </c>
       <c r="C420" t="n">
-        <v>0.6305200457572937</v>
+        <v>-5.0879225730896</v>
       </c>
       <c r="D420" t="n">
-        <v>0.2043147683143616</v>
+        <v>-0.9357666969299316</v>
       </c>
     </row>
     <row r="421">
@@ -6315,13 +6315,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.2118488252162933</v>
+        <v>-6.387603282928467</v>
       </c>
       <c r="C421" t="n">
-        <v>0.6389855146408081</v>
+        <v>-5.0715012550354</v>
       </c>
       <c r="D421" t="n">
-        <v>0.1982303857803345</v>
+        <v>-0.7237751483917236</v>
       </c>
     </row>
     <row r="422">
@@ -6329,13 +6329,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.200846940279007</v>
+        <v>-7.579859733581543</v>
       </c>
       <c r="C422" t="n">
-        <v>0.6503552794456482</v>
+        <v>-5.95482349395752</v>
       </c>
       <c r="D422" t="n">
-        <v>0.189052015542984</v>
+        <v>-1.162830352783203</v>
       </c>
     </row>
     <row r="423">
@@ -6343,13 +6343,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.1314217448234558</v>
+        <v>-7.717251300811768</v>
       </c>
       <c r="C423" t="n">
-        <v>0.6379161477088928</v>
+        <v>-6.232860565185547</v>
       </c>
       <c r="D423" t="n">
-        <v>0.2279486954212189</v>
+        <v>-1.316927194595337</v>
       </c>
     </row>
     <row r="424">
@@ -6357,13 +6357,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0.1807884573936462</v>
+        <v>-7.94843053817749</v>
       </c>
       <c r="C424" t="n">
-        <v>0.6617448925971985</v>
+        <v>-6.326705932617188</v>
       </c>
       <c r="D424" t="n">
-        <v>0.2088586688041687</v>
+        <v>-1.28244161605835</v>
       </c>
     </row>
     <row r="425">
@@ -6371,13 +6371,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1599101573228836</v>
+        <v>-7.914233684539795</v>
       </c>
       <c r="C425" t="n">
-        <v>0.6599684357643127</v>
+        <v>-6.373774528503418</v>
       </c>
       <c r="D425" t="n">
-        <v>0.2245567589998245</v>
+        <v>-1.269050359725952</v>
       </c>
     </row>
     <row r="426">
@@ -6385,13 +6385,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1715249419212341</v>
+        <v>-8.093216896057129</v>
       </c>
       <c r="C426" t="n">
-        <v>0.6633042097091675</v>
+        <v>-6.474832534790039</v>
       </c>
       <c r="D426" t="n">
-        <v>0.2142444849014282</v>
+        <v>-1.19321608543396</v>
       </c>
     </row>
     <row r="427">
@@ -6399,13 +6399,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1672453135251999</v>
+        <v>-7.8716721534729</v>
       </c>
       <c r="C427" t="n">
-        <v>0.6641730070114136</v>
+        <v>-6.371495723724365</v>
       </c>
       <c r="D427" t="n">
-        <v>0.2252667248249054</v>
+        <v>-1.145644903182983</v>
       </c>
     </row>
     <row r="428">
@@ -6413,13 +6413,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0.1888570338487625</v>
+        <v>-8.035265922546387</v>
       </c>
       <c r="C428" t="n">
-        <v>0.6752482056617737</v>
+        <v>-6.49672794342041</v>
       </c>
       <c r="D428" t="n">
-        <v>0.2028932273387909</v>
+        <v>-1.180260419845581</v>
       </c>
     </row>
     <row r="429">
@@ -6427,13 +6427,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0.194733515381813</v>
+        <v>-7.999698162078857</v>
       </c>
       <c r="C429" t="n">
-        <v>0.668081521987915</v>
+        <v>-6.43895435333252</v>
       </c>
       <c r="D429" t="n">
-        <v>0.1928347051143646</v>
+        <v>-1.176268339157104</v>
       </c>
     </row>
     <row r="430">
@@ -6441,13 +6441,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0.2015468627214432</v>
+        <v>-7.924325942993164</v>
       </c>
       <c r="C430" t="n">
-        <v>0.6736984848976135</v>
+        <v>-6.456803321838379</v>
       </c>
       <c r="D430" t="n">
-        <v>0.1879885941743851</v>
+        <v>-1.191134095191956</v>
       </c>
     </row>
     <row r="431">
@@ -6455,13 +6455,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.2330481559038162</v>
+        <v>-8.315114974975586</v>
       </c>
       <c r="C431" t="n">
-        <v>0.6939991116523743</v>
+        <v>-6.689630508422852</v>
       </c>
       <c r="D431" t="n">
-        <v>0.1634799838066101</v>
+        <v>-1.048101782798767</v>
       </c>
     </row>
     <row r="432">
@@ -6469,13 +6469,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0.2132424116134644</v>
+        <v>-8.31031322479248</v>
       </c>
       <c r="C432" t="n">
-        <v>0.6666560769081116</v>
+        <v>-6.497828006744385</v>
       </c>
       <c r="D432" t="n">
-        <v>0.1723686903715134</v>
+        <v>-0.921269416809082</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/real_enc.xlsx
+++ b/documents/latent_vector/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.08456175774335861</v>
+        <v>-0.1137870848178864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2463026791810989</v>
+        <v>0.08611113578081131</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2297831475734711</v>
+        <v>0.1466676443815231</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07314638048410416</v>
+        <v>-0.1191347986459732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231352761387825</v>
+        <v>0.09288797527551651</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221712738275528</v>
+        <v>0.155180424451828</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1132434830069542</v>
+        <v>-0.1115233153104782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2358287125825882</v>
+        <v>0.03287563472986221</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2534012198448181</v>
+        <v>0.1968033909797668</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.07954961806535721</v>
+        <v>-0.08085530996322632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2194788604974747</v>
+        <v>0.07706687599420547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2267964780330658</v>
+        <v>0.1978540122509003</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06870564073324203</v>
+        <v>-0.07249124348163605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2166845351457596</v>
+        <v>0.1092313751578331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2231320142745972</v>
+        <v>0.20840984582901</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01840195804834366</v>
+        <v>-0.002780850976705551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.177190974354744</v>
+        <v>0.2030688226222992</v>
       </c>
       <c r="D7" t="n">
-        <v>0.167796790599823</v>
+        <v>0.2740556299686432</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001538261771202087</v>
+        <v>0.01952629163861275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1577248275279999</v>
+        <v>0.2117323577404022</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1465028673410416</v>
+        <v>0.2737529277801514</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04483703523874283</v>
+        <v>0.06109962239861488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1457689255475998</v>
+        <v>0.2630220055580139</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1066718026995659</v>
+        <v>0.3075098097324371</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06502740830183029</v>
+        <v>0.0633651465177536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1355548948049545</v>
+        <v>0.2804613709449768</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08410795778036118</v>
+        <v>0.322282463312149</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02891740947961807</v>
+        <v>0.01482481136918068</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3379614353179932</v>
+        <v>0.4643761217594147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3040581345558167</v>
+        <v>0.7322417497634888</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01657970249652863</v>
+        <v>0.05774617567658424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3360558152198792</v>
+        <v>0.3174886107444763</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3112624883651733</v>
+        <v>0.4371231496334076</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0004730895161628723</v>
+        <v>0.03600187972187996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4811567068099976</v>
+        <v>0.2220245003700256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4310940206050873</v>
+        <v>0.5914508104324341</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2339275479316711</v>
+        <v>-0.03315925225615501</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5155849456787109</v>
+        <v>0.4574708044528961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6857126355171204</v>
+        <v>0.8503984212875366</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2373848259449005</v>
+        <v>-0.0660606324672699</v>
       </c>
       <c r="C15" t="n">
-        <v>0.592801570892334</v>
+        <v>0.4747366011142731</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7192592620849609</v>
+        <v>0.9910610914230347</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1075317710638046</v>
+        <v>0.06492799520492554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4402675628662109</v>
+        <v>0.3527931869029999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5272144079208374</v>
+        <v>0.6878809928894043</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.09395154565572739</v>
+        <v>0.09196166694164276</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3887025713920593</v>
+        <v>0.2752687036991119</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4993827641010284</v>
+        <v>0.4737883508205414</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1014560386538506</v>
+        <v>0.03733726218342781</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2583965063095093</v>
+        <v>0.1499753594398499</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3751029372215271</v>
+        <v>0.2303766906261444</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.08109592646360397</v>
+        <v>0.06323197484016418</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1687066256999969</v>
+        <v>0.1797457486391068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2107399553060532</v>
+        <v>0.2082646489143372</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01739221066236496</v>
+        <v>0.06288349628448486</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1369584947824478</v>
+        <v>0.2288935631513596</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1500462144613266</v>
+        <v>0.2275352478027344</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04034600406885147</v>
+        <v>0.06430184841156006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02654874697327614</v>
+        <v>0.06228192150592804</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06597523391246796</v>
+        <v>0.1582643240690231</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06342162936925888</v>
+        <v>0.05346104875206947</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.002794433385133743</v>
+        <v>0.0433986596763134</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04048235714435577</v>
+        <v>0.1543152928352356</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06819348782300949</v>
+        <v>0.0393444187939167</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04557215422391891</v>
+        <v>-0.0382307767868042</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02191567420959473</v>
+        <v>0.1396679282188416</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1433579623699188</v>
+        <v>-0.0001017861068248749</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1320609897375107</v>
+        <v>-0.1020472496747971</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2154772281646729</v>
+        <v>0.1390771269798279</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2353865504264832</v>
+        <v>-0.08794498443603516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1517298966646194</v>
+        <v>-0.3028848469257355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2715665996074677</v>
+        <v>0.1365352421998978</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2675304114818573</v>
+        <v>0.0004598982632160187</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09714698791503906</v>
+        <v>-0.1771973669528961</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256750077009201</v>
+        <v>-0.02618033438920975</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1719508022069931</v>
+        <v>-0.02265740558505058</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.137518510222435</v>
+        <v>-0.3055943846702576</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07838155329227448</v>
+        <v>-0.00813031941652298</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2717907130718231</v>
+        <v>-0.06663444638252258</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02334688231348991</v>
+        <v>-0.5590353012084961</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2259418368339539</v>
+        <v>0.1230244338512421</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.2648414671421051</v>
+        <v>-0.009161528199911118</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.02289058640599251</v>
+        <v>-0.3645623028278351</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2010557949542999</v>
+        <v>0.03299204260110855</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.3086495101451874</v>
+        <v>0.03078364208340645</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.009093102067708969</v>
+        <v>-0.2480016052722931</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2525133192539215</v>
+        <v>-0.002248205244541168</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2912269234657288</v>
+        <v>0.02914688363671303</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03500496596097946</v>
+        <v>-0.2423960268497467</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2183977365493774</v>
+        <v>-0.01486203819513321</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.2010154724121094</v>
+        <v>0.03571321442723274</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.09265737235546112</v>
+        <v>-0.25068199634552</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1043983399868011</v>
+        <v>-0.02991402894258499</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.2121196687221527</v>
+        <v>0.07506942749023438</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.08761967718601227</v>
+        <v>-0.1373346447944641</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1207037717103958</v>
+        <v>-0.05305568128824234</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1988017708063126</v>
+        <v>0.08140571415424347</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.06260938942432404</v>
+        <v>-0.08772219717502594</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08928938955068588</v>
+        <v>-0.06340113282203674</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2484897971153259</v>
+        <v>0.0838971883058548</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.08437766134738922</v>
+        <v>-0.08309401571750641</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1491803228855133</v>
+        <v>-0.06621053069829941</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3231566846370697</v>
+        <v>0.03533636406064034</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0385189987719059</v>
+        <v>-0.2126006484031677</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2413018643856049</v>
+        <v>-0.04129403084516525</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4081002771854401</v>
+        <v>-0.02840561792254448</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06162362918257713</v>
+        <v>-0.3960973620414734</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3548896014690399</v>
+        <v>0.03866474330425262</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.4180178344249725</v>
+        <v>0.07188904285430908</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.04144268855452538</v>
+        <v>-0.05707153677940369</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2789378762245178</v>
+        <v>-0.2238721549510956</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.4704564809799194</v>
+        <v>0.06897124648094177</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04815388843417168</v>
+        <v>-0.06643465161323547</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3727810680866241</v>
+        <v>-0.1864421516656876</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.4819486141204834</v>
+        <v>0.06527319550514221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1123312562704086</v>
+        <v>-0.03818845748901367</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4337093830108643</v>
+        <v>-0.1672989577054977</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.4286794662475586</v>
+        <v>0.08181248605251312</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05477753654122353</v>
+        <v>-0.03970889747142792</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3587801158428192</v>
+        <v>-0.1568690985441208</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4770643413066864</v>
+        <v>0.07959382236003876</v>
       </c>
       <c r="C42" t="n">
-        <v>0.086695596575737</v>
+        <v>-0.03872217983007431</v>
       </c>
       <c r="D42" t="n">
-        <v>0.404083251953125</v>
+        <v>-0.1583685576915741</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4506088197231293</v>
+        <v>0.08576999604701996</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06180806085467339</v>
+        <v>-0.03789752721786499</v>
       </c>
       <c r="D43" t="n">
-        <v>0.380066305398941</v>
+        <v>-0.1528985053300858</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.3442696928977966</v>
+        <v>0.1101972162723541</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.06485156714916229</v>
+        <v>-0.03992599248886108</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2281879484653473</v>
+        <v>-0.1447352021932602</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.2904934287071228</v>
+        <v>0.1186367720365524</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1139063388109207</v>
+        <v>-0.04531800746917725</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1547531336545944</v>
+        <v>-0.1461844742298126</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.2663966417312622</v>
+        <v>0.1162777692079544</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.08457237482070923</v>
+        <v>-0.06379854679107666</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05690242350101471</v>
+        <v>-0.1589356362819672</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.2378665506839752</v>
+        <v>0.1047904938459396</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1232530921697617</v>
+        <v>-0.06920333206653595</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06982267647981644</v>
+        <v>-0.1724236607551575</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4366468787193298</v>
+        <v>0.09792841970920563</v>
       </c>
       <c r="C48" t="n">
-        <v>0.007636163383722305</v>
+        <v>-0.05354752391576767</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3328160345554352</v>
+        <v>-0.1644664257764816</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.5371176600456238</v>
+        <v>0.08757656812667847</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09789548814296722</v>
+        <v>-0.05803581327199936</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4668227434158325</v>
+        <v>-0.1829675436019897</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.5562587380409241</v>
+        <v>0.08661735057830811</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05992556735873222</v>
+        <v>-0.09274506568908691</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3350602984428406</v>
+        <v>-0.28282231092453</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.6189234852790833</v>
+        <v>0.09183010458946228</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.05971453711390495</v>
+        <v>-0.0891934335231781</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3654383420944214</v>
+        <v>-0.2882885336875916</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.5248550176620483</v>
+        <v>0.09887826442718506</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.09696431457996368</v>
+        <v>-0.07441192865371704</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3668121695518494</v>
+        <v>-0.3069859743118286</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.4758554995059967</v>
+        <v>0.06925657391548157</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1300910264253616</v>
+        <v>-0.07245847582817078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2978349626064301</v>
+        <v>-0.3356521427631378</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.4887852370738983</v>
+        <v>0.01441832259297371</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.11959108710289</v>
+        <v>-0.1144338995218277</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3038042187690735</v>
+        <v>-0.3651486039161682</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.4396175444126129</v>
+        <v>0.01615609601140022</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1705637276172638</v>
+        <v>-0.09903790056705475</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2227978855371475</v>
+        <v>-0.3880143463611603</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.3399991393089294</v>
+        <v>0.009922120720148087</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.1781009882688522</v>
+        <v>-0.08795541524887085</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04094292223453522</v>
+        <v>-0.4176628887653351</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.3689209520816803</v>
+        <v>0.01620382443070412</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1503070592880249</v>
+        <v>-0.08193841576576233</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02882196009159088</v>
+        <v>-0.4318057000637054</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.3837050497531891</v>
+        <v>0.02003232017159462</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1207759976387024</v>
+        <v>-0.07174456119537354</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.09347555041313171</v>
+        <v>-0.446883887052536</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.3784306049346924</v>
+        <v>0.009741250425577164</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1528584808111191</v>
+        <v>-0.08245249092578888</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02002334594726562</v>
+        <v>-0.4290133416652679</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4581033885478973</v>
+        <v>0.007525671273469925</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1608684360980988</v>
+        <v>-0.08177241683006287</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2341614067554474</v>
+        <v>-0.4090687930583954</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.4886114001274109</v>
+        <v>0.009009499102830887</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1407007873058319</v>
+        <v>-0.1058197319507599</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2459182143211365</v>
+        <v>-0.4082777202129364</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.4097347855567932</v>
+        <v>0.01832758262753487</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.3086484372615814</v>
+        <v>-0.113111674785614</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00643002986907959</v>
+        <v>-0.4738985002040863</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4616690278053284</v>
+        <v>0.02759018912911415</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.27334064245224</v>
+        <v>-0.1144075393676758</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.04197984933853149</v>
+        <v>-0.476051926612854</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.4050223529338837</v>
+        <v>0.02133575454354286</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.2970315217971802</v>
+        <v>-0.09843559563159943</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01278962194919586</v>
+        <v>-0.4711184203624725</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.4183478355407715</v>
+        <v>0.01828116551041603</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.2919547259807587</v>
+        <v>-0.09879563748836517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05623142421245575</v>
+        <v>-0.4878716766834259</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.5568873882293701</v>
+        <v>0.01043793931603432</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.2087397426366806</v>
+        <v>-0.09953790903091431</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2444629669189453</v>
+        <v>-0.5086855888366699</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5139811038970947</v>
+        <v>0.01516011729836464</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.2614938616752625</v>
+        <v>-0.1060823202133179</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1798390597105026</v>
+        <v>-0.5293991565704346</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.6329822540283203</v>
+        <v>0.04502982273697853</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.2739940285682678</v>
+        <v>-0.08588588237762451</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1851857602596283</v>
+        <v>-0.5830422639846802</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6157774925231934</v>
+        <v>0.04108259454369545</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.2627773284912109</v>
+        <v>-0.08899164199829102</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08073016256093979</v>
+        <v>-0.587531566619873</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.6696058511734009</v>
+        <v>0.03879356756806374</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.2483648806810379</v>
+        <v>-0.09307263791561127</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05685171484947205</v>
+        <v>-0.5996971130371094</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.6601282954216003</v>
+        <v>0.03907633200287819</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.2687205076217651</v>
+        <v>-0.09227703511714935</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1385761946439743</v>
+        <v>-0.6045606136322021</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6451191306114197</v>
+        <v>0.04762217774987221</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.2637466192245483</v>
+        <v>-0.08906844258308411</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2382830381393433</v>
+        <v>-0.5776368379592896</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.6392706632614136</v>
+        <v>0.03287209942936897</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.2249125838279724</v>
+        <v>-0.07693900167942047</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2780393660068512</v>
+        <v>-0.5746221542358398</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.708756148815155</v>
+        <v>0.01550080254673958</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.2709562182426453</v>
+        <v>-0.05922743678092957</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2203760594129562</v>
+        <v>-0.6419754028320312</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.7328036427497864</v>
+        <v>0.01014037802815437</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.2559880912303925</v>
+        <v>-0.05968348681926727</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225126713514328</v>
+        <v>-0.6598579883575439</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.7418407797813416</v>
+        <v>0.04975897446274757</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.2366251647472382</v>
+        <v>-0.08373555541038513</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2789818048477173</v>
+        <v>-0.6782146692276001</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.7352721095085144</v>
+        <v>0.05515078082680702</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.248575896024704</v>
+        <v>-0.08699499070644379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2680022418498993</v>
+        <v>-0.6758881807327271</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.7320809364318848</v>
+        <v>0.05988991633057594</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.2463579177856445</v>
+        <v>-0.08724783360958099</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2749399244785309</v>
+        <v>-0.6624481678009033</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7328911423683167</v>
+        <v>0.06074077263474464</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.2575570642948151</v>
+        <v>-0.08195294439792633</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2599132359027863</v>
+        <v>-0.6695612668991089</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.7156708836555481</v>
+        <v>0.03678244724869728</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.3393168747425079</v>
+        <v>-0.08051127195358276</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1480477750301361</v>
+        <v>-0.684959888458252</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.7447004914283752</v>
+        <v>0.0329175628721714</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.3205272555351257</v>
+        <v>-0.07771219313144684</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1410083919763565</v>
+        <v>-0.7108062505722046</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7492009401321411</v>
+        <v>0.0337505079805851</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.3298560976982117</v>
+        <v>-0.07996504008769989</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1058246344327927</v>
+        <v>-0.7116367816925049</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.770007848739624</v>
+        <v>0.01899424567818642</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.2823861837387085</v>
+        <v>-0.06594748795032501</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1810846924781799</v>
+        <v>-0.7205376625061035</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.8252208828926086</v>
+        <v>-0.01665830239653587</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1160649731755257</v>
+        <v>-0.06738628447055817</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3670027852058411</v>
+        <v>-0.7602303028106689</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.8428624272346497</v>
+        <v>-0.04212022945284843</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.05418870970606804</v>
+        <v>-0.0610254630446434</v>
       </c>
       <c r="D85" t="n">
-        <v>0.454115629196167</v>
+        <v>-0.7766287326812744</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.8305061459541321</v>
+        <v>0.0292588509619236</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1422749757766724</v>
+        <v>-0.05845266580581665</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3515531420707703</v>
+        <v>-0.7557787895202637</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.8259434700012207</v>
+        <v>0.05208740010857582</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1464010030031204</v>
+        <v>-0.06366421282291412</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3607684671878815</v>
+        <v>-0.7630466222763062</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.836700975894928</v>
+        <v>0.04993826523423195</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1756153106689453</v>
+        <v>-0.06017467379570007</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3407056927680969</v>
+        <v>-0.7687087059020996</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8387302756309509</v>
+        <v>0.04178738966584206</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1703974306583405</v>
+        <v>-0.06497772037982941</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3527363240718842</v>
+        <v>-0.7763744592666626</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.8453989624977112</v>
+        <v>0.02798235788941383</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1795012503862381</v>
+        <v>-0.06491135060787201</v>
       </c>
       <c r="D90" t="n">
-        <v>0.336263120174408</v>
+        <v>-0.7932332754135132</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.8164201378822327</v>
+        <v>0.02088448777794838</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.2509289979934692</v>
+        <v>-0.06418733298778534</v>
       </c>
       <c r="D91" t="n">
-        <v>0.278459221124649</v>
+        <v>-0.79407799243927</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.7816876769065857</v>
+        <v>0.02805453911423683</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.3212400376796722</v>
+        <v>-0.06247729063034058</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1965780407190323</v>
+        <v>-0.7871601581573486</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.7615346312522888</v>
+        <v>0.02408883348107338</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.3769086301326752</v>
+        <v>-0.05674439668655396</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1357869207859039</v>
+        <v>-0.786334753036499</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.7736548781394958</v>
+        <v>0.03096753731369972</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.3625246584415436</v>
+        <v>-0.06281191110610962</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1020077019929886</v>
+        <v>-0.7712748050689697</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.7342373132705688</v>
+        <v>0.008599642664194107</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.4115832448005676</v>
+        <v>-0.0509452223777771</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09690266847610474</v>
+        <v>-0.7628076076507568</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.7502925992012024</v>
+        <v>-0.06272484362125397</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.3799242973327637</v>
+        <v>-0.02155040204524994</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1880001425743103</v>
+        <v>-0.7769640684127808</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.7841382622718811</v>
+        <v>-0.08992543816566467</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.3112836480140686</v>
+        <v>-0.017464280128479</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2569889724254608</v>
+        <v>-0.7765496969223022</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.7207085490226746</v>
+        <v>-0.03341605886816978</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.474923312664032</v>
+        <v>-0.02699603140354156</v>
       </c>
       <c r="D98" t="n">
-        <v>0.06202240288257599</v>
+        <v>-0.7858543395996094</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.6622605323791504</v>
+        <v>-0.002383913844823837</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.5188713073730469</v>
+        <v>-0.0382077544927597</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.05427752435207367</v>
+        <v>-0.7413108348846436</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.7075223326683044</v>
+        <v>-0.05067163333296776</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.519515335559845</v>
+        <v>-0.009784474968910217</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03221052885055542</v>
+        <v>-0.7768294811248779</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.7168542742729187</v>
+        <v>-0.0305662713944912</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.4977787733078003</v>
+        <v>-0.03006161749362946</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0423533171415329</v>
+        <v>-0.7799184322357178</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.7197783589363098</v>
+        <v>-0.0458088330924511</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.4949595630168915</v>
+        <v>-0.01976729929447174</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07785099744796753</v>
+        <v>-0.786198616027832</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.7331113815307617</v>
+        <v>-0.01744255051016808</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4541479647159576</v>
+        <v>-0.03898914158344269</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1071434766054153</v>
+        <v>-0.7783576250076294</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.6717929840087891</v>
+        <v>0.05458805337548256</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.5138819217681885</v>
+        <v>-0.09642678499221802</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.0441281646490097</v>
+        <v>-0.724953293800354</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.6733940243721008</v>
+        <v>0.03623193874955177</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.5140549540519714</v>
+        <v>-0.09486424922943115</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.05157588422298431</v>
+        <v>-0.7252269983291626</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.6850190758705139</v>
+        <v>0.003570739179849625</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.4813039898872375</v>
+        <v>-0.04569512605667114</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.03731480240821838</v>
+        <v>-0.7353368997573853</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.745657742023468</v>
+        <v>0.03004312887787819</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.4207671880722046</v>
+        <v>-0.05794170498847961</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08706492930650711</v>
+        <v>-0.7645951509475708</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.7971301674842834</v>
+        <v>-0.01518851146101952</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.3162268698215485</v>
+        <v>-0.04045923054218292</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2393636107444763</v>
+        <v>-0.7672115564346313</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.8647690415382385</v>
+        <v>-0.01255491003394127</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2006928026676178</v>
+        <v>-0.05022892355918884</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3540823459625244</v>
+        <v>-0.7859128713607788</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.8185502886772156</v>
+        <v>0.003968063741922379</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.3273940682411194</v>
+        <v>-0.03040191531181335</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2025540173053741</v>
+        <v>-0.8118524551391602</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.8370603919029236</v>
+        <v>-0.02323311194777489</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.3265643417835236</v>
+        <v>-0.02380791306495667</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2195405662059784</v>
+        <v>-0.8446394205093384</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.8574684262275696</v>
+        <v>-0.01050173863768578</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.3105631470680237</v>
+        <v>-0.03132498264312744</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2391834706068039</v>
+        <v>-0.8508672714233398</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.834934413433075</v>
+        <v>-0.01263218745589256</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.3209859132766724</v>
+        <v>-0.02109900116920471</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2340325564146042</v>
+        <v>-0.8291707038879395</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.8900359272956848</v>
+        <v>-0.04036572203040123</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.2196657508611679</v>
+        <v>-0.03045350313186646</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3524541556835175</v>
+        <v>-0.8536163568496704</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.8484374284744263</v>
+        <v>-0.02052473649382591</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.3259148597717285</v>
+        <v>-0.02657410502433777</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2325437217950821</v>
+        <v>-0.867692232131958</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8259639143943787</v>
+        <v>0.01331565156579018</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.3785494565963745</v>
+        <v>-0.03957101702690125</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1503138989210129</v>
+        <v>-0.8746023178100586</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.843092143535614</v>
+        <v>0.02878520265221596</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.3764130771160126</v>
+        <v>-0.05210429430007935</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1170179545879364</v>
+        <v>-0.8850889205932617</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.8285169005393982</v>
+        <v>0.02270427718758583</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.3907663822174072</v>
+        <v>-0.05569612979888916</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08272828161716461</v>
+        <v>-0.8848140239715576</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.8447255492210388</v>
+        <v>0.03287619724869728</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.3615684509277344</v>
+        <v>-0.0581134557723999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1604920923709869</v>
+        <v>-0.8871129751205444</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.9214047789573669</v>
+        <v>0.04562783613801003</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.2042309045791626</v>
+        <v>-0.07084785401821136</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3401376605033875</v>
+        <v>-0.8743301630020142</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.9485881924629211</v>
+        <v>0.01845446601510048</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.1235713362693787</v>
+        <v>-0.07810342311859131</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4600385427474976</v>
+        <v>-0.8842241764068604</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.9655944108963013</v>
+        <v>0.01154986396431923</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1436151564121246</v>
+        <v>-0.07502093911170959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4439765214920044</v>
+        <v>-0.907380223274231</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.911501944065094</v>
+        <v>0.02479350939393044</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.2688126564025879</v>
+        <v>-0.05003657937049866</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2985973060131073</v>
+        <v>-0.9114694595336914</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.9459811449050903</v>
+        <v>0.04512897506356239</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.2222900390625</v>
+        <v>-0.05840662121772766</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3427742719650269</v>
+        <v>-0.9104596376419067</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.9249633550643921</v>
+        <v>0.02195555344223976</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.2690897583961487</v>
+        <v>-0.05355596542358398</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3003886342048645</v>
+        <v>-0.9291156530380249</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.9144521355628967</v>
+        <v>-0.03038659319281578</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.2696376144886017</v>
+        <v>-0.03486603498458862</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3124959766864777</v>
+        <v>-0.9433163404464722</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.8684348464012146</v>
+        <v>-0.02767270430922508</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.3582787215709686</v>
+        <v>-0.02738842368125916</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2291839718818665</v>
+        <v>-0.9431604146957397</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.8606672883033752</v>
+        <v>-0.006684001535177231</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.3975884914398193</v>
+        <v>-0.03514748811721802</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1576179265975952</v>
+        <v>-0.9598451852798462</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.8767121434211731</v>
+        <v>-0.002166416496038437</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.3903644979000092</v>
+        <v>-0.04003280401229858</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1302017271518707</v>
+        <v>-0.9793781042098999</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.890245258808136</v>
+        <v>0.004002664238214493</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.377825528383255</v>
+        <v>-0.04439425468444824</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1134418547153473</v>
+        <v>-0.9847779273986816</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.8775265216827393</v>
+        <v>-0.003269698470830917</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.3887646794319153</v>
+        <v>-0.03976568579673767</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1672698259353638</v>
+        <v>-0.9757704734802246</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.9282053112983704</v>
+        <v>-0.06976714730262756</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2785983979701996</v>
+        <v>-0.04236039519309998</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3325831294059753</v>
+        <v>-0.9801889657974243</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.9757896065711975</v>
+        <v>-0.09024885296821594</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.214456632733345</v>
+        <v>-0.03274661302566528</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4115698933601379</v>
+        <v>-0.9995245933532715</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.9459744095802307</v>
+        <v>-0.005300816148519516</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.3282512426376343</v>
+        <v>-0.04283678531646729</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2181288003921509</v>
+        <v>-1.021202564239502</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.9147322177886963</v>
+        <v>-0.02682336792349815</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.3819887340068817</v>
+        <v>-0.03569099307060242</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1310013979673386</v>
+        <v>-1.033342838287354</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.9365052580833435</v>
+        <v>-0.02298009023070335</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.3566048443317413</v>
+        <v>-0.03848084807395935</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1641445606946945</v>
+        <v>-1.043526530265808</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.9271066784858704</v>
+        <v>-0.04628440365195274</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.3634925484657288</v>
+        <v>-0.02259024977684021</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1590185165405273</v>
+        <v>-1.043257355690002</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.9739189743995667</v>
+        <v>-0.03499036654829979</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.2655314207077026</v>
+        <v>-0.03696194291114807</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2976278066635132</v>
+        <v>-1.031206369400024</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.9326193928718567</v>
+        <v>-0.03961458429694176</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.3620849847793579</v>
+        <v>-0.02773460745811462</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1866158246994019</v>
+        <v>-1.047526001930237</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.9369868040084839</v>
+        <v>-0.06056215986609459</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.3764042854309082</v>
+        <v>-0.01433002948760986</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1150234192609787</v>
+        <v>-1.051115989685059</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.9353330731391907</v>
+        <v>-0.08570477366447449</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.389050155878067</v>
+        <v>-0.001005858182907104</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07777614891529083</v>
+        <v>-1.049296855926514</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.9223038554191589</v>
+        <v>-0.1108380854129791</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.4036856293678284</v>
+        <v>0.01727575063705444</v>
       </c>
       <c r="D142" t="n">
-        <v>0.07218082249164581</v>
+        <v>-1.032607078552246</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.9316263794898987</v>
+        <v>-0.05551394447684288</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.3827348351478577</v>
+        <v>-0.01430109143257141</v>
       </c>
       <c r="D143" t="n">
-        <v>0.15583536028862</v>
+        <v>-1.051698088645935</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.9537723660469055</v>
+        <v>-0.09270006418228149</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.3364481627941132</v>
+        <v>-0.01621043682098389</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2530672252178192</v>
+        <v>-1.073562026023865</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.045775532722473</v>
+        <v>-0.1181753277778625</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.3619504272937775</v>
+        <v>-0.02541843056678772</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2390026897192001</v>
+        <v>-1.27199375629425</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.132930517196655</v>
+        <v>-0.1358581185340881</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.3743908107280731</v>
+        <v>0.01483362913131714</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1732966601848602</v>
+        <v>-1.397006869316101</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.137664318084717</v>
+        <v>-0.09836950898170471</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.4029720425605774</v>
+        <v>-0.06541651487350464</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2121004909276962</v>
+        <v>-1.449916005134583</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.104733228683472</v>
+        <v>-0.09842464327812195</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.4093534052371979</v>
+        <v>-0.06932616233825684</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2109535187482834</v>
+        <v>-1.415176510810852</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.077468991279602</v>
+        <v>-0.1181868016719818</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.4242956638336182</v>
+        <v>-0.06480947136878967</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2213426232337952</v>
+        <v>-1.400905251502991</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.05913233757019</v>
+        <v>-0.1119688451290131</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.4421166777610779</v>
+        <v>-0.06473582983016968</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2017683684825897</v>
+        <v>-1.368121385574341</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.072854042053223</v>
+        <v>-0.1159149706363678</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.4423632323741913</v>
+        <v>-0.05447369813919067</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1869601905345917</v>
+        <v>-1.39462149143219</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.057381749153137</v>
+        <v>-0.1634232103824615</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.4569050669670105</v>
+        <v>-0.02593931555747986</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1346694976091385</v>
+        <v>-1.404971957206726</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.055423498153687</v>
+        <v>-0.2520843148231506</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.4655616581439972</v>
+        <v>0.05444478988647461</v>
       </c>
       <c r="D153" t="n">
-        <v>0.09763775765895844</v>
+        <v>-1.365643382072449</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.064639449119568</v>
+        <v>-0.265064150094986</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.4693747162818909</v>
+        <v>0.08142459392547607</v>
       </c>
       <c r="D154" t="n">
-        <v>0.07318209111690521</v>
+        <v>-1.372931003570557</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.038482546806335</v>
+        <v>-0.190769374370575</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.497712254524231</v>
+        <v>0.02848032116889954</v>
       </c>
       <c r="D155" t="n">
-        <v>0.05909022688865662</v>
+        <v>-1.359370112419128</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.003304719924927</v>
+        <v>-0.1339032649993896</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.527624249458313</v>
+        <v>-0.01514318585395813</v>
       </c>
       <c r="D156" t="n">
-        <v>0.07556328177452087</v>
+        <v>-1.317399144172668</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.216614484786987</v>
+        <v>-0.1399512588977814</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.179699644446373</v>
+        <v>-0.001801013946533203</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4607934951782227</v>
+        <v>-1.223733425140381</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.783010601997375</v>
+        <v>-0.5043524503707886</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.1467951685190201</v>
+        <v>0.117828294634819</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9946409463882446</v>
+        <v>-2.354019403457642</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.989010095596313</v>
+        <v>-0.74913090467453</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.2033243328332901</v>
+        <v>0.2505078911781311</v>
       </c>
       <c r="D159" t="n">
-        <v>1.074924468994141</v>
+        <v>-2.469080924987793</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-2.044949054718018</v>
+        <v>-0.7090052962303162</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.08716534078121185</v>
+        <v>0.2221503406763077</v>
       </c>
       <c r="D160" t="n">
-        <v>1.195220947265625</v>
+        <v>-2.516453981399536</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-2.086714029312134</v>
+        <v>-0.7321112751960754</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.1331827193498611</v>
+        <v>0.2436428368091583</v>
       </c>
       <c r="D161" t="n">
-        <v>1.175058007240295</v>
+        <v>-2.514816045761108</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-2.128726720809937</v>
+        <v>-0.6959574818611145</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01264522597193718</v>
+        <v>0.2066558450460434</v>
       </c>
       <c r="D162" t="n">
-        <v>1.284298896789551</v>
+        <v>-2.525589227676392</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-2.145000457763672</v>
+        <v>-0.6917110085487366</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.01570408418774605</v>
+        <v>0.2052392512559891</v>
       </c>
       <c r="D163" t="n">
-        <v>1.267814040184021</v>
+        <v>-2.534294128417969</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-2.159506559371948</v>
+        <v>-0.747814953327179</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.2155966013669968</v>
+        <v>0.2600017189979553</v>
       </c>
       <c r="D164" t="n">
-        <v>1.17516016960144</v>
+        <v>-2.56787109375</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-2.072633266448975</v>
+        <v>-0.7861170768737793</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.3476926684379578</v>
+        <v>0.2854323089122772</v>
       </c>
       <c r="D165" t="n">
-        <v>1.047555685043335</v>
+        <v>-2.580737829208374</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-2.093919992446899</v>
+        <v>-0.808426558971405</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.3716325461864471</v>
+        <v>0.3037050664424896</v>
       </c>
       <c r="D166" t="n">
-        <v>1.051247835159302</v>
+        <v>-2.589550256729126</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-2.0260329246521</v>
+        <v>-0.7047894597053528</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.2520362138748169</v>
+        <v>0.2551901340484619</v>
       </c>
       <c r="D167" t="n">
-        <v>1.070571303367615</v>
+        <v>-2.52043080329895</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.931926250457764</v>
+        <v>-0.5661463141441345</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.04472203925251961</v>
+        <v>0.13730089366436</v>
       </c>
       <c r="D168" t="n">
-        <v>1.137194514274597</v>
+        <v>-2.446984529495239</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.974544048309326</v>
+        <v>-0.4953876435756683</v>
       </c>
       <c r="C169" t="n">
-        <v>0.06120492145419121</v>
+        <v>0.09471943974494934</v>
       </c>
       <c r="D169" t="n">
-        <v>1.238317966461182</v>
+        <v>-2.460987567901611</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.748393893241882</v>
+        <v>-0.3570870161056519</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1955273598432541</v>
+        <v>0.07095646858215332</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9013147950172424</v>
+        <v>-2.388498067855835</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.67651104927063</v>
+        <v>-0.4327988922595978</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.3076188564300537</v>
+        <v>0.04994797706604004</v>
       </c>
       <c r="D171" t="n">
-        <v>0.8052494525909424</v>
+        <v>-2.296027421951294</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.634011030197144</v>
+        <v>-0.3154831230640411</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.2901472151279449</v>
+        <v>0.03756856918334961</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7881463170051575</v>
+        <v>-2.278196096420288</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.655237674713135</v>
+        <v>-0.2377572059631348</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.3279651999473572</v>
+        <v>0.01728427410125732</v>
       </c>
       <c r="D173" t="n">
-        <v>0.7863034009933472</v>
+        <v>-2.328977584838867</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.699411392211914</v>
+        <v>-0.2387306094169617</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.2700903117656708</v>
+        <v>0.01961442828178406</v>
       </c>
       <c r="D174" t="n">
-        <v>0.853056013584137</v>
+        <v>-2.448518037796021</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.576750516891479</v>
+        <v>-0.3580625057220459</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.441311776638031</v>
+        <v>0.04057052731513977</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6926037073135376</v>
+        <v>-2.276979207992554</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.452142000198364</v>
+        <v>-0.4396009147167206</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.6064175963401794</v>
+        <v>0.09021419286727905</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4267909228801727</v>
+        <v>-2.092038869857788</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.511626482009888</v>
+        <v>-0.2963859140872955</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.5830485820770264</v>
+        <v>-0.006331533193588257</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5198026895523071</v>
+        <v>-2.172903299331665</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.387740135192871</v>
+        <v>-0.4733630120754242</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.6559417843818665</v>
+        <v>0.1638327538967133</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3610787391662598</v>
+        <v>-1.763270020484924</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.480555295944214</v>
+        <v>-0.1470198035240173</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.5088083148002625</v>
+        <v>-0.09755608439445496</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6223471164703369</v>
+        <v>-2.102022886276245</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.52554976940155</v>
+        <v>-0.1020476520061493</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.4505595266819</v>
+        <v>-0.1123208999633789</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6803866624832153</v>
+        <v>-2.174283981323242</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.472860097885132</v>
+        <v>-0.1346940696239471</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.4547649323940277</v>
+        <v>-0.1692717373371124</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6667351722717285</v>
+        <v>-2.122346878051758</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.426987290382385</v>
+        <v>-0.1568405330181122</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.516110897064209</v>
+        <v>-0.08230870962142944</v>
       </c>
       <c r="D182" t="n">
-        <v>0.50058913230896</v>
+        <v>-2.051120519638062</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.408869028091431</v>
+        <v>-0.2525226771831512</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.6161384582519531</v>
+        <v>0.01368731260299683</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4360267519950867</v>
+        <v>-1.967561483383179</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.370665788650513</v>
+        <v>-0.29290571808815</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.627099871635437</v>
+        <v>0.08899539709091187</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4162567257881165</v>
+        <v>-1.966400623321533</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.298129796981812</v>
+        <v>-0.4483372271060944</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.701832115650177</v>
+        <v>0.1686612367630005</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3500524163246155</v>
+        <v>-1.846818208694458</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.283712267875671</v>
+        <v>-0.3898771703243256</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.6624091267585754</v>
+        <v>0.0889701247215271</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4299933910369873</v>
+        <v>-1.780541658401489</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.280064463615417</v>
+        <v>-0.4916233122348785</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.7432682514190674</v>
+        <v>0.1761729121208191</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3538944721221924</v>
+        <v>-1.703655362129211</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.324272513389587</v>
+        <v>-0.579756498336792</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.7456855773925781</v>
+        <v>0.2941659092903137</v>
       </c>
       <c r="D188" t="n">
-        <v>0.274627685546875</v>
+        <v>-1.765505075454712</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.32249653339386</v>
+        <v>-0.6011971831321716</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.7843401432037354</v>
+        <v>0.3161501586437225</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2081281840801239</v>
+        <v>-1.862149953842163</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.437769055366516</v>
+        <v>-0.3385820090770721</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.7535610198974609</v>
+        <v>0.02884602546691895</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1896760761737823</v>
+        <v>-2.712595701217651</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.406718850135803</v>
+        <v>-0.3312521874904633</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.7686367034912109</v>
+        <v>0.03736120462417603</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1629841476678848</v>
+        <v>-2.689745664596558</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.354354619979858</v>
+        <v>-0.3718844056129456</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.8168173432350159</v>
+        <v>0.02190771698951721</v>
       </c>
       <c r="D192" t="n">
-        <v>0.130364716053009</v>
+        <v>-2.680195093154907</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.327736377716064</v>
+        <v>-0.4636398255825043</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.8527572751045227</v>
+        <v>0.05045655369758606</v>
       </c>
       <c r="D193" t="n">
-        <v>0.08884122967720032</v>
+        <v>-2.725859642028809</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.472908973693848</v>
+        <v>-0.649175763130188</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.8741029500961304</v>
+        <v>0.19820836186409</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02404321730136871</v>
+        <v>-2.914074182510376</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.42647385597229</v>
+        <v>-0.9012485146522522</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.9826175570487976</v>
+        <v>0.3377558588981628</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.3336100578308105</v>
+        <v>-2.977684020996094</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.559195637702942</v>
+        <v>-0.8159956336021423</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.9413796663284302</v>
+        <v>0.3354830741882324</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.009212672710418701</v>
+        <v>-3.049660921096802</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.570571184158325</v>
+        <v>-0.8575531840324402</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.9847158193588257</v>
+        <v>0.3462337851524353</v>
       </c>
       <c r="D197" t="n">
-        <v>0.01143342256546021</v>
+        <v>-3.110583543777466</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.55463171005249</v>
+        <v>-0.8390436172485352</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.020283579826355</v>
+        <v>0.2943169474601746</v>
       </c>
       <c r="D198" t="n">
-        <v>0.07759704440832138</v>
+        <v>-3.077842950820923</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.580664873123169</v>
+        <v>-0.9503102898597717</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.0717533826828</v>
+        <v>0.3831276297569275</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.01036232709884644</v>
+        <v>-3.181429624557495</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.628114581108093</v>
+        <v>-0.8473460078239441</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.04022204875946</v>
+        <v>0.3482416570186615</v>
       </c>
       <c r="D200" t="n">
-        <v>0.04975420236587524</v>
+        <v>-3.162191390991211</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.599562406539917</v>
+        <v>-0.819286584854126</v>
       </c>
       <c r="C201" t="n">
-        <v>-1.045326590538025</v>
+        <v>0.3321018218994141</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.02084358036518097</v>
+        <v>-3.153204679489136</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.45747172832489</v>
+        <v>-0.8991429209709167</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.056895017623901</v>
+        <v>0.3539538383483887</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.3491204977035522</v>
+        <v>-3.154558420181274</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.619886636734009</v>
+        <v>-0.8153732419013977</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.013879537582397</v>
+        <v>0.3349233269691467</v>
       </c>
       <c r="D203" t="n">
-        <v>0.06109900772571564</v>
+        <v>-3.183968782424927</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.572377443313599</v>
+        <v>-0.8191377520561218</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.046919703483582</v>
+        <v>0.2987971305847168</v>
       </c>
       <c r="D204" t="n">
-        <v>0.08788792788982391</v>
+        <v>-3.176954984664917</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.561698794364929</v>
+        <v>-0.780626654624939</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.06062650680542</v>
+        <v>0.2632068991661072</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1349416375160217</v>
+        <v>-3.231614589691162</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.528532743453979</v>
+        <v>-0.6992360949516296</v>
       </c>
       <c r="C206" t="n">
-        <v>-1.043450236320496</v>
+        <v>0.2348748743534088</v>
       </c>
       <c r="D206" t="n">
-        <v>0.03207437694072723</v>
+        <v>-3.172502994537354</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.570558309555054</v>
+        <v>-0.5776097774505615</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.046781301498413</v>
+        <v>0.1429528295993805</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1815023124217987</v>
+        <v>-3.186659336090088</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.497663259506226</v>
+        <v>-0.4755676686763763</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.9879473447799683</v>
+        <v>0.07397580146789551</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1816578358411789</v>
+        <v>-3.078271150588989</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.516194820404053</v>
+        <v>-0.4405823647975922</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.9674060940742493</v>
+        <v>0.06793615221977234</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1694856584072113</v>
+        <v>-3.054377794265747</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.542701244354248</v>
+        <v>-0.4575324952602386</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.9819499254226685</v>
+        <v>0.08362665772438049</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1740263700485229</v>
+        <v>-3.156344652175903</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.566232681274414</v>
+        <v>-0.407977819442749</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.997011661529541</v>
+        <v>0.06279444694519043</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1901676654815674</v>
+        <v>-3.145520210266113</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.556259989738464</v>
+        <v>-0.3754033446311951</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.9914773106575012</v>
+        <v>0.05088260769844055</v>
       </c>
       <c r="D212" t="n">
-        <v>0.199918270111084</v>
+        <v>-3.102533340454102</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.586571931838989</v>
+        <v>-0.4284968972206116</v>
       </c>
       <c r="C213" t="n">
-        <v>-1.013491630554199</v>
+        <v>0.08332136273384094</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1788381934165955</v>
+        <v>-3.148909568786621</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.51381778717041</v>
+        <v>-0.489159494638443</v>
       </c>
       <c r="C214" t="n">
-        <v>-1.015744805335999</v>
+        <v>0.109619140625</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.0420476496219635</v>
+        <v>-3.101927042007446</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.37722373008728</v>
+        <v>-0.5117077231407166</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.00473427772522</v>
+        <v>0.1247078776359558</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.241787850856781</v>
+        <v>-3.026630401611328</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.416969418525696</v>
+        <v>-0.5891280174255371</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.044036865234375</v>
+        <v>0.1515834033489227</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.1564886271953583</v>
+        <v>-3.087801933288574</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.51719331741333</v>
+        <v>-0.6260539889335632</v>
       </c>
       <c r="C217" t="n">
-        <v>-1.006954312324524</v>
+        <v>0.1458143591880798</v>
       </c>
       <c r="D217" t="n">
-        <v>0.1681042909622192</v>
+        <v>-3.223894357681274</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.500737071037292</v>
+        <v>-0.6621648073196411</v>
       </c>
       <c r="C218" t="n">
-        <v>-1.088659524917603</v>
+        <v>0.1978129148483276</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.1436258256435394</v>
+        <v>-3.24831223487854</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-1.508562445640564</v>
+        <v>-0.5585224032402039</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.082996606826782</v>
+        <v>0.1346390545368195</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.0868740975856781</v>
+        <v>-3.259185791015625</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.521994829177856</v>
+        <v>-0.6554207801818848</v>
       </c>
       <c r="C220" t="n">
-        <v>-1.06550931930542</v>
+        <v>0.2112897932529449</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.09751236438751221</v>
+        <v>-3.266513109207153</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.499152421951294</v>
+        <v>-0.7861768007278442</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.144633650779724</v>
+        <v>0.2663450241088867</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.2699792385101318</v>
+        <v>-3.329591035842896</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.507452726364136</v>
+        <v>-0.8162707686424255</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.156846642494202</v>
+        <v>0.2700171768665314</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1606444716453552</v>
+        <v>-3.375758171081543</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.463950634002686</v>
+        <v>-0.8076861500740051</v>
       </c>
       <c r="C223" t="n">
-        <v>-1.159436941146851</v>
+        <v>0.2367786914110184</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1358067989349365</v>
+        <v>-3.365628004074097</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.402525186538696</v>
+        <v>-0.751569926738739</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.146269202232361</v>
+        <v>0.2022038400173187</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.3543353080749512</v>
+        <v>-3.343053102493286</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-1.356374979019165</v>
+        <v>-0.7257960438728333</v>
       </c>
       <c r="C225" t="n">
-        <v>-1.120901942253113</v>
+        <v>0.1656658053398132</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.3857125639915466</v>
+        <v>-3.329813003540039</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.493156671524048</v>
+        <v>-0.7596887946128845</v>
       </c>
       <c r="C226" t="n">
-        <v>-1.159587264060974</v>
+        <v>0.2038945555686951</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.1950477957725525</v>
+        <v>-3.46086311340332</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.662839651107788</v>
+        <v>-0.5837616324424744</v>
       </c>
       <c r="C227" t="n">
-        <v>-1.034683465957642</v>
+        <v>0.140099048614502</v>
       </c>
       <c r="D227" t="n">
-        <v>0.3113904595375061</v>
+        <v>-3.46799635887146</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.754946231842041</v>
+        <v>-0.6003962755203247</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.9440653920173645</v>
+        <v>0.1262705624103546</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5743111371994019</v>
+        <v>-3.536230087280273</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.815625071525574</v>
+        <v>-0.5467149019241333</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.8152647614479065</v>
+        <v>0.05235296487808228</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7976044416427612</v>
+        <v>-3.611762523651123</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.802355647087097</v>
+        <v>-0.5668519139289856</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.9702258110046387</v>
+        <v>0.1291246712207794</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5331711769104004</v>
+        <v>-3.626592397689819</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.771081447601318</v>
+        <v>-0.6504430174827576</v>
       </c>
       <c r="C231" t="n">
-        <v>-1.082276701927185</v>
+        <v>0.1411939263343811</v>
       </c>
       <c r="D231" t="n">
-        <v>0.38518226146698</v>
+        <v>-3.682520866394043</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.878070592880249</v>
+        <v>-0.5780394673347473</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.9818108677864075</v>
+        <v>0.157187819480896</v>
       </c>
       <c r="D232" t="n">
-        <v>0.6346713304519653</v>
+        <v>-3.752112865447998</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.856719970703125</v>
+        <v>-0.6770156025886536</v>
       </c>
       <c r="C233" t="n">
-        <v>-1.017596364021301</v>
+        <v>0.1868814826011658</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5360806584358215</v>
+        <v>-3.753501176834106</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.871326327323914</v>
+        <v>-0.695845901966095</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.011011242866516</v>
+        <v>0.1952769458293915</v>
       </c>
       <c r="D234" t="n">
-        <v>0.5889183282852173</v>
+        <v>-3.788579940795898</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.851065635681152</v>
+        <v>-0.6825553178787231</v>
       </c>
       <c r="C235" t="n">
-        <v>-1.045450329780579</v>
+        <v>0.1752510666847229</v>
       </c>
       <c r="D235" t="n">
-        <v>0.547533392906189</v>
+        <v>-3.795011758804321</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.84859299659729</v>
+        <v>-0.6329025626182556</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.093679308891296</v>
+        <v>0.1556050777435303</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5196549296379089</v>
+        <v>-3.871948480606079</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.874082803726196</v>
+        <v>-0.5763910412788391</v>
       </c>
       <c r="C237" t="n">
-        <v>-1.123941898345947</v>
+        <v>0.1439905762672424</v>
       </c>
       <c r="D237" t="n">
-        <v>0.564017653465271</v>
+        <v>-3.946410894393921</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-1.971215605735779</v>
+        <v>-0.6860833764076233</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.130048513412476</v>
+        <v>0.1875888109207153</v>
       </c>
       <c r="D238" t="n">
-        <v>0.5585366487503052</v>
+        <v>-4.01984977722168</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.939403533935547</v>
+        <v>-0.6814717650413513</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.08655846118927</v>
+        <v>0.2106471955776215</v>
       </c>
       <c r="D239" t="n">
-        <v>0.582122802734375</v>
+        <v>-3.927004337310791</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.99914026260376</v>
+        <v>-0.7660784721374512</v>
       </c>
       <c r="C240" t="n">
-        <v>-1.038505554199219</v>
+        <v>0.2513552904129028</v>
       </c>
       <c r="D240" t="n">
-        <v>0.7131080627441406</v>
+        <v>-3.979424715042114</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-2.080153226852417</v>
+        <v>-0.5980966687202454</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.9648888111114502</v>
+        <v>0.1486067771911621</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8828690648078918</v>
+        <v>-4.071579933166504</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-2.033726215362549</v>
+        <v>-0.6241841316223145</v>
       </c>
       <c r="C242" t="n">
-        <v>-1.142843961715698</v>
+        <v>0.1866191923618317</v>
       </c>
       <c r="D242" t="n">
-        <v>0.686201810836792</v>
+        <v>-4.15501594543457</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-2.004902362823486</v>
+        <v>-0.6645341515541077</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.136409163475037</v>
+        <v>0.1879820823669434</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6001856327056885</v>
+        <v>-3.986997365951538</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-2.093258142471313</v>
+        <v>-0.4292204082012177</v>
       </c>
       <c r="C244" t="n">
-        <v>-1.012253403663635</v>
+        <v>0.0970834493637085</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8124297857284546</v>
+        <v>-4.096245288848877</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-2.107842922210693</v>
+        <v>-0.4174127876758575</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.092243790626526</v>
+        <v>0.07862848043441772</v>
       </c>
       <c r="D245" t="n">
-        <v>0.8030040860176086</v>
+        <v>-4.215429782867432</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-2.125185489654541</v>
+        <v>-0.2598662674427032</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.9565997123718262</v>
+        <v>-0.004169106483459473</v>
       </c>
       <c r="D246" t="n">
-        <v>0.9477384090423584</v>
+        <v>-4.162458419799805</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-2.047141075134277</v>
+        <v>-0.2394928634166718</v>
       </c>
       <c r="C247" t="n">
-        <v>-1.030030369758606</v>
+        <v>-0.04693871736526489</v>
       </c>
       <c r="D247" t="n">
-        <v>0.8583180904388428</v>
+        <v>-4.168130397796631</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-2.012389659881592</v>
+        <v>-0.248151034116745</v>
       </c>
       <c r="C248" t="n">
-        <v>-1.123159885406494</v>
+        <v>-0.04203325510025024</v>
       </c>
       <c r="D248" t="n">
-        <v>0.7564324140548706</v>
+        <v>-4.217684268951416</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-2.025671482086182</v>
+        <v>-0.1548310816287994</v>
       </c>
       <c r="C249" t="n">
-        <v>-1.025158047676086</v>
+        <v>-0.08421880006790161</v>
       </c>
       <c r="D249" t="n">
-        <v>0.8248000144958496</v>
+        <v>-4.124567031860352</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.912344217300415</v>
+        <v>-0.2343455851078033</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.112402439117432</v>
+        <v>-0.06003618240356445</v>
       </c>
       <c r="D250" t="n">
-        <v>0.6665048599243164</v>
+        <v>-4.035351753234863</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.973646640777588</v>
+        <v>-0.1429018676280975</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.9897987842559814</v>
+        <v>-0.1154135465621948</v>
       </c>
       <c r="D251" t="n">
-        <v>0.8179478645324707</v>
+        <v>-4.050934791564941</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-2.030355930328369</v>
+        <v>-0.064260333776474</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.9238721132278442</v>
+        <v>-0.1205493807792664</v>
       </c>
       <c r="D252" t="n">
-        <v>0.9599629640579224</v>
+        <v>-4.038553237915039</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-2.067649602890015</v>
+        <v>-0.1368360817432404</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.9263141751289368</v>
+        <v>-0.1067163944244385</v>
       </c>
       <c r="D253" t="n">
-        <v>1.028985381126404</v>
+        <v>-4.127546787261963</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.054369926452637</v>
+        <v>-0.2076000273227692</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.9100632667541504</v>
+        <v>-0.01544797420501709</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9102991223335266</v>
+        <v>-4.078758239746094</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-2.115147113800049</v>
+        <v>-0.6143973469734192</v>
       </c>
       <c r="C255" t="n">
-        <v>-1.074553489685059</v>
+        <v>0.1627322733402252</v>
       </c>
       <c r="D255" t="n">
-        <v>0.7308281660079956</v>
+        <v>-4.148488998413086</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-2.321772336959839</v>
+        <v>-0.7835894227027893</v>
       </c>
       <c r="C256" t="n">
-        <v>-1.142915844917297</v>
+        <v>0.2750604748725891</v>
       </c>
       <c r="D256" t="n">
-        <v>0.8315295577049255</v>
+        <v>-4.458075523376465</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-2.286800861358643</v>
+        <v>-0.7844893336296082</v>
       </c>
       <c r="C257" t="n">
-        <v>-1.156206846237183</v>
+        <v>0.2624273896217346</v>
       </c>
       <c r="D257" t="n">
-        <v>0.8113964200019836</v>
+        <v>-4.533126831054688</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-2.348663806915283</v>
+        <v>-0.8026766180992126</v>
       </c>
       <c r="C258" t="n">
-        <v>-1.10271167755127</v>
+        <v>0.2725843191146851</v>
       </c>
       <c r="D258" t="n">
-        <v>0.9310041069984436</v>
+        <v>-4.545185089111328</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-2.331547021865845</v>
+        <v>-0.8061996102333069</v>
       </c>
       <c r="C259" t="n">
-        <v>-1.240946769714355</v>
+        <v>0.2654697000980377</v>
       </c>
       <c r="D259" t="n">
-        <v>0.8761763572692871</v>
+        <v>-4.640710353851318</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-2.297134399414062</v>
+        <v>-0.7300027012825012</v>
       </c>
       <c r="C260" t="n">
-        <v>-1.259121060371399</v>
+        <v>0.2386224865913391</v>
       </c>
       <c r="D260" t="n">
-        <v>0.8295646905899048</v>
+        <v>-4.598098278045654</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-2.387508153915405</v>
+        <v>-0.8095318675041199</v>
       </c>
       <c r="C261" t="n">
-        <v>-1.185464382171631</v>
+        <v>0.2812052965164185</v>
       </c>
       <c r="D261" t="n">
-        <v>0.9218668937683105</v>
+        <v>-4.582104682922363</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-2.24205756187439</v>
+        <v>-0.7015962600708008</v>
       </c>
       <c r="C262" t="n">
-        <v>-1.275739669799805</v>
+        <v>0.2320846617221832</v>
       </c>
       <c r="D262" t="n">
-        <v>0.5445516705513</v>
+        <v>-4.646321296691895</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-2.412123203277588</v>
+        <v>-0.6526301503181458</v>
       </c>
       <c r="C263" t="n">
-        <v>-1.302481293678284</v>
+        <v>0.2164599299430847</v>
       </c>
       <c r="D263" t="n">
-        <v>0.9833629727363586</v>
+        <v>-4.857113838195801</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-2.426757097244263</v>
+        <v>-0.6080898642539978</v>
       </c>
       <c r="C264" t="n">
-        <v>-1.259621143341064</v>
+        <v>0.1689763069152832</v>
       </c>
       <c r="D264" t="n">
-        <v>1.058686017990112</v>
+        <v>-4.806280136108398</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-2.403349637985229</v>
+        <v>-0.5749792456626892</v>
       </c>
       <c r="C265" t="n">
-        <v>-1.346914052963257</v>
+        <v>0.173012375831604</v>
       </c>
       <c r="D265" t="n">
-        <v>1.089393615722656</v>
+        <v>-4.943302154541016</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-2.323061943054199</v>
+        <v>-0.6197912693023682</v>
       </c>
       <c r="C266" t="n">
-        <v>-1.382651925086975</v>
+        <v>0.1831655502319336</v>
       </c>
       <c r="D266" t="n">
-        <v>0.880541980266571</v>
+        <v>-4.930931091308594</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-2.271362066268921</v>
+        <v>-0.5157302618026733</v>
       </c>
       <c r="C267" t="n">
-        <v>-1.508450746536255</v>
+        <v>0.1340528130531311</v>
       </c>
       <c r="D267" t="n">
-        <v>0.7498765587806702</v>
+        <v>-5.069134712219238</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-2.290128231048584</v>
+        <v>-0.506818950176239</v>
       </c>
       <c r="C268" t="n">
-        <v>-1.470177412033081</v>
+        <v>0.1293080449104309</v>
       </c>
       <c r="D268" t="n">
-        <v>0.7718908190727234</v>
+        <v>-5.048575401306152</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-2.237274169921875</v>
+        <v>-0.5029402375221252</v>
       </c>
       <c r="C269" t="n">
-        <v>-1.582477807998657</v>
+        <v>0.1082108020782471</v>
       </c>
       <c r="D269" t="n">
-        <v>0.7454168200492859</v>
+        <v>-5.155618190765381</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-2.229074478149414</v>
+        <v>-0.4564856588840485</v>
       </c>
       <c r="C270" t="n">
-        <v>-1.685420274734497</v>
+        <v>0.07459074258804321</v>
       </c>
       <c r="D270" t="n">
-        <v>0.7612119913101196</v>
+        <v>-5.337212562561035</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-2.200809955596924</v>
+        <v>-0.3765004575252533</v>
       </c>
       <c r="C271" t="n">
-        <v>-1.832834005355835</v>
+        <v>0.009088456630706787</v>
       </c>
       <c r="D271" t="n">
-        <v>0.7114998698234558</v>
+        <v>-5.473517417907715</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-2.224825859069824</v>
+        <v>-0.4440969526767731</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.830488324165344</v>
+        <v>0.04674458503723145</v>
       </c>
       <c r="D272" t="n">
-        <v>0.7003756165504456</v>
+        <v>-5.317358493804932</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-2.326571226119995</v>
+        <v>-0.4799443185329437</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.838570952415466</v>
+        <v>0.07938176393508911</v>
       </c>
       <c r="D273" t="n">
-        <v>0.7191014885902405</v>
+        <v>-5.335868358612061</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-2.184341192245483</v>
+        <v>-0.6621480584144592</v>
       </c>
       <c r="C274" t="n">
-        <v>-1.655518293380737</v>
+        <v>0.1616324782371521</v>
       </c>
       <c r="D274" t="n">
-        <v>0.3813179433345795</v>
+        <v>-5.154990196228027</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.921237230300903</v>
+        <v>-1.300698399543762</v>
       </c>
       <c r="C275" t="n">
-        <v>-1.495146751403809</v>
+        <v>0.4753277897834778</v>
       </c>
       <c r="D275" t="n">
-        <v>0.01535752415657043</v>
+        <v>-4.807348251342773</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.852103233337402</v>
+        <v>-1.495796322822571</v>
       </c>
       <c r="C276" t="n">
-        <v>-1.425674200057983</v>
+        <v>0.5640316605567932</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.1516117453575134</v>
+        <v>-4.686223983764648</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.975675940513611</v>
+        <v>-1.638420462608337</v>
       </c>
       <c r="C277" t="n">
-        <v>-1.322754263877869</v>
+        <v>0.5900346040725708</v>
       </c>
       <c r="D277" t="n">
-        <v>0.08788959681987762</v>
+        <v>-4.767839431762695</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.913102865219116</v>
+        <v>-1.702696561813354</v>
       </c>
       <c r="C278" t="n">
-        <v>-1.313107132911682</v>
+        <v>0.618325412273407</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.1226431131362915</v>
+        <v>-4.933520317077637</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-1.768544554710388</v>
+        <v>-1.704033732414246</v>
       </c>
       <c r="C279" t="n">
-        <v>-1.482410192489624</v>
+        <v>0.6176291108131409</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.1815974414348602</v>
+        <v>-4.844798564910889</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.755783200263977</v>
+        <v>-1.674617528915405</v>
       </c>
       <c r="C280" t="n">
-        <v>-1.448899269104004</v>
+        <v>0.6182628273963928</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.1845093667507172</v>
+        <v>-4.865584373474121</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.804781556129456</v>
+        <v>-1.679285764694214</v>
       </c>
       <c r="C281" t="n">
-        <v>-1.501875519752502</v>
+        <v>0.5998387336730957</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.2261533141136169</v>
+        <v>-5.029891014099121</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.989008188247681</v>
+        <v>-1.422877550125122</v>
       </c>
       <c r="C282" t="n">
-        <v>-1.541212797164917</v>
+        <v>0.5246965885162354</v>
       </c>
       <c r="D282" t="n">
-        <v>0.05407872796058655</v>
+        <v>-5.214459419250488</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-2.00315260887146</v>
+        <v>-1.356930613517761</v>
       </c>
       <c r="C283" t="n">
-        <v>-1.550747632980347</v>
+        <v>0.4955831468105316</v>
       </c>
       <c r="D283" t="n">
-        <v>0.09019288420677185</v>
+        <v>-5.109150886535645</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.920434236526489</v>
+        <v>-1.37847101688385</v>
       </c>
       <c r="C284" t="n">
-        <v>-1.57147479057312</v>
+        <v>0.5031763315200806</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.06976157426834106</v>
+        <v>-5.067476749420166</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.921657562255859</v>
+        <v>-1.372704148292542</v>
       </c>
       <c r="C285" t="n">
-        <v>-1.613569617271423</v>
+        <v>0.4930091202259064</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.08891847729682922</v>
+        <v>-5.17738151550293</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-1.917552828788757</v>
+        <v>-1.359431266784668</v>
       </c>
       <c r="C286" t="n">
-        <v>-1.634633779525757</v>
+        <v>0.4996569454669952</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.1097840368747711</v>
+        <v>-5.149739265441895</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-2.022311687469482</v>
+        <v>-1.214399099349976</v>
       </c>
       <c r="C287" t="n">
-        <v>-1.666454315185547</v>
+        <v>0.4361275136470795</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.004235103726387024</v>
+        <v>-5.394657135009766</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-2.060508012771606</v>
+        <v>-1.171872854232788</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.640357851982117</v>
+        <v>0.4107802510261536</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1662351191043854</v>
+        <v>-5.384018421173096</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-2.026836633682251</v>
+        <v>-1.111030578613281</v>
       </c>
       <c r="C289" t="n">
-        <v>-1.577241659164429</v>
+        <v>0.3956008553504944</v>
       </c>
       <c r="D289" t="n">
-        <v>0.2836095690727234</v>
+        <v>-5.296801090240479</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.961551189422607</v>
+        <v>-1.240957260131836</v>
       </c>
       <c r="C290" t="n">
-        <v>-1.629140257835388</v>
+        <v>0.4191789329051971</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.08512741327285767</v>
+        <v>-5.441688537597656</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-1.945907115936279</v>
+        <v>-1.213566064834595</v>
       </c>
       <c r="C291" t="n">
-        <v>-1.766560316085815</v>
+        <v>0.4220719039440155</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.177513599395752</v>
+        <v>-5.439024448394775</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-2.110547065734863</v>
+        <v>-1.152960181236267</v>
       </c>
       <c r="C292" t="n">
-        <v>-1.739184617996216</v>
+        <v>0.4262959659099579</v>
       </c>
       <c r="D292" t="n">
-        <v>0.05068202316761017</v>
+        <v>-5.560086250305176</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-2.072473287582397</v>
+        <v>-1.099117994308472</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.770048975944519</v>
+        <v>0.3876966536045074</v>
       </c>
       <c r="D293" t="n">
-        <v>0.01874789595603943</v>
+        <v>-5.5966477394104</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-2.169084548950195</v>
+        <v>-1.295368194580078</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.704886794090271</v>
+        <v>0.445852667093277</v>
       </c>
       <c r="D294" t="n">
-        <v>0.06887529790401459</v>
+        <v>-5.661031723022461</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-2.111682415008545</v>
+        <v>-1.328914165496826</v>
       </c>
       <c r="C295" t="n">
-        <v>-1.697949290275574</v>
+        <v>0.4802043437957764</v>
       </c>
       <c r="D295" t="n">
-        <v>0.04020228981971741</v>
+        <v>-5.524184226989746</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-2.05882453918457</v>
+        <v>-1.289578914642334</v>
       </c>
       <c r="C296" t="n">
-        <v>-1.743006348609924</v>
+        <v>0.4533603191375732</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.08377298712730408</v>
+        <v>-5.583641052246094</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-2.034067630767822</v>
+        <v>-1.359667897224426</v>
       </c>
       <c r="C297" t="n">
-        <v>-1.707350134849548</v>
+        <v>0.4730260074138641</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.1783063411712646</v>
+        <v>-5.500067710876465</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.840668439865112</v>
+        <v>-1.277107715606689</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.897819638252258</v>
+        <v>0.4325247704982758</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.696649432182312</v>
+        <v>-5.545699119567871</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-2.091540336608887</v>
+        <v>-1.160573840141296</v>
       </c>
       <c r="C299" t="n">
-        <v>-1.777849912643433</v>
+        <v>0.4274424016475677</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.07327297329902649</v>
+        <v>-5.662202835083008</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-2.27278995513916</v>
+        <v>-1.07717227935791</v>
       </c>
       <c r="C300" t="n">
-        <v>-1.715304136276245</v>
+        <v>0.3886984586715698</v>
       </c>
       <c r="D300" t="n">
-        <v>0.2309800982475281</v>
+        <v>-5.632861137390137</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-2.220468997955322</v>
+        <v>-0.9831627011299133</v>
       </c>
       <c r="C301" t="n">
-        <v>-1.734437823295593</v>
+        <v>0.3732256293296814</v>
       </c>
       <c r="D301" t="n">
-        <v>0.3290964066982269</v>
+        <v>-5.673788547515869</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-2.100761651992798</v>
+        <v>-0.9934977889060974</v>
       </c>
       <c r="C302" t="n">
-        <v>-1.838624835014343</v>
+        <v>0.3540495634078979</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.1603814661502838</v>
+        <v>-5.746893405914307</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-2.042016744613647</v>
+        <v>-0.9280481934547424</v>
       </c>
       <c r="C303" t="n">
-        <v>-1.949486017227173</v>
+        <v>0.316631019115448</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.2073139250278473</v>
+        <v>-5.756932258605957</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-2.221237182617188</v>
+        <v>-0.8900561332702637</v>
       </c>
       <c r="C304" t="n">
-        <v>-1.91079306602478</v>
+        <v>0.3143691420555115</v>
       </c>
       <c r="D304" t="n">
-        <v>0.1914525330066681</v>
+        <v>-5.919787406921387</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-2.313562870025635</v>
+        <v>-0.7206694483757019</v>
       </c>
       <c r="C305" t="n">
-        <v>-1.936498880386353</v>
+        <v>0.2337632179260254</v>
       </c>
       <c r="D305" t="n">
-        <v>0.3162989616394043</v>
+        <v>-6.014581203460693</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-2.311951637268066</v>
+        <v>-0.8107122778892517</v>
       </c>
       <c r="C306" t="n">
-        <v>-1.84761917591095</v>
+        <v>0.2663193345069885</v>
       </c>
       <c r="D306" t="n">
-        <v>0.3465574979782104</v>
+        <v>-5.911890983581543</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-2.202881813049316</v>
+        <v>-0.9087212085723877</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.848558783531189</v>
+        <v>0.3026529550552368</v>
       </c>
       <c r="D307" t="n">
-        <v>0.1742531955242157</v>
+        <v>-5.769059658050537</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-2.092704057693481</v>
+        <v>-0.8725160956382751</v>
       </c>
       <c r="C308" t="n">
-        <v>-1.913205146789551</v>
+        <v>0.2711803913116455</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.09093758463859558</v>
+        <v>-5.751583099365234</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-2.051288604736328</v>
+        <v>-0.9930772185325623</v>
       </c>
       <c r="C309" t="n">
-        <v>-1.89665949344635</v>
+        <v>0.3333432674407959</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.1718040406703949</v>
+        <v>-5.671698570251465</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-2.150289297103882</v>
+        <v>-1.231337666511536</v>
       </c>
       <c r="C310" t="n">
-        <v>-1.901829957962036</v>
+        <v>0.4372196793556213</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.2111164033412933</v>
+        <v>-5.780447006225586</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-2.310184001922607</v>
+        <v>-1.033997297286987</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.889206290245056</v>
+        <v>0.3656260967254639</v>
       </c>
       <c r="D311" t="n">
-        <v>0.1173525154590607</v>
+        <v>-5.922487258911133</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-2.25904369354248</v>
+        <v>-0.9368798136711121</v>
       </c>
       <c r="C312" t="n">
-        <v>-1.871431350708008</v>
+        <v>0.3180224299430847</v>
       </c>
       <c r="D312" t="n">
-        <v>0.2785694003105164</v>
+        <v>-5.925283908843994</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-2.237567901611328</v>
+        <v>-0.902637779712677</v>
       </c>
       <c r="C313" t="n">
-        <v>-1.812850952148438</v>
+        <v>0.3082979321479797</v>
       </c>
       <c r="D313" t="n">
-        <v>0.3471132218837738</v>
+        <v>-5.918679237365723</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-2.306745529174805</v>
+        <v>-0.985292375087738</v>
       </c>
       <c r="C314" t="n">
-        <v>-1.919862985610962</v>
+        <v>0.3510164618492126</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.03277009725570679</v>
+        <v>-6.096781253814697</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-2.398491382598877</v>
+        <v>-0.8810244202613831</v>
       </c>
       <c r="C315" t="n">
-        <v>-2.057455778121948</v>
+        <v>0.2961865067481995</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.01026433706283569</v>
+        <v>-6.429422855377197</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-2.414394378662109</v>
+        <v>-0.9576920866966248</v>
       </c>
       <c r="C316" t="n">
-        <v>-2.008543014526367</v>
+        <v>0.3460842370986938</v>
       </c>
       <c r="D316" t="n">
-        <v>0.0191202312707901</v>
+        <v>-6.290609359741211</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-2.442245006561279</v>
+        <v>-0.9379882216453552</v>
       </c>
       <c r="C317" t="n">
-        <v>-2.042616367340088</v>
+        <v>0.3388745188713074</v>
       </c>
       <c r="D317" t="n">
-        <v>0.05218672752380371</v>
+        <v>-6.224380016326904</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-2.409902572631836</v>
+        <v>-1.194368600845337</v>
       </c>
       <c r="C318" t="n">
-        <v>-1.923212766647339</v>
+        <v>0.4272457361221313</v>
       </c>
       <c r="D318" t="n">
-        <v>0.01177422702312469</v>
+        <v>-6.050190448760986</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-2.408373355865479</v>
+        <v>-1.220158815383911</v>
       </c>
       <c r="C319" t="n">
-        <v>-1.922966003417969</v>
+        <v>0.4318764805793762</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.05520144104957581</v>
+        <v>-6.014695644378662</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-2.446556091308594</v>
+        <v>-1.208353996276855</v>
       </c>
       <c r="C320" t="n">
-        <v>-1.992838621139526</v>
+        <v>0.4339719414710999</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.1250243186950684</v>
+        <v>-6.123671054840088</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.412835597991943</v>
+        <v>-1.096686840057373</v>
       </c>
       <c r="C321" t="n">
-        <v>-2.046182632446289</v>
+        <v>0.3837676644325256</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.1689418852329254</v>
+        <v>-6.222522735595703</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-2.173102140426636</v>
+        <v>-1.203134775161743</v>
       </c>
       <c r="C322" t="n">
-        <v>-2.120618104934692</v>
+        <v>0.3950747549533844</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.6064908504486084</v>
+        <v>-6.214719295501709</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-2.541050910949707</v>
+        <v>-1.197310090065002</v>
       </c>
       <c r="C323" t="n">
-        <v>-1.982301831245422</v>
+        <v>0.3963699340820312</v>
       </c>
       <c r="D323" t="n">
-        <v>0.02808363735675812</v>
+        <v>-6.373737335205078</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-2.643587350845337</v>
+        <v>-1.121170878410339</v>
       </c>
       <c r="C324" t="n">
-        <v>-1.988691449165344</v>
+        <v>0.3710874319076538</v>
       </c>
       <c r="D324" t="n">
-        <v>0.1617847383022308</v>
+        <v>-6.370479106903076</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-2.725366115570068</v>
+        <v>-1.060842394828796</v>
       </c>
       <c r="C325" t="n">
-        <v>-1.992207527160645</v>
+        <v>0.3312770128250122</v>
       </c>
       <c r="D325" t="n">
-        <v>0.2900927364826202</v>
+        <v>-6.576508522033691</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-2.480508804321289</v>
+        <v>-0.9522877931594849</v>
       </c>
       <c r="C326" t="n">
-        <v>-2.058907270431519</v>
+        <v>0.2591426968574524</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.03677074611186981</v>
+        <v>-6.651262283325195</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-2.469169139862061</v>
+        <v>-1.085020542144775</v>
       </c>
       <c r="C327" t="n">
-        <v>-2.13544774055481</v>
+        <v>0.2954649925231934</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.1358280777931213</v>
+        <v>-6.743603706359863</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-2.615635395050049</v>
+        <v>-1.058050274848938</v>
       </c>
       <c r="C328" t="n">
-        <v>-2.17894983291626</v>
+        <v>0.2849872708320618</v>
       </c>
       <c r="D328" t="n">
-        <v>0.0005656331777572632</v>
+        <v>-7.02955436706543</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-2.488900184631348</v>
+        <v>-1.128614187240601</v>
       </c>
       <c r="C329" t="n">
-        <v>-2.150877952575684</v>
+        <v>0.327105700969696</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.1721897423267365</v>
+        <v>-6.79270076751709</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-2.604295253753662</v>
+        <v>-1.108503818511963</v>
       </c>
       <c r="C330" t="n">
-        <v>-2.055191040039062</v>
+        <v>0.3259174227714539</v>
       </c>
       <c r="D330" t="n">
-        <v>0.1579798758029938</v>
+        <v>-6.657636642456055</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-2.534205436706543</v>
+        <v>-1.112424612045288</v>
       </c>
       <c r="C331" t="n">
-        <v>-2.142470121383667</v>
+        <v>0.3181365132331848</v>
       </c>
       <c r="D331" t="n">
-        <v>0.03808054327964783</v>
+        <v>-6.686495780944824</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-2.381178855895996</v>
+        <v>-1.009638786315918</v>
       </c>
       <c r="C332" t="n">
-        <v>-2.164904832839966</v>
+        <v>0.3196706771850586</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.0172380805015564</v>
+        <v>-6.547873973846436</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-2.321264743804932</v>
+        <v>-0.9787829518318176</v>
       </c>
       <c r="C333" t="n">
-        <v>-2.239456653594971</v>
+        <v>0.2811285257339478</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.260874330997467</v>
+        <v>-6.71135425567627</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-2.469164848327637</v>
+        <v>-1.033058166503906</v>
       </c>
       <c r="C334" t="n">
-        <v>-2.265910387039185</v>
+        <v>0.2591211795806885</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.2004934251308441</v>
+        <v>-6.962543964385986</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-2.665410041809082</v>
+        <v>-1.022841453552246</v>
       </c>
       <c r="C335" t="n">
-        <v>-2.13751482963562</v>
+        <v>0.2667902112007141</v>
       </c>
       <c r="D335" t="n">
-        <v>0.1279686689376831</v>
+        <v>-6.901463508605957</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-2.683248519897461</v>
+        <v>-1.083248019218445</v>
       </c>
       <c r="C336" t="n">
-        <v>-2.137476444244385</v>
+        <v>0.2765693068504333</v>
       </c>
       <c r="D336" t="n">
-        <v>0.1525044441223145</v>
+        <v>-6.96582555770874</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-2.733581781387329</v>
+        <v>-0.950755774974823</v>
       </c>
       <c r="C337" t="n">
-        <v>-2.092743635177612</v>
+        <v>0.2375748157501221</v>
       </c>
       <c r="D337" t="n">
-        <v>0.3346055448055267</v>
+        <v>-6.955479621887207</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-2.597923040390015</v>
+        <v>-1.010716915130615</v>
       </c>
       <c r="C338" t="n">
-        <v>-2.169441223144531</v>
+        <v>0.2594601511955261</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.08003765344619751</v>
+        <v>-7.054333686828613</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-2.592773914337158</v>
+        <v>-1.012130379676819</v>
       </c>
       <c r="C339" t="n">
-        <v>-2.282297372817993</v>
+        <v>0.2612535357475281</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.1368257999420166</v>
+        <v>-7.193798542022705</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-2.60211181640625</v>
+        <v>-1.015432596206665</v>
       </c>
       <c r="C340" t="n">
-        <v>-2.278398990631104</v>
+        <v>0.2607153058052063</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.1236923933029175</v>
+        <v>-7.266891002655029</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-2.511025190353394</v>
+        <v>-1.02187716960907</v>
       </c>
       <c r="C341" t="n">
-        <v>-2.262361526489258</v>
+        <v>0.2494249939918518</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.1726969480514526</v>
+        <v>-7.063094139099121</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-2.614712715148926</v>
+        <v>-0.9374411702156067</v>
       </c>
       <c r="C342" t="n">
-        <v>-2.213142395019531</v>
+        <v>0.2266518473625183</v>
       </c>
       <c r="D342" t="n">
-        <v>0.1321849524974823</v>
+        <v>-7.038081169128418</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-2.555770874023438</v>
+        <v>-0.9124020934104919</v>
       </c>
       <c r="C343" t="n">
-        <v>-2.264504671096802</v>
+        <v>0.2143266201019287</v>
       </c>
       <c r="D343" t="n">
-        <v>0.03512988984584808</v>
+        <v>-7.020358085632324</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-2.51997447013855</v>
+        <v>-1.003275871276855</v>
       </c>
       <c r="C344" t="n">
-        <v>-2.214085817337036</v>
+        <v>0.2470596432685852</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.06083548069000244</v>
+        <v>-6.945795059204102</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-2.491179227828979</v>
+        <v>-1.082273244857788</v>
       </c>
       <c r="C345" t="n">
-        <v>-2.310540914535522</v>
+        <v>0.2747820019721985</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.3162297010421753</v>
+        <v>-7.123351097106934</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-2.48624324798584</v>
+        <v>-1.152483820915222</v>
       </c>
       <c r="C346" t="n">
-        <v>-2.31262993812561</v>
+        <v>0.3065203428268433</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.4424098134040833</v>
+        <v>-7.164961338043213</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-2.837289571762085</v>
+        <v>-1.278038263320923</v>
       </c>
       <c r="C347" t="n">
-        <v>-2.210832118988037</v>
+        <v>0.3460022211074829</v>
       </c>
       <c r="D347" t="n">
-        <v>0.02249923348426819</v>
+        <v>-7.172028064727783</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-3.008249759674072</v>
+        <v>-1.475731134414673</v>
       </c>
       <c r="C348" t="n">
-        <v>-2.347636461257935</v>
+        <v>0.4407371878623962</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.1691657602787018</v>
+        <v>-7.275474071502686</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.3502516746521</v>
+        <v>-1.579822540283203</v>
       </c>
       <c r="C349" t="n">
-        <v>-2.276846885681152</v>
+        <v>0.4530661702156067</v>
       </c>
       <c r="D349" t="n">
-        <v>0.1589559018611908</v>
+        <v>-7.200299739837646</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-3.292062997817993</v>
+        <v>-1.618324398994446</v>
       </c>
       <c r="C350" t="n">
-        <v>-2.295642137527466</v>
+        <v>0.4680302143096924</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.08046305179595947</v>
+        <v>-7.232016563415527</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-3.254727363586426</v>
+        <v>-1.666176199913025</v>
       </c>
       <c r="C351" t="n">
-        <v>-2.533278465270996</v>
+        <v>0.5305423736572266</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.5498568415641785</v>
+        <v>-7.503564834594727</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-3.534369945526123</v>
+        <v>-1.691077709197998</v>
       </c>
       <c r="C352" t="n">
-        <v>-2.389901161193848</v>
+        <v>0.5025724768638611</v>
       </c>
       <c r="D352" t="n">
-        <v>0.01655122637748718</v>
+        <v>-7.538026809692383</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-3.234797954559326</v>
+        <v>-1.561377763748169</v>
       </c>
       <c r="C353" t="n">
-        <v>-2.449452877044678</v>
+        <v>0.4758744835853577</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.2841647267341614</v>
+        <v>-7.487125396728516</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-3.284411668777466</v>
+        <v>-1.54912805557251</v>
       </c>
       <c r="C354" t="n">
-        <v>-2.409777641296387</v>
+        <v>0.4546030163764954</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.08529525995254517</v>
+        <v>-7.443355560302734</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-3.136746883392334</v>
+        <v>-1.638885736465454</v>
       </c>
       <c r="C355" t="n">
-        <v>-2.348824501037598</v>
+        <v>0.4869519770145416</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.1238603293895721</v>
+        <v>-7.312386512756348</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-3.223153352737427</v>
+        <v>-1.740032315254211</v>
       </c>
       <c r="C356" t="n">
-        <v>-2.352092504501343</v>
+        <v>0.4999590218067169</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.2237012386322021</v>
+        <v>-7.268295288085938</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-3.182234287261963</v>
+        <v>-1.821980714797974</v>
       </c>
       <c r="C357" t="n">
-        <v>-2.498837232589722</v>
+        <v>0.5735290050506592</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.4982409477233887</v>
+        <v>-7.442879199981689</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-3.201371192932129</v>
+        <v>-1.909203767776489</v>
       </c>
       <c r="C358" t="n">
-        <v>-2.529603242874146</v>
+        <v>0.6262715458869934</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.6034591794013977</v>
+        <v>-7.49436092376709</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-3.315505027770996</v>
+        <v>-1.812074303627014</v>
       </c>
       <c r="C359" t="n">
-        <v>-2.444647073745728</v>
+        <v>0.547189474105835</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.2805695235729218</v>
+        <v>-7.497573852539062</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-3.476534843444824</v>
+        <v>-1.874800324440002</v>
       </c>
       <c r="C360" t="n">
-        <v>-2.456791639328003</v>
+        <v>0.5506057143211365</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.1297415494918823</v>
+        <v>-7.539796829223633</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-3.568724632263184</v>
+        <v>-1.9075026512146</v>
       </c>
       <c r="C361" t="n">
-        <v>-2.442293882369995</v>
+        <v>0.549589991569519</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.007144838571548462</v>
+        <v>-7.427273273468018</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-3.620471715927124</v>
+        <v>-1.98915696144104</v>
       </c>
       <c r="C362" t="n">
-        <v>-2.612154722213745</v>
+        <v>0.6035434603691101</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.4466574788093567</v>
+        <v>-7.914018630981445</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-3.628730058670044</v>
+        <v>-2.099937677383423</v>
       </c>
       <c r="C363" t="n">
-        <v>-2.81796669960022</v>
+        <v>0.672421932220459</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.642545759677887</v>
+        <v>-8.046821594238281</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-3.63586688041687</v>
+        <v>-1.998865842819214</v>
       </c>
       <c r="C364" t="n">
-        <v>-2.57986307144165</v>
+        <v>0.6014983654022217</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.2239668071269989</v>
+        <v>-7.937265872955322</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-3.454917192459106</v>
+        <v>-1.800820350646973</v>
       </c>
       <c r="C365" t="n">
-        <v>-2.639799118041992</v>
+        <v>0.5085097551345825</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.3402077555656433</v>
+        <v>-7.867038726806641</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-3.497774124145508</v>
+        <v>-1.786612033843994</v>
       </c>
       <c r="C366" t="n">
-        <v>-2.578412294387817</v>
+        <v>0.4901164174079895</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.1520774066448212</v>
+        <v>-7.816474914550781</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-3.450069904327393</v>
+        <v>-1.841641545295715</v>
       </c>
       <c r="C367" t="n">
-        <v>-2.581659317016602</v>
+        <v>0.5079249143600464</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.178467869758606</v>
+        <v>-7.791996479034424</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-3.512839317321777</v>
+        <v>-1.941617131233215</v>
       </c>
       <c r="C368" t="n">
-        <v>-2.723312139511108</v>
+        <v>0.5752145051956177</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.4692836403846741</v>
+        <v>-7.972770214080811</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-3.523588180541992</v>
+        <v>-1.841060519218445</v>
       </c>
       <c r="C369" t="n">
-        <v>-2.736291170120239</v>
+        <v>0.5296913981437683</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.4265958070755005</v>
+        <v>-8.006516456604004</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-3.433269739151001</v>
+        <v>-1.819372415542603</v>
       </c>
       <c r="C370" t="n">
-        <v>-3.059682846069336</v>
+        <v>0.5418181419372559</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.9485727548599243</v>
+        <v>-8.341657638549805</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-3.551695108413696</v>
+        <v>-1.862550616264343</v>
       </c>
       <c r="C371" t="n">
-        <v>-2.745568513870239</v>
+        <v>0.5095704197883606</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.2614069283008575</v>
+        <v>-8.188445091247559</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-3.514050483703613</v>
+        <v>-1.827571511268616</v>
       </c>
       <c r="C372" t="n">
-        <v>-2.696582317352295</v>
+        <v>0.479572594165802</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.1801724433898926</v>
+        <v>-8.039278030395508</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-3.763575553894043</v>
+        <v>-1.791316270828247</v>
       </c>
       <c r="C373" t="n">
-        <v>-2.896888732910156</v>
+        <v>0.4755104780197144</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.1811582446098328</v>
+        <v>-8.397740364074707</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-4.011786937713623</v>
+        <v>-1.740904569625854</v>
       </c>
       <c r="C374" t="n">
-        <v>-3.273080587387085</v>
+        <v>0.4330004453659058</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.4145601987838745</v>
+        <v>-9.133606910705566</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-3.73552393913269</v>
+        <v>-1.781842231750488</v>
       </c>
       <c r="C375" t="n">
-        <v>-3.173118114471436</v>
+        <v>0.4506347179412842</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.4265236854553223</v>
+        <v>-8.796552658081055</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-3.708231925964355</v>
+        <v>-1.815465688705444</v>
       </c>
       <c r="C376" t="n">
-        <v>-3.058495044708252</v>
+        <v>0.460157573223114</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.3476815819740295</v>
+        <v>-8.670164108276367</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-3.831758737564087</v>
+        <v>-1.889722585678101</v>
       </c>
       <c r="C377" t="n">
-        <v>-3.209208726882935</v>
+        <v>0.4994444847106934</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.4630473256111145</v>
+        <v>-8.89942455291748</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-3.870420455932617</v>
+        <v>-1.812089204788208</v>
       </c>
       <c r="C378" t="n">
-        <v>-3.017356395721436</v>
+        <v>0.4377190470695496</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.09151279926300049</v>
+        <v>-8.70006275177002</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-3.773553848266602</v>
+        <v>-1.941744565963745</v>
       </c>
       <c r="C379" t="n">
-        <v>-3.041189432144165</v>
+        <v>0.510673463344574</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.2710011303424835</v>
+        <v>-8.624316215515137</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-3.832511425018311</v>
+        <v>-1.848501920700073</v>
       </c>
       <c r="C380" t="n">
-        <v>-3.346112489700317</v>
+        <v>0.481698215007782</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.63433837890625</v>
+        <v>-9.05610179901123</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-3.915101289749146</v>
+        <v>-1.888013124465942</v>
       </c>
       <c r="C381" t="n">
-        <v>-3.438246488571167</v>
+        <v>0.5033053159713745</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.7017694115638733</v>
+        <v>-9.202729225158691</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-3.816556453704834</v>
+        <v>-1.898915529251099</v>
       </c>
       <c r="C382" t="n">
-        <v>-3.340951919555664</v>
+        <v>0.520129919052124</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.6394565105438232</v>
+        <v>-9.099467277526855</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-4.020495891571045</v>
+        <v>-1.970018625259399</v>
       </c>
       <c r="C383" t="n">
-        <v>-3.353979825973511</v>
+        <v>0.5371930003166199</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.4121282696723938</v>
+        <v>-9.25239372253418</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-4.033719539642334</v>
+        <v>-1.813382506370544</v>
       </c>
       <c r="C384" t="n">
-        <v>-3.117347955703735</v>
+        <v>0.4477516412734985</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.03716015815734863</v>
+        <v>-8.939135551452637</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-4.547203540802002</v>
+        <v>-1.71342396736145</v>
       </c>
       <c r="C385" t="n">
-        <v>-3.526153564453125</v>
+        <v>0.4233477115631104</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.05191713571548462</v>
+        <v>-9.75924015045166</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-5.045166492462158</v>
+        <v>-1.830009341239929</v>
       </c>
       <c r="C386" t="n">
-        <v>-3.938167333602905</v>
+        <v>0.5066019296646118</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.2462535202503204</v>
+        <v>-10.97765064239502</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-5.027435302734375</v>
+        <v>-1.946063876152039</v>
       </c>
       <c r="C387" t="n">
-        <v>-4.160058498382568</v>
+        <v>0.5507201552391052</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.6223751306533813</v>
+        <v>-10.97723293304443</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-4.33296012878418</v>
+        <v>-1.708024978637695</v>
       </c>
       <c r="C388" t="n">
-        <v>-3.514479875564575</v>
+        <v>0.4052678942680359</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.1663287281990051</v>
+        <v>-9.721755981445312</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-4.356147289276123</v>
+        <v>-1.644236087799072</v>
       </c>
       <c r="C389" t="n">
-        <v>-3.736922740936279</v>
+        <v>0.3817595243453979</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.3876972198486328</v>
+        <v>-10.03833675384521</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-4.265866756439209</v>
+        <v>-1.614648818969727</v>
       </c>
       <c r="C390" t="n">
-        <v>-3.46579384803772</v>
+        <v>0.3359338045120239</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.04794949293136597</v>
+        <v>-9.610244750976562</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-4.220057964324951</v>
+        <v>-1.575404524803162</v>
       </c>
       <c r="C391" t="n">
-        <v>-3.612068653106689</v>
+        <v>0.3231202363967896</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.2408273816108704</v>
+        <v>-9.778453826904297</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-4.371411800384521</v>
+        <v>-1.787033796310425</v>
       </c>
       <c r="C392" t="n">
-        <v>-3.777753829956055</v>
+        <v>0.4591764211654663</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.5053251981735229</v>
+        <v>-10.10995101928711</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-5.1239914894104</v>
+        <v>-1.934411406517029</v>
       </c>
       <c r="C393" t="n">
-        <v>-4.324838638305664</v>
+        <v>0.5419895052909851</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.778063952922821</v>
+        <v>-11.24675464630127</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-5.149536609649658</v>
+        <v>-1.939354538917542</v>
       </c>
       <c r="C394" t="n">
-        <v>-4.512418746948242</v>
+        <v>0.5374817252159119</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.9346752166748047</v>
+        <v>-11.50688648223877</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-4.302934169769287</v>
+        <v>-1.806238412857056</v>
       </c>
       <c r="C395" t="n">
-        <v>-3.584212779998779</v>
+        <v>0.416186511516571</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.1938196420669556</v>
+        <v>-9.800455093383789</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-4.361277103424072</v>
+        <v>-2.026891231536865</v>
       </c>
       <c r="C396" t="n">
-        <v>-3.466722249984741</v>
+        <v>0.5082553029060364</v>
       </c>
       <c r="D396" t="n">
-        <v>-0.1199701130390167</v>
+        <v>-9.598685264587402</v>
       </c>
     </row>
     <row r="397">
@@ -5979,13 +5979,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>-5.074654102325439</v>
+        <v>-2.158083915710449</v>
       </c>
       <c r="C397" t="n">
-        <v>-3.887997150421143</v>
+        <v>0.5886712670326233</v>
       </c>
       <c r="D397" t="n">
-        <v>-0.1301887631416321</v>
+        <v>-10.63436508178711</v>
       </c>
     </row>
     <row r="398">
@@ -5993,13 +5993,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>-4.959993839263916</v>
+        <v>-2.214350700378418</v>
       </c>
       <c r="C398" t="n">
-        <v>-4.060990810394287</v>
+        <v>0.6749160289764404</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.5937773585319519</v>
+        <v>-10.89661502838135</v>
       </c>
     </row>
     <row r="399">
@@ -6007,13 +6007,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>-4.656467914581299</v>
+        <v>-2.132187366485596</v>
       </c>
       <c r="C399" t="n">
-        <v>-3.95496654510498</v>
+        <v>0.6086463928222656</v>
       </c>
       <c r="D399" t="n">
-        <v>-0.5940384864807129</v>
+        <v>-10.43430233001709</v>
       </c>
     </row>
     <row r="400">
@@ -6021,13 +6021,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>-4.727467060089111</v>
+        <v>-2.095312595367432</v>
       </c>
       <c r="C400" t="n">
-        <v>-3.960944890975952</v>
+        <v>0.6034170985221863</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.5491486787796021</v>
+        <v>-10.50069713592529</v>
       </c>
     </row>
     <row r="401">
@@ -6035,13 +6035,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>-4.575474262237549</v>
+        <v>-2.001656532287598</v>
       </c>
       <c r="C401" t="n">
-        <v>-3.908063411712646</v>
+        <v>0.545265793800354</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.5316681265830994</v>
+        <v>-10.3121337890625</v>
       </c>
     </row>
     <row r="402">
@@ -6049,13 +6049,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>-4.734140396118164</v>
+        <v>-2.208877086639404</v>
       </c>
       <c r="C402" t="n">
-        <v>-3.840267896652222</v>
+        <v>0.632067084312439</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.3818541169166565</v>
+        <v>-10.21764087677002</v>
       </c>
     </row>
     <row r="403">
@@ -6063,13 +6063,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>-4.683387279510498</v>
+        <v>-2.209548950195312</v>
       </c>
       <c r="C403" t="n">
-        <v>-4.011436462402344</v>
+        <v>0.6437557339668274</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.6163153052330017</v>
+        <v>-10.59135818481445</v>
       </c>
     </row>
     <row r="404">
@@ -6077,13 +6077,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>-4.62199878692627</v>
+        <v>-2.176867008209229</v>
       </c>
       <c r="C404" t="n">
-        <v>-3.93140435218811</v>
+        <v>0.6208174228668213</v>
       </c>
       <c r="D404" t="n">
-        <v>-0.5635579228401184</v>
+        <v>-10.38899707794189</v>
       </c>
     </row>
     <row r="405">
@@ -6091,13 +6091,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>-4.754285335540771</v>
+        <v>-2.35165810585022</v>
       </c>
       <c r="C405" t="n">
-        <v>-3.936844825744629</v>
+        <v>0.7131122350692749</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.5803984403610229</v>
+        <v>-10.43186092376709</v>
       </c>
     </row>
     <row r="406">
@@ -6105,13 +6105,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>-4.774770736694336</v>
+        <v>-2.441922187805176</v>
       </c>
       <c r="C406" t="n">
-        <v>-3.956835031509399</v>
+        <v>0.770479679107666</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.6738795042037964</v>
+        <v>-10.52814388275146</v>
       </c>
     </row>
     <row r="407">
@@ -6119,13 +6119,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>-4.846818447113037</v>
+        <v>-2.401368379592896</v>
       </c>
       <c r="C407" t="n">
-        <v>-3.90156078338623</v>
+        <v>0.7390868663787842</v>
       </c>
       <c r="D407" t="n">
-        <v>-0.4806560873985291</v>
+        <v>-10.51283836364746</v>
       </c>
     </row>
     <row r="408">
@@ -6133,13 +6133,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>-4.937140941619873</v>
+        <v>-2.360230207443237</v>
       </c>
       <c r="C408" t="n">
-        <v>-3.981662511825562</v>
+        <v>0.7119290232658386</v>
       </c>
       <c r="D408" t="n">
-        <v>-0.4311306476593018</v>
+        <v>-10.67042827606201</v>
       </c>
     </row>
     <row r="409">
@@ -6147,13 +6147,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>-5.082876682281494</v>
+        <v>-2.23407506942749</v>
       </c>
       <c r="C409" t="n">
-        <v>-4.066071033477783</v>
+        <v>0.6358333826065063</v>
       </c>
       <c r="D409" t="n">
-        <v>-0.2447609901428223</v>
+        <v>-10.80656147003174</v>
       </c>
     </row>
     <row r="410">
@@ -6161,13 +6161,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>-5.482404232025146</v>
+        <v>-2.772974729537964</v>
       </c>
       <c r="C410" t="n">
-        <v>-4.451139450073242</v>
+        <v>0.9325848817825317</v>
       </c>
       <c r="D410" t="n">
-        <v>-0.508371889591217</v>
+        <v>-12.10434818267822</v>
       </c>
     </row>
     <row r="411">
@@ -6175,13 +6175,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>-5.270910739898682</v>
+        <v>-2.868045091629028</v>
       </c>
       <c r="C411" t="n">
-        <v>-4.249159336090088</v>
+        <v>0.9544134140014648</v>
       </c>
       <c r="D411" t="n">
-        <v>-0.4517608284950256</v>
+        <v>-11.56029987335205</v>
       </c>
     </row>
     <row r="412">
@@ -6189,13 +6189,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>-5.521288394927979</v>
+        <v>-3.394580602645874</v>
       </c>
       <c r="C412" t="n">
-        <v>-4.136650562286377</v>
+        <v>1.206739068031311</v>
       </c>
       <c r="D412" t="n">
-        <v>-0.5923247933387756</v>
+        <v>-11.65303421020508</v>
       </c>
     </row>
     <row r="413">
@@ -6203,13 +6203,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>-5.342553615570068</v>
+        <v>-3.545089960098267</v>
       </c>
       <c r="C413" t="n">
-        <v>-4.049121856689453</v>
+        <v>1.299410700798035</v>
       </c>
       <c r="D413" t="n">
-        <v>-0.8233290910720825</v>
+        <v>-11.35104465484619</v>
       </c>
     </row>
     <row r="414">
@@ -6217,13 +6217,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>-5.259994029998779</v>
+        <v>-3.235825300216675</v>
       </c>
       <c r="C414" t="n">
-        <v>-4.195657730102539</v>
+        <v>1.156071901321411</v>
       </c>
       <c r="D414" t="n">
-        <v>-0.7401689887046814</v>
+        <v>-11.49640560150146</v>
       </c>
     </row>
     <row r="415">
@@ -6231,13 +6231,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>-5.224829196929932</v>
+        <v>-3.181028842926025</v>
       </c>
       <c r="C415" t="n">
-        <v>-4.335406303405762</v>
+        <v>1.128128170967102</v>
       </c>
       <c r="D415" t="n">
-        <v>-0.8066786527633667</v>
+        <v>-11.75447368621826</v>
       </c>
     </row>
     <row r="416">
@@ -6245,13 +6245,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>-5.176108837127686</v>
+        <v>-3.159692287445068</v>
       </c>
       <c r="C416" t="n">
-        <v>-4.378766059875488</v>
+        <v>1.122667908668518</v>
       </c>
       <c r="D416" t="n">
-        <v>-0.8617846965789795</v>
+        <v>-11.85453224182129</v>
       </c>
     </row>
     <row r="417">
@@ -6259,13 +6259,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>-5.794223308563232</v>
+        <v>-3.290427446365356</v>
       </c>
       <c r="C417" t="n">
-        <v>-4.854811191558838</v>
+        <v>1.196242928504944</v>
       </c>
       <c r="D417" t="n">
-        <v>-1.042813301086426</v>
+        <v>-12.83876037597656</v>
       </c>
     </row>
     <row r="418">
@@ -6273,13 +6273,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>-5.675280570983887</v>
+        <v>-3.289901733398438</v>
       </c>
       <c r="C418" t="n">
-        <v>-4.786156177520752</v>
+        <v>1.187482237815857</v>
       </c>
       <c r="D418" t="n">
-        <v>-1.060848355293274</v>
+        <v>-12.62987995147705</v>
       </c>
     </row>
     <row r="419">
@@ -6287,13 +6287,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>-6.023550987243652</v>
+        <v>-3.477007389068604</v>
       </c>
       <c r="C419" t="n">
-        <v>-4.863699436187744</v>
+        <v>1.310665369033813</v>
       </c>
       <c r="D419" t="n">
-        <v>-1.052384257316589</v>
+        <v>-13.15610122680664</v>
       </c>
     </row>
     <row r="420">
@@ -6301,13 +6301,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>-6.23710298538208</v>
+        <v>-3.260258674621582</v>
       </c>
       <c r="C420" t="n">
-        <v>-5.0879225730896</v>
+        <v>1.184779405593872</v>
       </c>
       <c r="D420" t="n">
-        <v>-0.9357666969299316</v>
+        <v>-13.31998729705811</v>
       </c>
     </row>
     <row r="421">
@@ -6315,13 +6315,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>-6.387603282928467</v>
+        <v>-3.139800310134888</v>
       </c>
       <c r="C421" t="n">
-        <v>-5.0715012550354</v>
+        <v>1.119454741477966</v>
       </c>
       <c r="D421" t="n">
-        <v>-0.7237751483917236</v>
+        <v>-13.42230415344238</v>
       </c>
     </row>
     <row r="422">
@@ -6329,13 +6329,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>-7.579859733581543</v>
+        <v>-3.297273635864258</v>
       </c>
       <c r="C422" t="n">
-        <v>-5.95482349395752</v>
+        <v>1.156440138816833</v>
       </c>
       <c r="D422" t="n">
-        <v>-1.162830352783203</v>
+        <v>-15.11985492706299</v>
       </c>
     </row>
     <row r="423">
@@ -6343,13 +6343,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>-7.717251300811768</v>
+        <v>-3.222259521484375</v>
       </c>
       <c r="C423" t="n">
-        <v>-6.232860565185547</v>
+        <v>1.094798564910889</v>
       </c>
       <c r="D423" t="n">
-        <v>-1.316927194595337</v>
+        <v>-15.45481014251709</v>
       </c>
     </row>
     <row r="424">
@@ -6357,13 +6357,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>-7.94843053817749</v>
+        <v>-3.312263011932373</v>
       </c>
       <c r="C424" t="n">
-        <v>-6.326705932617188</v>
+        <v>1.126733064651489</v>
       </c>
       <c r="D424" t="n">
-        <v>-1.28244161605835</v>
+        <v>-15.71678256988525</v>
       </c>
     </row>
     <row r="425">
@@ -6371,13 +6371,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>-7.914233684539795</v>
+        <v>-3.198731899261475</v>
       </c>
       <c r="C425" t="n">
-        <v>-6.373774528503418</v>
+        <v>1.048068642616272</v>
       </c>
       <c r="D425" t="n">
-        <v>-1.269050359725952</v>
+        <v>-15.75396823883057</v>
       </c>
     </row>
     <row r="426">
@@ -6385,13 +6385,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>-8.093216896057129</v>
+        <v>-3.189459323883057</v>
       </c>
       <c r="C426" t="n">
-        <v>-6.474832534790039</v>
+        <v>1.033436417579651</v>
       </c>
       <c r="D426" t="n">
-        <v>-1.19321608543396</v>
+        <v>-16.00636100769043</v>
       </c>
     </row>
     <row r="427">
@@ -6399,13 +6399,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>-7.8716721534729</v>
+        <v>-3.030267715454102</v>
       </c>
       <c r="C427" t="n">
-        <v>-6.371495723724365</v>
+        <v>0.955898106098175</v>
       </c>
       <c r="D427" t="n">
-        <v>-1.145644903182983</v>
+        <v>-15.753737449646</v>
       </c>
     </row>
     <row r="428">
@@ -6413,13 +6413,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>-8.035265922546387</v>
+        <v>-3.094051837921143</v>
       </c>
       <c r="C428" t="n">
-        <v>-6.49672794342041</v>
+        <v>0.9862279891967773</v>
       </c>
       <c r="D428" t="n">
-        <v>-1.180260419845581</v>
+        <v>-16.02207946777344</v>
       </c>
     </row>
     <row r="429">
@@ -6427,13 +6427,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>-7.999698162078857</v>
+        <v>-3.178273677825928</v>
       </c>
       <c r="C429" t="n">
-        <v>-6.43895435333252</v>
+        <v>1.029640674591064</v>
       </c>
       <c r="D429" t="n">
-        <v>-1.176268339157104</v>
+        <v>-15.95858955383301</v>
       </c>
     </row>
     <row r="430">
@@ -6441,13 +6441,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>-7.924325942993164</v>
+        <v>-3.103069305419922</v>
       </c>
       <c r="C430" t="n">
-        <v>-6.456803321838379</v>
+        <v>0.9987704157829285</v>
       </c>
       <c r="D430" t="n">
-        <v>-1.191134095191956</v>
+        <v>-15.96787643432617</v>
       </c>
     </row>
     <row r="431">
@@ -6455,13 +6455,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>-8.315114974975586</v>
+        <v>-2.987564325332642</v>
       </c>
       <c r="C431" t="n">
-        <v>-6.689630508422852</v>
+        <v>0.9138829112052917</v>
       </c>
       <c r="D431" t="n">
-        <v>-1.048101782798767</v>
+        <v>-16.50567436218262</v>
       </c>
     </row>
     <row r="432">
@@ -6469,13 +6469,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>-8.31031322479248</v>
+        <v>-3.17090892791748</v>
       </c>
       <c r="C432" t="n">
-        <v>-6.497828006744385</v>
+        <v>0.9816749691963196</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.921269416809082</v>
+        <v>-16.25582885742188</v>
       </c>
     </row>
   </sheetData>
